--- a/propre.xlsx
+++ b/propre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\ATCR-TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B82B5DE-2226-4E4F-8B29-14EBC14C5187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FE42E5-F074-47F4-A47E-9CC53DEA67DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{47FD59A7-3964-46FC-BE03-C6B259F3D8B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{47FD59A7-3964-46FC-BE03-C6B259F3D8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="QUESTION 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="46">
   <si>
     <t>Années</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>SRG célibataire (2019)</t>
+  </si>
+  <si>
+    <t>Signification des couleurs</t>
   </si>
   <si>
     <t>Exclusion de certaines années de la période cotisable</t>
@@ -139,6 +142,36 @@
   </si>
   <si>
     <t>Elle aura droit à 65 ans: RRQ, PSV, SRG.</t>
+  </si>
+  <si>
+    <t>Autres calculs</t>
+  </si>
+  <si>
+    <t>Indexation de la rente de la RRQ</t>
+  </si>
+  <si>
+    <t>Inflation par année</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indexation de la PSV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indexation de la SRG célibataire </t>
+  </si>
+  <si>
+    <t>Diminution de la SRG selon les autres revenus</t>
+  </si>
+  <si>
+    <t>*Les premiers 3500$ du revenu de Virginie ne sont</t>
+  </si>
+  <si>
+    <t>pas pris en compte pour la diminution de la SRG.</t>
+  </si>
+  <si>
+    <t>Période cotisable (en années, 18 à 65 ans)</t>
+  </si>
+  <si>
+    <t>Elle aura droit à la rente de la RRQ, la PSV et la SRG.</t>
   </si>
 </sst>
 </file>
@@ -211,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -581,13 +614,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -695,6 +831,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -730,6 +867,36 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1053,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D97A01-C9B7-4676-858F-079C6C4177D4}">
   <dimension ref="B1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1245,7 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="48" t="s">
@@ -1091,17 +1258,17 @@
         <v>3</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58">
+      <c r="B3" s="59">
         <v>2019</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="56">
         <v>59</v>
       </c>
       <c r="D3" s="43">
@@ -1112,33 +1279,33 @@
         <v>57400</v>
       </c>
       <c r="G3" s="35">
-        <f>D3*($O$8/E3)</f>
+        <f>D3*($O$9/E3)</f>
         <v>44991.767880938263</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O3" s="26"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="59">
+      <c r="B4" s="60">
         <v>2018</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="57">
         <v>58</v>
       </c>
       <c r="D4" s="44">
         <v>46671</v>
       </c>
       <c r="E4" s="29">
-        <f>E3/1.0275</f>
+        <f>E3/(1+$O$6)</f>
         <v>55863.746958637465</v>
       </c>
       <c r="G4" s="36">
-        <f t="shared" ref="G4:G62" si="0">D4*($O$8/E4)</f>
+        <f t="shared" ref="G4:G62" si="0">D4*($O$9/E4)</f>
         <v>45455.333690171778</v>
       </c>
       <c r="K4" s="11" t="s">
@@ -1155,17 +1322,17 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="59">
+      <c r="B5" s="60">
         <v>2017</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="57">
         <v>57</v>
       </c>
       <c r="D5" s="44">
         <v>46323.45</v>
       </c>
       <c r="E5" s="29">
-        <f t="shared" ref="E5:E62" si="1">E4/1.0275</f>
+        <f t="shared" ref="E5:E62" si="1">E4/(1+$O$6)</f>
         <v>54368.610178722593</v>
       </c>
       <c r="G5" s="36">
@@ -1176,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="L5" s="27">
-        <f>O14</f>
+        <f>O15</f>
         <v>7771.7016232223687</v>
       </c>
       <c r="N5" s="12" t="s">
@@ -1187,10 +1354,10 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="59">
+      <c r="B6" s="60">
         <v>2016</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="57">
         <v>56</v>
       </c>
       <c r="D6" s="44">
@@ -1211,17 +1378,17 @@
         <v>0</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="27">
-        <v>10779.84</v>
+        <v>38</v>
+      </c>
+      <c r="O6" s="70">
+        <v>2.75E-2</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="59">
+      <c r="B7" s="60">
         <v>2015</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="57">
         <v>55</v>
       </c>
       <c r="D7" s="44">
@@ -1242,82 +1409,81 @@
         <v>0</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="30">
+        <v>16</v>
+      </c>
+      <c r="O7" s="27">
+        <v>10779.84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="60">
+        <v>2014</v>
+      </c>
+      <c r="C8" s="57">
+        <v>54</v>
+      </c>
+      <c r="D8" s="44">
+        <v>43811.159999999996</v>
+      </c>
+      <c r="E8" s="29">
+        <f t="shared" si="1"/>
+        <v>50119.039527385365</v>
+      </c>
+      <c r="G8" s="36">
+        <f t="shared" si="0"/>
+        <v>47560.873069925779</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="30">
         <f>60-18</f>
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="59">
-        <v>2014</v>
-      </c>
-      <c r="C8" s="56">
-        <v>54</v>
-      </c>
-      <c r="D8" s="44">
-        <v>43811.159999999996</v>
-      </c>
-      <c r="E8" s="29">
-        <f t="shared" si="1"/>
-        <v>50119.039527385365</v>
-      </c>
-      <c r="G8" s="36">
-        <f t="shared" si="0"/>
-        <v>47560.873069925779</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="27">
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="60">
+        <v>2013</v>
+      </c>
+      <c r="C9" s="57">
+        <v>53</v>
+      </c>
+      <c r="D9" s="44">
+        <v>42699</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="1"/>
+        <v>48777.654041250957</v>
+      </c>
+      <c r="G9" s="36">
+        <f t="shared" si="0"/>
+        <v>47628.247380144974</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="27">
         <f>AVERAGE(E3:E7)</f>
         <v>54408.631895356535</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="59">
-        <v>2013</v>
-      </c>
-      <c r="C9" s="56">
-        <v>53</v>
-      </c>
-      <c r="D9" s="44">
-        <v>42699</v>
-      </c>
-      <c r="E9" s="29">
-        <f t="shared" si="1"/>
-        <v>48777.654041250957</v>
-      </c>
-      <c r="G9" s="36">
-        <f t="shared" si="0"/>
-        <v>47628.247380144974</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="19">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="38">
-        <f>O7-7</f>
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="59">
+      <c r="B10" s="60">
         <v>2012</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="57">
         <v>52</v>
       </c>
       <c r="D10" s="44">
@@ -1334,23 +1500,23 @@
       <c r="K10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="67">
+      <c r="L10" s="68">
         <f>L5</f>
         <v>7771.7016232223687</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="30">
-        <f>O9*0.15</f>
-        <v>5.25</v>
+      <c r="O10" s="38">
+        <f>O8-7</f>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="59">
+      <c r="B11" s="60">
         <v>2011</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="57">
         <v>51</v>
       </c>
       <c r="D11" s="44">
@@ -1372,44 +1538,44 @@
         <v>0.16373403833576392</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="66">
+        <v>24</v>
+      </c>
+      <c r="O11" s="30">
+        <f>O10*0.15</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="60">
+        <v>2010</v>
+      </c>
+      <c r="C12" s="57">
+        <v>50</v>
+      </c>
+      <c r="D12" s="44">
+        <v>40812.300000000003</v>
+      </c>
+      <c r="E12" s="29">
+        <f t="shared" si="1"/>
+        <v>44965.084869933373</v>
+      </c>
+      <c r="G12" s="36">
+        <f t="shared" si="0"/>
+        <v>49383.681003294638</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="67">
         <f>AVERAGE(G3:G24,G32:G39)</f>
         <v>46398.218646103698</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="59">
-        <v>2010</v>
-      </c>
-      <c r="C12" s="56">
-        <v>50</v>
-      </c>
-      <c r="D12" s="44">
-        <v>40812.300000000003</v>
-      </c>
-      <c r="E12" s="29">
-        <f t="shared" si="1"/>
-        <v>44965.084869933373</v>
-      </c>
-      <c r="G12" s="36">
-        <f t="shared" si="0"/>
-        <v>49383.681003294638</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="66">
-        <f>O11*0.25</f>
-        <v>11599.554661525925</v>
-      </c>
-    </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="59">
+      <c r="B13" s="60">
         <v>2009</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="57">
         <v>49</v>
       </c>
       <c r="D13" s="44">
@@ -1424,50 +1590,50 @@
         <v>49902.209653829217</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="67">
+        <f>O12*0.25</f>
+        <v>11599.554661525925</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="60">
+        <v>2008</v>
+      </c>
+      <c r="C14" s="57">
+        <v>48</v>
+      </c>
+      <c r="D14" s="44">
+        <v>39620.699999999997</v>
+      </c>
+      <c r="E14" s="29">
+        <f t="shared" si="1"/>
+        <v>42590.403675027614</v>
+      </c>
+      <c r="G14" s="36">
+        <f t="shared" si="0"/>
+        <v>50614.877900308013</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="38">
+      <c r="O14" s="38">
         <f>0.55*60</f>
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="59">
-        <v>2008</v>
-      </c>
-      <c r="C14" s="56">
-        <v>48</v>
-      </c>
-      <c r="D14" s="44">
-        <v>39620.699999999997</v>
-      </c>
-      <c r="E14" s="29">
-        <f t="shared" si="1"/>
-        <v>42590.403675027614</v>
-      </c>
-      <c r="G14" s="36">
-        <f t="shared" si="0"/>
-        <v>50614.877900308013</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="28">
-        <f>O12*(1-O13/100)</f>
-        <v>7771.7016232223687</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="59">
+    <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="60">
         <v>2007</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="57">
         <v>47</v>
       </c>
       <c r="D15" s="44">
@@ -1481,14 +1647,19 @@
         <f t="shared" si="0"/>
         <v>50885.838750420946</v>
       </c>
-      <c r="N15" s="52"/>
-      <c r="O15" s="65"/>
+      <c r="N15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="28">
+        <f>O13*(1-O14/100)</f>
+        <v>7771.7016232223687</v>
+      </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="59">
+      <c r="B16" s="60">
         <v>2006</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="57">
         <v>46</v>
       </c>
       <c r="D16" s="44">
@@ -1503,13 +1674,13 @@
         <v>51093.246770174039</v>
       </c>
       <c r="N16" s="52"/>
-      <c r="O16" s="65"/>
-    </row>
-    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="59">
+      <c r="O16" s="66"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="60">
         <v>2005</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="57">
         <v>45</v>
       </c>
       <c r="D17" s="44">
@@ -1523,14 +1694,14 @@
         <f t="shared" si="0"/>
         <v>51741.454671530919</v>
       </c>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="59">
+      <c r="N17" s="52"/>
+      <c r="O17" s="66"/>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="60">
         <v>2004</v>
       </c>
-      <c r="C18" s="56">
+      <c r="C18" s="57">
         <v>44</v>
       </c>
       <c r="D18" s="44">
@@ -1544,16 +1715,16 @@
         <f t="shared" si="0"/>
         <v>51835.236058123053</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="31"/>
+      <c r="O18" s="26"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="59">
+      <c r="B19" s="60">
         <v>2003</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="57">
         <v>43</v>
       </c>
       <c r="D19" s="44">
@@ -1567,16 +1738,16 @@
         <f t="shared" si="0"/>
         <v>50849.00918549511</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="32"/>
+      <c r="O19" s="31"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="59">
+      <c r="B20" s="60">
         <v>2002</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="57">
         <v>42</v>
       </c>
       <c r="D20" s="44">
@@ -1590,14 +1761,16 @@
         <f t="shared" si="0"/>
         <v>51933.872796467651</v>
       </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="27"/>
+      <c r="N20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="32"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="59">
+      <c r="B21" s="60">
         <v>2001</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="57">
         <v>41</v>
       </c>
       <c r="D21" s="44">
@@ -1611,16 +1784,14 @@
         <f t="shared" si="0"/>
         <v>52395.73943180043</v>
       </c>
-      <c r="N21" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="39"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="27"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="59">
+      <c r="B22" s="60">
         <v>2000</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="57">
         <v>40</v>
       </c>
       <c r="D22" s="44">
@@ -1637,13 +1808,13 @@
       <c r="N22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="40"/>
+      <c r="O22" s="39"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="59">
+      <c r="B23" s="60">
         <v>1999</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C23" s="57">
         <v>39</v>
       </c>
       <c r="D23" s="44">
@@ -1657,14 +1828,16 @@
         <f t="shared" si="0"/>
         <v>52758.550209348919</v>
       </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="27"/>
+      <c r="N23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="40"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="60">
+      <c r="B24" s="61">
         <v>1998</v>
       </c>
-      <c r="C24" s="56">
+      <c r="C24" s="57">
         <v>38</v>
       </c>
       <c r="D24" s="44">
@@ -1678,10 +1851,8 @@
         <f t="shared" si="0"/>
         <v>52204.427545145074</v>
       </c>
-      <c r="N24" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O24" s="42"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="27"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="22">
@@ -1701,10 +1872,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N25" s="12"/>
-      <c r="O25" s="27"/>
-    </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="42"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="22">
         <v>1996</v>
       </c>
@@ -1722,12 +1895,10 @@
         <f t="shared" si="0"/>
         <v>2639.4098861728016</v>
       </c>
-      <c r="N26" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="O26" s="54"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N26" s="12"/>
+      <c r="O26" s="27"/>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="22">
         <v>1995</v>
       </c>
@@ -1745,6 +1916,10 @@
         <f t="shared" si="0"/>
         <v>2366.6325353695747</v>
       </c>
+      <c r="N27" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="55"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="22">
@@ -1823,10 +1998,10 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="62">
+      <c r="B32" s="63">
         <v>1990</v>
       </c>
-      <c r="C32" s="61">
+      <c r="C32" s="62">
         <v>30</v>
       </c>
       <c r="D32" s="46">
@@ -1842,10 +2017,10 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="63">
+      <c r="B33" s="64">
         <v>1989</v>
       </c>
-      <c r="C33" s="61">
+      <c r="C33" s="62">
         <v>29</v>
       </c>
       <c r="D33" s="46">
@@ -1861,10 +2036,10 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="63">
+      <c r="B34" s="64">
         <v>1988</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="62">
         <v>28</v>
       </c>
       <c r="D34" s="46">
@@ -1880,10 +2055,10 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="63">
+      <c r="B35" s="64">
         <v>1987</v>
       </c>
-      <c r="C35" s="61">
+      <c r="C35" s="62">
         <v>27</v>
       </c>
       <c r="D35" s="46">
@@ -1899,10 +2074,10 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="63">
+      <c r="B36" s="64">
         <v>1986</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="62">
         <v>26</v>
       </c>
       <c r="D36" s="46">
@@ -1918,10 +2093,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="63">
+      <c r="B37" s="64">
         <v>1985</v>
       </c>
-      <c r="C37" s="61">
+      <c r="C37" s="62">
         <v>25</v>
       </c>
       <c r="D37" s="46">
@@ -1937,10 +2112,10 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="63">
+      <c r="B38" s="64">
         <v>1984</v>
       </c>
-      <c r="C38" s="61">
+      <c r="C38" s="62">
         <v>24</v>
       </c>
       <c r="D38" s="46">
@@ -1956,10 +2131,10 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="64">
+      <c r="B39" s="65">
         <v>1983</v>
       </c>
-      <c r="C39" s="61">
+      <c r="C39" s="62">
         <v>23</v>
       </c>
       <c r="D39" s="46">
@@ -2403,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="29">
-        <f>E61/1.0275</f>
+        <f t="shared" si="1"/>
         <v>11582.008786282422</v>
       </c>
       <c r="G62" s="37">
@@ -2414,7 +2589,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2422,10 +2597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367AD372-2F5B-444E-901D-D02956C9F1AC}">
-  <dimension ref="B1:J11"/>
+  <dimension ref="B1:O62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,20 +2610,27 @@
     <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="5"/>
     <col min="5" max="5" width="10.85546875" style="6"/>
-    <col min="6" max="8" width="10.85546875" style="1"/>
+    <col min="6" max="6" width="10.85546875" style="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1"/>
     <col min="9" max="9" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="1"/>
+    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1"/>
+    <col min="14" max="14" width="47.85546875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -2457,74 +2639,1397 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="59">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="56">
+        <v>59</v>
+      </c>
+      <c r="D3" s="43">
+        <v>47465.4</v>
+      </c>
+      <c r="E3" s="25">
+        <f>O4</f>
+        <v>57400</v>
+      </c>
+      <c r="G3" s="35">
+        <f>D3*($O$9/E3)</f>
+        <v>44991.767880938263</v>
+      </c>
       <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="N3" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="26"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="60">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="57">
+        <v>58</v>
+      </c>
+      <c r="D4" s="44">
+        <v>46671</v>
+      </c>
+      <c r="E4" s="29">
+        <f>E3/(1+$O$6)</f>
+        <v>55863.746958637465</v>
+      </c>
+      <c r="G4" s="36">
+        <f t="shared" ref="G4:G62" si="0">D4*($O$9/E4)</f>
+        <v>45455.333690171778</v>
+      </c>
       <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="25">
+        <v>57400</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="60">
+        <v>2017</v>
+      </c>
+      <c r="C5" s="57">
+        <v>57</v>
+      </c>
+      <c r="D5" s="44">
+        <v>46323.45</v>
+      </c>
+      <c r="E5" s="29">
+        <f t="shared" ref="E5:E62" si="1">E4/(1+$O$6)</f>
+        <v>54368.610178722593</v>
+      </c>
+      <c r="G5" s="36">
+        <f t="shared" si="0"/>
+        <v>46357.549528814736</v>
+      </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="27">
+        <f>O30</f>
+        <v>8900.7227069707606</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="27">
+        <v>7217</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="60">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="57">
+        <v>56</v>
+      </c>
+      <c r="D6" s="44">
+        <v>45538.98</v>
+      </c>
+      <c r="E6" s="29">
+        <f t="shared" si="1"/>
+        <v>52913.489225034151</v>
+      </c>
+      <c r="G6" s="36">
+        <f t="shared" si="0"/>
+        <v>46825.745873091299</v>
+      </c>
       <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="27">
+        <f>O31</f>
+        <v>8492.7372614038886</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="70">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="60">
+        <v>2015</v>
+      </c>
+      <c r="C7" s="57">
+        <v>55</v>
+      </c>
+      <c r="D7" s="44">
+        <v>44665.14</v>
+      </c>
+      <c r="E7" s="29">
+        <f t="shared" si="1"/>
+        <v>51497.313114388468</v>
+      </c>
+      <c r="G7" s="36">
+        <f t="shared" si="0"/>
+        <v>47190.21272850778</v>
+      </c>
       <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="27">
+        <f>O33</f>
+        <v>9985.0132952567692</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="27">
+        <v>10779.84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="60">
+        <v>2014</v>
+      </c>
+      <c r="C8" s="57">
+        <v>54</v>
+      </c>
+      <c r="D8" s="44">
+        <v>43811.159999999996</v>
+      </c>
+      <c r="E8" s="29">
+        <f t="shared" si="1"/>
+        <v>50119.039527385365</v>
+      </c>
+      <c r="G8" s="36">
+        <f t="shared" si="0"/>
+        <v>47560.873069925779</v>
+      </c>
       <c r="I8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="30">
+        <f>60-18</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="60">
+        <v>2013</v>
+      </c>
+      <c r="C9" s="57">
+        <v>53</v>
+      </c>
+      <c r="D9" s="44">
+        <v>42699</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="1"/>
+        <v>48777.654041250957</v>
+      </c>
+      <c r="G9" s="36">
+        <f t="shared" si="0"/>
+        <v>47628.247380144974</v>
+      </c>
       <c r="I9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="27">
+        <f>AVERAGE(E3:E7)</f>
+        <v>54408.631895356535</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="60">
+        <v>2012</v>
+      </c>
+      <c r="C10" s="57">
+        <v>52</v>
+      </c>
+      <c r="D10" s="44">
+        <v>42291.87</v>
+      </c>
+      <c r="E10" s="29">
+        <f t="shared" si="1"/>
+        <v>47472.169383212604</v>
+      </c>
+      <c r="G10" s="36">
+        <f t="shared" si="0"/>
+        <v>48471.405812981044</v>
+      </c>
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="68">
+        <f>SUM(J5:J7)</f>
+        <v>27378.473263631418</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="38">
+        <f>O8-7</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="60">
+        <v>2011</v>
+      </c>
+      <c r="C11" s="57">
+        <v>51</v>
+      </c>
+      <c r="D11" s="44">
+        <v>41576.909999999996</v>
+      </c>
+      <c r="E11" s="29">
+        <f t="shared" si="1"/>
+        <v>46201.624703856542</v>
+      </c>
+      <c r="G11" s="36">
+        <f t="shared" si="0"/>
+        <v>48962.407838171595</v>
+      </c>
       <c r="I11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="17">
+        <f>J10/D3</f>
+        <v>0.57680907068372789</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="30">
+        <f>O10*0.15</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="60">
+        <v>2010</v>
+      </c>
+      <c r="C12" s="57">
+        <v>50</v>
+      </c>
+      <c r="D12" s="44">
+        <v>40812.300000000003</v>
+      </c>
+      <c r="E12" s="29">
+        <f t="shared" si="1"/>
+        <v>44965.084869933373</v>
+      </c>
+      <c r="G12" s="36">
+        <f t="shared" si="0"/>
+        <v>49383.681003294638</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="67">
+        <f>AVERAGE(G3:G24,G32:G39)</f>
+        <v>46398.218646103698</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="60">
+        <v>2009</v>
+      </c>
+      <c r="C13" s="57">
+        <v>49</v>
+      </c>
+      <c r="D13" s="44">
+        <v>40137.06</v>
+      </c>
+      <c r="E13" s="29">
+        <f t="shared" si="1"/>
+        <v>43761.639776090873</v>
+      </c>
+      <c r="G13" s="36">
+        <f t="shared" si="0"/>
+        <v>49902.209653829217</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="67">
+        <f>O12*0.25</f>
+        <v>11599.554661525925</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="60">
+        <v>2008</v>
+      </c>
+      <c r="C14" s="57">
+        <v>48</v>
+      </c>
+      <c r="D14" s="44">
+        <v>39620.699999999997</v>
+      </c>
+      <c r="E14" s="29">
+        <f t="shared" si="1"/>
+        <v>42590.403675027614</v>
+      </c>
+      <c r="G14" s="36">
+        <f t="shared" si="0"/>
+        <v>50614.877900308013</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="38">
+        <f>0.55*60</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="60">
+        <v>2007</v>
+      </c>
+      <c r="C15" s="57">
+        <v>47</v>
+      </c>
+      <c r="D15" s="44">
+        <v>38766.720000000001</v>
+      </c>
+      <c r="E15" s="29">
+        <f t="shared" si="1"/>
+        <v>41450.514525574319</v>
+      </c>
+      <c r="G15" s="36">
+        <f t="shared" si="0"/>
+        <v>50885.838750420946</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="28">
+        <f>O13*(1-O14/100)</f>
+        <v>7771.7016232223687</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="60">
+        <v>2006</v>
+      </c>
+      <c r="C16" s="57">
+        <v>46</v>
+      </c>
+      <c r="D16" s="44">
+        <v>37882.949999999997</v>
+      </c>
+      <c r="E16" s="29">
+        <f t="shared" si="1"/>
+        <v>40341.133358223182</v>
+      </c>
+      <c r="G16" s="36">
+        <f t="shared" si="0"/>
+        <v>51093.246770174039</v>
+      </c>
+      <c r="N16" s="52"/>
+      <c r="O16" s="66"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="60">
+        <v>2005</v>
+      </c>
+      <c r="C17" s="57">
+        <v>45</v>
+      </c>
+      <c r="D17" s="44">
+        <v>37336.800000000003</v>
+      </c>
+      <c r="E17" s="29">
+        <f t="shared" si="1"/>
+        <v>39261.443657638127</v>
+      </c>
+      <c r="G17" s="36">
+        <f t="shared" si="0"/>
+        <v>51741.454671530919</v>
+      </c>
+      <c r="N17" s="52"/>
+      <c r="O17" s="66"/>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="60">
+        <v>2004</v>
+      </c>
+      <c r="C18" s="57">
+        <v>44</v>
+      </c>
+      <c r="D18" s="44">
+        <v>36403.379999999997</v>
+      </c>
+      <c r="E18" s="29">
+        <f t="shared" si="1"/>
+        <v>38210.650761691606</v>
+      </c>
+      <c r="G18" s="36">
+        <f t="shared" si="0"/>
+        <v>51835.236058123053</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="26"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="60">
+        <v>2003</v>
+      </c>
+      <c r="C19" s="57">
+        <v>43</v>
+      </c>
+      <c r="D19" s="44">
+        <v>34755</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="1"/>
+        <v>37187.981276585502</v>
+      </c>
+      <c r="G19" s="36">
+        <f t="shared" si="0"/>
+        <v>50849.00918549511</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="31"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="60">
+        <v>2002</v>
+      </c>
+      <c r="C20" s="57">
+        <v>42</v>
+      </c>
+      <c r="D20" s="44">
+        <v>34546.47</v>
+      </c>
+      <c r="E20" s="29">
+        <f t="shared" si="1"/>
+        <v>36192.682507625788</v>
+      </c>
+      <c r="G20" s="36">
+        <f t="shared" si="0"/>
+        <v>51933.872796467651</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="32"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="60">
+        <v>2001</v>
+      </c>
+      <c r="C21" s="57">
+        <v>41</v>
+      </c>
+      <c r="D21" s="44">
+        <v>33920.879999999997</v>
+      </c>
+      <c r="E21" s="29">
+        <f t="shared" si="1"/>
+        <v>35224.021905231908</v>
+      </c>
+      <c r="G21" s="36">
+        <f t="shared" si="0"/>
+        <v>52395.73943180043</v>
+      </c>
+      <c r="N21" s="12"/>
+      <c r="O21" s="27"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="60">
+        <v>2000</v>
+      </c>
+      <c r="C22" s="57">
+        <v>40</v>
+      </c>
+      <c r="D22" s="44">
+        <v>32769</v>
+      </c>
+      <c r="E22" s="29">
+        <f t="shared" si="1"/>
+        <v>34281.286525773146</v>
+      </c>
+      <c r="G22" s="36">
+        <f t="shared" si="0"/>
+        <v>52008.446568611631</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="39"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="60">
+        <v>1999</v>
+      </c>
+      <c r="C23" s="57">
+        <v>39</v>
+      </c>
+      <c r="D23" s="44">
+        <v>32351.94</v>
+      </c>
+      <c r="E23" s="29">
+        <f t="shared" si="1"/>
+        <v>33363.782506835174</v>
+      </c>
+      <c r="G23" s="36">
+        <f t="shared" si="0"/>
+        <v>52758.550209348919</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="40"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="61">
+        <v>1998</v>
+      </c>
+      <c r="C24" s="57">
+        <v>38</v>
+      </c>
+      <c r="D24" s="44">
+        <v>31155.375</v>
+      </c>
+      <c r="E24" s="29">
+        <f t="shared" si="1"/>
+        <v>32470.834556530579</v>
+      </c>
+      <c r="G24" s="36">
+        <f t="shared" si="0"/>
+        <v>52204.427545145074</v>
+      </c>
+      <c r="N24" s="12"/>
+      <c r="O24" s="27"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="22">
+        <v>1997</v>
+      </c>
+      <c r="C25" s="49">
+        <v>37</v>
+      </c>
+      <c r="D25" s="45">
+        <v>0</v>
+      </c>
+      <c r="E25" s="33">
+        <f t="shared" si="1"/>
+        <v>31601.785456477446</v>
+      </c>
+      <c r="G25" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="42"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="22">
+        <v>1996</v>
+      </c>
+      <c r="C26" s="49">
+        <v>36</v>
+      </c>
+      <c r="D26" s="45">
+        <v>1492</v>
+      </c>
+      <c r="E26" s="33">
+        <f t="shared" si="1"/>
+        <v>30755.995578080237</v>
+      </c>
+      <c r="G26" s="36">
+        <f t="shared" si="0"/>
+        <v>2639.4098861728016</v>
+      </c>
+      <c r="N26" s="12"/>
+      <c r="O26" s="27"/>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="22">
+        <v>1995</v>
+      </c>
+      <c r="C27" s="49">
+        <v>35</v>
+      </c>
+      <c r="D27" s="45">
+        <v>1302</v>
+      </c>
+      <c r="E27" s="33">
+        <f t="shared" si="1"/>
+        <v>29932.842411756919</v>
+      </c>
+      <c r="G27" s="36">
+        <f t="shared" si="0"/>
+        <v>2366.6325353695747</v>
+      </c>
+      <c r="N27" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="55"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="22">
+        <v>1994</v>
+      </c>
+      <c r="C28" s="49">
+        <v>34</v>
+      </c>
+      <c r="D28" s="45">
+        <v>0</v>
+      </c>
+      <c r="E28" s="33">
+        <f t="shared" si="1"/>
+        <v>29131.720108765858</v>
+      </c>
+      <c r="G28" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="22">
+        <v>1993</v>
+      </c>
+      <c r="C29" s="49">
+        <v>33</v>
+      </c>
+      <c r="D29" s="45">
+        <v>0</v>
+      </c>
+      <c r="E29" s="33">
+        <f t="shared" si="1"/>
+        <v>28352.039035295238</v>
+      </c>
+      <c r="G29" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" s="69"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="22">
+        <v>1992</v>
+      </c>
+      <c r="C30" s="49">
+        <v>32</v>
+      </c>
+      <c r="D30" s="45">
+        <v>0</v>
+      </c>
+      <c r="E30" s="33">
+        <f t="shared" si="1"/>
+        <v>27593.225338486849</v>
+      </c>
+      <c r="G30" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" s="74">
+        <f>O15*(1+O6)^5</f>
+        <v>8900.7227069707606</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="22">
+        <v>1991</v>
+      </c>
+      <c r="C31" s="49">
+        <v>31</v>
+      </c>
+      <c r="D31" s="45">
+        <v>0</v>
+      </c>
+      <c r="E31" s="33">
+        <f t="shared" si="1"/>
+        <v>26854.72052407479</v>
+      </c>
+      <c r="G31" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" s="75">
+        <f>O5*(1+O6)^6</f>
+        <v>8492.7372614038886</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="63">
+        <v>1990</v>
+      </c>
+      <c r="C32" s="62">
+        <v>30</v>
+      </c>
+      <c r="D32" s="46">
+        <v>24854.79</v>
+      </c>
+      <c r="E32" s="29">
+        <f t="shared" si="1"/>
+        <v>26135.981045328259</v>
+      </c>
+      <c r="G32" s="36">
+        <f t="shared" si="0"/>
+        <v>51741.509821308646</v>
+      </c>
+      <c r="N32" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="75">
+        <f>O7*(1+O6)^6</f>
+        <v>12685.37464874215</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="64">
+        <v>1989</v>
+      </c>
+      <c r="C33" s="62">
+        <v>29</v>
+      </c>
+      <c r="D33" s="46">
+        <v>24825</v>
+      </c>
+      <c r="E33" s="29">
+        <f t="shared" si="1"/>
+        <v>25436.47790299587</v>
+      </c>
+      <c r="G33" s="36">
+        <f t="shared" si="0"/>
+        <v>53100.680524764924</v>
+      </c>
+      <c r="N33" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" s="79">
+        <f>O32-((O30-3500)/2)</f>
+        <v>9985.0132952567692</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="64">
+        <v>1988</v>
+      </c>
+      <c r="C34" s="62">
+        <v>28</v>
+      </c>
+      <c r="D34" s="46">
+        <v>22789.35</v>
+      </c>
+      <c r="E34" s="29">
+        <f t="shared" si="1"/>
+        <v>24755.696255957049</v>
+      </c>
+      <c r="G34" s="36">
+        <f t="shared" si="0"/>
+        <v>50086.951401581886</v>
+      </c>
+      <c r="N34" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="53"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="64">
+        <v>1987</v>
+      </c>
+      <c r="C35" s="62">
+        <v>27</v>
+      </c>
+      <c r="D35" s="46">
+        <v>22243.200000000001</v>
+      </c>
+      <c r="E35" s="29">
+        <f t="shared" si="1"/>
+        <v>24093.135042293965</v>
+      </c>
+      <c r="G35" s="36">
+        <f t="shared" si="0"/>
+        <v>50230.992307573368</v>
+      </c>
+      <c r="N35" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="O35" s="72"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="64">
+        <v>1986</v>
+      </c>
+      <c r="C36" s="62">
+        <v>26</v>
+      </c>
+      <c r="D36" s="46">
+        <v>20853</v>
+      </c>
+      <c r="E36" s="29">
+        <f t="shared" si="1"/>
+        <v>23448.306610505075</v>
+      </c>
+      <c r="G36" s="36">
+        <f t="shared" si="0"/>
+        <v>48386.573058779664</v>
+      </c>
+      <c r="N36" s="52"/>
+      <c r="O36" s="71"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="64">
+        <v>1985</v>
+      </c>
+      <c r="C37" s="62">
+        <v>25</v>
+      </c>
+      <c r="D37" s="46">
+        <v>19860</v>
+      </c>
+      <c r="E37" s="29">
+        <f t="shared" si="1"/>
+        <v>22820.736360588879</v>
+      </c>
+      <c r="G37" s="36">
+        <f t="shared" si="0"/>
+        <v>47349.717921805815</v>
+      </c>
+      <c r="N37" s="52"/>
+      <c r="O37" s="73"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="64">
+        <v>1984</v>
+      </c>
+      <c r="C38" s="62">
+        <v>24</v>
+      </c>
+      <c r="D38" s="46">
+        <v>0</v>
+      </c>
+      <c r="E38" s="29">
+        <f t="shared" si="1"/>
+        <v>22209.962394733699</v>
+      </c>
+      <c r="G38" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="52"/>
+      <c r="O38" s="73"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="65">
+        <v>1983</v>
+      </c>
+      <c r="C39" s="62">
+        <v>23</v>
+      </c>
+      <c r="D39" s="46">
+        <v>0</v>
+      </c>
+      <c r="E39" s="29">
+        <f t="shared" si="1"/>
+        <v>21615.535177356396</v>
+      </c>
+      <c r="G39" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="52"/>
+      <c r="O39" s="72"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="21">
+        <v>1982</v>
+      </c>
+      <c r="C40" s="50">
+        <v>22</v>
+      </c>
+      <c r="D40" s="47">
+        <v>0</v>
+      </c>
+      <c r="E40" s="41">
+        <f t="shared" si="1"/>
+        <v>21037.017204239801</v>
+      </c>
+      <c r="G40" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="52"/>
+      <c r="O40" s="53"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="21">
+        <v>1981</v>
+      </c>
+      <c r="C41" s="50">
+        <v>21</v>
+      </c>
+      <c r="D41" s="47">
+        <v>0</v>
+      </c>
+      <c r="E41" s="41">
+        <f t="shared" si="1"/>
+        <v>20473.982680525351</v>
+      </c>
+      <c r="G41" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="21">
+        <v>1980</v>
+      </c>
+      <c r="C42" s="50">
+        <v>20</v>
+      </c>
+      <c r="D42" s="47">
+        <v>0</v>
+      </c>
+      <c r="E42" s="41">
+        <f t="shared" si="1"/>
+        <v>19926.017207323941</v>
+      </c>
+      <c r="G42" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="21">
+        <v>1979</v>
+      </c>
+      <c r="C43" s="50">
+        <v>19</v>
+      </c>
+      <c r="D43" s="47">
+        <v>0</v>
+      </c>
+      <c r="E43" s="41">
+        <f t="shared" si="1"/>
+        <v>19392.717476714297</v>
+      </c>
+      <c r="G43" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="21">
+        <v>1978</v>
+      </c>
+      <c r="C44" s="51">
+        <v>18</v>
+      </c>
+      <c r="D44" s="47">
+        <v>0</v>
+      </c>
+      <c r="E44" s="41">
+        <f t="shared" si="1"/>
+        <v>18873.690974904424</v>
+      </c>
+      <c r="G44" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>1977</v>
+      </c>
+      <c r="C45" s="4">
+        <v>17</v>
+      </c>
+      <c r="D45" s="20">
+        <v>0</v>
+      </c>
+      <c r="E45" s="29">
+        <f t="shared" si="1"/>
+        <v>18368.555693337639</v>
+      </c>
+      <c r="G45" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>1976</v>
+      </c>
+      <c r="C46" s="4">
+        <v>16</v>
+      </c>
+      <c r="D46" s="20">
+        <v>0</v>
+      </c>
+      <c r="E46" s="29">
+        <f t="shared" si="1"/>
+        <v>17876.939847530546</v>
+      </c>
+      <c r="G46" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>1975</v>
+      </c>
+      <c r="C47" s="4">
+        <v>15</v>
+      </c>
+      <c r="D47" s="20">
+        <v>0</v>
+      </c>
+      <c r="E47" s="29">
+        <f t="shared" si="1"/>
+        <v>17398.481603436052</v>
+      </c>
+      <c r="G47" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>1974</v>
+      </c>
+      <c r="C48" s="4">
+        <v>14</v>
+      </c>
+      <c r="D48" s="20">
+        <v>0</v>
+      </c>
+      <c r="E48" s="29">
+        <f t="shared" si="1"/>
+        <v>16932.828811129977</v>
+      </c>
+      <c r="G48" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>1973</v>
+      </c>
+      <c r="C49" s="4">
+        <v>13</v>
+      </c>
+      <c r="D49" s="20">
+        <v>0</v>
+      </c>
+      <c r="E49" s="29">
+        <f t="shared" si="1"/>
+        <v>16479.638745625281</v>
+      </c>
+      <c r="G49" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>1972</v>
+      </c>
+      <c r="C50" s="4">
+        <v>12</v>
+      </c>
+      <c r="D50" s="20">
+        <v>0</v>
+      </c>
+      <c r="E50" s="29">
+        <f t="shared" si="1"/>
+        <v>16038.577854623143</v>
+      </c>
+      <c r="G50" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>1971</v>
+      </c>
+      <c r="C51" s="4">
+        <v>11</v>
+      </c>
+      <c r="D51" s="20">
+        <v>0</v>
+      </c>
+      <c r="E51" s="29">
+        <f t="shared" si="1"/>
+        <v>15609.321513015224</v>
+      </c>
+      <c r="G51" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>1970</v>
+      </c>
+      <c r="C52" s="4">
+        <v>10</v>
+      </c>
+      <c r="D52" s="20">
+        <v>0</v>
+      </c>
+      <c r="E52" s="29">
+        <f t="shared" si="1"/>
+        <v>15191.55378395642</v>
+      </c>
+      <c r="G52" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>1969</v>
+      </c>
+      <c r="C53" s="4">
+        <v>9</v>
+      </c>
+      <c r="D53" s="20">
+        <v>0</v>
+      </c>
+      <c r="E53" s="29">
+        <f t="shared" si="1"/>
+        <v>14784.967186332282</v>
+      </c>
+      <c r="G53" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>1968</v>
+      </c>
+      <c r="C54" s="4">
+        <v>8</v>
+      </c>
+      <c r="D54" s="20">
+        <v>0</v>
+      </c>
+      <c r="E54" s="29">
+        <f t="shared" si="1"/>
+        <v>14389.262468449908</v>
+      </c>
+      <c r="G54" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>1967</v>
+      </c>
+      <c r="C55" s="4">
+        <v>7</v>
+      </c>
+      <c r="D55" s="20">
+        <v>0</v>
+      </c>
+      <c r="E55" s="29">
+        <f t="shared" si="1"/>
+        <v>14004.148387785797</v>
+      </c>
+      <c r="G55" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>1966</v>
+      </c>
+      <c r="C56" s="4">
+        <v>6</v>
+      </c>
+      <c r="D56" s="20">
+        <v>0</v>
+      </c>
+      <c r="E56" s="29">
+        <f t="shared" si="1"/>
+        <v>13629.341496628513</v>
+      </c>
+      <c r="G56" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>1965</v>
+      </c>
+      <c r="C57" s="4">
+        <v>5</v>
+      </c>
+      <c r="D57" s="20">
+        <v>0</v>
+      </c>
+      <c r="E57" s="29">
+        <f t="shared" si="1"/>
+        <v>13264.565933458405</v>
+      </c>
+      <c r="G57" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>1964</v>
+      </c>
+      <c r="C58" s="4">
+        <v>4</v>
+      </c>
+      <c r="D58" s="20">
+        <v>0</v>
+      </c>
+      <c r="E58" s="29">
+        <f t="shared" si="1"/>
+        <v>12909.553219910855</v>
+      </c>
+      <c r="G58" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>1963</v>
+      </c>
+      <c r="C59" s="4">
+        <v>3</v>
+      </c>
+      <c r="D59" s="20">
+        <v>0</v>
+      </c>
+      <c r="E59" s="29">
+        <f t="shared" si="1"/>
+        <v>12564.04206317358</v>
+      </c>
+      <c r="G59" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
+        <v>1962</v>
+      </c>
+      <c r="C60" s="4">
+        <v>2</v>
+      </c>
+      <c r="D60" s="20">
+        <v>0</v>
+      </c>
+      <c r="E60" s="29">
+        <f t="shared" si="1"/>
+        <v>12227.778163672583</v>
+      </c>
+      <c r="G60" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <v>1961</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="20">
+        <v>0</v>
+      </c>
+      <c r="E61" s="29">
+        <f t="shared" si="1"/>
+        <v>11900.51402790519</v>
+      </c>
+      <c r="G61" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="23">
+        <v>1960</v>
+      </c>
+      <c r="C62" s="24">
+        <v>0</v>
+      </c>
+      <c r="D62" s="20">
+        <v>0</v>
+      </c>
+      <c r="E62" s="29">
+        <f t="shared" si="1"/>
+        <v>11582.008786282422</v>
+      </c>
+      <c r="G62" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N18:O18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF3058D-9527-44EF-BE25-5C09CA35E4DB}">
-  <dimension ref="B1:J11"/>
+  <dimension ref="B1:N67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,22 +4037,27 @@
     <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="2"/>
     <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="5"/>
-    <col min="5" max="5" width="10.85546875" style="6"/>
-    <col min="6" max="8" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="11" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1"/>
+    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1"/>
     <col min="9" max="9" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.85546875" style="1"/>
+    <col min="13" max="13" width="48" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -2556,64 +4066,1467 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="85" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="59">
+        <v>2024</v>
+      </c>
+      <c r="C3" s="56">
+        <v>64</v>
+      </c>
+      <c r="D3" s="84">
+        <f t="shared" ref="D3:D6" si="0">D4*(1+$N$6)</f>
+        <v>54360.857384573552</v>
+      </c>
+      <c r="E3" s="29">
+        <f t="shared" ref="E3:E6" si="1">E4*(1+$N$6)</f>
+        <v>65738.689948352316</v>
+      </c>
+      <c r="G3" s="86">
+        <f>D3*($N$9/E3)</f>
+        <v>51527.872455631288</v>
+      </c>
       <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M3" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="26"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="60">
+        <v>2023</v>
+      </c>
+      <c r="C4" s="57">
+        <v>63</v>
+      </c>
+      <c r="D4" s="84">
+        <f t="shared" si="0"/>
+        <v>52905.943926592263</v>
+      </c>
+      <c r="E4" s="29">
+        <f t="shared" si="1"/>
+        <v>63979.260290367209</v>
+      </c>
+      <c r="G4" s="86">
+        <f t="shared" ref="G4:G66" si="2">D4*($N$9/E4)</f>
+        <v>51527.872455631288</v>
+      </c>
       <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="25">
+        <v>57400</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="60">
+        <v>2022</v>
+      </c>
+      <c r="C5" s="57">
+        <v>62</v>
+      </c>
+      <c r="D5" s="84">
+        <f t="shared" si="0"/>
+        <v>51489.969758240644</v>
+      </c>
+      <c r="E5" s="29">
+        <f t="shared" si="1"/>
+        <v>62266.919990625014</v>
+      </c>
+      <c r="G5" s="86">
+        <f t="shared" si="2"/>
+        <v>51527.872455631295</v>
+      </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="27">
+        <f>N15</f>
+        <v>13616.166566756545</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="27">
+        <v>7217</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="60">
+        <v>2021</v>
+      </c>
+      <c r="C6" s="57">
+        <v>61</v>
+      </c>
+      <c r="D6" s="84">
+        <f t="shared" si="0"/>
+        <v>50111.892708750012</v>
+      </c>
+      <c r="E6" s="29">
+        <f t="shared" si="1"/>
+        <v>60600.40875000001</v>
+      </c>
+      <c r="G6" s="86">
+        <f t="shared" si="2"/>
+        <v>51527.872455631295</v>
+      </c>
       <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="27">
+        <f>N30</f>
+        <v>8492.7372614038886</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="70">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="60">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="57">
+        <v>60</v>
+      </c>
+      <c r="D7" s="84">
+        <f>D8*(1+$N$6)</f>
+        <v>48770.698500000006</v>
+      </c>
+      <c r="E7" s="29">
+        <f>E8*(1+$N$6)</f>
+        <v>58978.500000000007</v>
+      </c>
+      <c r="G7" s="86">
+        <f t="shared" si="2"/>
+        <v>51527.872455631295</v>
+      </c>
       <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="27">
+        <f>N32</f>
+        <v>7627.291365363878</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="27">
+        <v>10779.84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="60">
+        <v>2019</v>
+      </c>
+      <c r="C8" s="57">
+        <v>59</v>
+      </c>
+      <c r="D8" s="44">
+        <v>47465.4</v>
+      </c>
+      <c r="E8" s="80">
+        <v>57400</v>
+      </c>
+      <c r="G8" s="86">
+        <f t="shared" si="2"/>
+        <v>51527.872455631288</v>
+      </c>
       <c r="I8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="30">
+        <f>65-18</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="60">
+        <v>2018</v>
+      </c>
+      <c r="C9" s="57">
+        <v>58</v>
+      </c>
+      <c r="D9" s="44">
+        <v>46671</v>
+      </c>
+      <c r="E9" s="80">
+        <f>E8/(1.0275)</f>
+        <v>55863.746958637465</v>
+      </c>
+      <c r="G9" s="86">
+        <f t="shared" si="2"/>
+        <v>52058.782020158455</v>
+      </c>
       <c r="I9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="27">
+        <f>AVERAGE(E3:E7)</f>
+        <v>62312.755795868907</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="60">
+        <v>2017</v>
+      </c>
+      <c r="C10" s="57">
+        <v>57</v>
+      </c>
+      <c r="D10" s="44">
+        <v>46323.45</v>
+      </c>
+      <c r="E10" s="80">
+        <f t="shared" ref="E10:E67" si="3">E9/(1.0275)</f>
+        <v>54368.610178722593</v>
+      </c>
+      <c r="G10" s="86">
+        <f t="shared" si="2"/>
+        <v>53092.065770734102</v>
+      </c>
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="68">
+        <f>SUM(J5:J7)</f>
+        <v>29736.195193524312</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="30">
+        <f>N8-7</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="60">
+        <v>2016</v>
+      </c>
+      <c r="C11" s="57">
+        <v>56</v>
+      </c>
+      <c r="D11" s="44">
+        <v>45538.98</v>
+      </c>
+      <c r="E11" s="80">
+        <f t="shared" si="3"/>
+        <v>52913.489225034151</v>
+      </c>
+      <c r="G11" s="86">
+        <f t="shared" si="2"/>
+        <v>53628.278563614738</v>
+      </c>
       <c r="I11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="17">
+        <f>J10/D3</f>
+        <v>0.54701483060057121</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="30">
+        <f>N10*0.15</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="60">
+        <v>2015</v>
+      </c>
+      <c r="C12" s="57">
+        <v>55</v>
+      </c>
+      <c r="D12" s="44">
+        <v>44665.14</v>
+      </c>
+      <c r="E12" s="80">
+        <f t="shared" si="3"/>
+        <v>51497.313114388468</v>
+      </c>
+      <c r="G12" s="86">
+        <f t="shared" si="2"/>
+        <v>54045.692737912206</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="67">
+        <f>AVERAGE(G3:G29,G37:G43)</f>
+        <v>54464.666267026179</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="60">
+        <v>2014</v>
+      </c>
+      <c r="C13" s="57">
+        <v>54</v>
+      </c>
+      <c r="D13" s="44">
+        <v>43811.159999999996</v>
+      </c>
+      <c r="E13" s="80">
+        <f t="shared" si="3"/>
+        <v>50119.039527385365</v>
+      </c>
+      <c r="G13" s="86">
+        <f t="shared" si="2"/>
+        <v>54470.200146633957</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="67">
+        <f>N12*0.25</f>
+        <v>13616.166566756545</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="60">
+        <v>2013</v>
+      </c>
+      <c r="C14" s="57">
+        <v>53</v>
+      </c>
+      <c r="D14" s="44">
+        <v>42699</v>
+      </c>
+      <c r="E14" s="80">
+        <f t="shared" si="3"/>
+        <v>48777.654041250957</v>
+      </c>
+      <c r="G14" s="86">
+        <f t="shared" si="2"/>
+        <v>54547.362148201624</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="60">
+        <v>2012</v>
+      </c>
+      <c r="C15" s="57">
+        <v>52</v>
+      </c>
+      <c r="D15" s="44">
+        <v>42291.87</v>
+      </c>
+      <c r="E15" s="80">
+        <f t="shared" si="3"/>
+        <v>47472.169383212604</v>
+      </c>
+      <c r="G15" s="86">
+        <f t="shared" si="2"/>
+        <v>55513.009026138025</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="28">
+        <f>N13*(1-N14/100)</f>
+        <v>13616.166566756545</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="60">
+        <v>2011</v>
+      </c>
+      <c r="C16" s="57">
+        <v>51</v>
+      </c>
+      <c r="D16" s="44">
+        <v>41576.909999999996</v>
+      </c>
+      <c r="E16" s="80">
+        <f t="shared" si="3"/>
+        <v>46201.624703856542</v>
+      </c>
+      <c r="G16" s="86">
+        <f t="shared" si="2"/>
+        <v>56075.340557462318</v>
+      </c>
+      <c r="M16" s="52"/>
+      <c r="N16" s="66"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="60">
+        <v>2010</v>
+      </c>
+      <c r="C17" s="57">
+        <v>50</v>
+      </c>
+      <c r="D17" s="44">
+        <v>40812.300000000003</v>
+      </c>
+      <c r="E17" s="80">
+        <f t="shared" si="3"/>
+        <v>44965.084869933373</v>
+      </c>
+      <c r="G17" s="86">
+        <f t="shared" si="2"/>
+        <v>56557.813484040445</v>
+      </c>
+      <c r="M17" s="52"/>
+      <c r="N17" s="66"/>
+    </row>
+    <row r="18" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="60">
+        <v>2009</v>
+      </c>
+      <c r="C18" s="57">
+        <v>49</v>
+      </c>
+      <c r="D18" s="44">
+        <v>40137.06</v>
+      </c>
+      <c r="E18" s="80">
+        <f t="shared" si="3"/>
+        <v>43761.639776090873</v>
+      </c>
+      <c r="G18" s="86">
+        <f t="shared" si="2"/>
+        <v>57151.670525622867</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="26"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="60">
+        <v>2008</v>
+      </c>
+      <c r="C19" s="57">
+        <v>48</v>
+      </c>
+      <c r="D19" s="44">
+        <v>39620.699999999997</v>
+      </c>
+      <c r="E19" s="80">
+        <f t="shared" si="3"/>
+        <v>42590.403675027614</v>
+      </c>
+      <c r="G19" s="86">
+        <f t="shared" si="2"/>
+        <v>57967.870471464419</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="31"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="60">
+        <v>2007</v>
+      </c>
+      <c r="C20" s="57">
+        <v>47</v>
+      </c>
+      <c r="D20" s="44">
+        <v>38766.720000000001</v>
+      </c>
+      <c r="E20" s="80">
+        <f t="shared" si="3"/>
+        <v>41450.514525574319</v>
+      </c>
+      <c r="G20" s="86">
+        <f t="shared" si="2"/>
+        <v>58278.194710379335</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="32"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="60">
+        <v>2006</v>
+      </c>
+      <c r="C21" s="57">
+        <v>46</v>
+      </c>
+      <c r="D21" s="44">
+        <v>37882.949999999997</v>
+      </c>
+      <c r="E21" s="80">
+        <f t="shared" si="3"/>
+        <v>40341.133358223182</v>
+      </c>
+      <c r="G21" s="86">
+        <f t="shared" si="2"/>
+        <v>58515.733586744311</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="27"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="60">
+        <v>2005</v>
+      </c>
+      <c r="C22" s="57">
+        <v>45</v>
+      </c>
+      <c r="D22" s="44">
+        <v>37336.800000000003</v>
+      </c>
+      <c r="E22" s="80">
+        <f t="shared" si="3"/>
+        <v>39261.443657638127</v>
+      </c>
+      <c r="G22" s="86">
+        <f t="shared" si="2"/>
+        <v>59258.108817569606</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="39"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="60">
+        <v>2004</v>
+      </c>
+      <c r="C23" s="57">
+        <v>44</v>
+      </c>
+      <c r="D23" s="44">
+        <v>36403.379999999997</v>
+      </c>
+      <c r="E23" s="80">
+        <f t="shared" si="3"/>
+        <v>38210.650761691606</v>
+      </c>
+      <c r="G23" s="86">
+        <f t="shared" si="2"/>
+        <v>59365.514139801453</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="40"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="60">
+        <v>2003</v>
+      </c>
+      <c r="C24" s="57">
+        <v>43</v>
+      </c>
+      <c r="D24" s="44">
+        <v>34755</v>
+      </c>
+      <c r="E24" s="80">
+        <f t="shared" si="3"/>
+        <v>37187.981276585502</v>
+      </c>
+      <c r="G24" s="86">
+        <f t="shared" si="2"/>
+        <v>58236.01479139689</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="27"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="60">
+        <v>2002</v>
+      </c>
+      <c r="C25" s="57">
+        <v>42</v>
+      </c>
+      <c r="D25" s="44">
+        <v>34546.47</v>
+      </c>
+      <c r="E25" s="80">
+        <f t="shared" si="3"/>
+        <v>36192.682507625788</v>
+      </c>
+      <c r="G25" s="86">
+        <f t="shared" si="2"/>
+        <v>59478.480166971349</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="42"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="60">
+        <v>2001</v>
+      </c>
+      <c r="C26" s="57">
+        <v>41</v>
+      </c>
+      <c r="D26" s="44">
+        <v>33920.879999999997</v>
+      </c>
+      <c r="E26" s="80">
+        <f t="shared" si="3"/>
+        <v>35224.021905231908</v>
+      </c>
+      <c r="G26" s="86">
+        <f t="shared" si="2"/>
+        <v>60007.443712923086</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="27"/>
+    </row>
+    <row r="27" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="60">
+        <v>2000</v>
+      </c>
+      <c r="C27" s="57">
+        <v>40</v>
+      </c>
+      <c r="D27" s="44">
+        <v>32769</v>
+      </c>
+      <c r="E27" s="80">
+        <f t="shared" si="3"/>
+        <v>34281.286525773146</v>
+      </c>
+      <c r="G27" s="86">
+        <f t="shared" si="2"/>
+        <v>59563.88752037294</v>
+      </c>
+      <c r="M27" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="55"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="60">
+        <v>1999</v>
+      </c>
+      <c r="C28" s="57">
+        <v>39</v>
+      </c>
+      <c r="D28" s="44">
+        <v>32351.94</v>
+      </c>
+      <c r="E28" s="80">
+        <f t="shared" si="3"/>
+        <v>33363.782506835174</v>
+      </c>
+      <c r="G28" s="86">
+        <f t="shared" si="2"/>
+        <v>60422.961225382693</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="61">
+        <v>1998</v>
+      </c>
+      <c r="C29" s="57">
+        <v>38</v>
+      </c>
+      <c r="D29" s="44">
+        <v>31155.375</v>
+      </c>
+      <c r="E29" s="80">
+        <f t="shared" si="3"/>
+        <v>32470.834556530579</v>
+      </c>
+      <c r="G29" s="86">
+        <f t="shared" si="2"/>
+        <v>59788.339308737188</v>
+      </c>
+      <c r="M29" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="69"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="22">
+        <v>1997</v>
+      </c>
+      <c r="C30" s="49">
+        <v>37</v>
+      </c>
+      <c r="D30" s="45">
+        <v>0</v>
+      </c>
+      <c r="E30" s="82">
+        <f t="shared" si="3"/>
+        <v>31601.785456477446</v>
+      </c>
+      <c r="G30" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" s="74">
+        <f>N5*(1+N6)^6</f>
+        <v>8492.7372614038886</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="22">
+        <v>1996</v>
+      </c>
+      <c r="C31" s="49">
+        <v>36</v>
+      </c>
+      <c r="D31" s="45">
+        <v>1492</v>
+      </c>
+      <c r="E31" s="82">
+        <f t="shared" si="3"/>
+        <v>30755.995578080237</v>
+      </c>
+      <c r="G31" s="86">
+        <f t="shared" si="2"/>
+        <v>3022.8457866503422</v>
+      </c>
+      <c r="M31" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="75">
+        <f>N7*(1+N6)^6</f>
+        <v>12685.37464874215</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="22">
+        <v>1995</v>
+      </c>
+      <c r="C32" s="49">
+        <v>35</v>
+      </c>
+      <c r="D32" s="45">
+        <v>1302</v>
+      </c>
+      <c r="E32" s="82">
+        <f t="shared" si="3"/>
+        <v>29932.842411756919</v>
+      </c>
+      <c r="G32" s="86">
+        <f t="shared" si="2"/>
+        <v>2710.4411579153898</v>
+      </c>
+      <c r="M32" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="N32" s="79">
+        <f>N31-((N15-3500)/2)</f>
+        <v>7627.291365363878</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="22">
+        <v>1994</v>
+      </c>
+      <c r="C33" s="49">
+        <v>34</v>
+      </c>
+      <c r="D33" s="45">
+        <v>0</v>
+      </c>
+      <c r="E33" s="82">
+        <f t="shared" si="3"/>
+        <v>29131.720108765858</v>
+      </c>
+      <c r="G33" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="N33" s="53"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="22">
+        <v>1993</v>
+      </c>
+      <c r="C34" s="49">
+        <v>33</v>
+      </c>
+      <c r="D34" s="45">
+        <v>0</v>
+      </c>
+      <c r="E34" s="82">
+        <f t="shared" si="3"/>
+        <v>28352.039035295238</v>
+      </c>
+      <c r="G34" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="N34" s="72"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="22">
+        <v>1992</v>
+      </c>
+      <c r="C35" s="49">
+        <v>32</v>
+      </c>
+      <c r="D35" s="45">
+        <v>0</v>
+      </c>
+      <c r="E35" s="82">
+        <f t="shared" si="3"/>
+        <v>27593.225338486849</v>
+      </c>
+      <c r="G35" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="22">
+        <v>1991</v>
+      </c>
+      <c r="C36" s="49">
+        <v>31</v>
+      </c>
+      <c r="D36" s="45">
+        <v>0</v>
+      </c>
+      <c r="E36" s="82">
+        <f t="shared" si="3"/>
+        <v>26854.72052407479</v>
+      </c>
+      <c r="G36" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="59">
+        <v>1990</v>
+      </c>
+      <c r="C37" s="57">
+        <v>30</v>
+      </c>
+      <c r="D37" s="44">
+        <v>24854.79</v>
+      </c>
+      <c r="E37" s="80">
+        <f t="shared" si="3"/>
+        <v>26135.981045328259</v>
+      </c>
+      <c r="G37" s="86">
+        <f t="shared" si="2"/>
+        <v>59258.171979139981</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="60">
+        <v>1989</v>
+      </c>
+      <c r="C38" s="57">
+        <v>29</v>
+      </c>
+      <c r="D38" s="44">
+        <v>24825</v>
+      </c>
+      <c r="E38" s="80">
+        <f t="shared" si="3"/>
+        <v>25436.47790299587</v>
+      </c>
+      <c r="G38" s="86">
+        <f t="shared" si="2"/>
+        <v>60814.793955819347</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="60">
+        <v>1988</v>
+      </c>
+      <c r="C39" s="57">
+        <v>28</v>
+      </c>
+      <c r="D39" s="44">
+        <v>22789.35</v>
+      </c>
+      <c r="E39" s="80">
+        <f t="shared" si="3"/>
+        <v>24755.696255957049</v>
+      </c>
+      <c r="G39" s="86">
+        <f t="shared" si="2"/>
+        <v>57363.250324856825</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="60">
+        <v>1987</v>
+      </c>
+      <c r="C40" s="57">
+        <v>27</v>
+      </c>
+      <c r="D40" s="44">
+        <v>22243.200000000001</v>
+      </c>
+      <c r="E40" s="80">
+        <f t="shared" si="3"/>
+        <v>24093.135042293965</v>
+      </c>
+      <c r="G40" s="86">
+        <f t="shared" si="2"/>
+        <v>57528.216534941384</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="60">
+        <v>1986</v>
+      </c>
+      <c r="C41" s="57">
+        <v>26</v>
+      </c>
+      <c r="D41" s="44">
+        <v>20853</v>
+      </c>
+      <c r="E41" s="80">
+        <f t="shared" si="3"/>
+        <v>23448.306610505075</v>
+      </c>
+      <c r="G41" s="86">
+        <f t="shared" si="2"/>
+        <v>55415.852334049006</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="60">
+        <v>1985</v>
+      </c>
+      <c r="C42" s="57">
+        <v>25</v>
+      </c>
+      <c r="D42" s="44">
+        <v>19860</v>
+      </c>
+      <c r="E42" s="80">
+        <f t="shared" si="3"/>
+        <v>22820.736360588879</v>
+      </c>
+      <c r="G42" s="86">
+        <f t="shared" si="2"/>
+        <v>54228.369784033675</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="65">
+        <v>1984</v>
+      </c>
+      <c r="C43" s="62">
+        <v>24</v>
+      </c>
+      <c r="D43" s="46">
+        <v>0</v>
+      </c>
+      <c r="E43" s="83">
+        <f t="shared" si="3"/>
+        <v>22209.962394733699</v>
+      </c>
+      <c r="G43" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="21">
+        <v>1983</v>
+      </c>
+      <c r="C44" s="50">
+        <v>23</v>
+      </c>
+      <c r="D44" s="47">
+        <v>0</v>
+      </c>
+      <c r="E44" s="81">
+        <f t="shared" si="3"/>
+        <v>21615.535177356396</v>
+      </c>
+      <c r="G44" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="21">
+        <v>1982</v>
+      </c>
+      <c r="C45" s="50">
+        <v>22</v>
+      </c>
+      <c r="D45" s="47">
+        <v>0</v>
+      </c>
+      <c r="E45" s="81">
+        <f t="shared" si="3"/>
+        <v>21037.017204239801</v>
+      </c>
+      <c r="G45" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="21">
+        <v>1981</v>
+      </c>
+      <c r="C46" s="50">
+        <v>21</v>
+      </c>
+      <c r="D46" s="47">
+        <v>0</v>
+      </c>
+      <c r="E46" s="81">
+        <f t="shared" si="3"/>
+        <v>20473.982680525351</v>
+      </c>
+      <c r="G46" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="21">
+        <v>1980</v>
+      </c>
+      <c r="C47" s="50">
+        <v>20</v>
+      </c>
+      <c r="D47" s="47">
+        <v>0</v>
+      </c>
+      <c r="E47" s="81">
+        <f t="shared" si="3"/>
+        <v>19926.017207323941</v>
+      </c>
+      <c r="G47" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="21">
+        <v>1979</v>
+      </c>
+      <c r="C48" s="50">
+        <v>19</v>
+      </c>
+      <c r="D48" s="47">
+        <v>0</v>
+      </c>
+      <c r="E48" s="81">
+        <f t="shared" si="3"/>
+        <v>19392.717476714297</v>
+      </c>
+      <c r="G48" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="21">
+        <v>1978</v>
+      </c>
+      <c r="C49" s="51">
+        <v>18</v>
+      </c>
+      <c r="D49" s="47">
+        <v>0</v>
+      </c>
+      <c r="E49" s="81">
+        <f t="shared" si="3"/>
+        <v>18873.690974904424</v>
+      </c>
+      <c r="G49" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>1977</v>
+      </c>
+      <c r="C50" s="4">
+        <v>17</v>
+      </c>
+      <c r="D50" s="20">
+        <v>0</v>
+      </c>
+      <c r="E50" s="80">
+        <f t="shared" si="3"/>
+        <v>18368.555693337639</v>
+      </c>
+      <c r="G50" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>1976</v>
+      </c>
+      <c r="C51" s="4">
+        <v>16</v>
+      </c>
+      <c r="D51" s="20">
+        <v>0</v>
+      </c>
+      <c r="E51" s="80">
+        <f t="shared" si="3"/>
+        <v>17876.939847530546</v>
+      </c>
+      <c r="G51" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>1975</v>
+      </c>
+      <c r="C52" s="4">
+        <v>15</v>
+      </c>
+      <c r="D52" s="20">
+        <v>0</v>
+      </c>
+      <c r="E52" s="80">
+        <f t="shared" si="3"/>
+        <v>17398.481603436052</v>
+      </c>
+      <c r="G52" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>1974</v>
+      </c>
+      <c r="C53" s="4">
+        <v>14</v>
+      </c>
+      <c r="D53" s="20">
+        <v>0</v>
+      </c>
+      <c r="E53" s="80">
+        <f t="shared" si="3"/>
+        <v>16932.828811129977</v>
+      </c>
+      <c r="G53" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>1973</v>
+      </c>
+      <c r="C54" s="4">
+        <v>13</v>
+      </c>
+      <c r="D54" s="20">
+        <v>0</v>
+      </c>
+      <c r="E54" s="80">
+        <f t="shared" si="3"/>
+        <v>16479.638745625281</v>
+      </c>
+      <c r="G54" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>1972</v>
+      </c>
+      <c r="C55" s="4">
+        <v>12</v>
+      </c>
+      <c r="D55" s="20">
+        <v>0</v>
+      </c>
+      <c r="E55" s="80">
+        <f t="shared" si="3"/>
+        <v>16038.577854623143</v>
+      </c>
+      <c r="G55" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>1971</v>
+      </c>
+      <c r="C56" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" s="20">
+        <v>0</v>
+      </c>
+      <c r="E56" s="80">
+        <f t="shared" si="3"/>
+        <v>15609.321513015224</v>
+      </c>
+      <c r="G56" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>1970</v>
+      </c>
+      <c r="C57" s="4">
+        <v>10</v>
+      </c>
+      <c r="D57" s="20">
+        <v>0</v>
+      </c>
+      <c r="E57" s="80">
+        <f t="shared" si="3"/>
+        <v>15191.55378395642</v>
+      </c>
+      <c r="G57" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>1969</v>
+      </c>
+      <c r="C58" s="4">
+        <v>9</v>
+      </c>
+      <c r="D58" s="20">
+        <v>0</v>
+      </c>
+      <c r="E58" s="80">
+        <f t="shared" si="3"/>
+        <v>14784.967186332282</v>
+      </c>
+      <c r="G58" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>1968</v>
+      </c>
+      <c r="C59" s="4">
+        <v>8</v>
+      </c>
+      <c r="D59" s="20">
+        <v>0</v>
+      </c>
+      <c r="E59" s="80">
+        <f t="shared" si="3"/>
+        <v>14389.262468449908</v>
+      </c>
+      <c r="G59" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
+        <v>1967</v>
+      </c>
+      <c r="C60" s="4">
+        <v>7</v>
+      </c>
+      <c r="D60" s="20">
+        <v>0</v>
+      </c>
+      <c r="E60" s="80">
+        <f t="shared" si="3"/>
+        <v>14004.148387785797</v>
+      </c>
+      <c r="G60" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <v>1966</v>
+      </c>
+      <c r="C61" s="4">
+        <v>6</v>
+      </c>
+      <c r="D61" s="20">
+        <v>0</v>
+      </c>
+      <c r="E61" s="80">
+        <f t="shared" si="3"/>
+        <v>13629.341496628513</v>
+      </c>
+      <c r="G61" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
+        <v>1965</v>
+      </c>
+      <c r="C62" s="4">
+        <v>5</v>
+      </c>
+      <c r="D62" s="20">
+        <v>0</v>
+      </c>
+      <c r="E62" s="80">
+        <f t="shared" si="3"/>
+        <v>13264.565933458405</v>
+      </c>
+      <c r="G62" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <v>1964</v>
+      </c>
+      <c r="C63" s="4">
+        <v>4</v>
+      </c>
+      <c r="D63" s="20">
+        <v>0</v>
+      </c>
+      <c r="E63" s="80">
+        <f t="shared" si="3"/>
+        <v>12909.553219910855</v>
+      </c>
+      <c r="G63" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="2">
+        <v>1963</v>
+      </c>
+      <c r="C64" s="4">
+        <v>3</v>
+      </c>
+      <c r="D64" s="20">
+        <v>0</v>
+      </c>
+      <c r="E64" s="80">
+        <f t="shared" si="3"/>
+        <v>12564.04206317358</v>
+      </c>
+      <c r="G64" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>1962</v>
+      </c>
+      <c r="C65" s="4">
+        <v>2</v>
+      </c>
+      <c r="D65" s="20">
+        <v>0</v>
+      </c>
+      <c r="E65" s="80">
+        <f t="shared" si="3"/>
+        <v>12227.778163672583</v>
+      </c>
+      <c r="G65" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="2">
+        <v>1961</v>
+      </c>
+      <c r="C66" s="4">
+        <v>1</v>
+      </c>
+      <c r="D66" s="20">
+        <v>0</v>
+      </c>
+      <c r="E66" s="80">
+        <f t="shared" si="3"/>
+        <v>11900.51402790519</v>
+      </c>
+      <c r="G66" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="23">
+        <v>1960</v>
+      </c>
+      <c r="C67" s="24">
+        <v>0</v>
+      </c>
+      <c r="D67" s="20">
+        <v>0</v>
+      </c>
+      <c r="E67" s="80">
+        <f t="shared" si="3"/>
+        <v>11582.008786282422</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M29:N29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/propre.xlsx
+++ b/propre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\ATCR-TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FE42E5-F074-47F4-A47E-9CC53DEA67DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7C3434-399E-4672-9B83-42F32728F003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{47FD59A7-3964-46FC-BE03-C6B259F3D8B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{47FD59A7-3964-46FC-BE03-C6B259F3D8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="QUESTION 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="64">
   <si>
     <t>Années</t>
   </si>
@@ -141,12 +141,6 @@
     <t>Elle aura droit à 60 ans: RRQ.</t>
   </si>
   <si>
-    <t>Elle aura droit à 65 ans: RRQ, PSV, SRG.</t>
-  </si>
-  <si>
-    <t>Autres calculs</t>
-  </si>
-  <si>
     <t>Indexation de la rente de la RRQ</t>
   </si>
   <si>
@@ -172,6 +166,66 @@
   </si>
   <si>
     <t>Elle aura droit à la rente de la RRQ, la PSV et la SRG.</t>
+  </si>
+  <si>
+    <t>(environ)</t>
+  </si>
+  <si>
+    <t>Autres calculs (PSV et SRG)</t>
+  </si>
+  <si>
+    <t>Moyenne des 5 meilleurs salaires de Philippe</t>
+  </si>
+  <si>
+    <t>Autres données et calculs (RCR)</t>
+  </si>
+  <si>
+    <t>Nombre d'années de service (années)</t>
+  </si>
+  <si>
+    <t>Taux du régime à prestations déterminées</t>
+  </si>
+  <si>
+    <t>Rente de retraite du RCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elle aura droit à 65 ans: RRQ, PSV, SRG. Voir calcul </t>
+  </si>
+  <si>
+    <t>question 2 pour confirmation.</t>
+  </si>
+  <si>
+    <t>Eliot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Âge </t>
+  </si>
+  <si>
+    <t>Période de partage des gains admissibles entre Eliot et</t>
+  </si>
+  <si>
+    <t>Philippe (1985 à 1999)</t>
+  </si>
+  <si>
+    <t>Salaire moyen du couple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salaire plus grand que MGA, donc utiliser le chiffre </t>
+  </si>
+  <si>
+    <t>dans la cellule H33 pour le calcul de 1989.</t>
+  </si>
+  <si>
+    <t>Il aura droit à 60 ans: RRQ, RCR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il aura droit à 65 ans: RRQ, RCR, PSV. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par contre, il n'aura pas droit à la SRG en raison de ses </t>
+  </si>
+  <si>
+    <t>revenus trop élevé.</t>
   </si>
 </sst>
 </file>
@@ -218,7 +272,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,8 +297,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -396,6 +456,19 @@
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -713,8 +786,146 @@
       <right style="thin">
         <color theme="1"/>
       </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -723,7 +934,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -760,9 +971,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -771,7 +984,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -792,58 +1011,56 @@
     <xf numFmtId="165" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -852,7 +1069,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -862,6 +1079,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -874,29 +1094,95 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1218,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D97A01-C9B7-4676-858F-079C6C4177D4}">
-  <dimension ref="B1:O62"/>
+  <dimension ref="B1:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,15 +1526,15 @@
     <col min="15" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="48" t="s">
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -1257,54 +1543,54 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="37" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="59">
+    <row r="3" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="62">
         <v>2019</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="59">
         <v>59</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="46">
         <v>47465.4</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="27">
         <f>O4</f>
         <v>57400</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="38">
         <f>D3*($O$9/E3)</f>
         <v>44991.767880938263</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="26"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="60">
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="63">
         <v>2018</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="60">
         <v>58</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="47">
         <v>46671</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="31">
         <f>E3/(1+$O$6)</f>
         <v>55863.746958637465</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="39">
         <f t="shared" ref="G4:G62" si="0">D4*($O$9/E4)</f>
         <v>45455.333690171778</v>
       </c>
@@ -1317,57 +1603,57 @@
       <c r="N4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="27">
         <v>57400</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="60">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="63">
         <v>2017</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="60">
         <v>57</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="47">
         <v>46323.45</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="31">
         <f t="shared" ref="E5:E62" si="1">E4/(1+$O$6)</f>
         <v>54368.610178722593</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="39">
         <f t="shared" si="0"/>
         <v>46357.549528814736</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="29">
         <f>O15</f>
         <v>7771.7016232223687</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="29">
         <v>7217</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="60">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="63">
         <v>2016</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="60">
         <v>56</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="47">
         <v>45538.98</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="31">
         <f t="shared" si="1"/>
         <v>52913.489225034151</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="39">
         <f t="shared" si="0"/>
         <v>46825.745873091299</v>
       </c>
@@ -1378,27 +1664,27 @@
         <v>0</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="70">
+        <v>36</v>
+      </c>
+      <c r="O6" s="73">
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="60">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="63">
         <v>2015</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="60">
         <v>55</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="47">
         <v>44665.14</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="31">
         <f t="shared" si="1"/>
         <v>51497.313114388468</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="39">
         <f t="shared" si="0"/>
         <v>47190.21272850778</v>
       </c>
@@ -1411,25 +1697,25 @@
       <c r="N7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="29">
         <v>10779.84</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="60">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="63">
         <v>2014</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="60">
         <v>54</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="47">
         <v>43811.159999999996</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="31">
         <f t="shared" si="1"/>
         <v>50119.039527385365</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="39">
         <f t="shared" si="0"/>
         <v>47560.873069925779</v>
       </c>
@@ -1442,91 +1728,94 @@
       <c r="N8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="32">
         <f>60-18</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="60">
+      <c r="P8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="63">
         <v>2013</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="60">
         <v>53</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="47">
         <v>42699</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="31">
         <f t="shared" si="1"/>
         <v>48777.654041250957</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="39">
         <f t="shared" si="0"/>
         <v>47628.247380144974</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="18">
         <v>0</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="29">
         <f>AVERAGE(E3:E7)</f>
         <v>54408.631895356535</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="60">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="63">
         <v>2012</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="60">
         <v>52</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="47">
         <v>42291.87</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="31">
         <f t="shared" si="1"/>
         <v>47472.169383212604</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="39">
         <f t="shared" si="0"/>
         <v>48471.405812981044</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="71">
         <f>L5</f>
         <v>7771.7016232223687</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="38">
+      <c r="O10" s="41">
         <f>O8-7</f>
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="60">
+    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="63">
         <v>2011</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="60">
         <v>51</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="47">
         <v>41576.909999999996</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="31">
         <f t="shared" si="1"/>
         <v>46201.624703856542</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="39">
         <f t="shared" si="0"/>
         <v>48962.407838171595</v>
       </c>
@@ -1540,52 +1829,52 @@
       <c r="N11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="32">
         <f>O10*0.15</f>
         <v>5.25</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="60">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="63">
         <v>2010</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="60">
         <v>50</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="47">
         <v>40812.300000000003</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="31">
         <f t="shared" si="1"/>
         <v>44965.084869933373</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="39">
         <f t="shared" si="0"/>
         <v>49383.681003294638</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="67">
+      <c r="O12" s="70">
         <f>AVERAGE(G3:G24,G32:G39)</f>
         <v>46398.218646103698</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="60">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="63">
         <v>2009</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="60">
         <v>49</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="47">
         <v>40137.06</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="31">
         <f t="shared" si="1"/>
         <v>43761.639776090873</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="39">
         <f t="shared" si="0"/>
         <v>49902.209653829217</v>
       </c>
@@ -1595,347 +1884,350 @@
       <c r="N13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="67">
+      <c r="O13" s="70">
         <f>O12*0.25</f>
         <v>11599.554661525925</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="60">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="63">
         <v>2008</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="60">
         <v>48</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="47">
         <v>39620.699999999997</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="31">
         <f t="shared" si="1"/>
         <v>42590.403675027614</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="39">
         <f t="shared" si="0"/>
         <v>50614.877900308013</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="38">
+      <c r="O14" s="41">
         <f>0.55*60</f>
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="60">
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="63">
         <v>2007</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="60">
         <v>47</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="47">
         <v>38766.720000000001</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="31">
         <f t="shared" si="1"/>
         <v>41450.514525574319</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="39">
         <f t="shared" si="0"/>
         <v>50885.838750420946</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="28">
+      <c r="O15" s="30">
         <f>O13*(1-O14/100)</f>
         <v>7771.7016232223687</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="60">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="63">
         <v>2006</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="60">
         <v>46</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="47">
         <v>37882.949999999997</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="31">
         <f t="shared" si="1"/>
         <v>40341.133358223182</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="39">
         <f t="shared" si="0"/>
         <v>51093.246770174039</v>
       </c>
-      <c r="N16" s="52"/>
-      <c r="O16" s="66"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="69"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="60">
+      <c r="B17" s="63">
         <v>2005</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="60">
         <v>45</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="47">
         <v>37336.800000000003</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="31">
         <f t="shared" si="1"/>
         <v>39261.443657638127</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="39">
         <f t="shared" si="0"/>
         <v>51741.454671530919</v>
       </c>
-      <c r="N17" s="52"/>
-      <c r="O17" s="66"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="69"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="60">
+      <c r="B18" s="63">
         <v>2004</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="60">
         <v>44</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="47">
         <v>36403.379999999997</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="31">
         <f t="shared" si="1"/>
         <v>38210.650761691606</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="39">
         <f t="shared" si="0"/>
         <v>51835.236058123053</v>
       </c>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="26"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="60">
+      <c r="B19" s="63">
         <v>2003</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="60">
         <v>43</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="47">
         <v>34755</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="31">
         <f t="shared" si="1"/>
         <v>37187.981276585502</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="39">
         <f t="shared" si="0"/>
         <v>50849.00918549511</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="31"/>
+      <c r="O19" s="33"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="60">
+      <c r="B20" s="63">
         <v>2002</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="60">
         <v>42</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="47">
         <v>34546.47</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="31">
         <f t="shared" si="1"/>
         <v>36192.682507625788</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="39">
         <f t="shared" si="0"/>
         <v>51933.872796467651</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="32"/>
+      <c r="O20" s="34"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="60">
+      <c r="B21" s="63">
         <v>2001</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="60">
         <v>41</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="47">
         <v>33920.879999999997</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="31">
         <f t="shared" si="1"/>
         <v>35224.021905231908</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="39">
         <f t="shared" si="0"/>
         <v>52395.73943180043</v>
       </c>
       <c r="N21" s="12"/>
-      <c r="O21" s="27"/>
+      <c r="O21" s="29"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="60">
+      <c r="B22" s="63">
         <v>2000</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="60">
         <v>40</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="47">
         <v>32769</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="31">
         <f t="shared" si="1"/>
         <v>34281.286525773146</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="39">
         <f t="shared" si="0"/>
         <v>52008.446568611631</v>
       </c>
       <c r="N22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="39"/>
+      <c r="O22" s="42"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="60">
+      <c r="B23" s="63">
         <v>1999</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="60">
         <v>39</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="47">
         <v>32351.94</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="31">
         <f t="shared" si="1"/>
         <v>33363.782506835174</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="39">
         <f t="shared" si="0"/>
         <v>52758.550209348919</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="40"/>
+      <c r="O23" s="43"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="61">
+      <c r="B24" s="64">
         <v>1998</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="60">
         <v>38</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="47">
         <v>31155.375</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="31">
         <f t="shared" si="1"/>
         <v>32470.834556530579</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="39">
         <f t="shared" si="0"/>
         <v>52204.427545145074</v>
       </c>
       <c r="N24" s="12"/>
-      <c r="O24" s="27"/>
+      <c r="O24" s="29"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="22">
         <v>1997</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="52">
         <v>37</v>
       </c>
-      <c r="D25" s="45">
-        <v>0</v>
-      </c>
-      <c r="E25" s="33">
+      <c r="D25" s="48">
+        <v>0</v>
+      </c>
+      <c r="E25" s="35">
         <f t="shared" si="1"/>
         <v>31601.785456477446</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O25" s="42"/>
+      <c r="O25" s="45"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="22">
         <v>1996</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="52">
         <v>36</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="48">
         <v>1492</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="35">
         <f t="shared" si="1"/>
         <v>30755.995578080237</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="39">
         <f t="shared" si="0"/>
         <v>2639.4098861728016</v>
       </c>
       <c r="N26" s="12"/>
-      <c r="O26" s="27"/>
+      <c r="O26" s="29"/>
     </row>
     <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="22">
         <v>1995</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="52">
         <v>35</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="48">
         <v>1302</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="35">
         <f t="shared" si="1"/>
         <v>29932.842411756919</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="39">
         <f t="shared" si="0"/>
         <v>2366.6325353695747</v>
       </c>
-      <c r="N27" s="54" t="s">
+      <c r="N27" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="55"/>
+      <c r="O27" s="58"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="22">
         <v>1994</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="52">
         <v>34</v>
       </c>
-      <c r="D28" s="45">
-        <v>0</v>
-      </c>
-      <c r="E28" s="33">
+      <c r="D28" s="48">
+        <v>0</v>
+      </c>
+      <c r="E28" s="35">
         <f t="shared" si="1"/>
         <v>29131.720108765858</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1944,17 +2236,17 @@
       <c r="B29" s="22">
         <v>1993</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="52">
         <v>33</v>
       </c>
-      <c r="D29" s="45">
-        <v>0</v>
-      </c>
-      <c r="E29" s="33">
+      <c r="D29" s="48">
+        <v>0</v>
+      </c>
+      <c r="E29" s="35">
         <f t="shared" si="1"/>
         <v>28352.039035295238</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1963,17 +2255,17 @@
       <c r="B30" s="22">
         <v>1992</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="52">
         <v>32</v>
       </c>
-      <c r="D30" s="45">
-        <v>0</v>
-      </c>
-      <c r="E30" s="33">
+      <c r="D30" s="48">
+        <v>0</v>
+      </c>
+      <c r="E30" s="35">
         <f t="shared" si="1"/>
         <v>27593.225338486849</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1982,169 +2274,169 @@
       <c r="B31" s="22">
         <v>1991</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="52">
         <v>31</v>
       </c>
-      <c r="D31" s="45">
-        <v>0</v>
-      </c>
-      <c r="E31" s="33">
+      <c r="D31" s="48">
+        <v>0</v>
+      </c>
+      <c r="E31" s="35">
         <f t="shared" si="1"/>
         <v>26854.72052407479</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="63">
+      <c r="B32" s="66">
         <v>1990</v>
       </c>
-      <c r="C32" s="62">
+      <c r="C32" s="65">
         <v>30</v>
       </c>
-      <c r="D32" s="46">
+      <c r="D32" s="49">
         <v>24854.79</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="31">
         <f t="shared" si="1"/>
         <v>26135.981045328259</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="39">
         <f t="shared" si="0"/>
         <v>51741.509821308646</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="64">
+      <c r="B33" s="67">
         <v>1989</v>
       </c>
-      <c r="C33" s="62">
+      <c r="C33" s="65">
         <v>29</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="49">
         <v>24825</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="31">
         <f t="shared" si="1"/>
         <v>25436.47790299587</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="39">
         <f t="shared" si="0"/>
         <v>53100.680524764924</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="64">
+      <c r="B34" s="67">
         <v>1988</v>
       </c>
-      <c r="C34" s="62">
+      <c r="C34" s="65">
         <v>28</v>
       </c>
-      <c r="D34" s="46">
+      <c r="D34" s="49">
         <v>22789.35</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="31">
         <f t="shared" si="1"/>
         <v>24755.696255957049</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="39">
         <f t="shared" si="0"/>
         <v>50086.951401581886</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="64">
+      <c r="B35" s="67">
         <v>1987</v>
       </c>
-      <c r="C35" s="62">
+      <c r="C35" s="65">
         <v>27</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="49">
         <v>22243.200000000001</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="31">
         <f t="shared" si="1"/>
         <v>24093.135042293965</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="39">
         <f t="shared" si="0"/>
         <v>50230.992307573368</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="64">
+      <c r="B36" s="67">
         <v>1986</v>
       </c>
-      <c r="C36" s="62">
+      <c r="C36" s="65">
         <v>26</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="49">
         <v>20853</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="31">
         <f t="shared" si="1"/>
         <v>23448.306610505075</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="39">
         <f t="shared" si="0"/>
         <v>48386.573058779664</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="64">
+      <c r="B37" s="67">
         <v>1985</v>
       </c>
-      <c r="C37" s="62">
+      <c r="C37" s="65">
         <v>25</v>
       </c>
-      <c r="D37" s="46">
+      <c r="D37" s="49">
         <v>19860</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="31">
         <f t="shared" si="1"/>
         <v>22820.736360588879</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="39">
         <f t="shared" si="0"/>
         <v>47349.717921805815</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="64">
+      <c r="B38" s="67">
         <v>1984</v>
       </c>
-      <c r="C38" s="62">
+      <c r="C38" s="65">
         <v>24</v>
       </c>
-      <c r="D38" s="46">
-        <v>0</v>
-      </c>
-      <c r="E38" s="29">
+      <c r="D38" s="49">
+        <v>0</v>
+      </c>
+      <c r="E38" s="31">
         <f t="shared" si="1"/>
         <v>22209.962394733699</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="65">
+      <c r="B39" s="68">
         <v>1983</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="65">
         <v>23</v>
       </c>
-      <c r="D39" s="46">
-        <v>0</v>
-      </c>
-      <c r="E39" s="29">
+      <c r="D39" s="49">
+        <v>0</v>
+      </c>
+      <c r="E39" s="31">
         <f t="shared" si="1"/>
         <v>21615.535177356396</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2153,17 +2445,17 @@
       <c r="B40" s="21">
         <v>1982</v>
       </c>
-      <c r="C40" s="50">
+      <c r="C40" s="53">
         <v>22</v>
       </c>
-      <c r="D40" s="47">
-        <v>0</v>
-      </c>
-      <c r="E40" s="41">
+      <c r="D40" s="50">
+        <v>0</v>
+      </c>
+      <c r="E40" s="44">
         <f t="shared" si="1"/>
         <v>21037.017204239801</v>
       </c>
-      <c r="G40" s="36">
+      <c r="G40" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2172,17 +2464,17 @@
       <c r="B41" s="21">
         <v>1981</v>
       </c>
-      <c r="C41" s="50">
+      <c r="C41" s="53">
         <v>21</v>
       </c>
-      <c r="D41" s="47">
-        <v>0</v>
-      </c>
-      <c r="E41" s="41">
+      <c r="D41" s="50">
+        <v>0</v>
+      </c>
+      <c r="E41" s="44">
         <f t="shared" si="1"/>
         <v>20473.982680525351</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G41" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2191,17 +2483,17 @@
       <c r="B42" s="21">
         <v>1980</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C42" s="53">
         <v>20</v>
       </c>
-      <c r="D42" s="47">
-        <v>0</v>
-      </c>
-      <c r="E42" s="41">
+      <c r="D42" s="50">
+        <v>0</v>
+      </c>
+      <c r="E42" s="44">
         <f t="shared" si="1"/>
         <v>19926.017207323941</v>
       </c>
-      <c r="G42" s="36">
+      <c r="G42" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2210,17 +2502,17 @@
       <c r="B43" s="21">
         <v>1979</v>
       </c>
-      <c r="C43" s="50">
+      <c r="C43" s="53">
         <v>19</v>
       </c>
-      <c r="D43" s="47">
-        <v>0</v>
-      </c>
-      <c r="E43" s="41">
+      <c r="D43" s="50">
+        <v>0</v>
+      </c>
+      <c r="E43" s="44">
         <f t="shared" si="1"/>
         <v>19392.717476714297</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2229,17 +2521,17 @@
       <c r="B44" s="21">
         <v>1978</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="54">
         <v>18</v>
       </c>
-      <c r="D44" s="47">
-        <v>0</v>
-      </c>
-      <c r="E44" s="41">
+      <c r="D44" s="50">
+        <v>0</v>
+      </c>
+      <c r="E44" s="44">
         <f t="shared" si="1"/>
         <v>18873.690974904424</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2254,11 +2546,11 @@
       <c r="D45" s="20">
         <v>0</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="31">
         <f t="shared" si="1"/>
         <v>18368.555693337639</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2273,11 +2565,11 @@
       <c r="D46" s="20">
         <v>0</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="31">
         <f t="shared" si="1"/>
         <v>17876.939847530546</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2292,11 +2584,11 @@
       <c r="D47" s="20">
         <v>0</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="31">
         <f t="shared" si="1"/>
         <v>17398.481603436052</v>
       </c>
-      <c r="G47" s="36">
+      <c r="G47" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2311,11 +2603,11 @@
       <c r="D48" s="20">
         <v>0</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="31">
         <f t="shared" si="1"/>
         <v>16932.828811129977</v>
       </c>
-      <c r="G48" s="36">
+      <c r="G48" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2330,11 +2622,11 @@
       <c r="D49" s="20">
         <v>0</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="31">
         <f t="shared" si="1"/>
         <v>16479.638745625281</v>
       </c>
-      <c r="G49" s="36">
+      <c r="G49" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2349,11 +2641,11 @@
       <c r="D50" s="20">
         <v>0</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="31">
         <f t="shared" si="1"/>
         <v>16038.577854623143</v>
       </c>
-      <c r="G50" s="36">
+      <c r="G50" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2368,11 +2660,11 @@
       <c r="D51" s="20">
         <v>0</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="31">
         <f t="shared" si="1"/>
         <v>15609.321513015224</v>
       </c>
-      <c r="G51" s="36">
+      <c r="G51" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2387,11 +2679,11 @@
       <c r="D52" s="20">
         <v>0</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="31">
         <f t="shared" si="1"/>
         <v>15191.55378395642</v>
       </c>
-      <c r="G52" s="36">
+      <c r="G52" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2406,11 +2698,11 @@
       <c r="D53" s="20">
         <v>0</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E53" s="31">
         <f t="shared" si="1"/>
         <v>14784.967186332282</v>
       </c>
-      <c r="G53" s="36">
+      <c r="G53" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2425,11 +2717,11 @@
       <c r="D54" s="20">
         <v>0</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="31">
         <f t="shared" si="1"/>
         <v>14389.262468449908</v>
       </c>
-      <c r="G54" s="36">
+      <c r="G54" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2444,11 +2736,11 @@
       <c r="D55" s="20">
         <v>0</v>
       </c>
-      <c r="E55" s="29">
+      <c r="E55" s="31">
         <f t="shared" si="1"/>
         <v>14004.148387785797</v>
       </c>
-      <c r="G55" s="36">
+      <c r="G55" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2463,11 +2755,11 @@
       <c r="D56" s="20">
         <v>0</v>
       </c>
-      <c r="E56" s="29">
+      <c r="E56" s="31">
         <f t="shared" si="1"/>
         <v>13629.341496628513</v>
       </c>
-      <c r="G56" s="36">
+      <c r="G56" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2482,11 +2774,11 @@
       <c r="D57" s="20">
         <v>0</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="31">
         <f t="shared" si="1"/>
         <v>13264.565933458405</v>
       </c>
-      <c r="G57" s="36">
+      <c r="G57" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2501,11 +2793,11 @@
       <c r="D58" s="20">
         <v>0</v>
       </c>
-      <c r="E58" s="29">
+      <c r="E58" s="31">
         <f t="shared" si="1"/>
         <v>12909.553219910855</v>
       </c>
-      <c r="G58" s="36">
+      <c r="G58" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2520,11 +2812,11 @@
       <c r="D59" s="20">
         <v>0</v>
       </c>
-      <c r="E59" s="29">
+      <c r="E59" s="31">
         <f t="shared" si="1"/>
         <v>12564.04206317358</v>
       </c>
-      <c r="G59" s="36">
+      <c r="G59" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2539,11 +2831,11 @@
       <c r="D60" s="20">
         <v>0</v>
       </c>
-      <c r="E60" s="29">
+      <c r="E60" s="31">
         <f t="shared" si="1"/>
         <v>12227.778163672583</v>
       </c>
-      <c r="G60" s="36">
+      <c r="G60" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2558,30 +2850,30 @@
       <c r="D61" s="20">
         <v>0</v>
       </c>
-      <c r="E61" s="29">
+      <c r="E61" s="31">
         <f t="shared" si="1"/>
         <v>11900.51402790519</v>
       </c>
-      <c r="G61" s="36">
+      <c r="G61" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="23">
+      <c r="B62" s="25">
         <v>1960</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="26">
         <v>0</v>
       </c>
       <c r="D62" s="20">
         <v>0</v>
       </c>
-      <c r="E62" s="29">
+      <c r="E62" s="31">
         <f t="shared" si="1"/>
         <v>11582.008786282422</v>
       </c>
-      <c r="G62" s="37">
+      <c r="G62" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2597,10 +2889,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367AD372-2F5B-444E-901D-D02956C9F1AC}">
-  <dimension ref="B1:O62"/>
+  <dimension ref="B1:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2622,15 +2914,15 @@
     <col min="15" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="48" t="s">
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -2639,54 +2931,54 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="37" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="59">
+    <row r="3" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="62">
         <v>2019</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="59">
         <v>59</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="46">
         <v>47465.4</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="27">
         <f>O4</f>
         <v>57400</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="38">
         <f>D3*($O$9/E3)</f>
         <v>44991.767880938263</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="26"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="60">
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="63">
         <v>2018</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="60">
         <v>58</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="47">
         <v>46671</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="31">
         <f>E3/(1+$O$6)</f>
         <v>55863.746958637465</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="39">
         <f t="shared" ref="G4:G62" si="0">D4*($O$9/E4)</f>
         <v>45455.333690171778</v>
       </c>
@@ -2699,121 +2991,121 @@
       <c r="N4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="27">
         <v>57400</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="60">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="63">
         <v>2017</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="60">
         <v>57</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="47">
         <v>46323.45</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="31">
         <f t="shared" ref="E5:E62" si="1">E4/(1+$O$6)</f>
         <v>54368.610178722593</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="39">
         <f t="shared" si="0"/>
         <v>46357.549528814736</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="27">
-        <f>O30</f>
+      <c r="J5" s="29">
+        <f>O31</f>
         <v>8900.7227069707606</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="29">
         <v>7217</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="60">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="63">
         <v>2016</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="60">
         <v>56</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="47">
         <v>45538.98</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="31">
         <f t="shared" si="1"/>
         <v>52913.489225034151</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="39">
         <f t="shared" si="0"/>
         <v>46825.745873091299</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="27">
-        <f>O31</f>
+      <c r="J6" s="29">
+        <f>O32</f>
         <v>8492.7372614038886</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="70">
+        <v>36</v>
+      </c>
+      <c r="O6" s="73">
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="60">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="63">
         <v>2015</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="60">
         <v>55</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="47">
         <v>44665.14</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="31">
         <f t="shared" si="1"/>
         <v>51497.313114388468</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="39">
         <f t="shared" si="0"/>
         <v>47190.21272850778</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="27">
-        <f>O33</f>
+      <c r="J7" s="29">
+        <f>O34</f>
         <v>9985.0132952567692</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="29">
         <v>10779.84</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="60">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="63">
         <v>2014</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="60">
         <v>54</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="47">
         <v>43811.159999999996</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="31">
         <f t="shared" si="1"/>
         <v>50119.039527385365</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="39">
         <f t="shared" si="0"/>
         <v>47560.873069925779</v>
       </c>
@@ -2826,91 +3118,94 @@
       <c r="N8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="32">
         <f>60-18</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="60">
+      <c r="P8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="63">
         <v>2013</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="60">
         <v>53</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="47">
         <v>42699</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="31">
         <f t="shared" si="1"/>
         <v>48777.654041250957</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="39">
         <f t="shared" si="0"/>
         <v>47628.247380144974</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="18">
         <v>0</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="29">
         <f>AVERAGE(E3:E7)</f>
         <v>54408.631895356535</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="60">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="63">
         <v>2012</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="60">
         <v>52</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="47">
         <v>42291.87</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="31">
         <f t="shared" si="1"/>
         <v>47472.169383212604</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="39">
         <f t="shared" si="0"/>
         <v>48471.405812981044</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="71">
         <f>SUM(J5:J7)</f>
         <v>27378.473263631418</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="38">
+      <c r="O10" s="41">
         <f>O8-7</f>
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="60">
+    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="63">
         <v>2011</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="60">
         <v>51</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="47">
         <v>41576.909999999996</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="31">
         <f t="shared" si="1"/>
         <v>46201.624703856542</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="39">
         <f t="shared" si="0"/>
         <v>48962.407838171595</v>
       </c>
@@ -2924,712 +3219,714 @@
       <c r="N11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="32">
         <f>O10*0.15</f>
         <v>5.25</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="60">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="63">
         <v>2010</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="60">
         <v>50</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="47">
         <v>40812.300000000003</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="31">
         <f t="shared" si="1"/>
         <v>44965.084869933373</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="39">
         <f t="shared" si="0"/>
         <v>49383.681003294638</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="67">
+      <c r="O12" s="70">
         <f>AVERAGE(G3:G24,G32:G39)</f>
         <v>46398.218646103698</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="60">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="63">
         <v>2009</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="60">
         <v>49</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="47">
         <v>40137.06</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="31">
         <f t="shared" si="1"/>
         <v>43761.639776090873</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="39">
         <f t="shared" si="0"/>
         <v>49902.209653829217</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="67">
+      <c r="O13" s="70">
         <f>O12*0.25</f>
         <v>11599.554661525925</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="60">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="63">
         <v>2008</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="60">
         <v>48</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="47">
         <v>39620.699999999997</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="31">
         <f t="shared" si="1"/>
         <v>42590.403675027614</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="39">
         <f t="shared" si="0"/>
         <v>50614.877900308013</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="38">
+      <c r="O14" s="41">
         <f>0.55*60</f>
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="60">
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="63">
         <v>2007</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="60">
         <v>47</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="47">
         <v>38766.720000000001</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="31">
         <f t="shared" si="1"/>
         <v>41450.514525574319</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="39">
         <f t="shared" si="0"/>
         <v>50885.838750420946</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="28">
+      <c r="O15" s="30">
         <f>O13*(1-O14/100)</f>
         <v>7771.7016232223687</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="60">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="63">
         <v>2006</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="60">
         <v>46</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="47">
         <v>37882.949999999997</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="31">
         <f t="shared" si="1"/>
         <v>40341.133358223182</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="39">
         <f t="shared" si="0"/>
         <v>51093.246770174039</v>
       </c>
-      <c r="N16" s="52"/>
-      <c r="O16" s="66"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="69"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="60">
+      <c r="B17" s="63">
         <v>2005</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="60">
         <v>45</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="47">
         <v>37336.800000000003</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="31">
         <f t="shared" si="1"/>
         <v>39261.443657638127</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="39">
         <f t="shared" si="0"/>
         <v>51741.454671530919</v>
       </c>
-      <c r="N17" s="52"/>
-      <c r="O17" s="66"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="69"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="60">
+      <c r="B18" s="63">
         <v>2004</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="60">
         <v>44</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="47">
         <v>36403.379999999997</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="31">
         <f t="shared" si="1"/>
         <v>38210.650761691606</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="39">
         <f t="shared" si="0"/>
         <v>51835.236058123053</v>
       </c>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="26"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="60">
+      <c r="B19" s="63">
         <v>2003</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="60">
         <v>43</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="47">
         <v>34755</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="31">
         <f t="shared" si="1"/>
         <v>37187.981276585502</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="39">
         <f t="shared" si="0"/>
         <v>50849.00918549511</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="31"/>
+      <c r="O19" s="33"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="60">
+      <c r="B20" s="63">
         <v>2002</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="60">
         <v>42</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="47">
         <v>34546.47</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="31">
         <f t="shared" si="1"/>
         <v>36192.682507625788</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="39">
         <f t="shared" si="0"/>
         <v>51933.872796467651</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="32"/>
+      <c r="O20" s="34"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="60">
+      <c r="B21" s="63">
         <v>2001</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="60">
         <v>41</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="47">
         <v>33920.879999999997</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="31">
         <f t="shared" si="1"/>
         <v>35224.021905231908</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="39">
         <f t="shared" si="0"/>
         <v>52395.73943180043</v>
       </c>
       <c r="N21" s="12"/>
-      <c r="O21" s="27"/>
+      <c r="O21" s="29"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="60">
+      <c r="B22" s="63">
         <v>2000</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="60">
         <v>40</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="47">
         <v>32769</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="31">
         <f t="shared" si="1"/>
         <v>34281.286525773146</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="39">
         <f t="shared" si="0"/>
         <v>52008.446568611631</v>
       </c>
       <c r="N22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="39"/>
+      <c r="O22" s="42"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="60">
+      <c r="B23" s="63">
         <v>1999</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="60">
         <v>39</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="47">
         <v>32351.94</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="31">
         <f t="shared" si="1"/>
         <v>33363.782506835174</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="39">
         <f t="shared" si="0"/>
         <v>52758.550209348919</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="40"/>
+      <c r="O23" s="43"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="61">
+      <c r="B24" s="64">
         <v>1998</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="60">
         <v>38</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="47">
         <v>31155.375</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="31">
         <f t="shared" si="1"/>
         <v>32470.834556530579</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="39">
         <f t="shared" si="0"/>
         <v>52204.427545145074</v>
       </c>
       <c r="N24" s="12"/>
-      <c r="O24" s="27"/>
+      <c r="O24" s="29"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="22">
         <v>1997</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="52">
         <v>37</v>
       </c>
-      <c r="D25" s="45">
-        <v>0</v>
-      </c>
-      <c r="E25" s="33">
+      <c r="D25" s="48">
+        <v>0</v>
+      </c>
+      <c r="E25" s="35">
         <f t="shared" si="1"/>
         <v>31601.785456477446</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O25" s="42"/>
+      <c r="O25" s="45"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="22">
         <v>1996</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="52">
         <v>36</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="48">
         <v>1492</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="35">
         <f t="shared" si="1"/>
         <v>30755.995578080237</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="39">
         <f t="shared" si="0"/>
         <v>2639.4098861728016</v>
       </c>
       <c r="N26" s="12"/>
-      <c r="O26" s="27"/>
+      <c r="O26" s="29"/>
     </row>
     <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="22">
         <v>1995</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="52">
         <v>35</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="48">
         <v>1302</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="35">
         <f t="shared" si="1"/>
         <v>29932.842411756919</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="39">
         <f t="shared" si="0"/>
         <v>2366.6325353695747</v>
       </c>
-      <c r="N27" s="54" t="s">
+      <c r="N27" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="55"/>
+      <c r="O27" s="58"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="22">
         <v>1994</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="52">
         <v>34</v>
       </c>
-      <c r="D28" s="45">
-        <v>0</v>
-      </c>
-      <c r="E28" s="33">
+      <c r="D28" s="48">
+        <v>0</v>
+      </c>
+      <c r="E28" s="35">
         <f t="shared" si="1"/>
         <v>29131.720108765858</v>
       </c>
-      <c r="G28" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="55"/>
+      <c r="O28" s="56"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="22">
         <v>1993</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="52">
         <v>33</v>
       </c>
-      <c r="D29" s="45">
-        <v>0</v>
-      </c>
-      <c r="E29" s="33">
+      <c r="D29" s="48">
+        <v>0</v>
+      </c>
+      <c r="E29" s="35">
         <f t="shared" si="1"/>
         <v>28352.039035295238</v>
       </c>
-      <c r="G29" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="O29" s="69"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G29" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="22">
         <v>1992</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="52">
         <v>32</v>
       </c>
-      <c r="D30" s="45">
-        <v>0</v>
-      </c>
-      <c r="E30" s="33">
+      <c r="D30" s="48">
+        <v>0</v>
+      </c>
+      <c r="E30" s="35">
         <f t="shared" si="1"/>
         <v>27593.225338486849</v>
       </c>
-      <c r="G30" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="O30" s="74">
-        <f>O15*(1+O6)^5</f>
-        <v>8900.7227069707606</v>
-      </c>
+      <c r="G30" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30" s="72"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="22">
         <v>1991</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="52">
         <v>31</v>
       </c>
-      <c r="D31" s="45">
-        <v>0</v>
-      </c>
-      <c r="E31" s="33">
+      <c r="D31" s="48">
+        <v>0</v>
+      </c>
+      <c r="E31" s="35">
         <f t="shared" si="1"/>
         <v>26854.72052407479</v>
       </c>
-      <c r="G31" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="O31" s="75">
+      <c r="G31" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" s="77">
+        <f>O15*(1+O6)^5</f>
+        <v>8900.7227069707606</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="66">
+        <v>1990</v>
+      </c>
+      <c r="C32" s="65">
+        <v>30</v>
+      </c>
+      <c r="D32" s="49">
+        <v>24854.79</v>
+      </c>
+      <c r="E32" s="31">
+        <f t="shared" si="1"/>
+        <v>26135.981045328259</v>
+      </c>
+      <c r="G32" s="39">
+        <f t="shared" si="0"/>
+        <v>51741.509821308646</v>
+      </c>
+      <c r="N32" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="O32" s="78">
         <f>O5*(1+O6)^6</f>
         <v>8492.7372614038886</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="63">
-        <v>1990</v>
-      </c>
-      <c r="C32" s="62">
-        <v>30</v>
-      </c>
-      <c r="D32" s="46">
-        <v>24854.79</v>
-      </c>
-      <c r="E32" s="29">
-        <f t="shared" si="1"/>
-        <v>26135.981045328259</v>
-      </c>
-      <c r="G32" s="36">
-        <f t="shared" si="0"/>
-        <v>51741.509821308646</v>
-      </c>
-      <c r="N32" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="O32" s="75">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="67">
+        <v>1989</v>
+      </c>
+      <c r="C33" s="65">
+        <v>29</v>
+      </c>
+      <c r="D33" s="49">
+        <v>24825</v>
+      </c>
+      <c r="E33" s="31">
+        <f t="shared" si="1"/>
+        <v>25436.47790299587</v>
+      </c>
+      <c r="G33" s="39">
+        <f t="shared" si="0"/>
+        <v>53100.680524764924</v>
+      </c>
+      <c r="N33" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33" s="78">
         <f>O7*(1+O6)^6</f>
         <v>12685.37464874215</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="64">
-        <v>1989</v>
-      </c>
-      <c r="C33" s="62">
-        <v>29</v>
-      </c>
-      <c r="D33" s="46">
-        <v>24825</v>
-      </c>
-      <c r="E33" s="29">
-        <f t="shared" si="1"/>
-        <v>25436.47790299587</v>
-      </c>
-      <c r="G33" s="36">
-        <f t="shared" si="0"/>
-        <v>53100.680524764924</v>
-      </c>
-      <c r="N33" s="78" t="s">
+    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="67">
+        <v>1988</v>
+      </c>
+      <c r="C34" s="65">
+        <v>28</v>
+      </c>
+      <c r="D34" s="49">
+        <v>22789.35</v>
+      </c>
+      <c r="E34" s="31">
+        <f t="shared" si="1"/>
+        <v>24755.696255957049</v>
+      </c>
+      <c r="G34" s="39">
+        <f t="shared" si="0"/>
+        <v>50086.951401581886</v>
+      </c>
+      <c r="N34" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34" s="82">
+        <f>O33-((O31-3500)/2)</f>
+        <v>9985.0132952567692</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="67">
+        <v>1987</v>
+      </c>
+      <c r="C35" s="65">
+        <v>27</v>
+      </c>
+      <c r="D35" s="49">
+        <v>22243.200000000001</v>
+      </c>
+      <c r="E35" s="31">
+        <f t="shared" si="1"/>
+        <v>24093.135042293965</v>
+      </c>
+      <c r="G35" s="39">
+        <f t="shared" si="0"/>
+        <v>50230.992307573368</v>
+      </c>
+      <c r="N35" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="O35" s="56"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="67">
+        <v>1986</v>
+      </c>
+      <c r="C36" s="65">
+        <v>26</v>
+      </c>
+      <c r="D36" s="49">
+        <v>20853</v>
+      </c>
+      <c r="E36" s="31">
+        <f t="shared" si="1"/>
+        <v>23448.306610505075</v>
+      </c>
+      <c r="G36" s="39">
+        <f t="shared" si="0"/>
+        <v>48386.573058779664</v>
+      </c>
+      <c r="N36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="O33" s="79">
-        <f>O32-((O30-3500)/2)</f>
-        <v>9985.0132952567692</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="64">
-        <v>1988</v>
-      </c>
-      <c r="C34" s="62">
-        <v>28</v>
-      </c>
-      <c r="D34" s="46">
-        <v>22789.35</v>
-      </c>
-      <c r="E34" s="29">
-        <f t="shared" si="1"/>
-        <v>24755.696255957049</v>
-      </c>
-      <c r="G34" s="36">
-        <f t="shared" si="0"/>
-        <v>50086.951401581886</v>
-      </c>
-      <c r="N34" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="O34" s="53"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="64">
-        <v>1987</v>
-      </c>
-      <c r="C35" s="62">
-        <v>27</v>
-      </c>
-      <c r="D35" s="46">
-        <v>22243.200000000001</v>
-      </c>
-      <c r="E35" s="29">
-        <f t="shared" si="1"/>
-        <v>24093.135042293965</v>
-      </c>
-      <c r="G35" s="36">
-        <f t="shared" si="0"/>
-        <v>50230.992307573368</v>
-      </c>
-      <c r="N35" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="O35" s="72"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="64">
-        <v>1986</v>
-      </c>
-      <c r="C36" s="62">
-        <v>26</v>
-      </c>
-      <c r="D36" s="46">
-        <v>20853</v>
-      </c>
-      <c r="E36" s="29">
-        <f t="shared" si="1"/>
-        <v>23448.306610505075</v>
-      </c>
-      <c r="G36" s="36">
-        <f t="shared" si="0"/>
-        <v>48386.573058779664</v>
-      </c>
-      <c r="N36" s="52"/>
-      <c r="O36" s="71"/>
+      <c r="O36" s="75"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="64">
+      <c r="B37" s="67">
         <v>1985</v>
       </c>
-      <c r="C37" s="62">
+      <c r="C37" s="65">
         <v>25</v>
       </c>
-      <c r="D37" s="46">
+      <c r="D37" s="49">
         <v>19860</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="31">
         <f t="shared" si="1"/>
         <v>22820.736360588879</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="39">
         <f t="shared" si="0"/>
         <v>47349.717921805815</v>
       </c>
-      <c r="N37" s="52"/>
-      <c r="O37" s="73"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="74"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="64">
+      <c r="B38" s="67">
         <v>1984</v>
       </c>
-      <c r="C38" s="62">
+      <c r="C38" s="65">
         <v>24</v>
       </c>
-      <c r="D38" s="46">
-        <v>0</v>
-      </c>
-      <c r="E38" s="29">
+      <c r="D38" s="49">
+        <v>0</v>
+      </c>
+      <c r="E38" s="31">
         <f t="shared" si="1"/>
         <v>22209.962394733699</v>
       </c>
-      <c r="G38" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="52"/>
-      <c r="O38" s="73"/>
+      <c r="G38" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="55"/>
+      <c r="O38" s="76"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="65">
+      <c r="B39" s="68">
         <v>1983</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="65">
         <v>23</v>
       </c>
-      <c r="D39" s="46">
-        <v>0</v>
-      </c>
-      <c r="E39" s="29">
+      <c r="D39" s="49">
+        <v>0</v>
+      </c>
+      <c r="E39" s="31">
         <f t="shared" si="1"/>
         <v>21615.535177356396</v>
       </c>
-      <c r="G39" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="52"/>
-      <c r="O39" s="72"/>
+      <c r="G39" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="55"/>
+      <c r="O39" s="76"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="21">
         <v>1982</v>
       </c>
-      <c r="C40" s="50">
+      <c r="C40" s="53">
         <v>22</v>
       </c>
-      <c r="D40" s="47">
-        <v>0</v>
-      </c>
-      <c r="E40" s="41">
+      <c r="D40" s="50">
+        <v>0</v>
+      </c>
+      <c r="E40" s="44">
         <f t="shared" si="1"/>
         <v>21037.017204239801</v>
       </c>
-      <c r="G40" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="52"/>
-      <c r="O40" s="53"/>
+      <c r="G40" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="55"/>
+      <c r="O40" s="75"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="21">
         <v>1981</v>
       </c>
-      <c r="C41" s="50">
+      <c r="C41" s="53">
         <v>21</v>
       </c>
-      <c r="D41" s="47">
-        <v>0</v>
-      </c>
-      <c r="E41" s="41">
+      <c r="D41" s="50">
+        <v>0</v>
+      </c>
+      <c r="E41" s="44">
         <f t="shared" si="1"/>
         <v>20473.982680525351</v>
       </c>
-      <c r="G41" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G41" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="55"/>
+      <c r="O41" s="56"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="21">
         <v>1980</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C42" s="53">
         <v>20</v>
       </c>
-      <c r="D42" s="47">
-        <v>0</v>
-      </c>
-      <c r="E42" s="41">
+      <c r="D42" s="50">
+        <v>0</v>
+      </c>
+      <c r="E42" s="44">
         <f t="shared" si="1"/>
         <v>19926.017207323941</v>
       </c>
-      <c r="G42" s="36">
+      <c r="G42" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3638,17 +3935,17 @@
       <c r="B43" s="21">
         <v>1979</v>
       </c>
-      <c r="C43" s="50">
+      <c r="C43" s="53">
         <v>19</v>
       </c>
-      <c r="D43" s="47">
-        <v>0</v>
-      </c>
-      <c r="E43" s="41">
+      <c r="D43" s="50">
+        <v>0</v>
+      </c>
+      <c r="E43" s="44">
         <f t="shared" si="1"/>
         <v>19392.717476714297</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3657,17 +3954,17 @@
       <c r="B44" s="21">
         <v>1978</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="54">
         <v>18</v>
       </c>
-      <c r="D44" s="47">
-        <v>0</v>
-      </c>
-      <c r="E44" s="41">
+      <c r="D44" s="50">
+        <v>0</v>
+      </c>
+      <c r="E44" s="44">
         <f t="shared" si="1"/>
         <v>18873.690974904424</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3682,11 +3979,11 @@
       <c r="D45" s="20">
         <v>0</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="31">
         <f t="shared" si="1"/>
         <v>18368.555693337639</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3701,11 +3998,11 @@
       <c r="D46" s="20">
         <v>0</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="31">
         <f t="shared" si="1"/>
         <v>17876.939847530546</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3720,11 +4017,11 @@
       <c r="D47" s="20">
         <v>0</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="31">
         <f t="shared" si="1"/>
         <v>17398.481603436052</v>
       </c>
-      <c r="G47" s="36">
+      <c r="G47" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3739,11 +4036,11 @@
       <c r="D48" s="20">
         <v>0</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="31">
         <f t="shared" si="1"/>
         <v>16932.828811129977</v>
       </c>
-      <c r="G48" s="36">
+      <c r="G48" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3758,11 +4055,11 @@
       <c r="D49" s="20">
         <v>0</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="31">
         <f t="shared" si="1"/>
         <v>16479.638745625281</v>
       </c>
-      <c r="G49" s="36">
+      <c r="G49" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3777,11 +4074,11 @@
       <c r="D50" s="20">
         <v>0</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="31">
         <f t="shared" si="1"/>
         <v>16038.577854623143</v>
       </c>
-      <c r="G50" s="36">
+      <c r="G50" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3796,11 +4093,11 @@
       <c r="D51" s="20">
         <v>0</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="31">
         <f t="shared" si="1"/>
         <v>15609.321513015224</v>
       </c>
-      <c r="G51" s="36">
+      <c r="G51" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3815,11 +4112,11 @@
       <c r="D52" s="20">
         <v>0</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="31">
         <f t="shared" si="1"/>
         <v>15191.55378395642</v>
       </c>
-      <c r="G52" s="36">
+      <c r="G52" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3834,11 +4131,11 @@
       <c r="D53" s="20">
         <v>0</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E53" s="31">
         <f t="shared" si="1"/>
         <v>14784.967186332282</v>
       </c>
-      <c r="G53" s="36">
+      <c r="G53" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3853,11 +4150,11 @@
       <c r="D54" s="20">
         <v>0</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="31">
         <f t="shared" si="1"/>
         <v>14389.262468449908</v>
       </c>
-      <c r="G54" s="36">
+      <c r="G54" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3872,11 +4169,11 @@
       <c r="D55" s="20">
         <v>0</v>
       </c>
-      <c r="E55" s="29">
+      <c r="E55" s="31">
         <f t="shared" si="1"/>
         <v>14004.148387785797</v>
       </c>
-      <c r="G55" s="36">
+      <c r="G55" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3891,11 +4188,11 @@
       <c r="D56" s="20">
         <v>0</v>
       </c>
-      <c r="E56" s="29">
+      <c r="E56" s="31">
         <f t="shared" si="1"/>
         <v>13629.341496628513</v>
       </c>
-      <c r="G56" s="36">
+      <c r="G56" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3910,11 +4207,11 @@
       <c r="D57" s="20">
         <v>0</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="31">
         <f t="shared" si="1"/>
         <v>13264.565933458405</v>
       </c>
-      <c r="G57" s="36">
+      <c r="G57" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3929,11 +4226,11 @@
       <c r="D58" s="20">
         <v>0</v>
       </c>
-      <c r="E58" s="29">
+      <c r="E58" s="31">
         <f t="shared" si="1"/>
         <v>12909.553219910855</v>
       </c>
-      <c r="G58" s="36">
+      <c r="G58" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3948,11 +4245,11 @@
       <c r="D59" s="20">
         <v>0</v>
       </c>
-      <c r="E59" s="29">
+      <c r="E59" s="31">
         <f t="shared" si="1"/>
         <v>12564.04206317358</v>
       </c>
-      <c r="G59" s="36">
+      <c r="G59" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3967,11 +4264,11 @@
       <c r="D60" s="20">
         <v>0</v>
       </c>
-      <c r="E60" s="29">
+      <c r="E60" s="31">
         <f t="shared" si="1"/>
         <v>12227.778163672583</v>
       </c>
-      <c r="G60" s="36">
+      <c r="G60" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3986,30 +4283,30 @@
       <c r="D61" s="20">
         <v>0</v>
       </c>
-      <c r="E61" s="29">
+      <c r="E61" s="31">
         <f t="shared" si="1"/>
         <v>11900.51402790519</v>
       </c>
-      <c r="G61" s="36">
+      <c r="G61" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="23">
+      <c r="B62" s="25">
         <v>1960</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="26">
         <v>0</v>
       </c>
       <c r="D62" s="20">
         <v>0</v>
       </c>
-      <c r="E62" s="29">
+      <c r="E62" s="31">
         <f t="shared" si="1"/>
         <v>11582.008786282422</v>
       </c>
-      <c r="G62" s="37">
+      <c r="G62" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4017,7 +4314,7 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
     <mergeCell ref="N18:O18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4026,10 +4323,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF3058D-9527-44EF-BE25-5C09CA35E4DB}">
-  <dimension ref="B1:N67"/>
+  <dimension ref="B1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4049,15 +4346,15 @@
     <col min="14" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="48" t="s">
+    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -4066,56 +4363,56 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="91" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="59">
+    <row r="3" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="62">
         <v>2024</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="59">
         <v>64</v>
       </c>
-      <c r="D3" s="84">
+      <c r="D3" s="87">
         <f t="shared" ref="D3:D6" si="0">D4*(1+$N$6)</f>
         <v>54360.857384573552</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="31">
         <f t="shared" ref="E3:E6" si="1">E4*(1+$N$6)</f>
         <v>65738.689948352316</v>
       </c>
-      <c r="G3" s="86">
+      <c r="G3" s="92">
         <f>D3*($N$9/E3)</f>
         <v>51527.872455631288</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="26"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="60">
+      <c r="N3" s="28"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="63">
         <v>2023</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="60">
         <v>63</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D4" s="87">
         <f t="shared" si="0"/>
         <v>52905.943926592263</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="31">
         <f t="shared" si="1"/>
         <v>63979.260290367209</v>
       </c>
-      <c r="G4" s="86">
+      <c r="G4" s="92">
         <f t="shared" ref="G4:G66" si="2">D4*($N$9/E4)</f>
         <v>51527.872455631288</v>
       </c>
@@ -4128,123 +4425,123 @@
       <c r="M4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="27">
         <v>57400</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="60">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="63">
         <v>2022</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="60">
         <v>62</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="87">
         <f t="shared" si="0"/>
         <v>51489.969758240644</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="31">
         <f t="shared" si="1"/>
         <v>62266.919990625014</v>
       </c>
-      <c r="G5" s="86">
+      <c r="G5" s="92">
         <f t="shared" si="2"/>
         <v>51527.872455631295</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="29">
         <f>N15</f>
         <v>13616.166566756545</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="29">
         <v>7217</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="60">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="63">
         <v>2021</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="60">
         <v>61</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="87">
         <f t="shared" si="0"/>
         <v>50111.892708750012</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="31">
         <f t="shared" si="1"/>
         <v>60600.40875000001</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="92">
         <f t="shared" si="2"/>
         <v>51527.872455631295</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="27">
-        <f>N30</f>
+      <c r="J6" s="29">
+        <f>N31</f>
         <v>8492.7372614038886</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="70">
+        <v>36</v>
+      </c>
+      <c r="N6" s="73">
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="60">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="63">
         <v>2020</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="60">
         <v>60</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7" s="87">
         <f>D8*(1+$N$6)</f>
         <v>48770.698500000006</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="31">
         <f>E8*(1+$N$6)</f>
         <v>58978.500000000007</v>
       </c>
-      <c r="G7" s="86">
+      <c r="G7" s="92">
         <f t="shared" si="2"/>
         <v>51527.872455631295</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="27">
-        <f>N32</f>
+      <c r="J7" s="29">
+        <f>N33</f>
         <v>7627.291365363878</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="29">
         <v>10779.84</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="60">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="63">
         <v>2019</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="60">
         <v>59</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="47">
         <v>47465.4</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="83">
         <v>57400</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="92">
         <f t="shared" si="2"/>
         <v>51527.872455631288</v>
       </c>
@@ -4255,93 +4552,96 @@
         <v>0</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="30">
+        <v>42</v>
+      </c>
+      <c r="N8" s="32">
         <f>65-18</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="60">
+      <c r="O8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="63">
         <v>2018</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="60">
         <v>58</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="47">
         <v>46671</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="83">
         <f>E8/(1.0275)</f>
         <v>55863.746958637465</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="92">
         <f t="shared" si="2"/>
         <v>52058.782020158455</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="18">
         <v>0</v>
       </c>
       <c r="M9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="29">
         <f>AVERAGE(E3:E7)</f>
         <v>62312.755795868907</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="60">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="63">
         <v>2017</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="60">
         <v>57</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="47">
         <v>46323.45</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="83">
         <f t="shared" ref="E10:E67" si="3">E9/(1.0275)</f>
         <v>54368.610178722593</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="92">
         <f t="shared" si="2"/>
         <v>53092.065770734102</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="71">
         <f>SUM(J5:J7)</f>
         <v>29736.195193524312</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="32">
         <f>N8-7</f>
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="60">
+    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="63">
         <v>2016</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="60">
         <v>56</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="47">
         <v>45538.98</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E11" s="83">
         <f t="shared" si="3"/>
         <v>52913.489225034151</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="92">
         <f t="shared" si="2"/>
         <v>53628.278563614738</v>
       </c>
@@ -4355,716 +4655,718 @@
       <c r="M11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="32">
         <f>N10*0.15</f>
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="60">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="63">
         <v>2015</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="60">
         <v>55</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="47">
         <v>44665.14</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="83">
         <f t="shared" si="3"/>
         <v>51497.313114388468</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="92">
         <f t="shared" si="2"/>
         <v>54045.692737912206</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="67">
+      <c r="N12" s="70">
         <f>AVERAGE(G3:G29,G37:G43)</f>
         <v>54464.666267026179</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="60">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="63">
         <v>2014</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="60">
         <v>54</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="47">
         <v>43811.159999999996</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="83">
         <f t="shared" si="3"/>
         <v>50119.039527385365</v>
       </c>
-      <c r="G13" s="86">
+      <c r="G13" s="92">
         <f t="shared" si="2"/>
         <v>54470.200146633957</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="67">
+      <c r="N13" s="70">
         <f>N12*0.25</f>
         <v>13616.166566756545</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="60">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="63">
         <v>2013</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="60">
         <v>53</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="47">
         <v>42699</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="83">
         <f t="shared" si="3"/>
         <v>48777.654041250957</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G14" s="92">
         <f t="shared" si="2"/>
         <v>54547.362148201624</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="60">
+      <c r="N14" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="63">
         <v>2012</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="60">
         <v>52</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="47">
         <v>42291.87</v>
       </c>
-      <c r="E15" s="80">
+      <c r="E15" s="83">
         <f t="shared" si="3"/>
         <v>47472.169383212604</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G15" s="92">
         <f t="shared" si="2"/>
         <v>55513.009026138025</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="30">
         <f>N13*(1-N14/100)</f>
         <v>13616.166566756545</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="60">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="63">
         <v>2011</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="60">
         <v>51</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="47">
         <v>41576.909999999996</v>
       </c>
-      <c r="E16" s="80">
+      <c r="E16" s="83">
         <f t="shared" si="3"/>
         <v>46201.624703856542</v>
       </c>
-      <c r="G16" s="86">
+      <c r="G16" s="92">
         <f t="shared" si="2"/>
         <v>56075.340557462318</v>
       </c>
-      <c r="M16" s="52"/>
-      <c r="N16" s="66"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="69"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="60">
+      <c r="B17" s="63">
         <v>2010</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="60">
         <v>50</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="47">
         <v>40812.300000000003</v>
       </c>
-      <c r="E17" s="80">
+      <c r="E17" s="83">
         <f t="shared" si="3"/>
         <v>44965.084869933373</v>
       </c>
-      <c r="G17" s="86">
+      <c r="G17" s="92">
         <f t="shared" si="2"/>
         <v>56557.813484040445</v>
       </c>
-      <c r="M17" s="52"/>
-      <c r="N17" s="66"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="69"/>
     </row>
     <row r="18" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="60">
+      <c r="B18" s="63">
         <v>2009</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="60">
         <v>49</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="47">
         <v>40137.06</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="83">
         <f t="shared" si="3"/>
         <v>43761.639776090873</v>
       </c>
-      <c r="G18" s="86">
+      <c r="G18" s="92">
         <f t="shared" si="2"/>
         <v>57151.670525622867</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="26"/>
+      <c r="N18" s="28"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="60">
+      <c r="B19" s="63">
         <v>2008</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="60">
         <v>48</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="47">
         <v>39620.699999999997</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="83">
         <f t="shared" si="3"/>
         <v>42590.403675027614</v>
       </c>
-      <c r="G19" s="86">
+      <c r="G19" s="92">
         <f t="shared" si="2"/>
         <v>57967.870471464419</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="31"/>
+      <c r="N19" s="33"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="60">
+      <c r="B20" s="63">
         <v>2007</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="60">
         <v>47</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="47">
         <v>38766.720000000001</v>
       </c>
-      <c r="E20" s="80">
+      <c r="E20" s="83">
         <f t="shared" si="3"/>
         <v>41450.514525574319</v>
       </c>
-      <c r="G20" s="86">
+      <c r="G20" s="92">
         <f t="shared" si="2"/>
         <v>58278.194710379335</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="32"/>
+      <c r="N20" s="34"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="60">
+      <c r="B21" s="63">
         <v>2006</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="60">
         <v>46</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="47">
         <v>37882.949999999997</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="83">
         <f t="shared" si="3"/>
         <v>40341.133358223182</v>
       </c>
-      <c r="G21" s="86">
+      <c r="G21" s="92">
         <f t="shared" si="2"/>
         <v>58515.733586744311</v>
       </c>
       <c r="M21" s="12"/>
-      <c r="N21" s="27"/>
+      <c r="N21" s="29"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="60">
+      <c r="B22" s="63">
         <v>2005</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="60">
         <v>45</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="47">
         <v>37336.800000000003</v>
       </c>
-      <c r="E22" s="80">
+      <c r="E22" s="83">
         <f t="shared" si="3"/>
         <v>39261.443657638127</v>
       </c>
-      <c r="G22" s="86">
+      <c r="G22" s="92">
         <f t="shared" si="2"/>
         <v>59258.108817569606</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="39"/>
+      <c r="N22" s="42"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="60">
+      <c r="B23" s="63">
         <v>2004</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="60">
         <v>44</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="47">
         <v>36403.379999999997</v>
       </c>
-      <c r="E23" s="80">
+      <c r="E23" s="83">
         <f t="shared" si="3"/>
         <v>38210.650761691606</v>
       </c>
-      <c r="G23" s="86">
+      <c r="G23" s="92">
         <f t="shared" si="2"/>
         <v>59365.514139801453</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="40"/>
+      <c r="N23" s="43"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="60">
+      <c r="B24" s="63">
         <v>2003</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="60">
         <v>43</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="47">
         <v>34755</v>
       </c>
-      <c r="E24" s="80">
+      <c r="E24" s="83">
         <f t="shared" si="3"/>
         <v>37187.981276585502</v>
       </c>
-      <c r="G24" s="86">
+      <c r="G24" s="92">
         <f t="shared" si="2"/>
         <v>58236.01479139689</v>
       </c>
       <c r="M24" s="12"/>
-      <c r="N24" s="27"/>
+      <c r="N24" s="29"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="60">
+      <c r="B25" s="63">
         <v>2002</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="60">
         <v>42</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="47">
         <v>34546.47</v>
       </c>
-      <c r="E25" s="80">
+      <c r="E25" s="83">
         <f t="shared" si="3"/>
         <v>36192.682507625788</v>
       </c>
-      <c r="G25" s="86">
+      <c r="G25" s="92">
         <f t="shared" si="2"/>
         <v>59478.480166971349</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N25" s="42"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="60">
+      <c r="B26" s="63">
         <v>2001</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="60">
         <v>41</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="47">
         <v>33920.879999999997</v>
       </c>
-      <c r="E26" s="80">
+      <c r="E26" s="83">
         <f t="shared" si="3"/>
         <v>35224.021905231908</v>
       </c>
-      <c r="G26" s="86">
+      <c r="G26" s="92">
         <f t="shared" si="2"/>
         <v>60007.443712923086</v>
       </c>
       <c r="M26" s="12"/>
-      <c r="N26" s="27"/>
+      <c r="N26" s="29"/>
     </row>
     <row r="27" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="60">
+      <c r="B27" s="63">
         <v>2000</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="60">
         <v>40</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="47">
         <v>32769</v>
       </c>
-      <c r="E27" s="80">
+      <c r="E27" s="83">
         <f t="shared" si="3"/>
         <v>34281.286525773146</v>
       </c>
-      <c r="G27" s="86">
+      <c r="G27" s="92">
         <f t="shared" si="2"/>
         <v>59563.88752037294</v>
       </c>
-      <c r="M27" s="54" t="s">
+      <c r="M27" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="55"/>
+      <c r="N27" s="58"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="60">
+      <c r="B28" s="63">
         <v>1999</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="60">
         <v>39</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="47">
         <v>32351.94</v>
       </c>
-      <c r="E28" s="80">
+      <c r="E28" s="83">
         <f t="shared" si="3"/>
         <v>33363.782506835174</v>
       </c>
-      <c r="G28" s="86">
+      <c r="G28" s="92">
         <f t="shared" si="2"/>
         <v>60422.961225382693</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="61">
+      <c r="M28" s="55"/>
+      <c r="N28" s="56"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="64">
         <v>1998</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="60">
         <v>38</v>
       </c>
-      <c r="D29" s="44">
+      <c r="D29" s="47">
         <v>31155.375</v>
       </c>
-      <c r="E29" s="80">
+      <c r="E29" s="83">
         <f t="shared" si="3"/>
         <v>32470.834556530579</v>
       </c>
-      <c r="G29" s="86">
+      <c r="G29" s="92">
         <f t="shared" si="2"/>
         <v>59788.339308737188</v>
       </c>
-      <c r="M29" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="N29" s="69"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="22">
         <v>1997</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="52">
         <v>37</v>
       </c>
-      <c r="D30" s="45">
-        <v>0</v>
-      </c>
-      <c r="E30" s="82">
+      <c r="D30" s="48">
+        <v>0</v>
+      </c>
+      <c r="E30" s="85">
         <f t="shared" si="3"/>
         <v>31601.785456477446</v>
       </c>
-      <c r="G30" s="86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="N30" s="74">
-        <f>N5*(1+N6)^6</f>
-        <v>8492.7372614038886</v>
-      </c>
+      <c r="G30" s="92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" s="72"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="22">
         <v>1996</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="52">
         <v>36</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="48">
         <v>1492</v>
       </c>
-      <c r="E31" s="82">
+      <c r="E31" s="85">
         <f t="shared" si="3"/>
         <v>30755.995578080237</v>
       </c>
-      <c r="G31" s="86">
+      <c r="G31" s="92">
         <f t="shared" si="2"/>
         <v>3022.8457866503422</v>
       </c>
-      <c r="M31" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="N31" s="75">
+      <c r="M31" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="N31" s="77">
+        <f>N5*(1+N6)^6</f>
+        <v>8492.7372614038886</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="22">
+        <v>1995</v>
+      </c>
+      <c r="C32" s="52">
+        <v>35</v>
+      </c>
+      <c r="D32" s="48">
+        <v>1302</v>
+      </c>
+      <c r="E32" s="85">
+        <f t="shared" si="3"/>
+        <v>29932.842411756919</v>
+      </c>
+      <c r="G32" s="92">
+        <f t="shared" si="2"/>
+        <v>2710.4411579153898</v>
+      </c>
+      <c r="M32" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32" s="78">
         <f>N7*(1+N6)^6</f>
         <v>12685.37464874215</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="22">
-        <v>1995</v>
-      </c>
-      <c r="C32" s="49">
-        <v>35</v>
-      </c>
-      <c r="D32" s="45">
-        <v>1302</v>
-      </c>
-      <c r="E32" s="82">
-        <f t="shared" si="3"/>
-        <v>29932.842411756919</v>
-      </c>
-      <c r="G32" s="86">
-        <f t="shared" si="2"/>
-        <v>2710.4411579153898</v>
-      </c>
-      <c r="M32" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="N32" s="79">
-        <f>N31-((N15-3500)/2)</f>
-        <v>7627.291365363878</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="22">
         <v>1994</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="52">
         <v>34</v>
       </c>
-      <c r="D33" s="45">
-        <v>0</v>
-      </c>
-      <c r="E33" s="82">
+      <c r="D33" s="48">
+        <v>0</v>
+      </c>
+      <c r="E33" s="85">
         <f t="shared" si="3"/>
         <v>29131.720108765858</v>
       </c>
-      <c r="G33" s="86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="N33" s="53"/>
+      <c r="G33" s="92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="82">
+        <f>N32-((N15-3500)/2)</f>
+        <v>7627.291365363878</v>
+      </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="22">
         <v>1993</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C34" s="52">
         <v>33</v>
       </c>
-      <c r="D34" s="45">
-        <v>0</v>
-      </c>
-      <c r="E34" s="82">
+      <c r="D34" s="48">
+        <v>0</v>
+      </c>
+      <c r="E34" s="85">
         <f t="shared" si="3"/>
         <v>28352.039035295238</v>
       </c>
-      <c r="G34" s="86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="N34" s="72"/>
+      <c r="G34" s="92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" s="56"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="22">
         <v>1992</v>
       </c>
-      <c r="C35" s="49">
+      <c r="C35" s="52">
         <v>32</v>
       </c>
-      <c r="D35" s="45">
-        <v>0</v>
-      </c>
-      <c r="E35" s="82">
+      <c r="D35" s="48">
+        <v>0</v>
+      </c>
+      <c r="E35" s="85">
         <f t="shared" si="3"/>
         <v>27593.225338486849</v>
       </c>
-      <c r="G35" s="86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G35" s="92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="N35" s="75"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="22">
         <v>1991</v>
       </c>
-      <c r="C36" s="49">
+      <c r="C36" s="52">
         <v>31</v>
       </c>
-      <c r="D36" s="45">
-        <v>0</v>
-      </c>
-      <c r="E36" s="82">
+      <c r="D36" s="48">
+        <v>0</v>
+      </c>
+      <c r="E36" s="85">
         <f t="shared" si="3"/>
         <v>26854.72052407479</v>
       </c>
-      <c r="G36" s="86">
+      <c r="G36" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="59">
+      <c r="B37" s="62">
         <v>1990</v>
       </c>
-      <c r="C37" s="57">
+      <c r="C37" s="60">
         <v>30</v>
       </c>
-      <c r="D37" s="44">
+      <c r="D37" s="47">
         <v>24854.79</v>
       </c>
-      <c r="E37" s="80">
+      <c r="E37" s="83">
         <f t="shared" si="3"/>
         <v>26135.981045328259</v>
       </c>
-      <c r="G37" s="86">
+      <c r="G37" s="92">
         <f t="shared" si="2"/>
         <v>59258.171979139981</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="60">
+      <c r="B38" s="63">
         <v>1989</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="60">
         <v>29</v>
       </c>
-      <c r="D38" s="44">
+      <c r="D38" s="47">
         <v>24825</v>
       </c>
-      <c r="E38" s="80">
+      <c r="E38" s="83">
         <f t="shared" si="3"/>
         <v>25436.47790299587</v>
       </c>
-      <c r="G38" s="86">
+      <c r="G38" s="92">
         <f t="shared" si="2"/>
         <v>60814.793955819347</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="60">
+      <c r="B39" s="63">
         <v>1988</v>
       </c>
-      <c r="C39" s="57">
+      <c r="C39" s="60">
         <v>28</v>
       </c>
-      <c r="D39" s="44">
+      <c r="D39" s="47">
         <v>22789.35</v>
       </c>
-      <c r="E39" s="80">
+      <c r="E39" s="83">
         <f t="shared" si="3"/>
         <v>24755.696255957049</v>
       </c>
-      <c r="G39" s="86">
+      <c r="G39" s="92">
         <f t="shared" si="2"/>
         <v>57363.250324856825</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="60">
+      <c r="B40" s="63">
         <v>1987</v>
       </c>
-      <c r="C40" s="57">
+      <c r="C40" s="60">
         <v>27</v>
       </c>
-      <c r="D40" s="44">
+      <c r="D40" s="47">
         <v>22243.200000000001</v>
       </c>
-      <c r="E40" s="80">
+      <c r="E40" s="83">
         <f t="shared" si="3"/>
         <v>24093.135042293965</v>
       </c>
-      <c r="G40" s="86">
+      <c r="G40" s="92">
         <f t="shared" si="2"/>
         <v>57528.216534941384</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="60">
+      <c r="B41" s="63">
         <v>1986</v>
       </c>
-      <c r="C41" s="57">
+      <c r="C41" s="60">
         <v>26</v>
       </c>
-      <c r="D41" s="44">
+      <c r="D41" s="47">
         <v>20853</v>
       </c>
-      <c r="E41" s="80">
+      <c r="E41" s="83">
         <f t="shared" si="3"/>
         <v>23448.306610505075</v>
       </c>
-      <c r="G41" s="86">
+      <c r="G41" s="92">
         <f t="shared" si="2"/>
         <v>55415.852334049006</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="60">
+      <c r="B42" s="63">
         <v>1985</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="60">
         <v>25</v>
       </c>
-      <c r="D42" s="44">
+      <c r="D42" s="47">
         <v>19860</v>
       </c>
-      <c r="E42" s="80">
+      <c r="E42" s="83">
         <f t="shared" si="3"/>
         <v>22820.736360588879</v>
       </c>
-      <c r="G42" s="86">
+      <c r="G42" s="92">
         <f t="shared" si="2"/>
         <v>54228.369784033675</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="65">
+      <c r="B43" s="68">
         <v>1984</v>
       </c>
-      <c r="C43" s="62">
+      <c r="C43" s="65">
         <v>24</v>
       </c>
-      <c r="D43" s="46">
-        <v>0</v>
-      </c>
-      <c r="E43" s="83">
+      <c r="D43" s="49">
+        <v>0</v>
+      </c>
+      <c r="E43" s="86">
         <f t="shared" si="3"/>
         <v>22209.962394733699</v>
       </c>
-      <c r="G43" s="86">
+      <c r="G43" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5073,17 +5375,17 @@
       <c r="B44" s="21">
         <v>1983</v>
       </c>
-      <c r="C44" s="50">
+      <c r="C44" s="53">
         <v>23</v>
       </c>
-      <c r="D44" s="47">
-        <v>0</v>
-      </c>
-      <c r="E44" s="81">
+      <c r="D44" s="50">
+        <v>0</v>
+      </c>
+      <c r="E44" s="84">
         <f t="shared" si="3"/>
         <v>21615.535177356396</v>
       </c>
-      <c r="G44" s="86">
+      <c r="G44" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5092,17 +5394,17 @@
       <c r="B45" s="21">
         <v>1982</v>
       </c>
-      <c r="C45" s="50">
+      <c r="C45" s="53">
         <v>22</v>
       </c>
-      <c r="D45" s="47">
-        <v>0</v>
-      </c>
-      <c r="E45" s="81">
+      <c r="D45" s="50">
+        <v>0</v>
+      </c>
+      <c r="E45" s="84">
         <f t="shared" si="3"/>
         <v>21037.017204239801</v>
       </c>
-      <c r="G45" s="86">
+      <c r="G45" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5111,17 +5413,17 @@
       <c r="B46" s="21">
         <v>1981</v>
       </c>
-      <c r="C46" s="50">
+      <c r="C46" s="53">
         <v>21</v>
       </c>
-      <c r="D46" s="47">
-        <v>0</v>
-      </c>
-      <c r="E46" s="81">
+      <c r="D46" s="50">
+        <v>0</v>
+      </c>
+      <c r="E46" s="84">
         <f t="shared" si="3"/>
         <v>20473.982680525351</v>
       </c>
-      <c r="G46" s="86">
+      <c r="G46" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5130,17 +5432,17 @@
       <c r="B47" s="21">
         <v>1980</v>
       </c>
-      <c r="C47" s="50">
+      <c r="C47" s="53">
         <v>20</v>
       </c>
-      <c r="D47" s="47">
-        <v>0</v>
-      </c>
-      <c r="E47" s="81">
+      <c r="D47" s="50">
+        <v>0</v>
+      </c>
+      <c r="E47" s="84">
         <f t="shared" si="3"/>
         <v>19926.017207323941</v>
       </c>
-      <c r="G47" s="86">
+      <c r="G47" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5149,17 +5451,17 @@
       <c r="B48" s="21">
         <v>1979</v>
       </c>
-      <c r="C48" s="50">
+      <c r="C48" s="53">
         <v>19</v>
       </c>
-      <c r="D48" s="47">
-        <v>0</v>
-      </c>
-      <c r="E48" s="81">
+      <c r="D48" s="50">
+        <v>0</v>
+      </c>
+      <c r="E48" s="84">
         <f t="shared" si="3"/>
         <v>19392.717476714297</v>
       </c>
-      <c r="G48" s="86">
+      <c r="G48" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5168,17 +5470,17 @@
       <c r="B49" s="21">
         <v>1978</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C49" s="54">
         <v>18</v>
       </c>
-      <c r="D49" s="47">
-        <v>0</v>
-      </c>
-      <c r="E49" s="81">
+      <c r="D49" s="50">
+        <v>0</v>
+      </c>
+      <c r="E49" s="84">
         <f t="shared" si="3"/>
         <v>18873.690974904424</v>
       </c>
-      <c r="G49" s="86">
+      <c r="G49" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5193,11 +5495,11 @@
       <c r="D50" s="20">
         <v>0</v>
       </c>
-      <c r="E50" s="80">
+      <c r="E50" s="83">
         <f t="shared" si="3"/>
         <v>18368.555693337639</v>
       </c>
-      <c r="G50" s="86">
+      <c r="G50" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5212,11 +5514,11 @@
       <c r="D51" s="20">
         <v>0</v>
       </c>
-      <c r="E51" s="80">
+      <c r="E51" s="83">
         <f t="shared" si="3"/>
         <v>17876.939847530546</v>
       </c>
-      <c r="G51" s="86">
+      <c r="G51" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5231,11 +5533,11 @@
       <c r="D52" s="20">
         <v>0</v>
       </c>
-      <c r="E52" s="80">
+      <c r="E52" s="83">
         <f t="shared" si="3"/>
         <v>17398.481603436052</v>
       </c>
-      <c r="G52" s="86">
+      <c r="G52" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5250,11 +5552,11 @@
       <c r="D53" s="20">
         <v>0</v>
       </c>
-      <c r="E53" s="80">
+      <c r="E53" s="83">
         <f t="shared" si="3"/>
         <v>16932.828811129977</v>
       </c>
-      <c r="G53" s="86">
+      <c r="G53" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5269,11 +5571,11 @@
       <c r="D54" s="20">
         <v>0</v>
       </c>
-      <c r="E54" s="80">
+      <c r="E54" s="83">
         <f t="shared" si="3"/>
         <v>16479.638745625281</v>
       </c>
-      <c r="G54" s="86">
+      <c r="G54" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5288,11 +5590,11 @@
       <c r="D55" s="20">
         <v>0</v>
       </c>
-      <c r="E55" s="80">
+      <c r="E55" s="83">
         <f t="shared" si="3"/>
         <v>16038.577854623143</v>
       </c>
-      <c r="G55" s="86">
+      <c r="G55" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5307,11 +5609,11 @@
       <c r="D56" s="20">
         <v>0</v>
       </c>
-      <c r="E56" s="80">
+      <c r="E56" s="83">
         <f t="shared" si="3"/>
         <v>15609.321513015224</v>
       </c>
-      <c r="G56" s="86">
+      <c r="G56" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5326,11 +5628,11 @@
       <c r="D57" s="20">
         <v>0</v>
       </c>
-      <c r="E57" s="80">
+      <c r="E57" s="83">
         <f t="shared" si="3"/>
         <v>15191.55378395642</v>
       </c>
-      <c r="G57" s="86">
+      <c r="G57" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5345,11 +5647,11 @@
       <c r="D58" s="20">
         <v>0</v>
       </c>
-      <c r="E58" s="80">
+      <c r="E58" s="83">
         <f t="shared" si="3"/>
         <v>14784.967186332282</v>
       </c>
-      <c r="G58" s="86">
+      <c r="G58" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5364,11 +5666,11 @@
       <c r="D59" s="20">
         <v>0</v>
       </c>
-      <c r="E59" s="80">
+      <c r="E59" s="83">
         <f t="shared" si="3"/>
         <v>14389.262468449908</v>
       </c>
-      <c r="G59" s="86">
+      <c r="G59" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5383,11 +5685,11 @@
       <c r="D60" s="20">
         <v>0</v>
       </c>
-      <c r="E60" s="80">
+      <c r="E60" s="83">
         <f t="shared" si="3"/>
         <v>14004.148387785797</v>
       </c>
-      <c r="G60" s="86">
+      <c r="G60" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5402,11 +5704,11 @@
       <c r="D61" s="20">
         <v>0</v>
       </c>
-      <c r="E61" s="80">
+      <c r="E61" s="83">
         <f t="shared" si="3"/>
         <v>13629.341496628513</v>
       </c>
-      <c r="G61" s="86">
+      <c r="G61" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5421,11 +5723,11 @@
       <c r="D62" s="20">
         <v>0</v>
       </c>
-      <c r="E62" s="80">
+      <c r="E62" s="83">
         <f t="shared" si="3"/>
         <v>13264.565933458405</v>
       </c>
-      <c r="G62" s="86">
+      <c r="G62" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5440,11 +5742,11 @@
       <c r="D63" s="20">
         <v>0</v>
       </c>
-      <c r="E63" s="80">
+      <c r="E63" s="83">
         <f t="shared" si="3"/>
         <v>12909.553219910855</v>
       </c>
-      <c r="G63" s="86">
+      <c r="G63" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5459,11 +5761,11 @@
       <c r="D64" s="20">
         <v>0</v>
       </c>
-      <c r="E64" s="80">
+      <c r="E64" s="83">
         <f t="shared" si="3"/>
         <v>12564.04206317358</v>
       </c>
-      <c r="G64" s="86">
+      <c r="G64" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5478,11 +5780,11 @@
       <c r="D65" s="20">
         <v>0</v>
       </c>
-      <c r="E65" s="80">
+      <c r="E65" s="83">
         <f t="shared" si="3"/>
         <v>12227.778163672583</v>
       </c>
-      <c r="G65" s="86">
+      <c r="G65" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5497,26 +5799,26 @@
       <c r="D66" s="20">
         <v>0</v>
       </c>
-      <c r="E66" s="80">
+      <c r="E66" s="83">
         <f t="shared" si="3"/>
         <v>11900.51402790519</v>
       </c>
-      <c r="G66" s="86">
+      <c r="G66" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="23">
+      <c r="B67" s="25">
         <v>1960</v>
       </c>
-      <c r="C67" s="24">
+      <c r="C67" s="26">
         <v>0</v>
       </c>
       <c r="D67" s="20">
         <v>0</v>
       </c>
-      <c r="E67" s="80">
+      <c r="E67" s="83">
         <f t="shared" si="3"/>
         <v>11582.008786282422</v>
       </c>
@@ -5525,7 +5827,7 @@
   <mergeCells count="3">
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5533,10 +5835,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D06BBD0-3540-47FD-9C64-4AC625E42B0E}">
-  <dimension ref="B1:J11"/>
+  <dimension ref="B1:T62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5546,86 +5848,2329 @@
     <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="5"/>
     <col min="5" max="5" width="10.85546875" style="6"/>
-    <col min="6" max="8" width="10.85546875" style="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1"/>
     <col min="9" max="9" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.85546875" style="1"/>
+    <col min="13" max="13" width="48.85546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
+      </c>
+      <c r="F2" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="112" t="s">
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="103">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="59">
+        <v>59</v>
+      </c>
+      <c r="D3" s="46">
+        <v>48761</v>
+      </c>
+      <c r="E3" s="109">
+        <v>57400</v>
+      </c>
+      <c r="F3" s="88"/>
+      <c r="G3" s="113">
+        <f>D3*($N$9/E3)</f>
+        <v>46219.848429433448</v>
+      </c>
       <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M3" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="28"/>
+      <c r="P3" s="2">
+        <v>2019</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>59</v>
+      </c>
+      <c r="R3" s="19">
+        <v>49248</v>
+      </c>
+      <c r="S3" s="86">
+        <v>57400</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="104">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="60">
+        <v>58</v>
+      </c>
+      <c r="D4" s="47">
+        <v>47945</v>
+      </c>
+      <c r="E4" s="109">
+        <f>E3/(1.0275)</f>
+        <v>55863.746958637465</v>
+      </c>
+      <c r="F4" s="89"/>
+      <c r="G4" s="113">
+        <f t="shared" ref="G4:G22" si="0">D4*($N$9/E4)</f>
+        <v>46696.149081341428</v>
+      </c>
       <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="27">
+        <f>N34</f>
+        <v>26871.263999999999</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="27">
+        <v>57400</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2018</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>58</v>
+      </c>
+      <c r="R4" s="20">
+        <v>48424</v>
+      </c>
+      <c r="S4" s="86">
+        <f>S3/(1.0275)</f>
+        <v>55863.746958637465</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="104">
+        <v>2017</v>
+      </c>
+      <c r="C5" s="60">
+        <v>57</v>
+      </c>
+      <c r="D5" s="47">
+        <v>47588</v>
+      </c>
+      <c r="E5" s="109">
+        <f t="shared" ref="E5:E62" si="1">E4/(1.0275)</f>
+        <v>54368.610178722593</v>
+      </c>
+      <c r="F5" s="89"/>
+      <c r="G5" s="113">
+        <f t="shared" si="0"/>
+        <v>47623.030386925755</v>
+      </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="29">
+        <f>N15</f>
+        <v>8294.3124315418499</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="29">
+        <v>7217</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2017</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>57</v>
+      </c>
+      <c r="R5" s="20">
+        <v>48064</v>
+      </c>
+      <c r="S5" s="86">
+        <f t="shared" ref="S5:S62" si="2">S4/(1.0275)</f>
+        <v>54368.610178722593</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="104">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="60">
+        <v>56</v>
+      </c>
+      <c r="D6" s="47">
+        <v>46782</v>
+      </c>
+      <c r="E6" s="109">
+        <f t="shared" si="1"/>
+        <v>52913.489225034151</v>
+      </c>
+      <c r="F6" s="89"/>
+      <c r="G6" s="113">
+        <f t="shared" si="0"/>
+        <v>48103.88909534111</v>
+      </c>
       <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="73">
+        <v>2.75E-2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2016</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>56</v>
+      </c>
+      <c r="R6" s="20">
+        <v>47250</v>
+      </c>
+      <c r="S6" s="86">
+        <f t="shared" si="2"/>
+        <v>52913.489225034151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="104">
+        <v>2015</v>
+      </c>
+      <c r="C7" s="60">
+        <v>55</v>
+      </c>
+      <c r="D7" s="47">
+        <v>45884</v>
+      </c>
+      <c r="E7" s="109">
+        <f t="shared" si="1"/>
+        <v>51497.313114388468</v>
+      </c>
+      <c r="F7" s="89"/>
+      <c r="G7" s="113">
+        <f t="shared" si="0"/>
+        <v>48477.979042153478</v>
+      </c>
       <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="29">
+        <v>10779.84</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2015</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>55</v>
+      </c>
+      <c r="R7" s="20">
+        <v>46343</v>
+      </c>
+      <c r="S7" s="86">
+        <f t="shared" si="2"/>
+        <v>51497.313114388468</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="104">
+        <v>2014</v>
+      </c>
+      <c r="C8" s="60">
+        <v>54</v>
+      </c>
+      <c r="D8" s="47">
+        <v>45007</v>
+      </c>
+      <c r="E8" s="109">
+        <f t="shared" si="1"/>
+        <v>50119.039527385365</v>
+      </c>
+      <c r="F8" s="89"/>
+      <c r="G8" s="113">
+        <f t="shared" si="0"/>
+        <v>48859.062719593581</v>
+      </c>
       <c r="I8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="32">
+        <f>60-18</f>
+        <v>42</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="2">
+        <v>2014</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>54</v>
+      </c>
+      <c r="R8" s="20">
+        <v>45457</v>
+      </c>
+      <c r="S8" s="86">
+        <f t="shared" si="2"/>
+        <v>50119.039527385365</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="104">
+        <v>2013</v>
+      </c>
+      <c r="C9" s="60">
+        <v>53</v>
+      </c>
+      <c r="D9" s="47">
+        <v>43864</v>
+      </c>
+      <c r="E9" s="109">
+        <f t="shared" si="1"/>
+        <v>48777.654041250957</v>
+      </c>
+      <c r="F9" s="89"/>
+      <c r="G9" s="113">
+        <f t="shared" si="0"/>
+        <v>48927.737021538662</v>
+      </c>
       <c r="I9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="29">
+        <f>AVERAGE(E3:E7)</f>
+        <v>54408.631895356535</v>
+      </c>
+      <c r="P9" s="2">
+        <v>2013</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>53</v>
+      </c>
+      <c r="R9" s="20">
+        <v>44303</v>
+      </c>
+      <c r="S9" s="86">
+        <f t="shared" si="2"/>
+        <v>48777.654041250957</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="104">
+        <v>2012</v>
+      </c>
+      <c r="C10" s="60">
+        <v>52</v>
+      </c>
+      <c r="D10" s="47">
+        <v>43446</v>
+      </c>
+      <c r="E10" s="109">
+        <f t="shared" si="1"/>
+        <v>47472.169383212604</v>
+      </c>
+      <c r="F10" s="89"/>
+      <c r="G10" s="113">
+        <f t="shared" si="0"/>
+        <v>49794.173134240089</v>
+      </c>
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="71">
+        <f>SUM(J4:J5)</f>
+        <v>35165.576431541849</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="32">
+        <f>N8</f>
+        <v>42</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2012</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>52</v>
+      </c>
+      <c r="R10" s="20">
+        <v>43881</v>
+      </c>
+      <c r="S10" s="86">
+        <f t="shared" si="2"/>
+        <v>47472.169383212604</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="104">
+        <v>2011</v>
+      </c>
+      <c r="C11" s="60">
+        <v>51</v>
+      </c>
+      <c r="D11" s="47">
+        <v>42712</v>
+      </c>
+      <c r="E11" s="109">
+        <f t="shared" si="1"/>
+        <v>46201.624703856542</v>
+      </c>
+      <c r="F11" s="89"/>
+      <c r="G11" s="113">
+        <f t="shared" si="0"/>
+        <v>50299.129097953301</v>
+      </c>
       <c r="I11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="17">
+        <f>J10/D3</f>
+        <v>0.72118242922708409</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="32">
+        <f>N10*0.15</f>
+        <v>6.3</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2011</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>51</v>
+      </c>
+      <c r="R11" s="20">
+        <v>43139</v>
+      </c>
+      <c r="S11" s="86">
+        <f t="shared" si="2"/>
+        <v>46201.624703856542</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="104">
+        <v>2010</v>
+      </c>
+      <c r="C12" s="60">
+        <v>50</v>
+      </c>
+      <c r="D12" s="47">
+        <v>41926</v>
+      </c>
+      <c r="E12" s="109">
+        <f t="shared" si="1"/>
+        <v>44965.084869933373</v>
+      </c>
+      <c r="F12" s="89"/>
+      <c r="G12" s="113">
+        <f t="shared" si="0"/>
+        <v>50731.279779481454</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="70">
+        <f>AVERAGE(G3:G38)</f>
+        <v>49518.283173384189</v>
+      </c>
+      <c r="P12" s="2">
+        <v>2010</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>50</v>
+      </c>
+      <c r="R12" s="20">
+        <v>42345</v>
+      </c>
+      <c r="S12" s="86">
+        <f t="shared" si="2"/>
+        <v>44965.084869933373</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="104">
+        <v>2009</v>
+      </c>
+      <c r="C13" s="60">
+        <v>49</v>
+      </c>
+      <c r="D13" s="47">
+        <v>41232</v>
+      </c>
+      <c r="E13" s="109">
+        <f t="shared" si="1"/>
+        <v>43761.639776090873</v>
+      </c>
+      <c r="F13" s="89"/>
+      <c r="G13" s="113">
+        <f t="shared" si="0"/>
+        <v>51263.543180459317</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="70">
+        <f>N12*0.25</f>
+        <v>12379.570793346047</v>
+      </c>
+      <c r="P13" s="2">
+        <v>2009</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>49</v>
+      </c>
+      <c r="R13" s="20">
+        <v>41645</v>
+      </c>
+      <c r="S13" s="86">
+        <f t="shared" si="2"/>
+        <v>43761.639776090873</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="104">
+        <v>2008</v>
+      </c>
+      <c r="C14" s="60">
+        <v>48</v>
+      </c>
+      <c r="D14" s="47">
+        <v>40702</v>
+      </c>
+      <c r="E14" s="109">
+        <f t="shared" si="1"/>
+        <v>42590.403675027614</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="113">
+        <f t="shared" si="0"/>
+        <v>51996.223193894533</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="41">
+        <f>0.55*60</f>
+        <v>33</v>
+      </c>
+      <c r="P14" s="2">
+        <v>2008</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>48</v>
+      </c>
+      <c r="R14" s="20">
+        <v>41109</v>
+      </c>
+      <c r="S14" s="86">
+        <f t="shared" si="2"/>
+        <v>42590.403675027614</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="104">
+        <v>2007</v>
+      </c>
+      <c r="C15" s="60">
+        <v>47</v>
+      </c>
+      <c r="D15" s="47">
+        <v>39825</v>
+      </c>
+      <c r="E15" s="109">
+        <f t="shared" si="1"/>
+        <v>41450.514525574319</v>
+      </c>
+      <c r="F15" s="89"/>
+      <c r="G15" s="113">
+        <f t="shared" si="0"/>
+        <v>52274.954606309591</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="30">
+        <f>N13*(1-N14/100)</f>
+        <v>8294.3124315418499</v>
+      </c>
+      <c r="P15" s="2">
+        <v>2007</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>47</v>
+      </c>
+      <c r="R15" s="20">
+        <v>40223</v>
+      </c>
+      <c r="S15" s="86">
+        <f t="shared" si="2"/>
+        <v>41450.514525574319</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="104">
+        <v>2006</v>
+      </c>
+      <c r="C16" s="60">
+        <v>46</v>
+      </c>
+      <c r="D16" s="47">
+        <v>38917</v>
+      </c>
+      <c r="E16" s="109">
+        <f t="shared" si="1"/>
+        <v>40341.133358223182</v>
+      </c>
+      <c r="F16" s="89"/>
+      <c r="G16" s="113">
+        <f t="shared" si="0"/>
+        <v>52487.883983556276</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="55"/>
+      <c r="N16" s="69"/>
+      <c r="P16" s="2">
+        <v>2006</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>46</v>
+      </c>
+      <c r="R16" s="20">
+        <v>39306</v>
+      </c>
+      <c r="S16" s="86">
+        <f t="shared" si="2"/>
+        <v>40341.133358223182</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="104">
+        <v>2005</v>
+      </c>
+      <c r="C17" s="60">
+        <v>45</v>
+      </c>
+      <c r="D17" s="47">
+        <v>38356</v>
+      </c>
+      <c r="E17" s="109">
+        <f t="shared" si="1"/>
+        <v>39261.443657638127</v>
+      </c>
+      <c r="F17" s="89"/>
+      <c r="G17" s="113">
+        <f t="shared" si="0"/>
+        <v>53153.865231654549</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="117"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="69"/>
+      <c r="P17" s="2">
+        <v>2005</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>45</v>
+      </c>
+      <c r="R17" s="20">
+        <v>38739</v>
+      </c>
+      <c r="S17" s="86">
+        <f t="shared" si="2"/>
+        <v>39261.443657638127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="104">
+        <v>2004</v>
+      </c>
+      <c r="C18" s="60">
+        <v>44</v>
+      </c>
+      <c r="D18" s="47">
+        <v>37397</v>
+      </c>
+      <c r="E18" s="109">
+        <f t="shared" si="1"/>
+        <v>38210.650761691606</v>
+      </c>
+      <c r="F18" s="89"/>
+      <c r="G18" s="113">
+        <f t="shared" si="0"/>
+        <v>53250.064221114306</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="28"/>
+      <c r="P18" s="2">
+        <v>2004</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>44</v>
+      </c>
+      <c r="R18" s="20">
+        <v>37771</v>
+      </c>
+      <c r="S18" s="86">
+        <f t="shared" si="2"/>
+        <v>38210.650761691606</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="104">
+        <v>2003</v>
+      </c>
+      <c r="C19" s="60">
+        <v>43</v>
+      </c>
+      <c r="D19" s="47">
+        <v>35704</v>
+      </c>
+      <c r="E19" s="109">
+        <f t="shared" si="1"/>
+        <v>37187.981276585502</v>
+      </c>
+      <c r="F19" s="89"/>
+      <c r="G19" s="113">
+        <f t="shared" si="0"/>
+        <v>52237.462925015607</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="33"/>
+      <c r="P19" s="2">
+        <v>2003</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>43</v>
+      </c>
+      <c r="R19" s="20">
+        <v>36061</v>
+      </c>
+      <c r="S19" s="86">
+        <f t="shared" si="2"/>
+        <v>37187.981276585502</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="104">
+        <v>2002</v>
+      </c>
+      <c r="C20" s="60">
+        <v>42</v>
+      </c>
+      <c r="D20" s="47">
+        <v>35489</v>
+      </c>
+      <c r="E20" s="109">
+        <f t="shared" si="1"/>
+        <v>36192.682507625788</v>
+      </c>
+      <c r="F20" s="89"/>
+      <c r="G20" s="113">
+        <f t="shared" si="0"/>
+        <v>53350.78263202696</v>
+      </c>
+      <c r="J20" s="36"/>
+      <c r="M20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="34"/>
+      <c r="P20" s="2">
+        <v>2002</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>42</v>
+      </c>
+      <c r="R20" s="20">
+        <v>35844</v>
+      </c>
+      <c r="S20" s="86">
+        <f t="shared" si="2"/>
+        <v>36192.682507625788</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="104">
+        <v>2001</v>
+      </c>
+      <c r="C21" s="60">
+        <v>41</v>
+      </c>
+      <c r="D21" s="47">
+        <v>34847</v>
+      </c>
+      <c r="E21" s="109">
+        <f t="shared" si="1"/>
+        <v>35224.021905231908</v>
+      </c>
+      <c r="F21" s="89"/>
+      <c r="G21" s="113">
+        <f t="shared" si="0"/>
+        <v>53826.266652868369</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="29"/>
+      <c r="P21" s="2">
+        <v>2001</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>41</v>
+      </c>
+      <c r="R21" s="20">
+        <v>35195</v>
+      </c>
+      <c r="S21" s="86">
+        <f t="shared" si="2"/>
+        <v>35224.021905231908</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="104">
+        <v>2000</v>
+      </c>
+      <c r="C22" s="60">
+        <v>40</v>
+      </c>
+      <c r="D22" s="47">
+        <v>33663</v>
+      </c>
+      <c r="E22" s="109">
+        <f t="shared" si="1"/>
+        <v>34281.286525773146</v>
+      </c>
+      <c r="F22" s="89"/>
+      <c r="G22" s="113">
+        <f t="shared" si="0"/>
+        <v>53427.334884774427</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="42"/>
+      <c r="P22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>40</v>
+      </c>
+      <c r="R22" s="20">
+        <v>34000</v>
+      </c>
+      <c r="S22" s="86">
+        <f t="shared" si="2"/>
+        <v>34281.286525773146</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="108">
+        <v>1999</v>
+      </c>
+      <c r="C23" s="115">
+        <v>39</v>
+      </c>
+      <c r="D23" s="48">
+        <v>33235</v>
+      </c>
+      <c r="E23" s="110">
+        <f t="shared" si="1"/>
+        <v>33363.782506835174</v>
+      </c>
+      <c r="F23" s="92">
+        <f>AVERAGE(D23,R23)</f>
+        <v>33401</v>
+      </c>
+      <c r="G23" s="113">
+        <f>F23*($N$9/E23)</f>
+        <v>54469.325040243748</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="43"/>
+      <c r="P23" s="22">
+        <v>1999</v>
+      </c>
+      <c r="Q23" s="23">
+        <v>39</v>
+      </c>
+      <c r="R23" s="24">
+        <v>33567</v>
+      </c>
+      <c r="S23" s="85">
+        <f t="shared" si="2"/>
+        <v>33363.782506835174</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="108">
+        <v>1998</v>
+      </c>
+      <c r="C24" s="115">
+        <v>38</v>
+      </c>
+      <c r="D24" s="48">
+        <v>32006</v>
+      </c>
+      <c r="E24" s="110">
+        <f t="shared" si="1"/>
+        <v>32470.834556530579</v>
+      </c>
+      <c r="F24" s="92">
+        <f t="shared" ref="F24:F37" si="3">AVERAGE(D24,R24)</f>
+        <v>32166</v>
+      </c>
+      <c r="G24" s="113">
+        <f t="shared" ref="G24:G37" si="4">F24*($N$9/E24)</f>
+        <v>53897.846404260468</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="29"/>
+      <c r="P24" s="22">
+        <v>1998</v>
+      </c>
+      <c r="Q24" s="23">
+        <v>38</v>
+      </c>
+      <c r="R24" s="24">
+        <v>32326</v>
+      </c>
+      <c r="S24" s="85">
+        <f t="shared" si="2"/>
+        <v>32470.834556530579</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="108">
+        <v>1997</v>
+      </c>
+      <c r="C25" s="115">
+        <v>37</v>
+      </c>
+      <c r="D25" s="48">
+        <v>31317</v>
+      </c>
+      <c r="E25" s="110">
+        <f t="shared" si="1"/>
+        <v>31601.785456477446</v>
+      </c>
+      <c r="F25" s="92">
+        <f t="shared" si="3"/>
+        <v>31473.5</v>
+      </c>
+      <c r="G25" s="113">
+        <f t="shared" si="4"/>
+        <v>54187.763483075782</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="45"/>
+      <c r="P25" s="22">
+        <v>1997</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>37</v>
+      </c>
+      <c r="R25" s="24">
+        <v>31630</v>
+      </c>
+      <c r="S25" s="85">
+        <f t="shared" si="2"/>
+        <v>31601.785456477446</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="108">
+        <v>1996</v>
+      </c>
+      <c r="C26" s="115">
+        <v>36</v>
+      </c>
+      <c r="D26" s="48">
+        <v>30603</v>
+      </c>
+      <c r="E26" s="110">
+        <f t="shared" si="1"/>
+        <v>30755.995578080237</v>
+      </c>
+      <c r="F26" s="92">
+        <f t="shared" si="3"/>
+        <v>30756</v>
+      </c>
+      <c r="G26" s="113">
+        <f t="shared" si="4"/>
+        <v>54408.639717916012</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="29"/>
+      <c r="P26" s="22">
+        <v>1996</v>
+      </c>
+      <c r="Q26" s="23">
+        <v>36</v>
+      </c>
+      <c r="R26" s="24">
+        <v>30909</v>
+      </c>
+      <c r="S26" s="85">
+        <f t="shared" si="2"/>
+        <v>30755.995578080237</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="108">
+        <v>1995</v>
+      </c>
+      <c r="C27" s="115">
+        <v>35</v>
+      </c>
+      <c r="D27" s="48">
+        <v>29073</v>
+      </c>
+      <c r="E27" s="110">
+        <f t="shared" si="1"/>
+        <v>29932.842411756919</v>
+      </c>
+      <c r="F27" s="92">
+        <f t="shared" si="3"/>
+        <v>29218.5</v>
+      </c>
+      <c r="G27" s="113">
+        <f t="shared" si="4"/>
+        <v>53110.178751686573</v>
+      </c>
+      <c r="M27" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="58"/>
+      <c r="P27" s="22">
+        <v>1995</v>
+      </c>
+      <c r="Q27" s="23">
+        <v>35</v>
+      </c>
+      <c r="R27" s="24">
+        <v>29364</v>
+      </c>
+      <c r="S27" s="85">
+        <f t="shared" si="2"/>
+        <v>29932.842411756919</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="108">
+        <v>1994</v>
+      </c>
+      <c r="C28" s="115">
+        <v>34</v>
+      </c>
+      <c r="D28" s="48">
+        <v>28257</v>
+      </c>
+      <c r="E28" s="110">
+        <f t="shared" si="1"/>
+        <v>29131.720108765858</v>
+      </c>
+      <c r="F28" s="92">
+        <f t="shared" si="3"/>
+        <v>28398</v>
+      </c>
+      <c r="G28" s="113">
+        <f t="shared" si="4"/>
+        <v>53038.28001901642</v>
+      </c>
+      <c r="P28" s="22">
+        <v>1994</v>
+      </c>
+      <c r="Q28" s="23">
+        <v>34</v>
+      </c>
+      <c r="R28" s="24">
+        <v>28539</v>
+      </c>
+      <c r="S28" s="85">
+        <f t="shared" si="2"/>
+        <v>29131.720108765858</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="108">
+        <v>1993</v>
+      </c>
+      <c r="C29" s="115">
+        <v>33</v>
+      </c>
+      <c r="D29" s="48">
+        <v>27543</v>
+      </c>
+      <c r="E29" s="110">
+        <f t="shared" si="1"/>
+        <v>28352.039035295238</v>
+      </c>
+      <c r="F29" s="92">
+        <f t="shared" si="3"/>
+        <v>27680.5</v>
+      </c>
+      <c r="G29" s="113">
+        <f t="shared" si="4"/>
+        <v>53119.923166885324</v>
+      </c>
+      <c r="M29" s="28"/>
+      <c r="N29" s="72"/>
+      <c r="P29" s="22">
+        <v>1993</v>
+      </c>
+      <c r="Q29" s="23">
+        <v>33</v>
+      </c>
+      <c r="R29" s="24">
+        <v>27818</v>
+      </c>
+      <c r="S29" s="85">
+        <f t="shared" si="2"/>
+        <v>28352.039035295238</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="108">
+        <v>1992</v>
+      </c>
+      <c r="C30" s="115">
+        <v>32</v>
+      </c>
+      <c r="D30" s="48">
+        <v>26859</v>
+      </c>
+      <c r="E30" s="110">
+        <f t="shared" si="1"/>
+        <v>27593.225338486849</v>
+      </c>
+      <c r="F30" s="92">
+        <f t="shared" si="3"/>
+        <v>26993.5</v>
+      </c>
+      <c r="G30" s="113">
+        <f t="shared" si="4"/>
+        <v>53226.086731470365</v>
+      </c>
+      <c r="M30" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="72"/>
+      <c r="P30" s="22">
+        <v>1992</v>
+      </c>
+      <c r="Q30" s="23">
+        <v>32</v>
+      </c>
+      <c r="R30" s="24">
+        <v>27128</v>
+      </c>
+      <c r="S30" s="85">
+        <f t="shared" si="2"/>
+        <v>27593.225338486849</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="108">
+        <v>1991</v>
+      </c>
+      <c r="C31" s="115">
+        <v>31</v>
+      </c>
+      <c r="D31" s="48">
+        <v>26421</v>
+      </c>
+      <c r="E31" s="110">
+        <f t="shared" si="1"/>
+        <v>26854.72052407479</v>
+      </c>
+      <c r="F31" s="92">
+        <f t="shared" si="3"/>
+        <v>26553</v>
+      </c>
+      <c r="G31" s="113">
+        <f t="shared" si="4"/>
+        <v>53797.335236545936</v>
+      </c>
+      <c r="M31" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" s="77">
+        <f>AVERAGE(D3:D7)</f>
+        <v>47392</v>
+      </c>
+      <c r="P31" s="22">
+        <v>1991</v>
+      </c>
+      <c r="Q31" s="23">
+        <v>31</v>
+      </c>
+      <c r="R31" s="24">
+        <v>26685</v>
+      </c>
+      <c r="S31" s="85">
+        <f t="shared" si="2"/>
+        <v>26854.72052407479</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="108">
+        <v>1990</v>
+      </c>
+      <c r="C32" s="115">
+        <v>30</v>
+      </c>
+      <c r="D32" s="48">
+        <v>25533</v>
+      </c>
+      <c r="E32" s="110">
+        <f t="shared" si="1"/>
+        <v>26135.981045328259</v>
+      </c>
+      <c r="F32" s="92">
+        <f t="shared" si="3"/>
+        <v>25660.5</v>
+      </c>
+      <c r="G32" s="113">
+        <f t="shared" si="4"/>
+        <v>53418.798258592833</v>
+      </c>
+      <c r="M32" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="N32" s="94">
+        <f>60-18</f>
+        <v>42</v>
+      </c>
+      <c r="P32" s="22">
+        <v>1990</v>
+      </c>
+      <c r="Q32" s="23">
+        <v>30</v>
+      </c>
+      <c r="R32" s="24">
+        <v>25788</v>
+      </c>
+      <c r="S32" s="85">
+        <f t="shared" si="2"/>
+        <v>26135.981045328259</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="108">
+        <v>1989</v>
+      </c>
+      <c r="C33" s="115">
+        <v>29</v>
+      </c>
+      <c r="D33" s="48">
+        <v>25503</v>
+      </c>
+      <c r="E33" s="110">
+        <f t="shared" si="1"/>
+        <v>25436.47790299587</v>
+      </c>
+      <c r="F33" s="92">
+        <f>AVERAGE(D33,R33)</f>
+        <v>25630.5</v>
+      </c>
+      <c r="G33" s="113">
+        <f>H33*($N$9/E33)</f>
+        <v>54408.631895356535</v>
+      </c>
+      <c r="H33" s="36">
+        <f>E33</f>
+        <v>25436.47790299587</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="N33" s="95">
+        <v>1.35E-2</v>
+      </c>
+      <c r="P33" s="22">
+        <v>1989</v>
+      </c>
+      <c r="Q33" s="23">
+        <v>29</v>
+      </c>
+      <c r="R33" s="24">
+        <v>25758</v>
+      </c>
+      <c r="S33" s="85">
+        <f t="shared" si="2"/>
+        <v>25436.47790299587</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="108">
+        <v>1988</v>
+      </c>
+      <c r="C34" s="115">
+        <v>28</v>
+      </c>
+      <c r="D34" s="48">
+        <v>23411</v>
+      </c>
+      <c r="E34" s="110">
+        <f t="shared" si="1"/>
+        <v>24755.696255957049</v>
+      </c>
+      <c r="F34" s="92">
+        <f t="shared" si="3"/>
+        <v>23528</v>
+      </c>
+      <c r="G34" s="113">
+        <f t="shared" si="4"/>
+        <v>51710.373160112889</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" s="82">
+        <f>N31*N32*N33</f>
+        <v>26871.263999999999</v>
+      </c>
+      <c r="P34" s="22">
+        <v>1988</v>
+      </c>
+      <c r="Q34" s="23">
+        <v>28</v>
+      </c>
+      <c r="R34" s="24">
+        <v>23645</v>
+      </c>
+      <c r="S34" s="85">
+        <f t="shared" si="2"/>
+        <v>24755.696255957049</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="108">
+        <v>1987</v>
+      </c>
+      <c r="C35" s="115">
+        <v>27</v>
+      </c>
+      <c r="D35" s="48">
+        <v>22850</v>
+      </c>
+      <c r="E35" s="110">
+        <f t="shared" si="1"/>
+        <v>24093.135042293965</v>
+      </c>
+      <c r="F35" s="92">
+        <f t="shared" si="3"/>
+        <v>22964.5</v>
+      </c>
+      <c r="G35" s="113">
+        <f t="shared" si="4"/>
+        <v>51859.877303952155</v>
+      </c>
+      <c r="M35" s="55"/>
+      <c r="N35" s="56"/>
+      <c r="P35" s="22">
+        <v>1987</v>
+      </c>
+      <c r="Q35" s="23">
+        <v>27</v>
+      </c>
+      <c r="R35" s="24">
+        <v>23079</v>
+      </c>
+      <c r="S35" s="85">
+        <f t="shared" si="2"/>
+        <v>24093.135042293965</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="108">
+        <v>1986</v>
+      </c>
+      <c r="C36" s="115">
+        <v>26</v>
+      </c>
+      <c r="D36" s="48">
+        <v>21422</v>
+      </c>
+      <c r="E36" s="110">
+        <f t="shared" si="1"/>
+        <v>23448.306610505075</v>
+      </c>
+      <c r="F36" s="92">
+        <f t="shared" si="3"/>
+        <v>21529</v>
+      </c>
+      <c r="G36" s="113">
+        <f t="shared" si="4"/>
+        <v>49955.139854335939</v>
+      </c>
+      <c r="M36" s="55"/>
+      <c r="N36" s="75"/>
+      <c r="P36" s="22">
+        <v>1986</v>
+      </c>
+      <c r="Q36" s="23">
+        <v>26</v>
+      </c>
+      <c r="R36" s="24">
+        <v>21636</v>
+      </c>
+      <c r="S36" s="85">
+        <f t="shared" si="2"/>
+        <v>23448.306610505075</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="108">
+        <v>1985</v>
+      </c>
+      <c r="C37" s="115">
+        <v>25</v>
+      </c>
+      <c r="D37" s="48">
+        <v>21013</v>
+      </c>
+      <c r="E37" s="110">
+        <f t="shared" si="1"/>
+        <v>22820.736360588879</v>
+      </c>
+      <c r="F37" s="92">
+        <f t="shared" si="3"/>
+        <v>10506.5</v>
+      </c>
+      <c r="G37" s="113">
+        <f t="shared" si="4"/>
+        <v>25049.335918703564</v>
+      </c>
+      <c r="P37" s="22">
+        <v>1985</v>
+      </c>
+      <c r="Q37" s="23">
+        <v>25</v>
+      </c>
+      <c r="R37" s="24">
+        <v>0</v>
+      </c>
+      <c r="S37" s="85">
+        <f t="shared" si="2"/>
+        <v>22820.736360588879</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="105">
+        <v>1984</v>
+      </c>
+      <c r="C38" s="116">
+        <v>24</v>
+      </c>
+      <c r="D38" s="49">
+        <v>0</v>
+      </c>
+      <c r="E38" s="109">
+        <f t="shared" si="1"/>
+        <v>22209.962394733699</v>
+      </c>
+      <c r="F38" s="89"/>
+      <c r="G38" s="113">
+        <f>D38</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1984</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>24</v>
+      </c>
+      <c r="R38" s="20">
+        <v>0</v>
+      </c>
+      <c r="S38" s="86">
+        <f t="shared" si="2"/>
+        <v>22209.962394733699</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="106">
+        <v>1983</v>
+      </c>
+      <c r="C39" s="100">
+        <v>23</v>
+      </c>
+      <c r="D39" s="102">
+        <v>0</v>
+      </c>
+      <c r="E39" s="111">
+        <f t="shared" si="1"/>
+        <v>21615.535177356396</v>
+      </c>
+      <c r="F39" s="89"/>
+      <c r="G39" s="113">
+        <f>D39</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1983</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>23</v>
+      </c>
+      <c r="R39" s="20">
+        <v>0</v>
+      </c>
+      <c r="S39" s="86">
+        <f t="shared" si="2"/>
+        <v>21615.535177356396</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="106">
+        <v>1982</v>
+      </c>
+      <c r="C40" s="100">
+        <v>22</v>
+      </c>
+      <c r="D40" s="102">
+        <v>0</v>
+      </c>
+      <c r="E40" s="111">
+        <f t="shared" si="1"/>
+        <v>21037.017204239801</v>
+      </c>
+      <c r="F40" s="89"/>
+      <c r="G40" s="113">
+        <f t="shared" ref="G40:G62" si="5">D40</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1982</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>22</v>
+      </c>
+      <c r="R40" s="20">
+        <v>0</v>
+      </c>
+      <c r="S40" s="86">
+        <f t="shared" si="2"/>
+        <v>21037.017204239801</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B41" s="106">
+        <v>1981</v>
+      </c>
+      <c r="C41" s="100">
+        <v>21</v>
+      </c>
+      <c r="D41" s="102">
+        <v>0</v>
+      </c>
+      <c r="E41" s="111">
+        <f t="shared" si="1"/>
+        <v>20473.982680525351</v>
+      </c>
+      <c r="F41" s="89"/>
+      <c r="G41" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1981</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>21</v>
+      </c>
+      <c r="R41" s="20">
+        <v>0</v>
+      </c>
+      <c r="S41" s="86">
+        <f t="shared" si="2"/>
+        <v>20473.982680525351</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="106">
+        <v>1980</v>
+      </c>
+      <c r="C42" s="100">
+        <v>20</v>
+      </c>
+      <c r="D42" s="102">
+        <v>0</v>
+      </c>
+      <c r="E42" s="111">
+        <f t="shared" si="1"/>
+        <v>19926.017207323941</v>
+      </c>
+      <c r="F42" s="89"/>
+      <c r="G42" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1980</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>20</v>
+      </c>
+      <c r="R42" s="20">
+        <v>0</v>
+      </c>
+      <c r="S42" s="86">
+        <f t="shared" si="2"/>
+        <v>19926.017207323941</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="106">
+        <v>1979</v>
+      </c>
+      <c r="C43" s="100">
+        <v>19</v>
+      </c>
+      <c r="D43" s="102">
+        <v>0</v>
+      </c>
+      <c r="E43" s="111">
+        <f t="shared" si="1"/>
+        <v>19392.717476714297</v>
+      </c>
+      <c r="F43" s="89"/>
+      <c r="G43" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <v>1979</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>19</v>
+      </c>
+      <c r="R43" s="20">
+        <v>0</v>
+      </c>
+      <c r="S43" s="86">
+        <f t="shared" si="2"/>
+        <v>19392.717476714297</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="107">
+        <v>1978</v>
+      </c>
+      <c r="C44" s="101">
+        <v>18</v>
+      </c>
+      <c r="D44" s="102">
+        <v>0</v>
+      </c>
+      <c r="E44" s="111">
+        <f t="shared" si="1"/>
+        <v>18873.690974904424</v>
+      </c>
+      <c r="F44" s="89"/>
+      <c r="G44" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>1978</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>18</v>
+      </c>
+      <c r="R44" s="20">
+        <v>0</v>
+      </c>
+      <c r="S44" s="86">
+        <f t="shared" si="2"/>
+        <v>18873.690974904424</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>1977</v>
+      </c>
+      <c r="C45" s="4">
+        <v>17</v>
+      </c>
+      <c r="D45" s="20">
+        <v>0</v>
+      </c>
+      <c r="E45" s="109">
+        <f t="shared" si="1"/>
+        <v>18368.555693337639</v>
+      </c>
+      <c r="F45" s="89"/>
+      <c r="G45" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>1977</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>17</v>
+      </c>
+      <c r="R45" s="20">
+        <v>0</v>
+      </c>
+      <c r="S45" s="86">
+        <f t="shared" si="2"/>
+        <v>18368.555693337639</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>1976</v>
+      </c>
+      <c r="C46" s="4">
+        <v>16</v>
+      </c>
+      <c r="D46" s="20">
+        <v>0</v>
+      </c>
+      <c r="E46" s="109">
+        <f t="shared" si="1"/>
+        <v>17876.939847530546</v>
+      </c>
+      <c r="F46" s="89"/>
+      <c r="G46" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <v>1976</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>16</v>
+      </c>
+      <c r="R46" s="20">
+        <v>0</v>
+      </c>
+      <c r="S46" s="86">
+        <f t="shared" si="2"/>
+        <v>17876.939847530546</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>1975</v>
+      </c>
+      <c r="C47" s="4">
+        <v>15</v>
+      </c>
+      <c r="D47" s="20">
+        <v>0</v>
+      </c>
+      <c r="E47" s="109">
+        <f t="shared" si="1"/>
+        <v>17398.481603436052</v>
+      </c>
+      <c r="F47" s="89"/>
+      <c r="G47" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
+        <v>1975</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>15</v>
+      </c>
+      <c r="R47" s="20">
+        <v>0</v>
+      </c>
+      <c r="S47" s="86">
+        <f t="shared" si="2"/>
+        <v>17398.481603436052</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>1974</v>
+      </c>
+      <c r="C48" s="4">
+        <v>14</v>
+      </c>
+      <c r="D48" s="20">
+        <v>0</v>
+      </c>
+      <c r="E48" s="109">
+        <f t="shared" si="1"/>
+        <v>16932.828811129977</v>
+      </c>
+      <c r="F48" s="89"/>
+      <c r="G48" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
+        <v>1974</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>14</v>
+      </c>
+      <c r="R48" s="20">
+        <v>0</v>
+      </c>
+      <c r="S48" s="86">
+        <f t="shared" si="2"/>
+        <v>16932.828811129977</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>1973</v>
+      </c>
+      <c r="C49" s="4">
+        <v>13</v>
+      </c>
+      <c r="D49" s="20">
+        <v>0</v>
+      </c>
+      <c r="E49" s="109">
+        <f t="shared" si="1"/>
+        <v>16479.638745625281</v>
+      </c>
+      <c r="F49" s="89"/>
+      <c r="G49" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <v>1973</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>13</v>
+      </c>
+      <c r="R49" s="20">
+        <v>0</v>
+      </c>
+      <c r="S49" s="86">
+        <f t="shared" si="2"/>
+        <v>16479.638745625281</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>1972</v>
+      </c>
+      <c r="C50" s="4">
+        <v>12</v>
+      </c>
+      <c r="D50" s="20">
+        <v>0</v>
+      </c>
+      <c r="E50" s="109">
+        <f t="shared" si="1"/>
+        <v>16038.577854623143</v>
+      </c>
+      <c r="F50" s="89"/>
+      <c r="G50" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <v>1972</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>12</v>
+      </c>
+      <c r="R50" s="20">
+        <v>0</v>
+      </c>
+      <c r="S50" s="86">
+        <f t="shared" si="2"/>
+        <v>16038.577854623143</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>1971</v>
+      </c>
+      <c r="C51" s="4">
+        <v>11</v>
+      </c>
+      <c r="D51" s="20">
+        <v>0</v>
+      </c>
+      <c r="E51" s="109">
+        <f t="shared" si="1"/>
+        <v>15609.321513015224</v>
+      </c>
+      <c r="F51" s="89"/>
+      <c r="G51" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="2">
+        <v>1971</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>11</v>
+      </c>
+      <c r="R51" s="20">
+        <v>0</v>
+      </c>
+      <c r="S51" s="86">
+        <f t="shared" si="2"/>
+        <v>15609.321513015224</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>1970</v>
+      </c>
+      <c r="C52" s="4">
+        <v>10</v>
+      </c>
+      <c r="D52" s="20">
+        <v>0</v>
+      </c>
+      <c r="E52" s="109">
+        <f t="shared" si="1"/>
+        <v>15191.55378395642</v>
+      </c>
+      <c r="F52" s="89"/>
+      <c r="G52" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
+        <v>1970</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>10</v>
+      </c>
+      <c r="R52" s="20">
+        <v>0</v>
+      </c>
+      <c r="S52" s="86">
+        <f t="shared" si="2"/>
+        <v>15191.55378395642</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>1969</v>
+      </c>
+      <c r="C53" s="4">
+        <v>9</v>
+      </c>
+      <c r="D53" s="20">
+        <v>0</v>
+      </c>
+      <c r="E53" s="109">
+        <f t="shared" si="1"/>
+        <v>14784.967186332282</v>
+      </c>
+      <c r="F53" s="89"/>
+      <c r="G53" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="2">
+        <v>1969</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>9</v>
+      </c>
+      <c r="R53" s="20">
+        <v>0</v>
+      </c>
+      <c r="S53" s="86">
+        <f t="shared" si="2"/>
+        <v>14784.967186332282</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>1968</v>
+      </c>
+      <c r="C54" s="4">
+        <v>8</v>
+      </c>
+      <c r="D54" s="20">
+        <v>0</v>
+      </c>
+      <c r="E54" s="109">
+        <f t="shared" si="1"/>
+        <v>14389.262468449908</v>
+      </c>
+      <c r="F54" s="89"/>
+      <c r="G54" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
+        <v>1968</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>8</v>
+      </c>
+      <c r="R54" s="20">
+        <v>0</v>
+      </c>
+      <c r="S54" s="86">
+        <f t="shared" si="2"/>
+        <v>14389.262468449908</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>1967</v>
+      </c>
+      <c r="C55" s="4">
+        <v>7</v>
+      </c>
+      <c r="D55" s="20">
+        <v>0</v>
+      </c>
+      <c r="E55" s="109">
+        <f t="shared" si="1"/>
+        <v>14004.148387785797</v>
+      </c>
+      <c r="F55" s="89"/>
+      <c r="G55" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
+        <v>1967</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>7</v>
+      </c>
+      <c r="R55" s="20">
+        <v>0</v>
+      </c>
+      <c r="S55" s="86">
+        <f t="shared" si="2"/>
+        <v>14004.148387785797</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>1966</v>
+      </c>
+      <c r="C56" s="4">
+        <v>6</v>
+      </c>
+      <c r="D56" s="20">
+        <v>0</v>
+      </c>
+      <c r="E56" s="109">
+        <f t="shared" si="1"/>
+        <v>13629.341496628513</v>
+      </c>
+      <c r="F56" s="89"/>
+      <c r="G56" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>1966</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>6</v>
+      </c>
+      <c r="R56" s="20">
+        <v>0</v>
+      </c>
+      <c r="S56" s="86">
+        <f t="shared" si="2"/>
+        <v>13629.341496628513</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>1965</v>
+      </c>
+      <c r="C57" s="4">
+        <v>5</v>
+      </c>
+      <c r="D57" s="20">
+        <v>0</v>
+      </c>
+      <c r="E57" s="109">
+        <f t="shared" si="1"/>
+        <v>13264.565933458405</v>
+      </c>
+      <c r="F57" s="89"/>
+      <c r="G57" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
+        <v>1965</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>5</v>
+      </c>
+      <c r="R57" s="20">
+        <v>0</v>
+      </c>
+      <c r="S57" s="86">
+        <f t="shared" si="2"/>
+        <v>13264.565933458405</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>1964</v>
+      </c>
+      <c r="C58" s="4">
+        <v>4</v>
+      </c>
+      <c r="D58" s="20">
+        <v>0</v>
+      </c>
+      <c r="E58" s="109">
+        <f t="shared" si="1"/>
+        <v>12909.553219910855</v>
+      </c>
+      <c r="F58" s="89"/>
+      <c r="G58" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>1964</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>4</v>
+      </c>
+      <c r="R58" s="20">
+        <v>0</v>
+      </c>
+      <c r="S58" s="86">
+        <f t="shared" si="2"/>
+        <v>12909.553219910855</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>1963</v>
+      </c>
+      <c r="C59" s="4">
+        <v>3</v>
+      </c>
+      <c r="D59" s="20">
+        <v>0</v>
+      </c>
+      <c r="E59" s="109">
+        <f t="shared" si="1"/>
+        <v>12564.04206317358</v>
+      </c>
+      <c r="F59" s="89"/>
+      <c r="G59" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
+        <v>1963</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>3</v>
+      </c>
+      <c r="R59" s="20">
+        <v>0</v>
+      </c>
+      <c r="S59" s="86">
+        <f t="shared" si="2"/>
+        <v>12564.04206317358</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
+        <v>1962</v>
+      </c>
+      <c r="C60" s="4">
+        <v>2</v>
+      </c>
+      <c r="D60" s="20">
+        <v>0</v>
+      </c>
+      <c r="E60" s="109">
+        <f t="shared" si="1"/>
+        <v>12227.778163672583</v>
+      </c>
+      <c r="F60" s="89"/>
+      <c r="G60" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
+        <v>1962</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>2</v>
+      </c>
+      <c r="R60" s="20">
+        <v>0</v>
+      </c>
+      <c r="S60" s="86">
+        <f t="shared" si="2"/>
+        <v>12227.778163672583</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <v>1961</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="20">
+        <v>0</v>
+      </c>
+      <c r="E61" s="109">
+        <f t="shared" si="1"/>
+        <v>11900.51402790519</v>
+      </c>
+      <c r="F61" s="89"/>
+      <c r="G61" s="113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="2">
+        <v>1961</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>1</v>
+      </c>
+      <c r="R61" s="20">
+        <v>0</v>
+      </c>
+      <c r="S61" s="86">
+        <f t="shared" si="2"/>
+        <v>11900.51402790519</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
+        <v>1960</v>
+      </c>
+      <c r="C62" s="93">
+        <v>0</v>
+      </c>
+      <c r="D62" s="20">
+        <v>0</v>
+      </c>
+      <c r="E62" s="109">
+        <f t="shared" si="1"/>
+        <v>11582.008786282422</v>
+      </c>
+      <c r="F62" s="90"/>
+      <c r="G62" s="114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="96">
+        <v>1960</v>
+      </c>
+      <c r="Q62" s="97">
+        <v>0</v>
+      </c>
+      <c r="R62" s="98">
+        <v>0</v>
+      </c>
+      <c r="S62" s="99">
+        <f t="shared" si="2"/>
+        <v>11582.008786282422</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/propre.xlsx
+++ b/propre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\ATCR-TP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\Université\Session-2-H-2020\ACT-1005-Analyse-et-traitement-collectif-du-risque\Calcul-Prestations\ATCR-TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7C3434-399E-4672-9B83-42F32728F003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B466DA90-5377-4DDC-BE0C-E73EEADF5280}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{47FD59A7-3964-46FC-BE03-C6B259F3D8B0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{47FD59A7-3964-46FC-BE03-C6B259F3D8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="QUESTION 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="81">
   <si>
     <t>Années</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Moyenne annuelle des salaires admissibles</t>
   </si>
   <si>
-    <t>Rente de retraite à 60 ans</t>
-  </si>
-  <si>
     <t>Facteur d'ajustement actuariel (%)</t>
   </si>
   <si>
@@ -227,6 +224,60 @@
   <si>
     <t>revenus trop élevé.</t>
   </si>
+  <si>
+    <t>Calcul de la rente obtenue du RRQ S1</t>
+  </si>
+  <si>
+    <t>Somme des salaires admissibles au S1</t>
+  </si>
+  <si>
+    <t>Nombres d'années de cotisations au S1</t>
+  </si>
+  <si>
+    <t>Nombres d'années maximum de cotisations au S1</t>
+  </si>
+  <si>
+    <t>Rente annuelle S1 de base</t>
+  </si>
+  <si>
+    <t>Facteur d'ajustement acturiel (%)</t>
+  </si>
+  <si>
+    <t>Rente annuelle S1 à 60 ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Pour 2020, ce montant sera reçu seulement en </t>
+  </si>
+  <si>
+    <t>2021, puisqu'il est rétroactif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcul de la rente obtenue du RRQ S1 </t>
+  </si>
+  <si>
+    <t>Calcul de la rente obtenue du RRQ S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elle n'a pas contribué au S2 pour l'année de 2024, </t>
+  </si>
+  <si>
+    <t>Rente de retraite à 60 ans Régime de base</t>
+  </si>
+  <si>
+    <t>Rente de retraite à 60 ans base + S1</t>
+  </si>
+  <si>
+    <t>Rente de retraite à 65 ans Régime de base</t>
+  </si>
+  <si>
+    <t>Rente de retraite à 65 ans base + S1</t>
+  </si>
+  <si>
+    <t>puisque son salaire est demeuré inférieur au MGA.</t>
+  </si>
+  <si>
+    <t>Pourcentage cible de revenu remplacé (%)</t>
+  </si>
 </sst>
 </file>
 
@@ -235,9 +286,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0\ &quot;$&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +319,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -304,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -928,13 +984,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -997,9 +1088,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1085,21 +1173,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1183,6 +1268,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1504,37 +1604,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D97A01-C9B7-4676-858F-079C6C4177D4}">
-  <dimension ref="B1:P62"/>
+  <dimension ref="B1:R62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:K15"/>
+    <sheetView topLeftCell="J1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="2"/>
-    <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="5"/>
-    <col min="5" max="5" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.85546875" style="1"/>
-    <col min="11" max="11" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="2"/>
+    <col min="3" max="3" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="5"/>
+    <col min="5" max="5" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.88671875" style="1"/>
+    <col min="11" max="11" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.88671875" style="1"/>
     <col min="14" max="14" width="48" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.85546875" style="1"/>
+    <col min="15" max="16" width="10.88671875" style="1"/>
+    <col min="17" max="17" width="48.21875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="51" t="s">
+    <row r="2" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -1543,54 +1645,57 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62">
+    <row r="3" spans="2:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="61">
         <v>2019</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="58">
         <v>59</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="45">
         <v>47465.4</v>
       </c>
       <c r="E3" s="27">
         <f>O4</f>
         <v>57400</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="37">
         <f>D3*($O$9/E3)</f>
         <v>44991.767880938263</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="28"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="63">
+      <c r="O3" s="116"/>
+      <c r="Q3" s="118" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="62">
         <v>2018</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="59">
         <v>58</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>46671</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <f>E3/(1+$O$6)</f>
         <v>55863.746958637465</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="38">
         <f t="shared" ref="G4:G62" si="0">D4*($O$9/E4)</f>
         <v>45455.333690171778</v>
       </c>
@@ -1606,54 +1711,67 @@
       <c r="O4" s="27">
         <v>57400</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="63">
+      <c r="Q4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" s="119">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="62">
         <v>2017</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="59">
         <v>57</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="46">
         <v>46323.45</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <f t="shared" ref="E5:E62" si="1">E4/(1+$O$6)</f>
         <v>54368.610178722593</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="38">
         <f t="shared" si="0"/>
         <v>46357.549528814736</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="29">
-        <f>O15</f>
-        <v>7771.7016232223687</v>
+      <c r="L5" s="28">
+        <f>O16</f>
+        <v>7834.4775121524444</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="28">
         <v>7217</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="63">
+      <c r="Q5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="120">
+        <f>G3</f>
+        <v>44991.767880938263</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="62">
         <v>2016</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="59">
         <v>56</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="46">
         <v>45538.98</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <f t="shared" si="1"/>
         <v>52913.489225034151</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <f t="shared" si="0"/>
         <v>46825.745873091299</v>
       </c>
@@ -1664,27 +1782,33 @@
         <v>0</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="73">
+        <v>35</v>
+      </c>
+      <c r="O6" s="71">
         <v>2.75E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="63">
+      <c r="Q6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="62">
         <v>2015</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="59">
         <v>55</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="46">
         <v>44665.14</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <f t="shared" si="1"/>
         <v>51497.313114388468</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="38">
         <f t="shared" si="0"/>
         <v>47190.21272850778</v>
       </c>
@@ -1697,25 +1821,31 @@
       <c r="N7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="28">
         <v>10779.84</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="63">
+      <c r="Q7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="121">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="62">
         <v>2014</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="59">
         <v>54</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="46">
         <v>43811.159999999996</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <f t="shared" si="1"/>
         <v>50119.039527385365</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="38">
         <f t="shared" si="0"/>
         <v>47560.873069925779</v>
       </c>
@@ -1728,29 +1858,36 @@
       <c r="N8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="32">
+      <c r="O8" s="31">
         <f>60-18</f>
         <v>42</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="63">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" s="120">
+        <f>R5*(R4/100)*(R6/R7)</f>
+        <v>93.695356612053942</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="62">
         <v>2013</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="59">
         <v>53</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="46">
         <v>42699</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="30">
         <f t="shared" si="1"/>
         <v>48777.654041250957</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="38">
         <f t="shared" si="0"/>
         <v>47628.247380144974</v>
       </c>
@@ -1763,59 +1900,73 @@
       <c r="N9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="28">
         <f>AVERAGE(E3:E7)</f>
         <v>54408.631895356535</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="63">
+      <c r="Q9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" s="121">
+        <f>O14</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="62">
         <v>2012</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="59">
         <v>52</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="46">
         <v>42291.87</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <f t="shared" si="1"/>
         <v>47472.169383212604</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="38">
         <f t="shared" si="0"/>
         <v>48471.405812981044</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="71">
+      <c r="L10" s="70">
         <f>L5</f>
-        <v>7771.7016232223687</v>
+        <v>7834.4775121524444</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="40">
         <f>O8-7</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="63">
+      <c r="Q10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="120">
+        <f>R8*(1-(R9/100))</f>
+        <v>62.775888930076135</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="62">
         <v>2011</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="59">
         <v>51</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="46">
         <v>41576.909999999996</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <f t="shared" si="1"/>
         <v>46201.624703856542</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="38">
         <f t="shared" si="0"/>
         <v>48962.407838171595</v>
       </c>
@@ -1824,410 +1975,423 @@
       </c>
       <c r="L11" s="17">
         <f>L5/D3</f>
-        <v>0.16373403833576392</v>
+        <v>0.16505659937875683</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="32">
+      <c r="O11" s="31">
         <f>O10*0.15</f>
         <v>5.25</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="63">
+      <c r="Q11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11" s="119"/>
+    </row>
+    <row r="12" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="62">
         <v>2010</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="59">
         <v>50</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="46">
         <v>40812.300000000003</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <f t="shared" si="1"/>
         <v>44965.084869933373</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="38">
         <f t="shared" si="0"/>
         <v>49383.681003294638</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="70">
+      <c r="O12" s="69">
         <f>AVERAGE(G3:G24,G32:G39)</f>
         <v>46398.218646103698</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="63">
+      <c r="Q12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" s="122"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="62">
         <v>2009</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="59">
         <v>49</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="46">
         <v>40137.06</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="30">
         <f t="shared" si="1"/>
         <v>43761.639776090873</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="38">
         <f t="shared" si="0"/>
         <v>49902.209653829217</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="70">
+      <c r="O13" s="69">
         <f>O12*0.25</f>
         <v>11599.554661525925</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="63">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="62">
         <v>2008</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="59">
         <v>48</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="46">
         <v>39620.699999999997</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="30">
         <f t="shared" si="1"/>
         <v>42590.403675027614</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="38">
         <f t="shared" si="0"/>
         <v>50614.877900308013</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="41">
+        <v>32</v>
+      </c>
+      <c r="O14" s="40">
         <f>0.55*60</f>
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="63">
+    <row r="15" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="62">
         <v>2007</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="59">
         <v>47</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="46">
         <v>38766.720000000001</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="30">
         <f t="shared" si="1"/>
         <v>41450.514525574319</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="38">
         <f t="shared" si="0"/>
         <v>50885.838750420946</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="30">
+        <v>75</v>
+      </c>
+      <c r="O15" s="29">
         <f>O13*(1-O14/100)</f>
         <v>7771.7016232223687</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="63">
+    <row r="16" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="62">
         <v>2006</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="59">
         <v>46</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="46">
         <v>37882.949999999997</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="30">
         <f t="shared" si="1"/>
         <v>40341.133358223182</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="38">
         <f t="shared" si="0"/>
         <v>51093.246770174039</v>
       </c>
-      <c r="N16" s="55"/>
-      <c r="O16" s="69"/>
+      <c r="N16" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="125">
+        <f>O15+R10</f>
+        <v>7834.4775121524444</v>
+      </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="63">
+      <c r="B17" s="62">
         <v>2005</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="59">
         <v>45</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="46">
         <v>37336.800000000003</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="30">
         <f t="shared" si="1"/>
         <v>39261.443657638127</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="38">
         <f t="shared" si="0"/>
         <v>51741.454671530919</v>
       </c>
-      <c r="N17" s="55"/>
-      <c r="O17" s="69"/>
-    </row>
-    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="63">
+      <c r="N17" s="54"/>
+      <c r="O17" s="68"/>
+    </row>
+    <row r="18" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="62">
         <v>2004</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="59">
         <v>44</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="46">
         <v>36403.379999999997</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="30">
         <f t="shared" si="1"/>
         <v>38210.650761691606</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="38">
         <f t="shared" si="0"/>
         <v>51835.236058123053</v>
       </c>
-      <c r="N18" s="28" t="s">
+      <c r="N18" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="28"/>
+      <c r="O18" s="116"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="63">
+      <c r="B19" s="62">
         <v>2003</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="59">
         <v>43</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="46">
         <v>34755</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="30">
         <f t="shared" si="1"/>
         <v>37187.981276585502</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="38">
         <f t="shared" si="0"/>
         <v>50849.00918549511</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="33"/>
+      <c r="O19" s="32"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="63">
+      <c r="B20" s="62">
         <v>2002</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="59">
         <v>42</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="46">
         <v>34546.47</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="30">
         <f t="shared" si="1"/>
         <v>36192.682507625788</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="38">
         <f t="shared" si="0"/>
         <v>51933.872796467651</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="34"/>
+      <c r="O20" s="33"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="63">
+      <c r="B21" s="62">
         <v>2001</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="59">
         <v>41</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="46">
         <v>33920.879999999997</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="30">
         <f t="shared" si="1"/>
         <v>35224.021905231908</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="38">
         <f t="shared" si="0"/>
         <v>52395.73943180043</v>
       </c>
       <c r="N21" s="12"/>
-      <c r="O21" s="29"/>
+      <c r="O21" s="28"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="63">
+      <c r="B22" s="62">
         <v>2000</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="59">
         <v>40</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="46">
         <v>32769</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="30">
         <f t="shared" si="1"/>
         <v>34281.286525773146</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="38">
         <f t="shared" si="0"/>
         <v>52008.446568611631</v>
       </c>
       <c r="N22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="42"/>
+      <c r="O22" s="41"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="63">
+      <c r="B23" s="62">
         <v>1999</v>
       </c>
-      <c r="C23" s="60">
+      <c r="C23" s="59">
         <v>39</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="46">
         <v>32351.94</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="30">
         <f t="shared" si="1"/>
         <v>33363.782506835174</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="38">
         <f t="shared" si="0"/>
         <v>52758.550209348919</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="43"/>
+      <c r="O23" s="42"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="64">
+      <c r="B24" s="63">
         <v>1998</v>
       </c>
-      <c r="C24" s="60">
+      <c r="C24" s="59">
         <v>38</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="46">
         <v>31155.375</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="30">
         <f t="shared" si="1"/>
         <v>32470.834556530579</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="38">
         <f t="shared" si="0"/>
         <v>52204.427545145074</v>
       </c>
       <c r="N24" s="12"/>
-      <c r="O24" s="29"/>
+      <c r="O24" s="28"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="22">
         <v>1997</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="51">
         <v>37</v>
       </c>
-      <c r="D25" s="48">
-        <v>0</v>
-      </c>
-      <c r="E25" s="35">
+      <c r="D25" s="47">
+        <v>0</v>
+      </c>
+      <c r="E25" s="34">
         <f t="shared" si="1"/>
         <v>31601.785456477446</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O25" s="45"/>
+      <c r="O25" s="44"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="22">
         <v>1996</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="51">
         <v>36</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="47">
         <v>1492</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="34">
         <f t="shared" si="1"/>
         <v>30755.995578080237</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="38">
         <f t="shared" si="0"/>
         <v>2639.4098861728016</v>
       </c>
       <c r="N26" s="12"/>
-      <c r="O26" s="29"/>
-    </row>
-    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O26" s="28"/>
+    </row>
+    <row r="27" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="22">
         <v>1995</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="51">
         <v>35</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="47">
         <v>1302</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="34">
         <f t="shared" si="1"/>
         <v>29932.842411756919</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="38">
         <f t="shared" si="0"/>
         <v>2366.6325353695747</v>
       </c>
-      <c r="N27" s="57" t="s">
+      <c r="N27" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="58"/>
+      <c r="O27" s="57"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="22">
         <v>1994</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="51">
         <v>34</v>
       </c>
-      <c r="D28" s="48">
-        <v>0</v>
-      </c>
-      <c r="E28" s="35">
+      <c r="D28" s="47">
+        <v>0</v>
+      </c>
+      <c r="E28" s="34">
         <f t="shared" si="1"/>
         <v>29131.720108765858</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2236,17 +2400,17 @@
       <c r="B29" s="22">
         <v>1993</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C29" s="51">
         <v>33</v>
       </c>
-      <c r="D29" s="48">
-        <v>0</v>
-      </c>
-      <c r="E29" s="35">
+      <c r="D29" s="47">
+        <v>0</v>
+      </c>
+      <c r="E29" s="34">
         <f t="shared" si="1"/>
         <v>28352.039035295238</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2255,17 +2419,17 @@
       <c r="B30" s="22">
         <v>1992</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="51">
         <v>32</v>
       </c>
-      <c r="D30" s="48">
-        <v>0</v>
-      </c>
-      <c r="E30" s="35">
+      <c r="D30" s="47">
+        <v>0</v>
+      </c>
+      <c r="E30" s="34">
         <f t="shared" si="1"/>
         <v>27593.225338486849</v>
       </c>
-      <c r="G30" s="39">
+      <c r="G30" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2274,169 +2438,169 @@
       <c r="B31" s="22">
         <v>1991</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C31" s="51">
         <v>31</v>
       </c>
-      <c r="D31" s="48">
-        <v>0</v>
-      </c>
-      <c r="E31" s="35">
+      <c r="D31" s="47">
+        <v>0</v>
+      </c>
+      <c r="E31" s="34">
         <f t="shared" si="1"/>
         <v>26854.72052407479</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="66">
+      <c r="B32" s="65">
         <v>1990</v>
       </c>
-      <c r="C32" s="65">
+      <c r="C32" s="64">
         <v>30</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="48">
         <v>24854.79</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="30">
         <f t="shared" si="1"/>
         <v>26135.981045328259</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="38">
         <f t="shared" si="0"/>
         <v>51741.509821308646</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="67">
+      <c r="B33" s="66">
         <v>1989</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="64">
         <v>29</v>
       </c>
-      <c r="D33" s="49">
+      <c r="D33" s="48">
         <v>24825</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="30">
         <f t="shared" si="1"/>
         <v>25436.47790299587</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="38">
         <f t="shared" si="0"/>
         <v>53100.680524764924</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="67">
+      <c r="B34" s="66">
         <v>1988</v>
       </c>
-      <c r="C34" s="65">
+      <c r="C34" s="64">
         <v>28</v>
       </c>
-      <c r="D34" s="49">
+      <c r="D34" s="48">
         <v>22789.35</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="30">
         <f t="shared" si="1"/>
         <v>24755.696255957049</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="38">
         <f t="shared" si="0"/>
         <v>50086.951401581886</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="67">
+      <c r="B35" s="66">
         <v>1987</v>
       </c>
-      <c r="C35" s="65">
+      <c r="C35" s="64">
         <v>27</v>
       </c>
-      <c r="D35" s="49">
+      <c r="D35" s="48">
         <v>22243.200000000001</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="30">
         <f t="shared" si="1"/>
         <v>24093.135042293965</v>
       </c>
-      <c r="G35" s="39">
+      <c r="G35" s="38">
         <f t="shared" si="0"/>
         <v>50230.992307573368</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="67">
+      <c r="B36" s="66">
         <v>1986</v>
       </c>
-      <c r="C36" s="65">
+      <c r="C36" s="64">
         <v>26</v>
       </c>
-      <c r="D36" s="49">
+      <c r="D36" s="48">
         <v>20853</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="30">
         <f t="shared" si="1"/>
         <v>23448.306610505075</v>
       </c>
-      <c r="G36" s="39">
+      <c r="G36" s="38">
         <f t="shared" si="0"/>
         <v>48386.573058779664</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="67">
+      <c r="B37" s="66">
         <v>1985</v>
       </c>
-      <c r="C37" s="65">
+      <c r="C37" s="64">
         <v>25</v>
       </c>
-      <c r="D37" s="49">
+      <c r="D37" s="48">
         <v>19860</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="30">
         <f t="shared" si="1"/>
         <v>22820.736360588879</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="38">
         <f t="shared" si="0"/>
         <v>47349.717921805815</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="67">
+      <c r="B38" s="66">
         <v>1984</v>
       </c>
-      <c r="C38" s="65">
+      <c r="C38" s="64">
         <v>24</v>
       </c>
-      <c r="D38" s="49">
-        <v>0</v>
-      </c>
-      <c r="E38" s="31">
+      <c r="D38" s="48">
+        <v>0</v>
+      </c>
+      <c r="E38" s="30">
         <f t="shared" si="1"/>
         <v>22209.962394733699</v>
       </c>
-      <c r="G38" s="39">
+      <c r="G38" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="68">
+      <c r="B39" s="67">
         <v>1983</v>
       </c>
-      <c r="C39" s="65">
+      <c r="C39" s="64">
         <v>23</v>
       </c>
-      <c r="D39" s="49">
-        <v>0</v>
-      </c>
-      <c r="E39" s="31">
+      <c r="D39" s="48">
+        <v>0</v>
+      </c>
+      <c r="E39" s="30">
         <f t="shared" si="1"/>
         <v>21615.535177356396</v>
       </c>
-      <c r="G39" s="39">
+      <c r="G39" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2445,17 +2609,17 @@
       <c r="B40" s="21">
         <v>1982</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C40" s="52">
         <v>22</v>
       </c>
-      <c r="D40" s="50">
-        <v>0</v>
-      </c>
-      <c r="E40" s="44">
+      <c r="D40" s="49">
+        <v>0</v>
+      </c>
+      <c r="E40" s="43">
         <f t="shared" si="1"/>
         <v>21037.017204239801</v>
       </c>
-      <c r="G40" s="39">
+      <c r="G40" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2464,17 +2628,17 @@
       <c r="B41" s="21">
         <v>1981</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="52">
         <v>21</v>
       </c>
-      <c r="D41" s="50">
-        <v>0</v>
-      </c>
-      <c r="E41" s="44">
+      <c r="D41" s="49">
+        <v>0</v>
+      </c>
+      <c r="E41" s="43">
         <f t="shared" si="1"/>
         <v>20473.982680525351</v>
       </c>
-      <c r="G41" s="39">
+      <c r="G41" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2483,17 +2647,17 @@
       <c r="B42" s="21">
         <v>1980</v>
       </c>
-      <c r="C42" s="53">
+      <c r="C42" s="52">
         <v>20</v>
       </c>
-      <c r="D42" s="50">
-        <v>0</v>
-      </c>
-      <c r="E42" s="44">
+      <c r="D42" s="49">
+        <v>0</v>
+      </c>
+      <c r="E42" s="43">
         <f t="shared" si="1"/>
         <v>19926.017207323941</v>
       </c>
-      <c r="G42" s="39">
+      <c r="G42" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2502,17 +2666,17 @@
       <c r="B43" s="21">
         <v>1979</v>
       </c>
-      <c r="C43" s="53">
+      <c r="C43" s="52">
         <v>19</v>
       </c>
-      <c r="D43" s="50">
-        <v>0</v>
-      </c>
-      <c r="E43" s="44">
+      <c r="D43" s="49">
+        <v>0</v>
+      </c>
+      <c r="E43" s="43">
         <f t="shared" si="1"/>
         <v>19392.717476714297</v>
       </c>
-      <c r="G43" s="39">
+      <c r="G43" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2521,17 +2685,17 @@
       <c r="B44" s="21">
         <v>1978</v>
       </c>
-      <c r="C44" s="54">
+      <c r="C44" s="53">
         <v>18</v>
       </c>
-      <c r="D44" s="50">
-        <v>0</v>
-      </c>
-      <c r="E44" s="44">
+      <c r="D44" s="49">
+        <v>0</v>
+      </c>
+      <c r="E44" s="43">
         <f t="shared" si="1"/>
         <v>18873.690974904424</v>
       </c>
-      <c r="G44" s="39">
+      <c r="G44" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2546,11 +2710,11 @@
       <c r="D45" s="20">
         <v>0</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="30">
         <f t="shared" si="1"/>
         <v>18368.555693337639</v>
       </c>
-      <c r="G45" s="39">
+      <c r="G45" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2565,11 +2729,11 @@
       <c r="D46" s="20">
         <v>0</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="30">
         <f t="shared" si="1"/>
         <v>17876.939847530546</v>
       </c>
-      <c r="G46" s="39">
+      <c r="G46" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2584,11 +2748,11 @@
       <c r="D47" s="20">
         <v>0</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="30">
         <f t="shared" si="1"/>
         <v>17398.481603436052</v>
       </c>
-      <c r="G47" s="39">
+      <c r="G47" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2603,11 +2767,11 @@
       <c r="D48" s="20">
         <v>0</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="30">
         <f t="shared" si="1"/>
         <v>16932.828811129977</v>
       </c>
-      <c r="G48" s="39">
+      <c r="G48" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2622,11 +2786,11 @@
       <c r="D49" s="20">
         <v>0</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="30">
         <f t="shared" si="1"/>
         <v>16479.638745625281</v>
       </c>
-      <c r="G49" s="39">
+      <c r="G49" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2641,11 +2805,11 @@
       <c r="D50" s="20">
         <v>0</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="30">
         <f t="shared" si="1"/>
         <v>16038.577854623143</v>
       </c>
-      <c r="G50" s="39">
+      <c r="G50" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2660,11 +2824,11 @@
       <c r="D51" s="20">
         <v>0</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="30">
         <f t="shared" si="1"/>
         <v>15609.321513015224</v>
       </c>
-      <c r="G51" s="39">
+      <c r="G51" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2679,11 +2843,11 @@
       <c r="D52" s="20">
         <v>0</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="30">
         <f t="shared" si="1"/>
         <v>15191.55378395642</v>
       </c>
-      <c r="G52" s="39">
+      <c r="G52" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2698,11 +2862,11 @@
       <c r="D53" s="20">
         <v>0</v>
       </c>
-      <c r="E53" s="31">
+      <c r="E53" s="30">
         <f t="shared" si="1"/>
         <v>14784.967186332282</v>
       </c>
-      <c r="G53" s="39">
+      <c r="G53" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2717,11 +2881,11 @@
       <c r="D54" s="20">
         <v>0</v>
       </c>
-      <c r="E54" s="31">
+      <c r="E54" s="30">
         <f t="shared" si="1"/>
         <v>14389.262468449908</v>
       </c>
-      <c r="G54" s="39">
+      <c r="G54" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2736,11 +2900,11 @@
       <c r="D55" s="20">
         <v>0</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="30">
         <f t="shared" si="1"/>
         <v>14004.148387785797</v>
       </c>
-      <c r="G55" s="39">
+      <c r="G55" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2755,11 +2919,11 @@
       <c r="D56" s="20">
         <v>0</v>
       </c>
-      <c r="E56" s="31">
+      <c r="E56" s="30">
         <f t="shared" si="1"/>
         <v>13629.341496628513</v>
       </c>
-      <c r="G56" s="39">
+      <c r="G56" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2774,11 +2938,11 @@
       <c r="D57" s="20">
         <v>0</v>
       </c>
-      <c r="E57" s="31">
+      <c r="E57" s="30">
         <f t="shared" si="1"/>
         <v>13264.565933458405</v>
       </c>
-      <c r="G57" s="39">
+      <c r="G57" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2793,11 +2957,11 @@
       <c r="D58" s="20">
         <v>0</v>
       </c>
-      <c r="E58" s="31">
+      <c r="E58" s="30">
         <f t="shared" si="1"/>
         <v>12909.553219910855</v>
       </c>
-      <c r="G58" s="39">
+      <c r="G58" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2812,11 +2976,11 @@
       <c r="D59" s="20">
         <v>0</v>
       </c>
-      <c r="E59" s="31">
+      <c r="E59" s="30">
         <f t="shared" si="1"/>
         <v>12564.04206317358</v>
       </c>
-      <c r="G59" s="39">
+      <c r="G59" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2831,11 +2995,11 @@
       <c r="D60" s="20">
         <v>0</v>
       </c>
-      <c r="E60" s="31">
+      <c r="E60" s="30">
         <f t="shared" si="1"/>
         <v>12227.778163672583</v>
       </c>
-      <c r="G60" s="39">
+      <c r="G60" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2850,11 +3014,11 @@
       <c r="D61" s="20">
         <v>0</v>
       </c>
-      <c r="E61" s="31">
+      <c r="E61" s="30">
         <f t="shared" si="1"/>
         <v>11900.51402790519</v>
       </c>
-      <c r="G61" s="39">
+      <c r="G61" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2869,11 +3033,11 @@
       <c r="D62" s="20">
         <v>0</v>
       </c>
-      <c r="E62" s="31">
+      <c r="E62" s="30">
         <f t="shared" si="1"/>
         <v>11582.008786282422</v>
       </c>
-      <c r="G62" s="40">
+      <c r="G62" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2889,40 +3053,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367AD372-2F5B-444E-901D-D02956C9F1AC}">
-  <dimension ref="B1:P62"/>
+  <dimension ref="B1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="2"/>
-    <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="5"/>
-    <col min="5" max="5" width="10.85546875" style="6"/>
-    <col min="6" max="6" width="10.85546875" style="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="1"/>
-    <col min="9" max="9" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="1"/>
-    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="1"/>
-    <col min="14" max="14" width="47.85546875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="2"/>
+    <col min="3" max="3" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="5"/>
+    <col min="5" max="5" width="10.88671875" style="6"/>
+    <col min="6" max="6" width="10.88671875" style="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="1"/>
+    <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" style="1"/>
+    <col min="12" max="12" width="10.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" style="1"/>
+    <col min="14" max="14" width="47.88671875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.88671875" style="1"/>
+    <col min="17" max="17" width="43.6640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="51" t="s">
+    <row r="2" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -2931,54 +3097,57 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62">
+    <row r="3" spans="2:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="61">
         <v>2019</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="58">
         <v>59</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="45">
         <v>47465.4</v>
       </c>
       <c r="E3" s="27">
         <f>O4</f>
         <v>57400</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="37">
         <f>D3*($O$9/E3)</f>
         <v>44991.767880938263</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="28"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="63">
+      <c r="O3" s="116"/>
+      <c r="Q3" s="118" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="62">
         <v>2018</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="59">
         <v>58</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>46671</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <f>E3/(1+$O$6)</f>
         <v>55863.746958637465</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="38">
         <f t="shared" ref="G4:G62" si="0">D4*($O$9/E4)</f>
         <v>45455.333690171778</v>
       </c>
@@ -2994,118 +3163,143 @@
       <c r="O4" s="27">
         <v>57400</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="63">
+      <c r="Q4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" s="119">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="62">
         <v>2017</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="59">
         <v>57</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="46">
         <v>46323.45</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <f t="shared" ref="E5:E62" si="1">E4/(1+$O$6)</f>
         <v>54368.610178722593</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="38">
         <f t="shared" si="0"/>
         <v>46357.549528814736</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="28">
         <f>O31</f>
-        <v>8900.7227069707606</v>
+        <v>8972.6182592112909</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="28">
         <v>7217</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="63">
+      <c r="Q5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="120">
+        <f>G3</f>
+        <v>44991.767880938263</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="62">
         <v>2016</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="59">
         <v>56</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="46">
         <v>45538.98</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <f t="shared" si="1"/>
         <v>52913.489225034151</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <f t="shared" si="0"/>
         <v>46825.745873091299</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="28">
         <f>O32</f>
         <v>8492.7372614038886</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="73">
+        <v>35</v>
+      </c>
+      <c r="O6" s="71">
         <v>2.75E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="63">
+      <c r="Q6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="62">
         <v>2015</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="59">
         <v>55</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="46">
         <v>44665.14</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <f t="shared" si="1"/>
         <v>51497.313114388468</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="38">
         <f t="shared" si="0"/>
         <v>47190.21272850778</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="28">
         <f>O34</f>
-        <v>9985.0132952567692</v>
+        <v>9949.065519136504</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="28">
         <v>10779.84</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="63">
+      <c r="Q7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="121">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="62">
         <v>2014</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="59">
         <v>54</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="46">
         <v>43811.159999999996</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <f t="shared" si="1"/>
         <v>50119.039527385365</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="38">
         <f t="shared" si="0"/>
         <v>47560.873069925779</v>
       </c>
@@ -3118,29 +3312,36 @@
       <c r="N8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="32">
+      <c r="O8" s="31">
         <f>60-18</f>
         <v>42</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="63">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" s="120">
+        <f>R5*(R4/100)*(R6/R7)</f>
+        <v>93.695356612053942</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="62">
         <v>2013</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="59">
         <v>53</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="46">
         <v>42699</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="30">
         <f t="shared" si="1"/>
         <v>48777.654041250957</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="38">
         <f t="shared" si="0"/>
         <v>47628.247380144974</v>
       </c>
@@ -3153,59 +3354,73 @@
       <c r="N9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="28">
         <f>AVERAGE(E3:E7)</f>
         <v>54408.631895356535</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="63">
+      <c r="Q9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" s="121">
+        <f>O14</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="62">
         <v>2012</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="59">
         <v>52</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="46">
         <v>42291.87</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <f t="shared" si="1"/>
         <v>47472.169383212604</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="38">
         <f t="shared" si="0"/>
         <v>48471.405812981044</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="70">
         <f>SUM(J5:J7)</f>
-        <v>27378.473263631418</v>
+        <v>27414.421039751684</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="40">
         <f>O8-7</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="63">
+      <c r="Q10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="120">
+        <f>R8*(1-(R9/100))</f>
+        <v>62.775888930076135</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="62">
         <v>2011</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="59">
         <v>51</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="46">
         <v>41576.909999999996</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <f t="shared" si="1"/>
         <v>46201.624703856542</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="38">
         <f t="shared" si="0"/>
         <v>48962.407838171595</v>
       </c>
@@ -3214,719 +3429,732 @@
       </c>
       <c r="J11" s="17">
         <f>J10/D3</f>
-        <v>0.57680907068372789</v>
+        <v>0.57756641763793592</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="32">
+      <c r="O11" s="31">
         <f>O10*0.15</f>
         <v>5.25</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="63">
+      <c r="Q11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11" s="119"/>
+    </row>
+    <row r="12" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="62">
         <v>2010</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="59">
         <v>50</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="46">
         <v>40812.300000000003</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <f t="shared" si="1"/>
         <v>44965.084869933373</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="38">
         <f t="shared" si="0"/>
         <v>49383.681003294638</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="70">
+      <c r="O12" s="69">
         <f>AVERAGE(G3:G24,G32:G39)</f>
         <v>46398.218646103698</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="63">
+      <c r="Q12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" s="122"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="62">
         <v>2009</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="59">
         <v>49</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="46">
         <v>40137.06</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="30">
         <f t="shared" si="1"/>
         <v>43761.639776090873</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="38">
         <f t="shared" si="0"/>
         <v>49902.209653829217</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="70">
+      <c r="O13" s="69">
         <f>O12*0.25</f>
         <v>11599.554661525925</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="63">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="62">
         <v>2008</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="59">
         <v>48</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="46">
         <v>39620.699999999997</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="30">
         <f t="shared" si="1"/>
         <v>42590.403675027614</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="38">
         <f t="shared" si="0"/>
         <v>50614.877900308013</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="41">
+        <v>32</v>
+      </c>
+      <c r="O14" s="40">
         <f>0.55*60</f>
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="63">
+    <row r="15" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="62">
         <v>2007</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="59">
         <v>47</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="46">
         <v>38766.720000000001</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="30">
         <f t="shared" si="1"/>
         <v>41450.514525574319</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="38">
         <f t="shared" si="0"/>
         <v>50885.838750420946</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="30">
+        <v>75</v>
+      </c>
+      <c r="O15" s="29">
         <f>O13*(1-O14/100)</f>
         <v>7771.7016232223687</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="63">
+    <row r="16" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="62">
         <v>2006</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="59">
         <v>46</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="46">
         <v>37882.949999999997</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="30">
         <f t="shared" si="1"/>
         <v>40341.133358223182</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="38">
         <f t="shared" si="0"/>
         <v>51093.246770174039</v>
       </c>
-      <c r="N16" s="55"/>
-      <c r="O16" s="69"/>
+      <c r="N16" s="126" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="125">
+        <f>O15+R10</f>
+        <v>7834.4775121524444</v>
+      </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="63">
+      <c r="B17" s="62">
         <v>2005</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="59">
         <v>45</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="46">
         <v>37336.800000000003</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="30">
         <f t="shared" si="1"/>
         <v>39261.443657638127</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="38">
         <f t="shared" si="0"/>
         <v>51741.454671530919</v>
       </c>
-      <c r="N17" s="55"/>
-      <c r="O17" s="69"/>
-    </row>
-    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="63">
+      <c r="N17" s="54"/>
+      <c r="O17" s="68"/>
+    </row>
+    <row r="18" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="62">
         <v>2004</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="59">
         <v>44</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="46">
         <v>36403.379999999997</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="30">
         <f t="shared" si="1"/>
         <v>38210.650761691606</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="38">
         <f t="shared" si="0"/>
         <v>51835.236058123053</v>
       </c>
-      <c r="N18" s="28" t="s">
+      <c r="N18" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="28"/>
+      <c r="O18" s="116"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="63">
+      <c r="B19" s="62">
         <v>2003</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="59">
         <v>43</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="46">
         <v>34755</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="30">
         <f t="shared" si="1"/>
         <v>37187.981276585502</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="38">
         <f t="shared" si="0"/>
         <v>50849.00918549511</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="33"/>
+      <c r="O19" s="32"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="63">
+      <c r="B20" s="62">
         <v>2002</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="59">
         <v>42</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="46">
         <v>34546.47</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="30">
         <f t="shared" si="1"/>
         <v>36192.682507625788</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="38">
         <f t="shared" si="0"/>
         <v>51933.872796467651</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="34"/>
+      <c r="O20" s="33"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="63">
+      <c r="B21" s="62">
         <v>2001</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="59">
         <v>41</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="46">
         <v>33920.879999999997</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="30">
         <f t="shared" si="1"/>
         <v>35224.021905231908</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="38">
         <f t="shared" si="0"/>
         <v>52395.73943180043</v>
       </c>
       <c r="N21" s="12"/>
-      <c r="O21" s="29"/>
+      <c r="O21" s="28"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="63">
+      <c r="B22" s="62">
         <v>2000</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="59">
         <v>40</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="46">
         <v>32769</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="30">
         <f t="shared" si="1"/>
         <v>34281.286525773146</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="38">
         <f t="shared" si="0"/>
         <v>52008.446568611631</v>
       </c>
       <c r="N22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="42"/>
+      <c r="O22" s="41"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="63">
+      <c r="B23" s="62">
         <v>1999</v>
       </c>
-      <c r="C23" s="60">
+      <c r="C23" s="59">
         <v>39</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="46">
         <v>32351.94</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="30">
         <f t="shared" si="1"/>
         <v>33363.782506835174</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="38">
         <f t="shared" si="0"/>
         <v>52758.550209348919</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="43"/>
+      <c r="O23" s="42"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="64">
+      <c r="B24" s="63">
         <v>1998</v>
       </c>
-      <c r="C24" s="60">
+      <c r="C24" s="59">
         <v>38</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="46">
         <v>31155.375</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="30">
         <f t="shared" si="1"/>
         <v>32470.834556530579</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="38">
         <f t="shared" si="0"/>
         <v>52204.427545145074</v>
       </c>
       <c r="N24" s="12"/>
-      <c r="O24" s="29"/>
+      <c r="O24" s="28"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="22">
         <v>1997</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="51">
         <v>37</v>
       </c>
-      <c r="D25" s="48">
-        <v>0</v>
-      </c>
-      <c r="E25" s="35">
+      <c r="D25" s="47">
+        <v>0</v>
+      </c>
+      <c r="E25" s="34">
         <f t="shared" si="1"/>
         <v>31601.785456477446</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O25" s="45"/>
+      <c r="O25" s="44"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="22">
         <v>1996</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="51">
         <v>36</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="47">
         <v>1492</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="34">
         <f t="shared" si="1"/>
         <v>30755.995578080237</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="38">
         <f t="shared" si="0"/>
         <v>2639.4098861728016</v>
       </c>
       <c r="N26" s="12"/>
-      <c r="O26" s="29"/>
-    </row>
-    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O26" s="28"/>
+    </row>
+    <row r="27" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="22">
         <v>1995</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="51">
         <v>35</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="47">
         <v>1302</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="34">
         <f t="shared" si="1"/>
         <v>29932.842411756919</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="38">
         <f t="shared" si="0"/>
         <v>2366.6325353695747</v>
       </c>
-      <c r="N27" s="57" t="s">
+      <c r="N27" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="58"/>
+      <c r="O27" s="57"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="22">
         <v>1994</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="51">
         <v>34</v>
       </c>
-      <c r="D28" s="48">
-        <v>0</v>
-      </c>
-      <c r="E28" s="35">
+      <c r="D28" s="47">
+        <v>0</v>
+      </c>
+      <c r="E28" s="34">
         <f t="shared" si="1"/>
         <v>29131.720108765858</v>
       </c>
-      <c r="G28" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="55"/>
-      <c r="O28" s="56"/>
+      <c r="G28" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="54"/>
+      <c r="O28" s="55"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="22">
         <v>1993</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C29" s="51">
         <v>33</v>
       </c>
-      <c r="D29" s="48">
-        <v>0</v>
-      </c>
-      <c r="E29" s="35">
+      <c r="D29" s="47">
+        <v>0</v>
+      </c>
+      <c r="E29" s="34">
         <f t="shared" si="1"/>
         <v>28352.039035295238</v>
       </c>
-      <c r="G29" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="22">
         <v>1992</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="51">
         <v>32</v>
       </c>
-      <c r="D30" s="48">
-        <v>0</v>
-      </c>
-      <c r="E30" s="35">
+      <c r="D30" s="47">
+        <v>0</v>
+      </c>
+      <c r="E30" s="34">
         <f t="shared" si="1"/>
         <v>27593.225338486849</v>
       </c>
-      <c r="G30" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="O30" s="72"/>
+      <c r="G30" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="O30" s="117"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="22">
         <v>1991</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C31" s="51">
         <v>31</v>
       </c>
-      <c r="D31" s="48">
-        <v>0</v>
-      </c>
-      <c r="E31" s="35">
+      <c r="D31" s="47">
+        <v>0</v>
+      </c>
+      <c r="E31" s="34">
         <f t="shared" si="1"/>
         <v>26854.72052407479</v>
       </c>
-      <c r="G31" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="O31" s="77">
-        <f>O15*(1+O6)^5</f>
-        <v>8900.7227069707606</v>
+      <c r="G31" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="O31" s="75">
+        <f>O16*(1+O6)^5</f>
+        <v>8972.6182592112909</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="66">
+      <c r="B32" s="65">
         <v>1990</v>
       </c>
-      <c r="C32" s="65">
+      <c r="C32" s="64">
         <v>30</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="48">
         <v>24854.79</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="30">
         <f t="shared" si="1"/>
         <v>26135.981045328259</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="38">
         <f t="shared" si="0"/>
         <v>51741.509821308646</v>
       </c>
-      <c r="N32" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="O32" s="78">
+      <c r="N32" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" s="76">
         <f>O5*(1+O6)^6</f>
         <v>8492.7372614038886</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="67">
+      <c r="B33" s="66">
         <v>1989</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="64">
         <v>29</v>
       </c>
-      <c r="D33" s="49">
+      <c r="D33" s="48">
         <v>24825</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="30">
         <f t="shared" si="1"/>
         <v>25436.47790299587</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="38">
         <f t="shared" si="0"/>
         <v>53100.680524764924</v>
       </c>
-      <c r="N33" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="O33" s="78">
+      <c r="N33" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="O33" s="76">
         <f>O7*(1+O6)^6</f>
         <v>12685.37464874215</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="67">
+    <row r="34" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="66">
         <v>1988</v>
       </c>
-      <c r="C34" s="65">
+      <c r="C34" s="64">
         <v>28</v>
       </c>
-      <c r="D34" s="49">
+      <c r="D34" s="48">
         <v>22789.35</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="30">
         <f t="shared" si="1"/>
         <v>24755.696255957049</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="38">
         <f t="shared" si="0"/>
         <v>50086.951401581886</v>
       </c>
-      <c r="N34" s="81" t="s">
+      <c r="N34" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="O34" s="80">
+        <f>O33-((O31-3500)/2)</f>
+        <v>9949.065519136504</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="66">
+        <v>1987</v>
+      </c>
+      <c r="C35" s="64">
+        <v>27</v>
+      </c>
+      <c r="D35" s="48">
+        <v>22243.200000000001</v>
+      </c>
+      <c r="E35" s="30">
+        <f t="shared" si="1"/>
+        <v>24093.135042293965</v>
+      </c>
+      <c r="G35" s="38">
+        <f t="shared" si="0"/>
+        <v>50230.992307573368</v>
+      </c>
+      <c r="N35" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="82">
-        <f>O33-((O31-3500)/2)</f>
-        <v>9985.0132952567692</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="67">
-        <v>1987</v>
-      </c>
-      <c r="C35" s="65">
-        <v>27</v>
-      </c>
-      <c r="D35" s="49">
-        <v>22243.200000000001</v>
-      </c>
-      <c r="E35" s="31">
-        <f t="shared" si="1"/>
-        <v>24093.135042293965</v>
-      </c>
-      <c r="G35" s="39">
-        <f t="shared" si="0"/>
-        <v>50230.992307573368</v>
-      </c>
-      <c r="N35" s="55" t="s">
+      <c r="O35" s="55"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="66">
+        <v>1986</v>
+      </c>
+      <c r="C36" s="64">
+        <v>26</v>
+      </c>
+      <c r="D36" s="48">
+        <v>20853</v>
+      </c>
+      <c r="E36" s="30">
+        <f t="shared" si="1"/>
+        <v>23448.306610505075</v>
+      </c>
+      <c r="G36" s="38">
+        <f t="shared" si="0"/>
+        <v>48386.573058779664</v>
+      </c>
+      <c r="N36" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O35" s="56"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="67">
-        <v>1986</v>
-      </c>
-      <c r="C36" s="65">
-        <v>26</v>
-      </c>
-      <c r="D36" s="49">
-        <v>20853</v>
-      </c>
-      <c r="E36" s="31">
-        <f t="shared" si="1"/>
-        <v>23448.306610505075</v>
-      </c>
-      <c r="G36" s="39">
-        <f t="shared" si="0"/>
-        <v>48386.573058779664</v>
-      </c>
-      <c r="N36" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="O36" s="75"/>
+      <c r="O36" s="73"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="67">
+      <c r="B37" s="66">
         <v>1985</v>
       </c>
-      <c r="C37" s="65">
+      <c r="C37" s="64">
         <v>25</v>
       </c>
-      <c r="D37" s="49">
+      <c r="D37" s="48">
         <v>19860</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="30">
         <f t="shared" si="1"/>
         <v>22820.736360588879</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="38">
         <f t="shared" si="0"/>
         <v>47349.717921805815</v>
       </c>
-      <c r="N37" s="55"/>
-      <c r="O37" s="74"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="72"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="67">
+      <c r="B38" s="66">
         <v>1984</v>
       </c>
-      <c r="C38" s="65">
+      <c r="C38" s="64">
         <v>24</v>
       </c>
-      <c r="D38" s="49">
-        <v>0</v>
-      </c>
-      <c r="E38" s="31">
+      <c r="D38" s="48">
+        <v>0</v>
+      </c>
+      <c r="E38" s="30">
         <f t="shared" si="1"/>
         <v>22209.962394733699</v>
       </c>
-      <c r="G38" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="55"/>
-      <c r="O38" s="76"/>
+      <c r="G38" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="54"/>
+      <c r="O38" s="74"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="68">
+      <c r="B39" s="67">
         <v>1983</v>
       </c>
-      <c r="C39" s="65">
+      <c r="C39" s="64">
         <v>23</v>
       </c>
-      <c r="D39" s="49">
-        <v>0</v>
-      </c>
-      <c r="E39" s="31">
+      <c r="D39" s="48">
+        <v>0</v>
+      </c>
+      <c r="E39" s="30">
         <f t="shared" si="1"/>
         <v>21615.535177356396</v>
       </c>
-      <c r="G39" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="55"/>
-      <c r="O39" s="76"/>
+      <c r="G39" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="54"/>
+      <c r="O39" s="74"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="21">
         <v>1982</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C40" s="52">
         <v>22</v>
       </c>
-      <c r="D40" s="50">
-        <v>0</v>
-      </c>
-      <c r="E40" s="44">
+      <c r="D40" s="49">
+        <v>0</v>
+      </c>
+      <c r="E40" s="43">
         <f t="shared" si="1"/>
         <v>21037.017204239801</v>
       </c>
-      <c r="G40" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="55"/>
-      <c r="O40" s="75"/>
+      <c r="G40" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="54"/>
+      <c r="O40" s="73"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="21">
         <v>1981</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="52">
         <v>21</v>
       </c>
-      <c r="D41" s="50">
-        <v>0</v>
-      </c>
-      <c r="E41" s="44">
+      <c r="D41" s="49">
+        <v>0</v>
+      </c>
+      <c r="E41" s="43">
         <f t="shared" si="1"/>
         <v>20473.982680525351</v>
       </c>
-      <c r="G41" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="55"/>
-      <c r="O41" s="56"/>
+      <c r="G41" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="54"/>
+      <c r="O41" s="55"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="21">
         <v>1980</v>
       </c>
-      <c r="C42" s="53">
+      <c r="C42" s="52">
         <v>20</v>
       </c>
-      <c r="D42" s="50">
-        <v>0</v>
-      </c>
-      <c r="E42" s="44">
+      <c r="D42" s="49">
+        <v>0</v>
+      </c>
+      <c r="E42" s="43">
         <f t="shared" si="1"/>
         <v>19926.017207323941</v>
       </c>
-      <c r="G42" s="39">
+      <c r="G42" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3935,17 +4163,17 @@
       <c r="B43" s="21">
         <v>1979</v>
       </c>
-      <c r="C43" s="53">
+      <c r="C43" s="52">
         <v>19</v>
       </c>
-      <c r="D43" s="50">
-        <v>0</v>
-      </c>
-      <c r="E43" s="44">
+      <c r="D43" s="49">
+        <v>0</v>
+      </c>
+      <c r="E43" s="43">
         <f t="shared" si="1"/>
         <v>19392.717476714297</v>
       </c>
-      <c r="G43" s="39">
+      <c r="G43" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3954,17 +4182,17 @@
       <c r="B44" s="21">
         <v>1978</v>
       </c>
-      <c r="C44" s="54">
+      <c r="C44" s="53">
         <v>18</v>
       </c>
-      <c r="D44" s="50">
-        <v>0</v>
-      </c>
-      <c r="E44" s="44">
+      <c r="D44" s="49">
+        <v>0</v>
+      </c>
+      <c r="E44" s="43">
         <f t="shared" si="1"/>
         <v>18873.690974904424</v>
       </c>
-      <c r="G44" s="39">
+      <c r="G44" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3979,11 +4207,11 @@
       <c r="D45" s="20">
         <v>0</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="30">
         <f t="shared" si="1"/>
         <v>18368.555693337639</v>
       </c>
-      <c r="G45" s="39">
+      <c r="G45" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3998,11 +4226,11 @@
       <c r="D46" s="20">
         <v>0</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="30">
         <f t="shared" si="1"/>
         <v>17876.939847530546</v>
       </c>
-      <c r="G46" s="39">
+      <c r="G46" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4017,11 +4245,11 @@
       <c r="D47" s="20">
         <v>0</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="30">
         <f t="shared" si="1"/>
         <v>17398.481603436052</v>
       </c>
-      <c r="G47" s="39">
+      <c r="G47" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4036,11 +4264,11 @@
       <c r="D48" s="20">
         <v>0</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="30">
         <f t="shared" si="1"/>
         <v>16932.828811129977</v>
       </c>
-      <c r="G48" s="39">
+      <c r="G48" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4055,11 +4283,11 @@
       <c r="D49" s="20">
         <v>0</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="30">
         <f t="shared" si="1"/>
         <v>16479.638745625281</v>
       </c>
-      <c r="G49" s="39">
+      <c r="G49" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4074,11 +4302,11 @@
       <c r="D50" s="20">
         <v>0</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="30">
         <f t="shared" si="1"/>
         <v>16038.577854623143</v>
       </c>
-      <c r="G50" s="39">
+      <c r="G50" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4093,11 +4321,11 @@
       <c r="D51" s="20">
         <v>0</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="30">
         <f t="shared" si="1"/>
         <v>15609.321513015224</v>
       </c>
-      <c r="G51" s="39">
+      <c r="G51" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4112,11 +4340,11 @@
       <c r="D52" s="20">
         <v>0</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="30">
         <f t="shared" si="1"/>
         <v>15191.55378395642</v>
       </c>
-      <c r="G52" s="39">
+      <c r="G52" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4131,11 +4359,11 @@
       <c r="D53" s="20">
         <v>0</v>
       </c>
-      <c r="E53" s="31">
+      <c r="E53" s="30">
         <f t="shared" si="1"/>
         <v>14784.967186332282</v>
       </c>
-      <c r="G53" s="39">
+      <c r="G53" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4150,11 +4378,11 @@
       <c r="D54" s="20">
         <v>0</v>
       </c>
-      <c r="E54" s="31">
+      <c r="E54" s="30">
         <f t="shared" si="1"/>
         <v>14389.262468449908</v>
       </c>
-      <c r="G54" s="39">
+      <c r="G54" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4169,11 +4397,11 @@
       <c r="D55" s="20">
         <v>0</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="30">
         <f t="shared" si="1"/>
         <v>14004.148387785797</v>
       </c>
-      <c r="G55" s="39">
+      <c r="G55" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4188,11 +4416,11 @@
       <c r="D56" s="20">
         <v>0</v>
       </c>
-      <c r="E56" s="31">
+      <c r="E56" s="30">
         <f t="shared" si="1"/>
         <v>13629.341496628513</v>
       </c>
-      <c r="G56" s="39">
+      <c r="G56" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4207,11 +4435,11 @@
       <c r="D57" s="20">
         <v>0</v>
       </c>
-      <c r="E57" s="31">
+      <c r="E57" s="30">
         <f t="shared" si="1"/>
         <v>13264.565933458405</v>
       </c>
-      <c r="G57" s="39">
+      <c r="G57" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4226,11 +4454,11 @@
       <c r="D58" s="20">
         <v>0</v>
       </c>
-      <c r="E58" s="31">
+      <c r="E58" s="30">
         <f t="shared" si="1"/>
         <v>12909.553219910855</v>
       </c>
-      <c r="G58" s="39">
+      <c r="G58" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4245,11 +4473,11 @@
       <c r="D59" s="20">
         <v>0</v>
       </c>
-      <c r="E59" s="31">
+      <c r="E59" s="30">
         <f t="shared" si="1"/>
         <v>12564.04206317358</v>
       </c>
-      <c r="G59" s="39">
+      <c r="G59" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4264,11 +4492,11 @@
       <c r="D60" s="20">
         <v>0</v>
       </c>
-      <c r="E60" s="31">
+      <c r="E60" s="30">
         <f t="shared" si="1"/>
         <v>12227.778163672583</v>
       </c>
-      <c r="G60" s="39">
+      <c r="G60" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4283,11 +4511,11 @@
       <c r="D61" s="20">
         <v>0</v>
       </c>
-      <c r="E61" s="31">
+      <c r="E61" s="30">
         <f t="shared" si="1"/>
         <v>11900.51402790519</v>
       </c>
-      <c r="G61" s="39">
+      <c r="G61" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4302,11 +4530,11 @@
       <c r="D62" s="20">
         <v>0</v>
       </c>
-      <c r="E62" s="31">
+      <c r="E62" s="30">
         <f t="shared" si="1"/>
         <v>11582.008786282422</v>
       </c>
-      <c r="G62" s="40">
+      <c r="G62" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4323,38 +4551,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF3058D-9527-44EF-BE25-5C09CA35E4DB}">
-  <dimension ref="B1:O67"/>
+  <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="2"/>
-    <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="2"/>
+    <col min="3" max="3" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="5" customWidth="1"/>
     <col min="5" max="5" width="11" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1"/>
-    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="1"/>
-    <col min="9" max="9" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.85546875" style="1"/>
+    <col min="6" max="6" width="10.88671875" style="1"/>
+    <col min="7" max="7" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="1"/>
+    <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.88671875" style="1"/>
     <col min="13" max="13" width="48" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.85546875" style="1"/>
+    <col min="14" max="16" width="10.88671875" style="1"/>
+    <col min="17" max="17" width="43.88671875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="51" t="s">
+    <row r="2" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -4363,56 +4593,59 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="89" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62">
+    <row r="3" spans="2:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="61">
         <v>2024</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="58">
         <v>64</v>
       </c>
-      <c r="D3" s="87">
+      <c r="D3" s="85">
         <f t="shared" ref="D3:D6" si="0">D4*(1+$N$6)</f>
         <v>54360.857384573552</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <f t="shared" ref="E3:E6" si="1">E4*(1+$N$6)</f>
         <v>65738.689948352316</v>
       </c>
-      <c r="G3" s="92">
+      <c r="G3" s="90">
         <f>D3*($N$9/E3)</f>
         <v>51527.872455631288</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="28"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="63">
+      <c r="N3" s="116"/>
+      <c r="Q3" s="118" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="62">
         <v>2023</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="59">
         <v>63</v>
       </c>
-      <c r="D4" s="87">
+      <c r="D4" s="85">
         <f t="shared" si="0"/>
         <v>52905.943926592263</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <f t="shared" si="1"/>
         <v>63979.260290367209</v>
       </c>
-      <c r="G4" s="92">
+      <c r="G4" s="90">
         <f t="shared" ref="G4:G66" si="2">D4*($N$9/E4)</f>
         <v>51527.872455631288</v>
       </c>
@@ -4428,120 +4661,146 @@
       <c r="N4" s="27">
         <v>57400</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="63">
+      <c r="Q4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" s="119">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="62">
         <v>2022</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="59">
         <v>62</v>
       </c>
-      <c r="D5" s="87">
+      <c r="D5" s="85">
         <f t="shared" si="0"/>
         <v>51489.969758240644</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <f t="shared" si="1"/>
         <v>62266.919990625014</v>
       </c>
-      <c r="G5" s="92">
+      <c r="G5" s="90">
         <f t="shared" si="2"/>
         <v>51527.872455631295</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="29">
-        <f>N15</f>
-        <v>13616.166566756545</v>
+      <c r="J5" s="28">
+        <f>N16</f>
+        <v>17479.211164755223</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="28">
         <v>7217</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="63">
+      <c r="Q5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="120">
+        <f>SUM(G3:G8)</f>
+        <v>309167.23473378771</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="62">
         <v>2021</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="59">
         <v>61</v>
       </c>
-      <c r="D6" s="87">
+      <c r="D6" s="85">
         <f t="shared" si="0"/>
         <v>50111.892708750012</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <f t="shared" si="1"/>
         <v>60600.40875000001</v>
       </c>
-      <c r="G6" s="92">
+      <c r="G6" s="90">
         <f t="shared" si="2"/>
         <v>51527.872455631295</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="28">
         <f>N31</f>
         <v>8492.7372614038886</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="73">
+        <v>35</v>
+      </c>
+      <c r="N6" s="71">
         <v>2.75E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="63">
+      <c r="Q6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="121">
+        <f>B3-B8+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="62">
         <v>2020</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="59">
         <v>60</v>
       </c>
-      <c r="D7" s="87">
+      <c r="D7" s="85">
         <f>D8*(1+$N$6)</f>
         <v>48770.698500000006</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <f>E8*(1+$N$6)</f>
         <v>58978.500000000007</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="90">
         <f t="shared" si="2"/>
         <v>51527.872455631295</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="28">
         <f>N33</f>
-        <v>7627.291365363878</v>
+        <v>5695.769066364539</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="28">
         <v>10779.84</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="63">
+      <c r="Q7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="121">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="62">
         <v>2019</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="59">
         <v>59</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="46">
         <v>47465.4</v>
       </c>
-      <c r="E8" s="83">
+      <c r="E8" s="81">
         <v>57400</v>
       </c>
-      <c r="G8" s="92">
+      <c r="G8" s="90">
         <f t="shared" si="2"/>
         <v>51527.872455631288</v>
       </c>
@@ -4552,31 +4811,38 @@
         <v>0</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="32">
+        <v>41</v>
+      </c>
+      <c r="N8" s="31">
         <f>65-18</f>
         <v>47</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="63">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" s="120">
+        <f>R5*(R4/100)*(R6/R7)</f>
+        <v>3863.0445979986771</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="62">
         <v>2018</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="59">
         <v>58</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="46">
         <v>46671</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="81">
         <f>E8/(1.0275)</f>
         <v>55863.746958637465</v>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="90">
         <f t="shared" si="2"/>
         <v>52058.782020158455</v>
       </c>
@@ -4589,59 +4855,73 @@
       <c r="M9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="28">
         <f>AVERAGE(E3:E7)</f>
         <v>62312.755795868907</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="63">
+      <c r="Q9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" s="121">
+        <f>N14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="62">
         <v>2017</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="59">
         <v>57</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="46">
         <v>46323.45</v>
       </c>
-      <c r="E10" s="83">
+      <c r="E10" s="81">
         <f t="shared" ref="E10:E67" si="3">E9/(1.0275)</f>
         <v>54368.610178722593</v>
       </c>
-      <c r="G10" s="92">
+      <c r="G10" s="90">
         <f t="shared" si="2"/>
         <v>53092.065770734102</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="70">
         <f>SUM(J5:J7)</f>
-        <v>29736.195193524312</v>
+        <v>31667.717492523654</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="31">
         <f>N8-7</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="63">
+      <c r="Q10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="123">
+        <f>R8*(1-(R9/100))</f>
+        <v>3863.0445979986771</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="62">
         <v>2016</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="59">
         <v>56</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="46">
         <v>45538.98</v>
       </c>
-      <c r="E11" s="83">
+      <c r="E11" s="81">
         <f t="shared" si="3"/>
         <v>52913.489225034151</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G11" s="90">
         <f t="shared" si="2"/>
         <v>53628.278563614738</v>
       </c>
@@ -4650,723 +4930,738 @@
       </c>
       <c r="J11" s="17">
         <f>J10/D3</f>
-        <v>0.54701483060057121</v>
+        <v>0.58254632130784378</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="31">
         <f>N10*0.15</f>
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="63">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="62">
         <v>2015</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="59">
         <v>55</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="46">
         <v>44665.14</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="81">
         <f t="shared" si="3"/>
         <v>51497.313114388468</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G12" s="90">
         <f t="shared" si="2"/>
         <v>54045.692737912206</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="70">
+      <c r="N12" s="69">
         <f>AVERAGE(G3:G29,G37:G43)</f>
         <v>54464.666267026179</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="63">
+      <c r="Q12" s="118"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="62">
         <v>2014</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="59">
         <v>54</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="46">
         <v>43811.159999999996</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="81">
         <f t="shared" si="3"/>
         <v>50119.039527385365</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G13" s="90">
         <f t="shared" si="2"/>
         <v>54470.200146633957</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="70">
+      <c r="N13" s="69">
         <f>N12*0.25</f>
         <v>13616.166566756545</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="63">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="62">
         <v>2013</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="59">
         <v>53</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="46">
         <v>42699</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E14" s="81">
         <f t="shared" si="3"/>
         <v>48777.654041250957</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G14" s="90">
         <f t="shared" si="2"/>
         <v>54547.362148201624</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="63">
+        <v>32</v>
+      </c>
+      <c r="N14" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="62">
         <v>2012</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="59">
         <v>52</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="46">
         <v>42291.87</v>
       </c>
-      <c r="E15" s="83">
+      <c r="E15" s="81">
         <f t="shared" si="3"/>
         <v>47472.169383212604</v>
       </c>
-      <c r="G15" s="92">
+      <c r="G15" s="90">
         <f t="shared" si="2"/>
         <v>55513.009026138025</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="30">
+        <v>77</v>
+      </c>
+      <c r="N15" s="29">
         <f>N13*(1-N14/100)</f>
         <v>13616.166566756545</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="63">
+      <c r="Q15" s="118" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="62">
         <v>2011</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="59">
         <v>51</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="46">
         <v>41576.909999999996</v>
       </c>
-      <c r="E16" s="83">
+      <c r="E16" s="81">
         <f t="shared" si="3"/>
         <v>46201.624703856542</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G16" s="90">
         <f t="shared" si="2"/>
         <v>56075.340557462318</v>
       </c>
-      <c r="M16" s="55"/>
-      <c r="N16" s="69"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="63">
+      <c r="M16" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="125">
+        <f>N15+R10</f>
+        <v>17479.211164755223</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="62">
         <v>2010</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="59">
         <v>50</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="46">
         <v>40812.300000000003</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="81">
         <f t="shared" si="3"/>
         <v>44965.084869933373</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G17" s="90">
         <f t="shared" si="2"/>
         <v>56557.813484040445</v>
       </c>
-      <c r="M17" s="55"/>
-      <c r="N17" s="69"/>
-    </row>
-    <row r="18" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="63">
+      <c r="M17" s="54"/>
+      <c r="N17" s="68"/>
+      <c r="Q17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="62">
         <v>2009</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="59">
         <v>49</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="46">
         <v>40137.06</v>
       </c>
-      <c r="E18" s="83">
+      <c r="E18" s="81">
         <f t="shared" si="3"/>
         <v>43761.639776090873</v>
       </c>
-      <c r="G18" s="92">
+      <c r="G18" s="90">
         <f t="shared" si="2"/>
         <v>57151.670525622867</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="28"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="63">
+      <c r="N18" s="116"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="62">
         <v>2008</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="59">
         <v>48</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="46">
         <v>39620.699999999997</v>
       </c>
-      <c r="E19" s="83">
+      <c r="E19" s="81">
         <f t="shared" si="3"/>
         <v>42590.403675027614</v>
       </c>
-      <c r="G19" s="92">
+      <c r="G19" s="90">
         <f t="shared" si="2"/>
         <v>57967.870471464419</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="33"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="63">
+      <c r="N19" s="32"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="62">
         <v>2007</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="59">
         <v>47</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="46">
         <v>38766.720000000001</v>
       </c>
-      <c r="E20" s="83">
+      <c r="E20" s="81">
         <f t="shared" si="3"/>
         <v>41450.514525574319</v>
       </c>
-      <c r="G20" s="92">
+      <c r="G20" s="90">
         <f t="shared" si="2"/>
         <v>58278.194710379335</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="34"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="63">
+      <c r="N20" s="33"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="62">
         <v>2006</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="59">
         <v>46</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="46">
         <v>37882.949999999997</v>
       </c>
-      <c r="E21" s="83">
+      <c r="E21" s="81">
         <f t="shared" si="3"/>
         <v>40341.133358223182</v>
       </c>
-      <c r="G21" s="92">
+      <c r="G21" s="90">
         <f t="shared" si="2"/>
         <v>58515.733586744311</v>
       </c>
       <c r="M21" s="12"/>
-      <c r="N21" s="29"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="63">
+      <c r="N21" s="28"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="62">
         <v>2005</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="59">
         <v>45</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="46">
         <v>37336.800000000003</v>
       </c>
-      <c r="E22" s="83">
+      <c r="E22" s="81">
         <f t="shared" si="3"/>
         <v>39261.443657638127</v>
       </c>
-      <c r="G22" s="92">
+      <c r="G22" s="90">
         <f t="shared" si="2"/>
         <v>59258.108817569606</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="42"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="63">
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="62">
         <v>2004</v>
       </c>
-      <c r="C23" s="60">
+      <c r="C23" s="59">
         <v>44</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="46">
         <v>36403.379999999997</v>
       </c>
-      <c r="E23" s="83">
+      <c r="E23" s="81">
         <f t="shared" si="3"/>
         <v>38210.650761691606</v>
       </c>
-      <c r="G23" s="92">
+      <c r="G23" s="90">
         <f t="shared" si="2"/>
         <v>59365.514139801453</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="43"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="63">
+      <c r="N23" s="42"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="62">
         <v>2003</v>
       </c>
-      <c r="C24" s="60">
+      <c r="C24" s="59">
         <v>43</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="46">
         <v>34755</v>
       </c>
-      <c r="E24" s="83">
+      <c r="E24" s="81">
         <f t="shared" si="3"/>
         <v>37187.981276585502</v>
       </c>
-      <c r="G24" s="92">
+      <c r="G24" s="90">
         <f t="shared" si="2"/>
         <v>58236.01479139689</v>
       </c>
       <c r="M24" s="12"/>
-      <c r="N24" s="29"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="63">
+      <c r="N24" s="28"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="62">
         <v>2002</v>
       </c>
-      <c r="C25" s="60">
+      <c r="C25" s="59">
         <v>42</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="46">
         <v>34546.47</v>
       </c>
-      <c r="E25" s="83">
+      <c r="E25" s="81">
         <f t="shared" si="3"/>
         <v>36192.682507625788</v>
       </c>
-      <c r="G25" s="92">
+      <c r="G25" s="90">
         <f t="shared" si="2"/>
         <v>59478.480166971349</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N25" s="45"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="63">
+      <c r="N25" s="44"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="62">
         <v>2001</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="59">
         <v>41</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="46">
         <v>33920.879999999997</v>
       </c>
-      <c r="E26" s="83">
+      <c r="E26" s="81">
         <f t="shared" si="3"/>
         <v>35224.021905231908</v>
       </c>
-      <c r="G26" s="92">
+      <c r="G26" s="90">
         <f t="shared" si="2"/>
         <v>60007.443712923086</v>
       </c>
       <c r="M26" s="12"/>
-      <c r="N26" s="29"/>
-    </row>
-    <row r="27" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="63">
+      <c r="N26" s="28"/>
+    </row>
+    <row r="27" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="62">
         <v>2000</v>
       </c>
-      <c r="C27" s="60">
+      <c r="C27" s="59">
         <v>40</v>
       </c>
-      <c r="D27" s="47">
+      <c r="D27" s="46">
         <v>32769</v>
       </c>
-      <c r="E27" s="83">
+      <c r="E27" s="81">
         <f t="shared" si="3"/>
         <v>34281.286525773146</v>
       </c>
-      <c r="G27" s="92">
+      <c r="G27" s="90">
         <f t="shared" si="2"/>
         <v>59563.88752037294</v>
       </c>
-      <c r="M27" s="57" t="s">
+      <c r="M27" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="58"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="63">
+      <c r="N27" s="57"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="62">
         <v>1999</v>
       </c>
-      <c r="C28" s="60">
+      <c r="C28" s="59">
         <v>39</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="46">
         <v>32351.94</v>
       </c>
-      <c r="E28" s="83">
+      <c r="E28" s="81">
         <f t="shared" si="3"/>
         <v>33363.782506835174</v>
       </c>
-      <c r="G28" s="92">
+      <c r="G28" s="90">
         <f t="shared" si="2"/>
         <v>60422.961225382693</v>
       </c>
-      <c r="M28" s="55"/>
-      <c r="N28" s="56"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="64">
+      <c r="M28" s="54"/>
+      <c r="N28" s="55"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="63">
         <v>1998</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="59">
         <v>38</v>
       </c>
-      <c r="D29" s="47">
+      <c r="D29" s="46">
         <v>31155.375</v>
       </c>
-      <c r="E29" s="83">
+      <c r="E29" s="81">
         <f t="shared" si="3"/>
         <v>32470.834556530579</v>
       </c>
-      <c r="G29" s="92">
+      <c r="G29" s="90">
         <f t="shared" si="2"/>
         <v>59788.339308737188</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="22">
         <v>1997</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="51">
         <v>37</v>
       </c>
-      <c r="D30" s="48">
-        <v>0</v>
-      </c>
-      <c r="E30" s="85">
+      <c r="D30" s="47">
+        <v>0</v>
+      </c>
+      <c r="E30" s="83">
         <f t="shared" si="3"/>
         <v>31601.785456477446</v>
       </c>
-      <c r="G30" s="92">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="N30" s="72"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" s="117"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="22">
         <v>1996</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C31" s="51">
         <v>36</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="47">
         <v>1492</v>
       </c>
-      <c r="E31" s="85">
+      <c r="E31" s="83">
         <f t="shared" si="3"/>
         <v>30755.995578080237</v>
       </c>
-      <c r="G31" s="92">
+      <c r="G31" s="90">
         <f t="shared" si="2"/>
         <v>3022.8457866503422</v>
       </c>
-      <c r="M31" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="N31" s="77">
+      <c r="M31" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31" s="75">
         <f>N5*(1+N6)^6</f>
         <v>8492.7372614038886</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="22">
         <v>1995</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="51">
         <v>35</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="47">
         <v>1302</v>
       </c>
-      <c r="E32" s="85">
+      <c r="E32" s="83">
         <f t="shared" si="3"/>
         <v>29932.842411756919</v>
       </c>
-      <c r="G32" s="92">
+      <c r="G32" s="90">
         <f t="shared" si="2"/>
         <v>2710.4411579153898</v>
       </c>
-      <c r="M32" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="N32" s="78">
+      <c r="M32" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="N32" s="76">
         <f>N7*(1+N6)^6</f>
         <v>12685.37464874215</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="22">
         <v>1994</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="51">
         <v>34</v>
       </c>
-      <c r="D33" s="48">
-        <v>0</v>
-      </c>
-      <c r="E33" s="85">
+      <c r="D33" s="47">
+        <v>0</v>
+      </c>
+      <c r="E33" s="83">
         <f t="shared" si="3"/>
         <v>29131.720108765858</v>
       </c>
-      <c r="G33" s="92">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="N33" s="82">
-        <f>N32-((N15-3500)/2)</f>
-        <v>7627.291365363878</v>
+      <c r="G33" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" s="80">
+        <f>N32-((N16-3500)/2)</f>
+        <v>5695.769066364539</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="22">
         <v>1993</v>
       </c>
-      <c r="C34" s="52">
+      <c r="C34" s="51">
         <v>33</v>
       </c>
-      <c r="D34" s="48">
-        <v>0</v>
-      </c>
-      <c r="E34" s="85">
+      <c r="D34" s="47">
+        <v>0</v>
+      </c>
+      <c r="E34" s="83">
         <f t="shared" si="3"/>
         <v>28352.039035295238</v>
       </c>
-      <c r="G34" s="92">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="N34" s="56"/>
+      <c r="G34" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="55"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="22">
         <v>1992</v>
       </c>
-      <c r="C35" s="52">
+      <c r="C35" s="51">
         <v>32</v>
       </c>
-      <c r="D35" s="48">
-        <v>0</v>
-      </c>
-      <c r="E35" s="85">
+      <c r="D35" s="47">
+        <v>0</v>
+      </c>
+      <c r="E35" s="83">
         <f t="shared" si="3"/>
         <v>27593.225338486849</v>
       </c>
-      <c r="G35" s="92">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="N35" s="75"/>
+      <c r="G35" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" s="73"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="22">
         <v>1991</v>
       </c>
-      <c r="C36" s="52">
+      <c r="C36" s="51">
         <v>31</v>
       </c>
-      <c r="D36" s="48">
-        <v>0</v>
-      </c>
-      <c r="E36" s="85">
+      <c r="D36" s="47">
+        <v>0</v>
+      </c>
+      <c r="E36" s="83">
         <f t="shared" si="3"/>
         <v>26854.72052407479</v>
       </c>
-      <c r="G36" s="92">
+      <c r="G36" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="62">
+      <c r="B37" s="61">
         <v>1990</v>
       </c>
-      <c r="C37" s="60">
+      <c r="C37" s="59">
         <v>30</v>
       </c>
-      <c r="D37" s="47">
+      <c r="D37" s="46">
         <v>24854.79</v>
       </c>
-      <c r="E37" s="83">
+      <c r="E37" s="81">
         <f t="shared" si="3"/>
         <v>26135.981045328259</v>
       </c>
-      <c r="G37" s="92">
+      <c r="G37" s="90">
         <f t="shared" si="2"/>
         <v>59258.171979139981</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="63">
+      <c r="B38" s="62">
         <v>1989</v>
       </c>
-      <c r="C38" s="60">
+      <c r="C38" s="59">
         <v>29</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="46">
         <v>24825</v>
       </c>
-      <c r="E38" s="83">
+      <c r="E38" s="81">
         <f t="shared" si="3"/>
         <v>25436.47790299587</v>
       </c>
-      <c r="G38" s="92">
+      <c r="G38" s="90">
         <f t="shared" si="2"/>
         <v>60814.793955819347</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="63">
+      <c r="B39" s="62">
         <v>1988</v>
       </c>
-      <c r="C39" s="60">
+      <c r="C39" s="59">
         <v>28</v>
       </c>
-      <c r="D39" s="47">
+      <c r="D39" s="46">
         <v>22789.35</v>
       </c>
-      <c r="E39" s="83">
+      <c r="E39" s="81">
         <f t="shared" si="3"/>
         <v>24755.696255957049</v>
       </c>
-      <c r="G39" s="92">
+      <c r="G39" s="90">
         <f t="shared" si="2"/>
         <v>57363.250324856825</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="63">
+      <c r="B40" s="62">
         <v>1987</v>
       </c>
-      <c r="C40" s="60">
+      <c r="C40" s="59">
         <v>27</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="46">
         <v>22243.200000000001</v>
       </c>
-      <c r="E40" s="83">
+      <c r="E40" s="81">
         <f t="shared" si="3"/>
         <v>24093.135042293965</v>
       </c>
-      <c r="G40" s="92">
+      <c r="G40" s="90">
         <f t="shared" si="2"/>
         <v>57528.216534941384</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="63">
+      <c r="B41" s="62">
         <v>1986</v>
       </c>
-      <c r="C41" s="60">
+      <c r="C41" s="59">
         <v>26</v>
       </c>
-      <c r="D41" s="47">
+      <c r="D41" s="46">
         <v>20853</v>
       </c>
-      <c r="E41" s="83">
+      <c r="E41" s="81">
         <f t="shared" si="3"/>
         <v>23448.306610505075</v>
       </c>
-      <c r="G41" s="92">
+      <c r="G41" s="90">
         <f t="shared" si="2"/>
         <v>55415.852334049006</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="63">
+      <c r="B42" s="62">
         <v>1985</v>
       </c>
-      <c r="C42" s="60">
+      <c r="C42" s="59">
         <v>25</v>
       </c>
-      <c r="D42" s="47">
+      <c r="D42" s="46">
         <v>19860</v>
       </c>
-      <c r="E42" s="83">
+      <c r="E42" s="81">
         <f t="shared" si="3"/>
         <v>22820.736360588879</v>
       </c>
-      <c r="G42" s="92">
+      <c r="G42" s="90">
         <f t="shared" si="2"/>
         <v>54228.369784033675</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="68">
+      <c r="B43" s="67">
         <v>1984</v>
       </c>
-      <c r="C43" s="65">
+      <c r="C43" s="64">
         <v>24</v>
       </c>
-      <c r="D43" s="49">
-        <v>0</v>
-      </c>
-      <c r="E43" s="86">
+      <c r="D43" s="48">
+        <v>0</v>
+      </c>
+      <c r="E43" s="84">
         <f t="shared" si="3"/>
         <v>22209.962394733699</v>
       </c>
-      <c r="G43" s="92">
+      <c r="G43" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5375,17 +5670,17 @@
       <c r="B44" s="21">
         <v>1983</v>
       </c>
-      <c r="C44" s="53">
+      <c r="C44" s="52">
         <v>23</v>
       </c>
-      <c r="D44" s="50">
-        <v>0</v>
-      </c>
-      <c r="E44" s="84">
+      <c r="D44" s="49">
+        <v>0</v>
+      </c>
+      <c r="E44" s="82">
         <f t="shared" si="3"/>
         <v>21615.535177356396</v>
       </c>
-      <c r="G44" s="92">
+      <c r="G44" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5394,17 +5689,17 @@
       <c r="B45" s="21">
         <v>1982</v>
       </c>
-      <c r="C45" s="53">
+      <c r="C45" s="52">
         <v>22</v>
       </c>
-      <c r="D45" s="50">
-        <v>0</v>
-      </c>
-      <c r="E45" s="84">
+      <c r="D45" s="49">
+        <v>0</v>
+      </c>
+      <c r="E45" s="82">
         <f t="shared" si="3"/>
         <v>21037.017204239801</v>
       </c>
-      <c r="G45" s="92">
+      <c r="G45" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5413,17 +5708,17 @@
       <c r="B46" s="21">
         <v>1981</v>
       </c>
-      <c r="C46" s="53">
+      <c r="C46" s="52">
         <v>21</v>
       </c>
-      <c r="D46" s="50">
-        <v>0</v>
-      </c>
-      <c r="E46" s="84">
+      <c r="D46" s="49">
+        <v>0</v>
+      </c>
+      <c r="E46" s="82">
         <f t="shared" si="3"/>
         <v>20473.982680525351</v>
       </c>
-      <c r="G46" s="92">
+      <c r="G46" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5432,17 +5727,17 @@
       <c r="B47" s="21">
         <v>1980</v>
       </c>
-      <c r="C47" s="53">
+      <c r="C47" s="52">
         <v>20</v>
       </c>
-      <c r="D47" s="50">
-        <v>0</v>
-      </c>
-      <c r="E47" s="84">
+      <c r="D47" s="49">
+        <v>0</v>
+      </c>
+      <c r="E47" s="82">
         <f t="shared" si="3"/>
         <v>19926.017207323941</v>
       </c>
-      <c r="G47" s="92">
+      <c r="G47" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5451,17 +5746,17 @@
       <c r="B48" s="21">
         <v>1979</v>
       </c>
-      <c r="C48" s="53">
+      <c r="C48" s="52">
         <v>19</v>
       </c>
-      <c r="D48" s="50">
-        <v>0</v>
-      </c>
-      <c r="E48" s="84">
+      <c r="D48" s="49">
+        <v>0</v>
+      </c>
+      <c r="E48" s="82">
         <f t="shared" si="3"/>
         <v>19392.717476714297</v>
       </c>
-      <c r="G48" s="92">
+      <c r="G48" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5470,17 +5765,17 @@
       <c r="B49" s="21">
         <v>1978</v>
       </c>
-      <c r="C49" s="54">
+      <c r="C49" s="53">
         <v>18</v>
       </c>
-      <c r="D49" s="50">
-        <v>0</v>
-      </c>
-      <c r="E49" s="84">
+      <c r="D49" s="49">
+        <v>0</v>
+      </c>
+      <c r="E49" s="82">
         <f t="shared" si="3"/>
         <v>18873.690974904424</v>
       </c>
-      <c r="G49" s="92">
+      <c r="G49" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5495,11 +5790,11 @@
       <c r="D50" s="20">
         <v>0</v>
       </c>
-      <c r="E50" s="83">
+      <c r="E50" s="81">
         <f t="shared" si="3"/>
         <v>18368.555693337639</v>
       </c>
-      <c r="G50" s="92">
+      <c r="G50" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5514,11 +5809,11 @@
       <c r="D51" s="20">
         <v>0</v>
       </c>
-      <c r="E51" s="83">
+      <c r="E51" s="81">
         <f t="shared" si="3"/>
         <v>17876.939847530546</v>
       </c>
-      <c r="G51" s="92">
+      <c r="G51" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5533,11 +5828,11 @@
       <c r="D52" s="20">
         <v>0</v>
       </c>
-      <c r="E52" s="83">
+      <c r="E52" s="81">
         <f t="shared" si="3"/>
         <v>17398.481603436052</v>
       </c>
-      <c r="G52" s="92">
+      <c r="G52" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5552,11 +5847,11 @@
       <c r="D53" s="20">
         <v>0</v>
       </c>
-      <c r="E53" s="83">
+      <c r="E53" s="81">
         <f t="shared" si="3"/>
         <v>16932.828811129977</v>
       </c>
-      <c r="G53" s="92">
+      <c r="G53" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5571,11 +5866,11 @@
       <c r="D54" s="20">
         <v>0</v>
       </c>
-      <c r="E54" s="83">
+      <c r="E54" s="81">
         <f t="shared" si="3"/>
         <v>16479.638745625281</v>
       </c>
-      <c r="G54" s="92">
+      <c r="G54" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5590,11 +5885,11 @@
       <c r="D55" s="20">
         <v>0</v>
       </c>
-      <c r="E55" s="83">
+      <c r="E55" s="81">
         <f t="shared" si="3"/>
         <v>16038.577854623143</v>
       </c>
-      <c r="G55" s="92">
+      <c r="G55" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5609,11 +5904,11 @@
       <c r="D56" s="20">
         <v>0</v>
       </c>
-      <c r="E56" s="83">
+      <c r="E56" s="81">
         <f t="shared" si="3"/>
         <v>15609.321513015224</v>
       </c>
-      <c r="G56" s="92">
+      <c r="G56" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5628,11 +5923,11 @@
       <c r="D57" s="20">
         <v>0</v>
       </c>
-      <c r="E57" s="83">
+      <c r="E57" s="81">
         <f t="shared" si="3"/>
         <v>15191.55378395642</v>
       </c>
-      <c r="G57" s="92">
+      <c r="G57" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5647,11 +5942,11 @@
       <c r="D58" s="20">
         <v>0</v>
       </c>
-      <c r="E58" s="83">
+      <c r="E58" s="81">
         <f t="shared" si="3"/>
         <v>14784.967186332282</v>
       </c>
-      <c r="G58" s="92">
+      <c r="G58" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5666,11 +5961,11 @@
       <c r="D59" s="20">
         <v>0</v>
       </c>
-      <c r="E59" s="83">
+      <c r="E59" s="81">
         <f t="shared" si="3"/>
         <v>14389.262468449908</v>
       </c>
-      <c r="G59" s="92">
+      <c r="G59" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5685,11 +5980,11 @@
       <c r="D60" s="20">
         <v>0</v>
       </c>
-      <c r="E60" s="83">
+      <c r="E60" s="81">
         <f t="shared" si="3"/>
         <v>14004.148387785797</v>
       </c>
-      <c r="G60" s="92">
+      <c r="G60" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5704,11 +5999,11 @@
       <c r="D61" s="20">
         <v>0</v>
       </c>
-      <c r="E61" s="83">
+      <c r="E61" s="81">
         <f t="shared" si="3"/>
         <v>13629.341496628513</v>
       </c>
-      <c r="G61" s="92">
+      <c r="G61" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5723,11 +6018,11 @@
       <c r="D62" s="20">
         <v>0</v>
       </c>
-      <c r="E62" s="83">
+      <c r="E62" s="81">
         <f t="shared" si="3"/>
         <v>13264.565933458405</v>
       </c>
-      <c r="G62" s="92">
+      <c r="G62" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5742,11 +6037,11 @@
       <c r="D63" s="20">
         <v>0</v>
       </c>
-      <c r="E63" s="83">
+      <c r="E63" s="81">
         <f t="shared" si="3"/>
         <v>12909.553219910855</v>
       </c>
-      <c r="G63" s="92">
+      <c r="G63" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5761,11 +6056,11 @@
       <c r="D64" s="20">
         <v>0</v>
       </c>
-      <c r="E64" s="83">
+      <c r="E64" s="81">
         <f t="shared" si="3"/>
         <v>12564.04206317358</v>
       </c>
-      <c r="G64" s="92">
+      <c r="G64" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5780,11 +6075,11 @@
       <c r="D65" s="20">
         <v>0</v>
       </c>
-      <c r="E65" s="83">
+      <c r="E65" s="81">
         <f t="shared" si="3"/>
         <v>12227.778163672583</v>
       </c>
-      <c r="G65" s="92">
+      <c r="G65" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5799,11 +6094,11 @@
       <c r="D66" s="20">
         <v>0</v>
       </c>
-      <c r="E66" s="83">
+      <c r="E66" s="81">
         <f t="shared" si="3"/>
         <v>11900.51402790519</v>
       </c>
-      <c r="G66" s="92">
+      <c r="G66" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5818,7 +6113,7 @@
       <c r="D67" s="20">
         <v>0</v>
       </c>
-      <c r="E67" s="83">
+      <c r="E67" s="81">
         <f t="shared" si="3"/>
         <v>11582.008786282422</v>
       </c>
@@ -5837,36 +6132,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D06BBD0-3540-47FD-9C64-4AC625E42B0E}">
   <dimension ref="B1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="72" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="2"/>
-    <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="5"/>
-    <col min="5" max="5" width="10.85546875" style="6"/>
-    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="1"/>
-    <col min="9" max="9" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.85546875" style="1"/>
-    <col min="13" max="13" width="48.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="2"/>
+    <col min="3" max="3" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="5"/>
+    <col min="5" max="5" width="10.88671875" style="6"/>
+    <col min="6" max="6" width="12.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="1"/>
+    <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.88671875" style="1"/>
+    <col min="13" max="13" width="48.88671875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="51" t="s">
+    <row r="2" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -5875,10 +6170,10 @@
       <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="112" t="s">
+      <c r="F2" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="110" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -5888,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>2</v>
@@ -5897,34 +6192,34 @@
         <v>3</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="103">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="101">
         <v>2019</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="58">
         <v>59</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="45">
         <v>48761</v>
       </c>
-      <c r="E3" s="109">
+      <c r="E3" s="107">
         <v>57400</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="113">
+      <c r="F3" s="86"/>
+      <c r="G3" s="111">
         <f>D3*($N$9/E3)</f>
         <v>46219.848429433448</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="28"/>
+      <c r="N3" s="116"/>
       <c r="P3" s="2">
         <v>2019</v>
       </c>
@@ -5934,26 +6229,26 @@
       <c r="R3" s="19">
         <v>49248</v>
       </c>
-      <c r="S3" s="86">
+      <c r="S3" s="84">
         <v>57400</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="104">
+      <c r="B4" s="102">
         <v>2018</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="59">
         <v>58</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>47945</v>
       </c>
-      <c r="E4" s="109">
+      <c r="E4" s="107">
         <f>E3/(1.0275)</f>
         <v>55863.746958637465</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="113">
+      <c r="F4" s="87"/>
+      <c r="G4" s="111">
         <f t="shared" ref="G4:G22" si="0">D4*($N$9/E4)</f>
         <v>46696.149081341428</v>
       </c>
@@ -5979,41 +6274,41 @@
       <c r="R4" s="20">
         <v>48424</v>
       </c>
-      <c r="S4" s="86">
+      <c r="S4" s="84">
         <f>S3/(1.0275)</f>
         <v>55863.746958637465</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="104">
+      <c r="B5" s="102">
         <v>2017</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="59">
         <v>57</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="46">
         <v>47588</v>
       </c>
-      <c r="E5" s="109">
+      <c r="E5" s="107">
         <f t="shared" ref="E5:E62" si="1">E4/(1.0275)</f>
         <v>54368.610178722593</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="113">
+      <c r="F5" s="87"/>
+      <c r="G5" s="111">
         <f t="shared" si="0"/>
         <v>47623.030386925755</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="29">
-        <f>N15</f>
-        <v>8294.3124315418499</v>
+      <c r="J5" s="28">
+        <f>N16</f>
+        <v>8390.5652658961444</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="28">
         <v>7217</v>
       </c>
       <c r="P5" s="2">
@@ -6025,27 +6320,27 @@
       <c r="R5" s="20">
         <v>48064</v>
       </c>
-      <c r="S5" s="86">
+      <c r="S5" s="84">
         <f t="shared" ref="S5:S62" si="2">S4/(1.0275)</f>
         <v>54368.610178722593</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="104">
+      <c r="B6" s="102">
         <v>2016</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="59">
         <v>56</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="46">
         <v>46782</v>
       </c>
-      <c r="E6" s="109">
+      <c r="E6" s="107">
         <f t="shared" si="1"/>
         <v>52913.489225034151</v>
       </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="113">
+      <c r="F6" s="87"/>
+      <c r="G6" s="111">
         <f t="shared" si="0"/>
         <v>48103.88909534111</v>
       </c>
@@ -6056,9 +6351,9 @@
         <v>0</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="73">
+        <v>35</v>
+      </c>
+      <c r="N6" s="71">
         <v>2.75E-2</v>
       </c>
       <c r="P6" s="2">
@@ -6070,27 +6365,27 @@
       <c r="R6" s="20">
         <v>47250</v>
       </c>
-      <c r="S6" s="86">
+      <c r="S6" s="84">
         <f t="shared" si="2"/>
         <v>52913.489225034151</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="104">
+      <c r="B7" s="102">
         <v>2015</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="59">
         <v>55</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="46">
         <v>45884</v>
       </c>
-      <c r="E7" s="109">
+      <c r="E7" s="107">
         <f t="shared" si="1"/>
         <v>51497.313114388468</v>
       </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="113">
+      <c r="F7" s="87"/>
+      <c r="G7" s="111">
         <f t="shared" si="0"/>
         <v>48477.979042153478</v>
       </c>
@@ -6103,7 +6398,7 @@
       <c r="M7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="28">
         <v>10779.84</v>
       </c>
       <c r="P7" s="2">
@@ -6115,27 +6410,27 @@
       <c r="R7" s="20">
         <v>46343</v>
       </c>
-      <c r="S7" s="86">
+      <c r="S7" s="84">
         <f t="shared" si="2"/>
         <v>51497.313114388468</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="104">
+      <c r="B8" s="102">
         <v>2014</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="59">
         <v>54</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="46">
         <v>45007</v>
       </c>
-      <c r="E8" s="109">
+      <c r="E8" s="107">
         <f t="shared" si="1"/>
         <v>50119.039527385365</v>
       </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="113">
+      <c r="F8" s="87"/>
+      <c r="G8" s="111">
         <f t="shared" si="0"/>
         <v>48859.062719593581</v>
       </c>
@@ -6148,12 +6443,12 @@
       <c r="M8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="31">
         <f>60-18</f>
         <v>42</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P8" s="2">
         <v>2014</v>
@@ -6164,27 +6459,27 @@
       <c r="R8" s="20">
         <v>45457</v>
       </c>
-      <c r="S8" s="86">
+      <c r="S8" s="84">
         <f t="shared" si="2"/>
         <v>50119.039527385365</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="104">
+    <row r="9" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="102">
         <v>2013</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="59">
         <v>53</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="46">
         <v>43864</v>
       </c>
-      <c r="E9" s="109">
+      <c r="E9" s="107">
         <f t="shared" si="1"/>
         <v>48777.654041250957</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="113">
+      <c r="F9" s="87"/>
+      <c r="G9" s="111">
         <f t="shared" si="0"/>
         <v>48927.737021538662</v>
       </c>
@@ -6197,7 +6492,7 @@
       <c r="M9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="28">
         <f>AVERAGE(E3:E7)</f>
         <v>54408.631895356535</v>
       </c>
@@ -6210,41 +6505,41 @@
       <c r="R9" s="20">
         <v>44303</v>
       </c>
-      <c r="S9" s="86">
+      <c r="S9" s="84">
         <f t="shared" si="2"/>
         <v>48777.654041250957</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="104">
+      <c r="B10" s="102">
         <v>2012</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="59">
         <v>52</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="46">
         <v>43446</v>
       </c>
-      <c r="E10" s="109">
+      <c r="E10" s="107">
         <f t="shared" si="1"/>
         <v>47472.169383212604</v>
       </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="113">
+      <c r="F10" s="87"/>
+      <c r="G10" s="111">
         <f t="shared" si="0"/>
         <v>49794.173134240089</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="70">
         <f>SUM(J4:J5)</f>
-        <v>35165.576431541849</v>
+        <v>35261.829265896144</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="31">
         <f>N8</f>
         <v>42</v>
       </c>
@@ -6257,27 +6552,27 @@
       <c r="R10" s="20">
         <v>43881</v>
       </c>
-      <c r="S10" s="86">
+      <c r="S10" s="84">
         <f t="shared" si="2"/>
         <v>47472.169383212604</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="104">
+    <row r="11" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="102">
         <v>2011</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="59">
         <v>51</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="46">
         <v>42712</v>
       </c>
-      <c r="E11" s="109">
+      <c r="E11" s="107">
         <f t="shared" si="1"/>
         <v>46201.624703856542</v>
       </c>
-      <c r="F11" s="89"/>
-      <c r="G11" s="113">
+      <c r="F11" s="87"/>
+      <c r="G11" s="111">
         <f t="shared" si="0"/>
         <v>50299.129097953301</v>
       </c>
@@ -6286,12 +6581,12 @@
       </c>
       <c r="J11" s="17">
         <f>J10/D3</f>
-        <v>0.72118242922708409</v>
+        <v>0.72315640093304367</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="31">
         <f>N10*0.15</f>
         <v>6.3</v>
       </c>
@@ -6304,34 +6599,34 @@
       <c r="R11" s="20">
         <v>43139</v>
       </c>
-      <c r="S11" s="86">
+      <c r="S11" s="84">
         <f t="shared" si="2"/>
         <v>46201.624703856542</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="104">
+      <c r="B12" s="102">
         <v>2010</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="59">
         <v>50</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="46">
         <v>41926</v>
       </c>
-      <c r="E12" s="109">
+      <c r="E12" s="107">
         <f t="shared" si="1"/>
         <v>44965.084869933373</v>
       </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="113">
+      <c r="F12" s="87"/>
+      <c r="G12" s="111">
         <f t="shared" si="0"/>
         <v>50731.279779481454</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="70">
+      <c r="N12" s="69">
         <f>AVERAGE(G3:G38)</f>
         <v>49518.283173384189</v>
       </c>
@@ -6344,37 +6639,37 @@
       <c r="R12" s="20">
         <v>42345</v>
       </c>
-      <c r="S12" s="86">
+      <c r="S12" s="84">
         <f t="shared" si="2"/>
         <v>44965.084869933373</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="104">
+      <c r="B13" s="102">
         <v>2009</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="59">
         <v>49</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="46">
         <v>41232</v>
       </c>
-      <c r="E13" s="109">
+      <c r="E13" s="107">
         <f t="shared" si="1"/>
         <v>43761.639776090873</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="113">
+      <c r="F13" s="87"/>
+      <c r="G13" s="111">
         <f t="shared" si="0"/>
         <v>51263.543180459317</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="70">
+      <c r="N13" s="69">
         <f>N12*0.25</f>
         <v>12379.570793346047</v>
       </c>
@@ -6387,37 +6682,37 @@
       <c r="R13" s="20">
         <v>41645</v>
       </c>
-      <c r="S13" s="86">
+      <c r="S13" s="84">
         <f t="shared" si="2"/>
         <v>43761.639776090873</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="104">
+      <c r="B14" s="102">
         <v>2008</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="59">
         <v>48</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="46">
         <v>40702</v>
       </c>
-      <c r="E14" s="109">
+      <c r="E14" s="107">
         <f t="shared" si="1"/>
         <v>42590.403675027614</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="113">
+      <c r="F14" s="87"/>
+      <c r="G14" s="111">
         <f t="shared" si="0"/>
         <v>51996.223193894533</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="41">
+        <v>32</v>
+      </c>
+      <c r="N14" s="40">
         <f>0.55*60</f>
         <v>33</v>
       </c>
@@ -6430,34 +6725,34 @@
       <c r="R14" s="20">
         <v>41109</v>
       </c>
-      <c r="S14" s="86">
+      <c r="S14" s="84">
         <f t="shared" si="2"/>
         <v>42590.403675027614</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="104">
+    <row r="15" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="102">
         <v>2007</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="59">
         <v>47</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="46">
         <v>39825</v>
       </c>
-      <c r="E15" s="109">
+      <c r="E15" s="107">
         <f t="shared" si="1"/>
         <v>41450.514525574319</v>
       </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="113">
+      <c r="F15" s="87"/>
+      <c r="G15" s="111">
         <f t="shared" si="0"/>
         <v>52274.954606309591</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="30">
+        <v>75</v>
+      </c>
+      <c r="N15" s="29">
         <f>N13*(1-N14/100)</f>
         <v>8294.3124315418499</v>
       </c>
@@ -6470,35 +6765,40 @@
       <c r="R15" s="20">
         <v>40223</v>
       </c>
-      <c r="S15" s="86">
+      <c r="S15" s="84">
         <f t="shared" si="2"/>
         <v>41450.514525574319</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="104">
+    <row r="16" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="102">
         <v>2006</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="59">
         <v>46</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="46">
         <v>38917</v>
       </c>
-      <c r="E16" s="109">
+      <c r="E16" s="107">
         <f t="shared" si="1"/>
         <v>40341.133358223182</v>
       </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="113">
+      <c r="F16" s="87"/>
+      <c r="G16" s="111">
         <f t="shared" si="0"/>
         <v>52487.883983556276</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="55"/>
-      <c r="N16" s="69"/>
+        <v>61</v>
+      </c>
+      <c r="M16" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" s="125">
+        <f>N15+N45</f>
+        <v>8390.5652658961444</v>
+      </c>
       <c r="P16" s="2">
         <v>2006</v>
       </c>
@@ -6508,36 +6808,36 @@
       <c r="R16" s="20">
         <v>39306</v>
       </c>
-      <c r="S16" s="86">
+      <c r="S16" s="84">
         <f t="shared" si="2"/>
         <v>40341.133358223182</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="104">
+      <c r="B17" s="102">
         <v>2005</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="59">
         <v>45</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="46">
         <v>38356</v>
       </c>
-      <c r="E17" s="109">
+      <c r="E17" s="107">
         <f t="shared" si="1"/>
         <v>39261.443657638127</v>
       </c>
-      <c r="F17" s="89"/>
-      <c r="G17" s="113">
+      <c r="F17" s="87"/>
+      <c r="G17" s="111">
         <f t="shared" si="0"/>
         <v>53153.865231654549</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="117"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="69"/>
+        <v>62</v>
+      </c>
+      <c r="J17" s="115"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="68"/>
       <c r="P17" s="2">
         <v>2005</v>
       </c>
@@ -6547,34 +6847,34 @@
       <c r="R17" s="20">
         <v>38739</v>
       </c>
-      <c r="S17" s="86">
+      <c r="S17" s="84">
         <f t="shared" si="2"/>
         <v>39261.443657638127</v>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="104">
+    <row r="18" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="102">
         <v>2004</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="59">
         <v>44</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="46">
         <v>37397</v>
       </c>
-      <c r="E18" s="109">
+      <c r="E18" s="107">
         <f t="shared" si="1"/>
         <v>38210.650761691606</v>
       </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="113">
+      <c r="F18" s="87"/>
+      <c r="G18" s="111">
         <f t="shared" si="0"/>
         <v>53250.064221114306</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="28"/>
+      <c r="N18" s="116"/>
       <c r="P18" s="2">
         <v>2004</v>
       </c>
@@ -6584,34 +6884,34 @@
       <c r="R18" s="20">
         <v>37771</v>
       </c>
-      <c r="S18" s="86">
+      <c r="S18" s="84">
         <f t="shared" si="2"/>
         <v>38210.650761691606</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="104">
+      <c r="B19" s="102">
         <v>2003</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="59">
         <v>43</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="46">
         <v>35704</v>
       </c>
-      <c r="E19" s="109">
+      <c r="E19" s="107">
         <f t="shared" si="1"/>
         <v>37187.981276585502</v>
       </c>
-      <c r="F19" s="89"/>
-      <c r="G19" s="113">
+      <c r="F19" s="87"/>
+      <c r="G19" s="111">
         <f t="shared" si="0"/>
         <v>52237.462925015607</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N19" s="33"/>
+        <v>54</v>
+      </c>
+      <c r="N19" s="32"/>
       <c r="P19" s="2">
         <v>2003</v>
       </c>
@@ -6621,35 +6921,35 @@
       <c r="R19" s="20">
         <v>36061</v>
       </c>
-      <c r="S19" s="86">
+      <c r="S19" s="84">
         <f t="shared" si="2"/>
         <v>37187.981276585502</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="104">
+      <c r="B20" s="102">
         <v>2002</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="59">
         <v>42</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="46">
         <v>35489</v>
       </c>
-      <c r="E20" s="109">
+      <c r="E20" s="107">
         <f t="shared" si="1"/>
         <v>36192.682507625788</v>
       </c>
-      <c r="F20" s="89"/>
-      <c r="G20" s="113">
+      <c r="F20" s="87"/>
+      <c r="G20" s="111">
         <f t="shared" si="0"/>
         <v>53350.78263202696</v>
       </c>
-      <c r="J20" s="36"/>
+      <c r="J20" s="35"/>
       <c r="M20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N20" s="34"/>
+        <v>55</v>
+      </c>
+      <c r="N20" s="33"/>
       <c r="P20" s="2">
         <v>2002</v>
       </c>
@@ -6659,32 +6959,32 @@
       <c r="R20" s="20">
         <v>35844</v>
       </c>
-      <c r="S20" s="86">
+      <c r="S20" s="84">
         <f t="shared" si="2"/>
         <v>36192.682507625788</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="104">
+      <c r="B21" s="102">
         <v>2001</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="59">
         <v>41</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="46">
         <v>34847</v>
       </c>
-      <c r="E21" s="109">
+      <c r="E21" s="107">
         <f t="shared" si="1"/>
         <v>35224.021905231908</v>
       </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="113">
+      <c r="F21" s="87"/>
+      <c r="G21" s="111">
         <f t="shared" si="0"/>
         <v>53826.266652868369</v>
       </c>
       <c r="M21" s="12"/>
-      <c r="N21" s="29"/>
+      <c r="N21" s="28"/>
       <c r="P21" s="2">
         <v>2001</v>
       </c>
@@ -6694,34 +6994,34 @@
       <c r="R21" s="20">
         <v>35195</v>
       </c>
-      <c r="S21" s="86">
+      <c r="S21" s="84">
         <f t="shared" si="2"/>
         <v>35224.021905231908</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="104">
+      <c r="B22" s="102">
         <v>2000</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="59">
         <v>40</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="46">
         <v>33663</v>
       </c>
-      <c r="E22" s="109">
+      <c r="E22" s="107">
         <f t="shared" si="1"/>
         <v>34281.286525773146</v>
       </c>
-      <c r="F22" s="89"/>
-      <c r="G22" s="113">
+      <c r="F22" s="87"/>
+      <c r="G22" s="111">
         <f t="shared" si="0"/>
         <v>53427.334884774427</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="42"/>
+      <c r="N22" s="41"/>
       <c r="P22" s="2">
         <v>2000</v>
       </c>
@@ -6731,37 +7031,37 @@
       <c r="R22" s="20">
         <v>34000</v>
       </c>
-      <c r="S22" s="86">
+      <c r="S22" s="84">
         <f t="shared" si="2"/>
         <v>34281.286525773146</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="108">
+      <c r="B23" s="106">
         <v>1999</v>
       </c>
-      <c r="C23" s="115">
+      <c r="C23" s="113">
         <v>39</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="47">
         <v>33235</v>
       </c>
-      <c r="E23" s="110">
+      <c r="E23" s="108">
         <f t="shared" si="1"/>
         <v>33363.782506835174</v>
       </c>
-      <c r="F23" s="92">
+      <c r="F23" s="90">
         <f>AVERAGE(D23,R23)</f>
         <v>33401</v>
       </c>
-      <c r="G23" s="113">
+      <c r="G23" s="111">
         <f>F23*($N$9/E23)</f>
         <v>54469.325040243748</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="43"/>
+      <c r="N23" s="42"/>
       <c r="P23" s="22">
         <v>1999</v>
       </c>
@@ -6771,35 +7071,35 @@
       <c r="R23" s="24">
         <v>33567</v>
       </c>
-      <c r="S23" s="85">
+      <c r="S23" s="83">
         <f t="shared" si="2"/>
         <v>33363.782506835174</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="108">
+      <c r="B24" s="106">
         <v>1998</v>
       </c>
-      <c r="C24" s="115">
+      <c r="C24" s="113">
         <v>38</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="47">
         <v>32006</v>
       </c>
-      <c r="E24" s="110">
+      <c r="E24" s="108">
         <f t="shared" si="1"/>
         <v>32470.834556530579</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="90">
         <f t="shared" ref="F24:F37" si="3">AVERAGE(D24,R24)</f>
         <v>32166</v>
       </c>
-      <c r="G24" s="113">
+      <c r="G24" s="111">
         <f t="shared" ref="G24:G37" si="4">F24*($N$9/E24)</f>
         <v>53897.846404260468</v>
       </c>
       <c r="M24" s="12"/>
-      <c r="N24" s="29"/>
+      <c r="N24" s="28"/>
       <c r="P24" s="22">
         <v>1998</v>
       </c>
@@ -6809,37 +7109,37 @@
       <c r="R24" s="24">
         <v>32326</v>
       </c>
-      <c r="S24" s="85">
+      <c r="S24" s="83">
         <f t="shared" si="2"/>
         <v>32470.834556530579</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="108">
+      <c r="B25" s="106">
         <v>1997</v>
       </c>
-      <c r="C25" s="115">
+      <c r="C25" s="113">
         <v>37</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="47">
         <v>31317</v>
       </c>
-      <c r="E25" s="110">
+      <c r="E25" s="108">
         <f t="shared" si="1"/>
         <v>31601.785456477446</v>
       </c>
-      <c r="F25" s="92">
+      <c r="F25" s="90">
         <f t="shared" si="3"/>
         <v>31473.5</v>
       </c>
-      <c r="G25" s="113">
+      <c r="G25" s="111">
         <f t="shared" si="4"/>
         <v>54187.763483075782</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N25" s="45"/>
+      <c r="N25" s="44"/>
       <c r="P25" s="22">
         <v>1997</v>
       </c>
@@ -6849,35 +7149,35 @@
       <c r="R25" s="24">
         <v>31630</v>
       </c>
-      <c r="S25" s="85">
+      <c r="S25" s="83">
         <f t="shared" si="2"/>
         <v>31601.785456477446</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="108">
+      <c r="B26" s="106">
         <v>1996</v>
       </c>
-      <c r="C26" s="115">
+      <c r="C26" s="113">
         <v>36</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="47">
         <v>30603</v>
       </c>
-      <c r="E26" s="110">
+      <c r="E26" s="108">
         <f t="shared" si="1"/>
         <v>30755.995578080237</v>
       </c>
-      <c r="F26" s="92">
+      <c r="F26" s="90">
         <f t="shared" si="3"/>
         <v>30756</v>
       </c>
-      <c r="G26" s="113">
+      <c r="G26" s="111">
         <f t="shared" si="4"/>
         <v>54408.639717916012</v>
       </c>
       <c r="M26" s="12"/>
-      <c r="N26" s="29"/>
+      <c r="N26" s="28"/>
       <c r="P26" s="22">
         <v>1996</v>
       </c>
@@ -6887,37 +7187,37 @@
       <c r="R26" s="24">
         <v>30909</v>
       </c>
-      <c r="S26" s="85">
+      <c r="S26" s="83">
         <f t="shared" si="2"/>
         <v>30755.995578080237</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="108">
+    <row r="27" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="106">
         <v>1995</v>
       </c>
-      <c r="C27" s="115">
+      <c r="C27" s="113">
         <v>35</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="47">
         <v>29073</v>
       </c>
-      <c r="E27" s="110">
+      <c r="E27" s="108">
         <f t="shared" si="1"/>
         <v>29932.842411756919</v>
       </c>
-      <c r="F27" s="92">
+      <c r="F27" s="90">
         <f t="shared" si="3"/>
         <v>29218.5</v>
       </c>
-      <c r="G27" s="113">
+      <c r="G27" s="111">
         <f t="shared" si="4"/>
         <v>53110.178751686573</v>
       </c>
-      <c r="M27" s="57" t="s">
+      <c r="M27" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="58"/>
+      <c r="N27" s="57"/>
       <c r="P27" s="22">
         <v>1995</v>
       </c>
@@ -6927,30 +7227,30 @@
       <c r="R27" s="24">
         <v>29364</v>
       </c>
-      <c r="S27" s="85">
+      <c r="S27" s="83">
         <f t="shared" si="2"/>
         <v>29932.842411756919</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="108">
+      <c r="B28" s="106">
         <v>1994</v>
       </c>
-      <c r="C28" s="115">
+      <c r="C28" s="113">
         <v>34</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="47">
         <v>28257</v>
       </c>
-      <c r="E28" s="110">
+      <c r="E28" s="108">
         <f t="shared" si="1"/>
         <v>29131.720108765858</v>
       </c>
-      <c r="F28" s="92">
+      <c r="F28" s="90">
         <f t="shared" si="3"/>
         <v>28398</v>
       </c>
-      <c r="G28" s="113">
+      <c r="G28" s="111">
         <f t="shared" si="4"/>
         <v>53038.28001901642</v>
       </c>
@@ -6963,35 +7263,35 @@
       <c r="R28" s="24">
         <v>28539</v>
       </c>
-      <c r="S28" s="85">
+      <c r="S28" s="83">
         <f t="shared" si="2"/>
         <v>29131.720108765858</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="108">
+      <c r="B29" s="106">
         <v>1993</v>
       </c>
-      <c r="C29" s="115">
+      <c r="C29" s="113">
         <v>33</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="47">
         <v>27543</v>
       </c>
-      <c r="E29" s="110">
+      <c r="E29" s="108">
         <f t="shared" si="1"/>
         <v>28352.039035295238</v>
       </c>
-      <c r="F29" s="92">
+      <c r="F29" s="90">
         <f t="shared" si="3"/>
         <v>27680.5</v>
       </c>
-      <c r="G29" s="113">
+      <c r="G29" s="111">
         <f t="shared" si="4"/>
         <v>53119.923166885324</v>
       </c>
-      <c r="M29" s="28"/>
-      <c r="N29" s="72"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="117"/>
       <c r="P29" s="22">
         <v>1993</v>
       </c>
@@ -7001,37 +7301,37 @@
       <c r="R29" s="24">
         <v>27818</v>
       </c>
-      <c r="S29" s="85">
+      <c r="S29" s="83">
         <f t="shared" si="2"/>
         <v>28352.039035295238</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="108">
+    <row r="30" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="106">
         <v>1992</v>
       </c>
-      <c r="C30" s="115">
+      <c r="C30" s="113">
         <v>32</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="47">
         <v>26859</v>
       </c>
-      <c r="E30" s="110">
+      <c r="E30" s="108">
         <f t="shared" si="1"/>
         <v>27593.225338486849</v>
       </c>
-      <c r="F30" s="92">
+      <c r="F30" s="90">
         <f t="shared" si="3"/>
         <v>26993.5</v>
       </c>
-      <c r="G30" s="113">
+      <c r="G30" s="111">
         <f t="shared" si="4"/>
         <v>53226.086731470365</v>
       </c>
-      <c r="M30" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="N30" s="72"/>
+      <c r="M30" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" s="117"/>
       <c r="P30" s="22">
         <v>1992</v>
       </c>
@@ -7041,37 +7341,37 @@
       <c r="R30" s="24">
         <v>27128</v>
       </c>
-      <c r="S30" s="85">
+      <c r="S30" s="83">
         <f t="shared" si="2"/>
         <v>27593.225338486849</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="108">
+      <c r="B31" s="106">
         <v>1991</v>
       </c>
-      <c r="C31" s="115">
+      <c r="C31" s="113">
         <v>31</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="47">
         <v>26421</v>
       </c>
-      <c r="E31" s="110">
+      <c r="E31" s="108">
         <f t="shared" si="1"/>
         <v>26854.72052407479</v>
       </c>
-      <c r="F31" s="92">
+      <c r="F31" s="90">
         <f t="shared" si="3"/>
         <v>26553</v>
       </c>
-      <c r="G31" s="113">
+      <c r="G31" s="111">
         <f t="shared" si="4"/>
         <v>53797.335236545936</v>
       </c>
-      <c r="M31" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="N31" s="77">
+      <c r="M31" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="N31" s="75">
         <f>AVERAGE(D3:D7)</f>
         <v>47392</v>
       </c>
@@ -7084,37 +7384,37 @@
       <c r="R31" s="24">
         <v>26685</v>
       </c>
-      <c r="S31" s="85">
+      <c r="S31" s="83">
         <f t="shared" si="2"/>
         <v>26854.72052407479</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="108">
+      <c r="B32" s="106">
         <v>1990</v>
       </c>
-      <c r="C32" s="115">
+      <c r="C32" s="113">
         <v>30</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="47">
         <v>25533</v>
       </c>
-      <c r="E32" s="110">
+      <c r="E32" s="108">
         <f t="shared" si="1"/>
         <v>26135.981045328259</v>
       </c>
-      <c r="F32" s="92">
+      <c r="F32" s="90">
         <f t="shared" si="3"/>
         <v>25660.5</v>
       </c>
-      <c r="G32" s="113">
+      <c r="G32" s="111">
         <f t="shared" si="4"/>
         <v>53418.798258592833</v>
       </c>
-      <c r="M32" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="N32" s="94">
+      <c r="M32" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="N32" s="92">
         <f>60-18</f>
         <v>42</v>
       </c>
@@ -7127,44 +7427,44 @@
       <c r="R32" s="24">
         <v>25788</v>
       </c>
-      <c r="S32" s="85">
+      <c r="S32" s="83">
         <f t="shared" si="2"/>
         <v>26135.981045328259</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="108">
+      <c r="B33" s="106">
         <v>1989</v>
       </c>
-      <c r="C33" s="115">
+      <c r="C33" s="113">
         <v>29</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="47">
         <v>25503</v>
       </c>
-      <c r="E33" s="110">
+      <c r="E33" s="108">
         <f t="shared" si="1"/>
         <v>25436.47790299587</v>
       </c>
-      <c r="F33" s="92">
+      <c r="F33" s="90">
         <f>AVERAGE(D33,R33)</f>
         <v>25630.5</v>
       </c>
-      <c r="G33" s="113">
+      <c r="G33" s="111">
         <f>H33*($N$9/E33)</f>
         <v>54408.631895356535</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33" s="35">
         <f>E33</f>
         <v>25436.47790299587</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M33" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="N33" s="95">
+        <v>57</v>
+      </c>
+      <c r="M33" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="N33" s="93">
         <v>1.35E-2</v>
       </c>
       <c r="P33" s="22">
@@ -7176,40 +7476,40 @@
       <c r="R33" s="24">
         <v>25758</v>
       </c>
-      <c r="S33" s="85">
+      <c r="S33" s="83">
         <f t="shared" si="2"/>
         <v>25436.47790299587</v>
       </c>
     </row>
-    <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="108">
+    <row r="34" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="106">
         <v>1988</v>
       </c>
-      <c r="C34" s="115">
+      <c r="C34" s="113">
         <v>28</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="47">
         <v>23411</v>
       </c>
-      <c r="E34" s="110">
+      <c r="E34" s="108">
         <f t="shared" si="1"/>
         <v>24755.696255957049</v>
       </c>
-      <c r="F34" s="92">
+      <c r="F34" s="90">
         <f t="shared" si="3"/>
         <v>23528</v>
       </c>
-      <c r="G34" s="113">
+      <c r="G34" s="111">
         <f t="shared" si="4"/>
         <v>51710.373160112889</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M34" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="N34" s="82">
+        <v>58</v>
+      </c>
+      <c r="M34" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="N34" s="80">
         <f>N31*N32*N33</f>
         <v>26871.263999999999</v>
       </c>
@@ -7222,35 +7522,35 @@
       <c r="R34" s="24">
         <v>23645</v>
       </c>
-      <c r="S34" s="85">
+      <c r="S34" s="83">
         <f t="shared" si="2"/>
         <v>24755.696255957049</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="108">
+      <c r="B35" s="106">
         <v>1987</v>
       </c>
-      <c r="C35" s="115">
+      <c r="C35" s="113">
         <v>27</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D35" s="47">
         <v>22850</v>
       </c>
-      <c r="E35" s="110">
+      <c r="E35" s="108">
         <f t="shared" si="1"/>
         <v>24093.135042293965</v>
       </c>
-      <c r="F35" s="92">
+      <c r="F35" s="90">
         <f t="shared" si="3"/>
         <v>22964.5</v>
       </c>
-      <c r="G35" s="113">
+      <c r="G35" s="111">
         <f t="shared" si="4"/>
         <v>51859.877303952155</v>
       </c>
-      <c r="M35" s="55"/>
-      <c r="N35" s="56"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="55"/>
       <c r="P35" s="22">
         <v>1987</v>
       </c>
@@ -7260,35 +7560,35 @@
       <c r="R35" s="24">
         <v>23079</v>
       </c>
-      <c r="S35" s="85">
+      <c r="S35" s="83">
         <f t="shared" si="2"/>
         <v>24093.135042293965</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="108">
+      <c r="B36" s="106">
         <v>1986</v>
       </c>
-      <c r="C36" s="115">
+      <c r="C36" s="113">
         <v>26</v>
       </c>
-      <c r="D36" s="48">
+      <c r="D36" s="47">
         <v>21422</v>
       </c>
-      <c r="E36" s="110">
+      <c r="E36" s="108">
         <f t="shared" si="1"/>
         <v>23448.306610505075</v>
       </c>
-      <c r="F36" s="92">
+      <c r="F36" s="90">
         <f t="shared" si="3"/>
         <v>21529</v>
       </c>
-      <c r="G36" s="113">
+      <c r="G36" s="111">
         <f t="shared" si="4"/>
         <v>49955.139854335939</v>
       </c>
-      <c r="M36" s="55"/>
-      <c r="N36" s="75"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="73"/>
       <c r="P36" s="22">
         <v>1986</v>
       </c>
@@ -7298,30 +7598,30 @@
       <c r="R36" s="24">
         <v>21636</v>
       </c>
-      <c r="S36" s="85">
+      <c r="S36" s="83">
         <f t="shared" si="2"/>
         <v>23448.306610505075</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="108">
+      <c r="B37" s="106">
         <v>1985</v>
       </c>
-      <c r="C37" s="115">
+      <c r="C37" s="113">
         <v>25</v>
       </c>
-      <c r="D37" s="48">
+      <c r="D37" s="47">
         <v>21013</v>
       </c>
-      <c r="E37" s="110">
+      <c r="E37" s="108">
         <f t="shared" si="1"/>
         <v>22820.736360588879</v>
       </c>
-      <c r="F37" s="92">
+      <c r="F37" s="90">
         <f t="shared" si="3"/>
         <v>10506.5</v>
       </c>
-      <c r="G37" s="113">
+      <c r="G37" s="111">
         <f t="shared" si="4"/>
         <v>25049.335918703564</v>
       </c>
@@ -7334,29 +7634,32 @@
       <c r="R37" s="24">
         <v>0</v>
       </c>
-      <c r="S37" s="85">
+      <c r="S37" s="83">
         <f t="shared" si="2"/>
         <v>22820.736360588879</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="105">
+    <row r="38" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="103">
         <v>1984</v>
       </c>
-      <c r="C38" s="116">
+      <c r="C38" s="114">
         <v>24</v>
       </c>
-      <c r="D38" s="49">
-        <v>0</v>
-      </c>
-      <c r="E38" s="109">
+      <c r="D38" s="48">
+        <v>0</v>
+      </c>
+      <c r="E38" s="107">
         <f t="shared" si="1"/>
         <v>22209.962394733699</v>
       </c>
-      <c r="F38" s="89"/>
-      <c r="G38" s="113">
+      <c r="F38" s="87"/>
+      <c r="G38" s="111">
         <f>D38</f>
         <v>0</v>
+      </c>
+      <c r="M38" s="118" t="s">
+        <v>72</v>
       </c>
       <c r="P38" s="2">
         <v>1984</v>
@@ -7367,29 +7670,35 @@
       <c r="R38" s="20">
         <v>0</v>
       </c>
-      <c r="S38" s="86">
+      <c r="S38" s="84">
         <f t="shared" si="2"/>
         <v>22209.962394733699</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="106">
+      <c r="B39" s="104">
         <v>1983</v>
       </c>
-      <c r="C39" s="100">
+      <c r="C39" s="98">
         <v>23</v>
       </c>
-      <c r="D39" s="102">
-        <v>0</v>
-      </c>
-      <c r="E39" s="111">
+      <c r="D39" s="100">
+        <v>0</v>
+      </c>
+      <c r="E39" s="109">
         <f t="shared" si="1"/>
         <v>21615.535177356396</v>
       </c>
-      <c r="F39" s="89"/>
-      <c r="G39" s="113">
+      <c r="F39" s="87"/>
+      <c r="G39" s="111">
         <f>D39</f>
         <v>0</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N39" s="119">
+        <v>8.33</v>
       </c>
       <c r="P39" s="2">
         <v>1983</v>
@@ -7400,29 +7709,36 @@
       <c r="R39" s="20">
         <v>0</v>
       </c>
-      <c r="S39" s="86">
+      <c r="S39" s="84">
         <f t="shared" si="2"/>
         <v>21615.535177356396</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="106">
+      <c r="B40" s="104">
         <v>1982</v>
       </c>
-      <c r="C40" s="100">
+      <c r="C40" s="98">
         <v>22</v>
       </c>
-      <c r="D40" s="102">
-        <v>0</v>
-      </c>
-      <c r="E40" s="111">
+      <c r="D40" s="100">
+        <v>0</v>
+      </c>
+      <c r="E40" s="109">
         <f t="shared" si="1"/>
         <v>21037.017204239801</v>
       </c>
-      <c r="F40" s="89"/>
-      <c r="G40" s="113">
+      <c r="F40" s="87"/>
+      <c r="G40" s="111">
         <f t="shared" ref="G40:G62" si="5">D40</f>
         <v>0</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="N40" s="120">
+        <f>G3</f>
+        <v>46219.848429433448</v>
       </c>
       <c r="P40" s="2">
         <v>1982</v>
@@ -7433,29 +7749,36 @@
       <c r="R40" s="20">
         <v>0</v>
       </c>
-      <c r="S40" s="86">
+      <c r="S40" s="84">
         <f t="shared" si="2"/>
         <v>21037.017204239801</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B41" s="106">
+      <c r="B41" s="104">
         <v>1981</v>
       </c>
-      <c r="C41" s="100">
+      <c r="C41" s="98">
         <v>21</v>
       </c>
-      <c r="D41" s="102">
-        <v>0</v>
-      </c>
-      <c r="E41" s="111">
+      <c r="D41" s="100">
+        <v>0</v>
+      </c>
+      <c r="E41" s="109">
         <f t="shared" si="1"/>
         <v>20473.982680525351</v>
       </c>
-      <c r="F41" s="89"/>
-      <c r="G41" s="113">
+      <c r="F41" s="87"/>
+      <c r="G41" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N41" s="121">
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="P41" s="2">
         <v>1981</v>
@@ -7466,29 +7789,35 @@
       <c r="R41" s="20">
         <v>0</v>
       </c>
-      <c r="S41" s="86">
+      <c r="S41" s="84">
         <f t="shared" si="2"/>
         <v>20473.982680525351</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="106">
+      <c r="B42" s="104">
         <v>1980</v>
       </c>
-      <c r="C42" s="100">
+      <c r="C42" s="98">
         <v>20</v>
       </c>
-      <c r="D42" s="102">
-        <v>0</v>
-      </c>
-      <c r="E42" s="111">
+      <c r="D42" s="100">
+        <v>0</v>
+      </c>
+      <c r="E42" s="109">
         <f t="shared" si="1"/>
         <v>19926.017207323941</v>
       </c>
-      <c r="F42" s="89"/>
-      <c r="G42" s="113">
+      <c r="F42" s="87"/>
+      <c r="G42" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N42" s="121">
+        <v>40</v>
       </c>
       <c r="P42" s="2">
         <v>1980</v>
@@ -7499,29 +7828,36 @@
       <c r="R42" s="20">
         <v>0</v>
       </c>
-      <c r="S42" s="86">
+      <c r="S42" s="84">
         <f t="shared" si="2"/>
         <v>19926.017207323941</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B43" s="106">
+      <c r="B43" s="104">
         <v>1979</v>
       </c>
-      <c r="C43" s="100">
+      <c r="C43" s="98">
         <v>19</v>
       </c>
-      <c r="D43" s="102">
-        <v>0</v>
-      </c>
-      <c r="E43" s="111">
+      <c r="D43" s="100">
+        <v>0</v>
+      </c>
+      <c r="E43" s="109">
         <f t="shared" si="1"/>
         <v>19392.717476714297</v>
       </c>
-      <c r="F43" s="89"/>
-      <c r="G43" s="113">
+      <c r="F43" s="87"/>
+      <c r="G43" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N43" s="120">
+        <f>N40*(N39/100)*(N41/N42)</f>
+        <v>96.25283435429516</v>
       </c>
       <c r="P43" s="2">
         <v>1979</v>
@@ -7532,28 +7868,35 @@
       <c r="R43" s="20">
         <v>0</v>
       </c>
-      <c r="S43" s="86">
+      <c r="S43" s="84">
         <f t="shared" si="2"/>
         <v>19392.717476714297</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B44" s="107">
+      <c r="B44" s="105">
         <v>1978</v>
       </c>
-      <c r="C44" s="101">
+      <c r="C44" s="99">
         <v>18</v>
       </c>
-      <c r="D44" s="102">
-        <v>0</v>
-      </c>
-      <c r="E44" s="111">
+      <c r="D44" s="100">
+        <v>0</v>
+      </c>
+      <c r="E44" s="109">
         <f t="shared" si="1"/>
         <v>18873.690974904424</v>
       </c>
-      <c r="F44" s="89"/>
-      <c r="G44" s="113">
+      <c r="F44" s="87"/>
+      <c r="G44" s="111">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N44" s="121">
+        <f>J49</f>
         <v>0</v>
       </c>
       <c r="P44" s="2">
@@ -7565,12 +7908,12 @@
       <c r="R44" s="20">
         <v>0</v>
       </c>
-      <c r="S44" s="86">
+      <c r="S44" s="84">
         <f t="shared" si="2"/>
         <v>18873.690974904424</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>1977</v>
       </c>
@@ -7580,14 +7923,21 @@
       <c r="D45" s="20">
         <v>0</v>
       </c>
-      <c r="E45" s="109">
+      <c r="E45" s="107">
         <f t="shared" si="1"/>
         <v>18368.555693337639</v>
       </c>
-      <c r="F45" s="89"/>
-      <c r="G45" s="113">
+      <c r="F45" s="87"/>
+      <c r="G45" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N45" s="123">
+        <f>N43*(1-(N44/100))</f>
+        <v>96.25283435429516</v>
       </c>
       <c r="P45" s="2">
         <v>1977</v>
@@ -7598,7 +7948,7 @@
       <c r="R45" s="20">
         <v>0</v>
       </c>
-      <c r="S45" s="86">
+      <c r="S45" s="84">
         <f t="shared" si="2"/>
         <v>18368.555693337639</v>
       </c>
@@ -7613,12 +7963,12 @@
       <c r="D46" s="20">
         <v>0</v>
       </c>
-      <c r="E46" s="109">
+      <c r="E46" s="107">
         <f t="shared" si="1"/>
         <v>17876.939847530546</v>
       </c>
-      <c r="F46" s="89"/>
-      <c r="G46" s="113">
+      <c r="F46" s="87"/>
+      <c r="G46" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -7631,7 +7981,7 @@
       <c r="R46" s="20">
         <v>0</v>
       </c>
-      <c r="S46" s="86">
+      <c r="S46" s="84">
         <f t="shared" si="2"/>
         <v>17876.939847530546</v>
       </c>
@@ -7646,15 +7996,16 @@
       <c r="D47" s="20">
         <v>0</v>
       </c>
-      <c r="E47" s="109">
+      <c r="E47" s="107">
         <f t="shared" si="1"/>
         <v>17398.481603436052</v>
       </c>
-      <c r="F47" s="89"/>
-      <c r="G47" s="113">
+      <c r="F47" s="87"/>
+      <c r="G47" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="M47" s="118"/>
       <c r="P47" s="2">
         <v>1975</v>
       </c>
@@ -7664,7 +8015,7 @@
       <c r="R47" s="20">
         <v>0</v>
       </c>
-      <c r="S47" s="86">
+      <c r="S47" s="84">
         <f t="shared" si="2"/>
         <v>17398.481603436052</v>
       </c>
@@ -7679,12 +8030,12 @@
       <c r="D48" s="20">
         <v>0</v>
       </c>
-      <c r="E48" s="109">
+      <c r="E48" s="107">
         <f t="shared" si="1"/>
         <v>16932.828811129977</v>
       </c>
-      <c r="F48" s="89"/>
-      <c r="G48" s="113">
+      <c r="F48" s="87"/>
+      <c r="G48" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -7697,7 +8048,7 @@
       <c r="R48" s="20">
         <v>0</v>
       </c>
-      <c r="S48" s="86">
+      <c r="S48" s="84">
         <f t="shared" si="2"/>
         <v>16932.828811129977</v>
       </c>
@@ -7712,12 +8063,12 @@
       <c r="D49" s="20">
         <v>0</v>
       </c>
-      <c r="E49" s="109">
+      <c r="E49" s="107">
         <f t="shared" si="1"/>
         <v>16479.638745625281</v>
       </c>
-      <c r="F49" s="89"/>
-      <c r="G49" s="113">
+      <c r="F49" s="87"/>
+      <c r="G49" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -7730,7 +8081,7 @@
       <c r="R49" s="20">
         <v>0</v>
       </c>
-      <c r="S49" s="86">
+      <c r="S49" s="84">
         <f t="shared" si="2"/>
         <v>16479.638745625281</v>
       </c>
@@ -7745,14 +8096,17 @@
       <c r="D50" s="20">
         <v>0</v>
       </c>
-      <c r="E50" s="109">
+      <c r="E50" s="107">
         <f t="shared" si="1"/>
         <v>16038.577854623143</v>
       </c>
-      <c r="F50" s="89"/>
-      <c r="G50" s="113">
+      <c r="F50" s="87"/>
+      <c r="G50" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="M50" s="118" t="s">
+        <v>73</v>
       </c>
       <c r="P50" s="2">
         <v>1972</v>
@@ -7763,7 +8117,7 @@
       <c r="R50" s="20">
         <v>0</v>
       </c>
-      <c r="S50" s="86">
+      <c r="S50" s="84">
         <f t="shared" si="2"/>
         <v>16038.577854623143</v>
       </c>
@@ -7778,14 +8132,17 @@
       <c r="D51" s="20">
         <v>0</v>
       </c>
-      <c r="E51" s="109">
+      <c r="E51" s="107">
         <f t="shared" si="1"/>
         <v>15609.321513015224</v>
       </c>
-      <c r="F51" s="89"/>
-      <c r="G51" s="113">
+      <c r="F51" s="87"/>
+      <c r="G51" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="P51" s="2">
         <v>1971</v>
@@ -7796,7 +8153,7 @@
       <c r="R51" s="20">
         <v>0</v>
       </c>
-      <c r="S51" s="86">
+      <c r="S51" s="84">
         <f t="shared" si="2"/>
         <v>15609.321513015224</v>
       </c>
@@ -7811,14 +8168,17 @@
       <c r="D52" s="20">
         <v>0</v>
       </c>
-      <c r="E52" s="109">
+      <c r="E52" s="107">
         <f t="shared" si="1"/>
         <v>15191.55378395642</v>
       </c>
-      <c r="F52" s="89"/>
-      <c r="G52" s="113">
+      <c r="F52" s="87"/>
+      <c r="G52" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="P52" s="2">
         <v>1970</v>
@@ -7829,7 +8189,7 @@
       <c r="R52" s="20">
         <v>0</v>
       </c>
-      <c r="S52" s="86">
+      <c r="S52" s="84">
         <f t="shared" si="2"/>
         <v>15191.55378395642</v>
       </c>
@@ -7844,12 +8204,12 @@
       <c r="D53" s="20">
         <v>0</v>
       </c>
-      <c r="E53" s="109">
+      <c r="E53" s="107">
         <f t="shared" si="1"/>
         <v>14784.967186332282</v>
       </c>
-      <c r="F53" s="89"/>
-      <c r="G53" s="113">
+      <c r="F53" s="87"/>
+      <c r="G53" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -7862,7 +8222,7 @@
       <c r="R53" s="20">
         <v>0</v>
       </c>
-      <c r="S53" s="86">
+      <c r="S53" s="84">
         <f t="shared" si="2"/>
         <v>14784.967186332282</v>
       </c>
@@ -7877,12 +8237,12 @@
       <c r="D54" s="20">
         <v>0</v>
       </c>
-      <c r="E54" s="109">
+      <c r="E54" s="107">
         <f t="shared" si="1"/>
         <v>14389.262468449908</v>
       </c>
-      <c r="F54" s="89"/>
-      <c r="G54" s="113">
+      <c r="F54" s="87"/>
+      <c r="G54" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -7895,7 +8255,7 @@
       <c r="R54" s="20">
         <v>0</v>
       </c>
-      <c r="S54" s="86">
+      <c r="S54" s="84">
         <f t="shared" si="2"/>
         <v>14389.262468449908</v>
       </c>
@@ -7910,12 +8270,12 @@
       <c r="D55" s="20">
         <v>0</v>
       </c>
-      <c r="E55" s="109">
+      <c r="E55" s="107">
         <f t="shared" si="1"/>
         <v>14004.148387785797</v>
       </c>
-      <c r="F55" s="89"/>
-      <c r="G55" s="113">
+      <c r="F55" s="87"/>
+      <c r="G55" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -7928,7 +8288,7 @@
       <c r="R55" s="20">
         <v>0</v>
       </c>
-      <c r="S55" s="86">
+      <c r="S55" s="84">
         <f t="shared" si="2"/>
         <v>14004.148387785797</v>
       </c>
@@ -7943,12 +8303,12 @@
       <c r="D56" s="20">
         <v>0</v>
       </c>
-      <c r="E56" s="109">
+      <c r="E56" s="107">
         <f t="shared" si="1"/>
         <v>13629.341496628513</v>
       </c>
-      <c r="F56" s="89"/>
-      <c r="G56" s="113">
+      <c r="F56" s="87"/>
+      <c r="G56" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -7961,7 +8321,7 @@
       <c r="R56" s="20">
         <v>0</v>
       </c>
-      <c r="S56" s="86">
+      <c r="S56" s="84">
         <f t="shared" si="2"/>
         <v>13629.341496628513</v>
       </c>
@@ -7976,12 +8336,12 @@
       <c r="D57" s="20">
         <v>0</v>
       </c>
-      <c r="E57" s="109">
+      <c r="E57" s="107">
         <f t="shared" si="1"/>
         <v>13264.565933458405</v>
       </c>
-      <c r="F57" s="89"/>
-      <c r="G57" s="113">
+      <c r="F57" s="87"/>
+      <c r="G57" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -7994,7 +8354,7 @@
       <c r="R57" s="20">
         <v>0</v>
       </c>
-      <c r="S57" s="86">
+      <c r="S57" s="84">
         <f t="shared" si="2"/>
         <v>13264.565933458405</v>
       </c>
@@ -8009,12 +8369,12 @@
       <c r="D58" s="20">
         <v>0</v>
       </c>
-      <c r="E58" s="109">
+      <c r="E58" s="107">
         <f t="shared" si="1"/>
         <v>12909.553219910855</v>
       </c>
-      <c r="F58" s="89"/>
-      <c r="G58" s="113">
+      <c r="F58" s="87"/>
+      <c r="G58" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -8027,7 +8387,7 @@
       <c r="R58" s="20">
         <v>0</v>
       </c>
-      <c r="S58" s="86">
+      <c r="S58" s="84">
         <f t="shared" si="2"/>
         <v>12909.553219910855</v>
       </c>
@@ -8042,12 +8402,12 @@
       <c r="D59" s="20">
         <v>0</v>
       </c>
-      <c r="E59" s="109">
+      <c r="E59" s="107">
         <f t="shared" si="1"/>
         <v>12564.04206317358</v>
       </c>
-      <c r="F59" s="89"/>
-      <c r="G59" s="113">
+      <c r="F59" s="87"/>
+      <c r="G59" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -8060,7 +8420,7 @@
       <c r="R59" s="20">
         <v>0</v>
       </c>
-      <c r="S59" s="86">
+      <c r="S59" s="84">
         <f t="shared" si="2"/>
         <v>12564.04206317358</v>
       </c>
@@ -8075,12 +8435,12 @@
       <c r="D60" s="20">
         <v>0</v>
       </c>
-      <c r="E60" s="109">
+      <c r="E60" s="107">
         <f t="shared" si="1"/>
         <v>12227.778163672583</v>
       </c>
-      <c r="F60" s="89"/>
-      <c r="G60" s="113">
+      <c r="F60" s="87"/>
+      <c r="G60" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -8093,7 +8453,7 @@
       <c r="R60" s="20">
         <v>0</v>
       </c>
-      <c r="S60" s="86">
+      <c r="S60" s="84">
         <f t="shared" si="2"/>
         <v>12227.778163672583</v>
       </c>
@@ -8108,12 +8468,12 @@
       <c r="D61" s="20">
         <v>0</v>
       </c>
-      <c r="E61" s="109">
+      <c r="E61" s="107">
         <f t="shared" si="1"/>
         <v>11900.51402790519</v>
       </c>
-      <c r="F61" s="89"/>
-      <c r="G61" s="113">
+      <c r="F61" s="87"/>
+      <c r="G61" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -8126,7 +8486,7 @@
       <c r="R61" s="20">
         <v>0</v>
       </c>
-      <c r="S61" s="86">
+      <c r="S61" s="84">
         <f t="shared" si="2"/>
         <v>11900.51402790519</v>
       </c>
@@ -8135,31 +8495,31 @@
       <c r="B62" s="2">
         <v>1960</v>
       </c>
-      <c r="C62" s="93">
+      <c r="C62" s="91">
         <v>0</v>
       </c>
       <c r="D62" s="20">
         <v>0</v>
       </c>
-      <c r="E62" s="109">
+      <c r="E62" s="107">
         <f t="shared" si="1"/>
         <v>11582.008786282422</v>
       </c>
-      <c r="F62" s="90"/>
-      <c r="G62" s="114">
+      <c r="F62" s="88"/>
+      <c r="G62" s="112">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P62" s="96">
+      <c r="P62" s="94">
         <v>1960</v>
       </c>
-      <c r="Q62" s="97">
-        <v>0</v>
-      </c>
-      <c r="R62" s="98">
-        <v>0</v>
-      </c>
-      <c r="S62" s="99">
+      <c r="Q62" s="95">
+        <v>0</v>
+      </c>
+      <c r="R62" s="96">
+        <v>0</v>
+      </c>
+      <c r="S62" s="97">
         <f t="shared" si="2"/>
         <v>11582.008786282422</v>
       </c>

--- a/propre.xlsx
+++ b/propre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\Université\Session-2-H-2020\ACT-1005-Analyse-et-traitement-collectif-du-risque\Calcul-Prestations\ATCR-TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B466DA90-5377-4DDC-BE0C-E73EEADF5280}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF92E762-DFD5-4C32-99A8-9FF87D770B16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{47FD59A7-3964-46FC-BE03-C6B259F3D8B0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{47FD59A7-3964-46FC-BE03-C6B259F3D8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="QUESTION 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="84">
   <si>
     <t>Années</t>
   </si>
@@ -150,9 +150,6 @@
     <t xml:space="preserve">Indexation de la SRG célibataire </t>
   </si>
   <si>
-    <t>Diminution de la SRG selon les autres revenus</t>
-  </si>
-  <si>
     <t>*Les premiers 3500$ du revenu de Virginie ne sont</t>
   </si>
   <si>
@@ -222,25 +219,13 @@
     <t xml:space="preserve">Par contre, il n'aura pas droit à la SRG en raison de ses </t>
   </si>
   <si>
-    <t>revenus trop élevé.</t>
-  </si>
-  <si>
     <t>Calcul de la rente obtenue du RRQ S1</t>
   </si>
   <si>
     <t>Somme des salaires admissibles au S1</t>
   </si>
   <si>
-    <t>Nombres d'années de cotisations au S1</t>
-  </si>
-  <si>
-    <t>Nombres d'années maximum de cotisations au S1</t>
-  </si>
-  <si>
     <t>Rente annuelle S1 de base</t>
-  </si>
-  <si>
-    <t>Facteur d'ajustement acturiel (%)</t>
   </si>
   <si>
     <t>Rente annuelle S1 à 60 ans</t>
@@ -258,9 +243,6 @@
     <t>Calcul de la rente obtenue du RRQ S2</t>
   </si>
   <si>
-    <t xml:space="preserve">Elle n'a pas contribué au S2 pour l'année de 2024, </t>
-  </si>
-  <si>
     <t>Rente de retraite à 60 ans Régime de base</t>
   </si>
   <si>
@@ -276,17 +258,45 @@
     <t>puisque son salaire est demeuré inférieur au MGA.</t>
   </si>
   <si>
-    <t>Pourcentage cible de revenu remplacé (%)</t>
+    <t>Pourcentage cible du revenu remplacé (%)</t>
+  </si>
+  <si>
+    <t>Nombre d'années de cotisations au S1</t>
+  </si>
+  <si>
+    <t>Nombre d'années maximum de cotisations au S1</t>
+  </si>
+  <si>
+    <t>Elle n'a pas contribué au S2 pour l'année de 2024</t>
+  </si>
+  <si>
+    <t>Rente annuelle S1 à 65 ans</t>
+  </si>
+  <si>
+    <t>MGA 2020</t>
+  </si>
+  <si>
+    <t>MGA moyen des 5 dernières années à partir de 2020</t>
+  </si>
+  <si>
+    <t>MGA 2025</t>
+  </si>
+  <si>
+    <t>revenus trop élevés.</t>
+  </si>
+  <si>
+    <t>Montant de la SRG après diminution selon les autres revenus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_)\ &quot;$&quot;_ ;_ * \(#,##0\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1025,7 +1035,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1268,12 +1278,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1283,6 +1287,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1606,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D97A01-C9B7-4676-858F-079C6C4177D4}">
   <dimension ref="B1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1624,7 +1635,7 @@
     <col min="12" max="13" width="10.88671875" style="1"/>
     <col min="14" max="14" width="48" style="1" customWidth="1"/>
     <col min="15" max="16" width="10.88671875" style="1"/>
-    <col min="17" max="17" width="48.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="48.33203125" style="1" customWidth="1"/>
     <col min="18" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -1645,6 +1656,9 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="G2" s="36" t="s">
         <v>21</v>
       </c>
@@ -1666,19 +1680,23 @@
         <f>O4</f>
         <v>57400</v>
       </c>
+      <c r="F3" s="125">
+        <f>E3*(1+O6)</f>
+        <v>58978.500000000007</v>
+      </c>
       <c r="G3" s="37">
         <f>D3*($O$9/E3)</f>
-        <v>44991.767880938263</v>
+        <v>46229.041497664068</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="116" t="s">
+      <c r="N3" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="116"/>
-      <c r="Q3" s="118" t="s">
-        <v>63</v>
+      <c r="O3" s="126"/>
+      <c r="Q3" s="116" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
@@ -1697,7 +1715,7 @@
       </c>
       <c r="G4" s="38">
         <f t="shared" ref="G4:G62" si="0">D4*($O$9/E4)</f>
-        <v>45455.333690171778</v>
+        <v>46705.355366651507</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>13</v>
@@ -1712,9 +1730,9 @@
         <v>57400</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R4" s="119">
+        <v>74</v>
+      </c>
+      <c r="R4" s="117">
         <v>8.33</v>
       </c>
     </row>
@@ -1734,14 +1752,14 @@
       </c>
       <c r="G5" s="38">
         <f t="shared" si="0"/>
-        <v>46357.549528814736</v>
+        <v>47632.382140857146</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="28">
         <f>O16</f>
-        <v>7834.4775121524444</v>
+        <v>7995.0987517423328</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>15</v>
@@ -1750,11 +1768,11 @@
         <v>7217</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="R5" s="120">
-        <f>G3</f>
-        <v>44991.767880938263</v>
+        <v>62</v>
+      </c>
+      <c r="R5" s="118">
+        <f>G3*0.15</f>
+        <v>6934.3562246496103</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
@@ -1773,7 +1791,7 @@
       </c>
       <c r="G6" s="38">
         <f t="shared" si="0"/>
-        <v>46825.745873091299</v>
+        <v>48113.453884601309</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>7</v>
@@ -1788,9 +1806,9 @@
         <v>2.75E-2</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="R6" s="121">
+        <v>75</v>
+      </c>
+      <c r="R6" s="119">
         <v>1</v>
       </c>
     </row>
@@ -1810,7 +1828,7 @@
       </c>
       <c r="G7" s="38">
         <f t="shared" si="0"/>
-        <v>47190.21272850778</v>
+        <v>48487.943578541737</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>8</v>
@@ -1825,9 +1843,9 @@
         <v>10779.84</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" s="121">
+        <v>76</v>
+      </c>
+      <c r="R7" s="119">
         <v>40</v>
       </c>
     </row>
@@ -1847,7 +1865,7 @@
       </c>
       <c r="G8" s="38">
         <f t="shared" si="0"/>
-        <v>47560.873069925779</v>
+        <v>48868.79707934874</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>9</v>
@@ -1863,14 +1881,14 @@
         <v>42</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="R8" s="120">
-        <f>R5*(R4/100)*(R6/R7)</f>
-        <v>93.695356612053942</v>
+        <v>63</v>
+      </c>
+      <c r="R8" s="118">
+        <f>R5*(R4/100)/R7</f>
+        <v>14.440796837832812</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1889,7 +1907,7 @@
       </c>
       <c r="G9" s="38">
         <f t="shared" si="0"/>
-        <v>47628.247380144974</v>
+        <v>48938.024183098962</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>10</v>
@@ -1898,16 +1916,16 @@
         <v>0</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="O9" s="28">
-        <f>AVERAGE(E3:E7)</f>
-        <v>54408.631895356535</v>
+        <f>AVERAGE(E3:E6,F3)</f>
+        <v>55904.869272478842</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="R9" s="121">
+        <v>32</v>
+      </c>
+      <c r="R9" s="119">
         <f>O14</f>
         <v>33</v>
       </c>
@@ -1928,14 +1946,14 @@
       </c>
       <c r="G10" s="38">
         <f t="shared" si="0"/>
-        <v>48471.405812981044</v>
+        <v>49804.369472838029</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="70">
         <f>L5</f>
-        <v>7834.4775121524444</v>
+        <v>7995.0987517423328</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>23</v>
@@ -1945,11 +1963,11 @@
         <v>35</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" s="120">
+        <v>64</v>
+      </c>
+      <c r="R10" s="118">
         <f>R8*(1-(R9/100))</f>
-        <v>62.775888930076135</v>
+        <v>9.6753338813479832</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1968,14 +1986,14 @@
       </c>
       <c r="G11" s="38">
         <f t="shared" si="0"/>
-        <v>48962.407838171595</v>
+        <v>50308.874053721316</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="17">
         <f>L5/D3</f>
-        <v>0.16505659937875683</v>
+        <v>0.16844056411074873</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>24</v>
@@ -1985,9 +2003,9 @@
         <v>5.25</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="R11" s="119"/>
+        <v>65</v>
+      </c>
+      <c r="R11" s="117"/>
     </row>
     <row r="12" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="62">
@@ -2005,19 +2023,19 @@
       </c>
       <c r="G12" s="38">
         <f t="shared" si="0"/>
-        <v>49383.681003294638</v>
+        <v>50741.732230885231</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>31</v>
       </c>
       <c r="O12" s="69">
         <f>AVERAGE(G3:G24,G32:G39)</f>
-        <v>46398.218646103698</v>
+        <v>47674.169658871557</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="R12" s="122"/>
+        <v>66</v>
+      </c>
+      <c r="R12" s="120"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="62">
@@ -2035,7 +2053,7 @@
       </c>
       <c r="G13" s="38">
         <f t="shared" si="0"/>
-        <v>49902.209653829217</v>
+        <v>51274.520419309527</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>33</v>
@@ -2045,7 +2063,7 @@
       </c>
       <c r="O13" s="69">
         <f>O12*0.25</f>
-        <v>11599.554661525925</v>
+        <v>11918.542414717889</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
@@ -2064,10 +2082,10 @@
       </c>
       <c r="G14" s="38">
         <f t="shared" si="0"/>
-        <v>50614.877900308013</v>
+        <v>52006.787042566488</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>32</v>
@@ -2093,17 +2111,17 @@
       </c>
       <c r="G15" s="38">
         <f t="shared" si="0"/>
-        <v>50885.838750420946</v>
+        <v>52285.199316057529</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O15" s="29">
         <f>O13*(1-O14/100)</f>
-        <v>7771.7016232223687</v>
+        <v>7985.423417860985</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2122,14 +2140,14 @@
       </c>
       <c r="G16" s="38">
         <f t="shared" si="0"/>
-        <v>51093.246770174039</v>
-      </c>
-      <c r="N16" s="124" t="s">
-        <v>76</v>
-      </c>
-      <c r="O16" s="125">
+        <v>52498.311056353821</v>
+      </c>
+      <c r="N16" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="123">
         <f>O15+R10</f>
-        <v>7834.4775121524444</v>
+        <v>7995.0987517423328</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -2148,7 +2166,7 @@
       </c>
       <c r="G17" s="38">
         <f t="shared" si="0"/>
-        <v>51741.454671530919</v>
+        <v>53164.344674998014</v>
       </c>
       <c r="N17" s="54"/>
       <c r="O17" s="68"/>
@@ -2169,12 +2187,12 @@
       </c>
       <c r="G18" s="38">
         <f t="shared" si="0"/>
-        <v>51835.236058123053</v>
-      </c>
-      <c r="N18" s="116" t="s">
+        <v>53260.705049721444</v>
+      </c>
+      <c r="N18" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="116"/>
+      <c r="O18" s="126"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="62">
@@ -2192,7 +2210,7 @@
       </c>
       <c r="G19" s="38">
         <f t="shared" si="0"/>
-        <v>50849.00918549511</v>
+        <v>52247.356938096229</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>18</v>
@@ -2215,7 +2233,7 @@
       </c>
       <c r="G20" s="38">
         <f t="shared" si="0"/>
-        <v>51933.872796467651</v>
+        <v>53362.054298370516</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>19</v>
@@ -2238,7 +2256,7 @@
       </c>
       <c r="G21" s="38">
         <f t="shared" si="0"/>
-        <v>52395.73943180043</v>
+        <v>53836.622266174942</v>
       </c>
       <c r="N21" s="12"/>
       <c r="O21" s="28"/>
@@ -2259,7 +2277,7 @@
       </c>
       <c r="G22" s="38">
         <f t="shared" si="0"/>
-        <v>52008.446568611631</v>
+        <v>53438.678849248448</v>
       </c>
       <c r="N22" s="12" t="s">
         <v>25</v>
@@ -2282,7 +2300,7 @@
       </c>
       <c r="G23" s="38">
         <f t="shared" si="0"/>
-        <v>52758.550209348919</v>
+        <v>54209.41034010602</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>26</v>
@@ -2305,7 +2323,7 @@
       </c>
       <c r="G24" s="38">
         <f t="shared" si="0"/>
-        <v>52204.427545145074</v>
+        <v>53640.049302636573</v>
       </c>
       <c r="N24" s="12"/>
       <c r="O24" s="28"/>
@@ -2349,7 +2367,7 @@
       </c>
       <c r="G26" s="38">
         <f t="shared" si="0"/>
-        <v>2639.4098861728016</v>
+        <v>2711.9936580425538</v>
       </c>
       <c r="N26" s="12"/>
       <c r="O26" s="28"/>
@@ -2370,7 +2388,7 @@
       </c>
       <c r="G27" s="38">
         <f t="shared" si="0"/>
-        <v>2366.6325353695747</v>
+        <v>2431.7149300922379</v>
       </c>
       <c r="N27" s="56" t="s">
         <v>28</v>
@@ -2469,7 +2487,7 @@
       </c>
       <c r="G32" s="38">
         <f t="shared" si="0"/>
-        <v>51741.509821308646</v>
+        <v>53164.40134139463</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -2488,7 +2506,7 @@
       </c>
       <c r="G33" s="38">
         <f t="shared" si="0"/>
-        <v>53100.680524764924</v>
+        <v>54560.949239195957</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -2507,7 +2525,7 @@
       </c>
       <c r="G34" s="38">
         <f t="shared" si="0"/>
-        <v>50086.951401581886</v>
+        <v>51464.342565125393</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -2526,7 +2544,7 @@
       </c>
       <c r="G35" s="38">
         <f t="shared" si="0"/>
-        <v>50230.992307573368</v>
+        <v>51612.344596031639</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -2545,7 +2563,7 @@
       </c>
       <c r="G36" s="38">
         <f t="shared" si="0"/>
-        <v>48386.573058779664</v>
+        <v>49717.203817896094</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -2564,7 +2582,7 @@
       </c>
       <c r="G37" s="38">
         <f t="shared" si="0"/>
-        <v>47349.717921805815</v>
+        <v>48651.835164655473</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
@@ -3055,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367AD372-2F5B-444E-901D-D02956C9F1AC}">
   <dimension ref="B1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView topLeftCell="I12" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3066,7 +3084,7 @@
     <col min="3" max="3" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" style="5"/>
     <col min="5" max="5" width="10.88671875" style="6"/>
-    <col min="6" max="6" width="10.88671875" style="1"/>
+    <col min="6" max="6" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.88671875" style="1"/>
     <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -3074,7 +3092,7 @@
     <col min="11" max="11" width="10.88671875" style="1"/>
     <col min="12" max="12" width="10.88671875" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" style="1"/>
-    <col min="14" max="14" width="47.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="51.21875" style="1" customWidth="1"/>
     <col min="15" max="16" width="10.88671875" style="1"/>
     <col min="17" max="17" width="43.6640625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="10.88671875" style="1"/>
@@ -3097,6 +3115,9 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="G2" s="36" t="s">
         <v>21</v>
       </c>
@@ -3118,19 +3139,23 @@
         <f>O4</f>
         <v>57400</v>
       </c>
+      <c r="F3" s="125">
+        <f>E3*(1+O6)</f>
+        <v>58978.500000000007</v>
+      </c>
       <c r="G3" s="37">
         <f>D3*($O$9/E3)</f>
-        <v>44991.767880938263</v>
+        <v>46229.041497664068</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="116" t="s">
+      <c r="N3" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="116"/>
-      <c r="Q3" s="118" t="s">
-        <v>63</v>
+      <c r="O3" s="126"/>
+      <c r="Q3" s="116" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
@@ -3149,7 +3174,7 @@
       </c>
       <c r="G4" s="38">
         <f t="shared" ref="G4:G62" si="0">D4*($O$9/E4)</f>
-        <v>45455.333690171778</v>
+        <v>46705.355366651507</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>13</v>
@@ -3164,9 +3189,9 @@
         <v>57400</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R4" s="119">
+        <v>74</v>
+      </c>
+      <c r="R4" s="117">
         <v>8.33</v>
       </c>
     </row>
@@ -3186,14 +3211,14 @@
       </c>
       <c r="G5" s="38">
         <f t="shared" si="0"/>
-        <v>46357.549528814736</v>
+        <v>47632.382140857146</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="28">
         <f>O31</f>
-        <v>8972.6182592112909</v>
+        <v>9156.5734834015293</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>15</v>
@@ -3202,11 +3227,11 @@
         <v>7217</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="R5" s="120">
-        <f>G3</f>
-        <v>44991.767880938263</v>
+        <v>62</v>
+      </c>
+      <c r="R5" s="118">
+        <f>G3*0.15</f>
+        <v>6934.3562246496103</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
@@ -3225,7 +3250,7 @@
       </c>
       <c r="G6" s="38">
         <f t="shared" si="0"/>
-        <v>46825.745873091299</v>
+        <v>48113.453884601309</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>7</v>
@@ -3241,9 +3266,9 @@
         <v>2.75E-2</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="R6" s="121">
+        <v>75</v>
+      </c>
+      <c r="R6" s="119">
         <v>1</v>
       </c>
     </row>
@@ -3263,14 +3288,14 @@
       </c>
       <c r="G7" s="38">
         <f t="shared" si="0"/>
-        <v>47190.21272850778</v>
+        <v>48487.943578541737</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="28">
         <f>O34</f>
-        <v>9949.065519136504</v>
+        <v>9857.0879070413866</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>16</v>
@@ -3279,9 +3304,9 @@
         <v>10779.84</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" s="121">
+        <v>76</v>
+      </c>
+      <c r="R7" s="119">
         <v>40</v>
       </c>
     </row>
@@ -3301,7 +3326,7 @@
       </c>
       <c r="G8" s="38">
         <f t="shared" si="0"/>
-        <v>47560.873069925779</v>
+        <v>48868.79707934874</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>9</v>
@@ -3317,14 +3342,14 @@
         <v>42</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="R8" s="120">
-        <f>R5*(R4/100)*(R6/R7)</f>
-        <v>93.695356612053942</v>
+        <v>63</v>
+      </c>
+      <c r="R8" s="118">
+        <f>R5*(R4/100)/R7</f>
+        <v>14.440796837832812</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -3343,7 +3368,7 @@
       </c>
       <c r="G9" s="38">
         <f t="shared" si="0"/>
-        <v>47628.247380144974</v>
+        <v>48938.024183098962</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>10</v>
@@ -3355,13 +3380,13 @@
         <v>20</v>
       </c>
       <c r="O9" s="28">
-        <f>AVERAGE(E3:E7)</f>
-        <v>54408.631895356535</v>
+        <f>AVERAGE(E3:E6,F3)</f>
+        <v>55904.869272478842</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="R9" s="121">
+        <v>32</v>
+      </c>
+      <c r="R9" s="119">
         <f>O14</f>
         <v>33</v>
       </c>
@@ -3382,14 +3407,14 @@
       </c>
       <c r="G10" s="38">
         <f t="shared" si="0"/>
-        <v>48471.405812981044</v>
+        <v>49804.369472838029</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="70">
         <f>SUM(J5:J7)</f>
-        <v>27414.421039751684</v>
+        <v>27506.398651846805</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>23</v>
@@ -3399,11 +3424,11 @@
         <v>35</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" s="120">
+        <v>64</v>
+      </c>
+      <c r="R10" s="118">
         <f>R8*(1-(R9/100))</f>
-        <v>62.775888930076135</v>
+        <v>9.6753338813479832</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -3422,14 +3447,14 @@
       </c>
       <c r="G11" s="38">
         <f t="shared" si="0"/>
-        <v>48962.407838171595</v>
+        <v>50308.874053721316</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="17">
         <f>J10/D3</f>
-        <v>0.57756641763793592</v>
+        <v>0.57950419994031033</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>24</v>
@@ -3439,9 +3464,9 @@
         <v>5.25</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="R11" s="119"/>
+        <v>65</v>
+      </c>
+      <c r="R11" s="117"/>
     </row>
     <row r="12" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="62">
@@ -3459,19 +3484,19 @@
       </c>
       <c r="G12" s="38">
         <f t="shared" si="0"/>
-        <v>49383.681003294638</v>
+        <v>50741.732230885231</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>31</v>
       </c>
       <c r="O12" s="69">
         <f>AVERAGE(G3:G24,G32:G39)</f>
-        <v>46398.218646103698</v>
+        <v>47674.169658871557</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="R12" s="122"/>
+        <v>66</v>
+      </c>
+      <c r="R12" s="120"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="62">
@@ -3489,14 +3514,14 @@
       </c>
       <c r="G13" s="38">
         <f t="shared" si="0"/>
-        <v>49902.209653829217</v>
+        <v>51274.520419309527</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>30</v>
       </c>
       <c r="O13" s="69">
         <f>O12*0.25</f>
-        <v>11599.554661525925</v>
+        <v>11918.542414717889</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
@@ -3515,7 +3540,7 @@
       </c>
       <c r="G14" s="38">
         <f t="shared" si="0"/>
-        <v>50614.877900308013</v>
+        <v>52006.787042566488</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>32</v>
@@ -3541,14 +3566,14 @@
       </c>
       <c r="G15" s="38">
         <f t="shared" si="0"/>
-        <v>50885.838750420946</v>
+        <v>52285.199316057529</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O15" s="29">
         <f>O13*(1-O14/100)</f>
-        <v>7771.7016232223687</v>
+        <v>7985.423417860985</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -3567,14 +3592,14 @@
       </c>
       <c r="G16" s="38">
         <f t="shared" si="0"/>
-        <v>51093.246770174039</v>
-      </c>
-      <c r="N16" s="126" t="s">
-        <v>76</v>
-      </c>
-      <c r="O16" s="125">
+        <v>52498.311056353821</v>
+      </c>
+      <c r="N16" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="123">
         <f>O15+R10</f>
-        <v>7834.4775121524444</v>
+        <v>7995.0987517423328</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -3593,7 +3618,7 @@
       </c>
       <c r="G17" s="38">
         <f t="shared" si="0"/>
-        <v>51741.454671530919</v>
+        <v>53164.344674998014</v>
       </c>
       <c r="N17" s="54"/>
       <c r="O17" s="68"/>
@@ -3614,12 +3639,12 @@
       </c>
       <c r="G18" s="38">
         <f t="shared" si="0"/>
-        <v>51835.236058123053</v>
-      </c>
-      <c r="N18" s="116" t="s">
+        <v>53260.705049721444</v>
+      </c>
+      <c r="N18" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="116"/>
+      <c r="O18" s="126"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="62">
@@ -3637,7 +3662,7 @@
       </c>
       <c r="G19" s="38">
         <f t="shared" si="0"/>
-        <v>50849.00918549511</v>
+        <v>52247.356938096229</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>18</v>
@@ -3660,7 +3685,7 @@
       </c>
       <c r="G20" s="38">
         <f t="shared" si="0"/>
-        <v>51933.872796467651</v>
+        <v>53362.054298370516</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>19</v>
@@ -3683,7 +3708,7 @@
       </c>
       <c r="G21" s="38">
         <f t="shared" si="0"/>
-        <v>52395.73943180043</v>
+        <v>53836.622266174942</v>
       </c>
       <c r="N21" s="12"/>
       <c r="O21" s="28"/>
@@ -3704,7 +3729,7 @@
       </c>
       <c r="G22" s="38">
         <f t="shared" si="0"/>
-        <v>52008.446568611631</v>
+        <v>53438.678849248448</v>
       </c>
       <c r="N22" s="12" t="s">
         <v>25</v>
@@ -3727,7 +3752,7 @@
       </c>
       <c r="G23" s="38">
         <f t="shared" si="0"/>
-        <v>52758.550209348919</v>
+        <v>54209.41034010602</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>26</v>
@@ -3750,7 +3775,7 @@
       </c>
       <c r="G24" s="38">
         <f t="shared" si="0"/>
-        <v>52204.427545145074</v>
+        <v>53640.049302636573</v>
       </c>
       <c r="N24" s="12"/>
       <c r="O24" s="28"/>
@@ -3794,7 +3819,7 @@
       </c>
       <c r="G26" s="38">
         <f t="shared" si="0"/>
-        <v>2639.4098861728016</v>
+        <v>2711.9936580425538</v>
       </c>
       <c r="N26" s="12"/>
       <c r="O26" s="28"/>
@@ -3815,7 +3840,7 @@
       </c>
       <c r="G27" s="38">
         <f t="shared" si="0"/>
-        <v>2366.6325353695747</v>
+        <v>2431.7149300922379</v>
       </c>
       <c r="N27" s="56" t="s">
         <v>28</v>
@@ -3880,10 +3905,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N30" s="116" t="s">
-        <v>44</v>
-      </c>
-      <c r="O30" s="117"/>
+      <c r="N30" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="O30" s="127"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="22">
@@ -3908,7 +3933,7 @@
       </c>
       <c r="O31" s="75">
         <f>O16*(1+O6)^5</f>
-        <v>8972.6182592112909</v>
+        <v>9156.5734834015293</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
@@ -3927,7 +3952,7 @@
       </c>
       <c r="G32" s="38">
         <f t="shared" si="0"/>
-        <v>51741.509821308646</v>
+        <v>53164.40134139463</v>
       </c>
       <c r="N32" s="78" t="s">
         <v>36</v>
@@ -3953,7 +3978,7 @@
       </c>
       <c r="G33" s="38">
         <f t="shared" si="0"/>
-        <v>53100.680524764924</v>
+        <v>54560.949239195957</v>
       </c>
       <c r="N33" s="78" t="s">
         <v>37</v>
@@ -3979,14 +4004,14 @@
       </c>
       <c r="G34" s="38">
         <f t="shared" si="0"/>
-        <v>50086.951401581886</v>
+        <v>51464.342565125393</v>
       </c>
       <c r="N34" s="79" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="O34" s="80">
         <f>O33-((O31-3500)/2)</f>
-        <v>9949.065519136504</v>
+        <v>9857.0879070413866</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -4005,10 +4030,10 @@
       </c>
       <c r="G35" s="38">
         <f t="shared" si="0"/>
-        <v>50230.992307573368</v>
+        <v>51612.344596031639</v>
       </c>
       <c r="N35" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O35" s="55"/>
     </row>
@@ -4028,10 +4053,10 @@
       </c>
       <c r="G36" s="38">
         <f t="shared" si="0"/>
-        <v>48386.573058779664</v>
+        <v>49717.203817896094</v>
       </c>
       <c r="N36" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O36" s="73"/>
     </row>
@@ -4051,7 +4076,7 @@
       </c>
       <c r="G37" s="38">
         <f t="shared" si="0"/>
-        <v>47349.717921805815</v>
+        <v>48651.835164655473</v>
       </c>
       <c r="N37" s="54"/>
       <c r="O37" s="72"/>
@@ -4553,8 +4578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF3058D-9527-44EF-BE25-5C09CA35E4DB}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4564,13 +4589,13 @@
     <col min="3" max="3" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="5" customWidth="1"/>
     <col min="5" max="5" width="11" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="1"/>
+    <col min="6" max="6" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.88671875" style="1"/>
     <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.88671875" style="1"/>
-    <col min="13" max="13" width="48" style="1" customWidth="1"/>
+    <col min="13" max="13" width="49.5546875" style="1" customWidth="1"/>
     <col min="14" max="16" width="10.88671875" style="1"/>
     <col min="17" max="17" width="43.88671875" style="1" customWidth="1"/>
     <col min="18" max="16384" width="10.88671875" style="1"/>
@@ -4593,6 +4618,9 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="G2" s="89" t="s">
         <v>21</v>
       </c>
@@ -4615,19 +4643,23 @@
         <f t="shared" ref="E3:E6" si="1">E4*(1+$N$6)</f>
         <v>65738.689948352316</v>
       </c>
+      <c r="F3" s="125">
+        <f>E3*(1+N6)</f>
+        <v>67546.503921932002</v>
+      </c>
       <c r="G3" s="90">
         <f>D3*($N$9/E3)</f>
-        <v>51527.872455631288</v>
+        <v>52944.888948161155</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="116" t="s">
+      <c r="M3" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="116"/>
-      <c r="Q3" s="118" t="s">
-        <v>72</v>
+      <c r="N3" s="126"/>
+      <c r="Q3" s="116" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
@@ -4647,7 +4679,7 @@
       </c>
       <c r="G4" s="90">
         <f t="shared" ref="G4:G66" si="2">D4*($N$9/E4)</f>
-        <v>51527.872455631288</v>
+        <v>52944.888948161155</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>13</v>
@@ -4662,9 +4694,9 @@
         <v>57400</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R4" s="119">
+        <v>74</v>
+      </c>
+      <c r="R4" s="117">
         <v>8.33</v>
       </c>
     </row>
@@ -4685,14 +4717,14 @@
       </c>
       <c r="G5" s="90">
         <f t="shared" si="2"/>
-        <v>51527.872455631295</v>
+        <v>52944.888948161162</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="28">
         <f>N16</f>
-        <v>17479.211164755223</v>
+        <v>14398.564752910162</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>15</v>
@@ -4701,11 +4733,11 @@
         <v>7217</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="R5" s="120">
-        <f>SUM(G3:G8)</f>
-        <v>309167.23473378771</v>
+        <v>62</v>
+      </c>
+      <c r="R5" s="118">
+        <f>G8*0.15+G7*0.3+G6*0.5+G5*0.75+G4+G3</f>
+        <v>195896.08910819629</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
@@ -4725,7 +4757,7 @@
       </c>
       <c r="G6" s="90">
         <f t="shared" si="2"/>
-        <v>51527.872455631295</v>
+        <v>52944.888948161162</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>7</v>
@@ -4741,9 +4773,9 @@
         <v>2.75E-2</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="R6" s="121">
+        <v>75</v>
+      </c>
+      <c r="R6" s="119">
         <f>B3-B8+1</f>
         <v>6</v>
       </c>
@@ -4765,14 +4797,14 @@
       </c>
       <c r="G7" s="90">
         <f t="shared" si="2"/>
-        <v>51527.872455631295</v>
+        <v>52944.888948161155</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="28">
         <f>N33</f>
-        <v>5695.769066364539</v>
+        <v>7236.0922722870691</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>16</v>
@@ -4781,9 +4813,9 @@
         <v>10779.84</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" s="121">
+        <v>76</v>
+      </c>
+      <c r="R7" s="119">
         <v>40</v>
       </c>
     </row>
@@ -4802,7 +4834,7 @@
       </c>
       <c r="G8" s="90">
         <f t="shared" si="2"/>
-        <v>51527.872455631288</v>
+        <v>52944.888948161148</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>9</v>
@@ -4811,21 +4843,21 @@
         <v>0</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N8" s="31">
         <f>65-18</f>
         <v>47</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="R8" s="120">
-        <f>R5*(R4/100)*(R6/R7)</f>
-        <v>3863.0445979986771</v>
+        <v>63</v>
+      </c>
+      <c r="R8" s="118">
+        <f>R5*(R4/100)/R7</f>
+        <v>407.95360556781873</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -4844,7 +4876,7 @@
       </c>
       <c r="G9" s="90">
         <f t="shared" si="2"/>
-        <v>52058.782020158455</v>
+        <v>53490.398525712815</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>10</v>
@@ -4856,13 +4888,13 @@
         <v>20</v>
       </c>
       <c r="N9" s="28">
-        <f>AVERAGE(E3:E7)</f>
-        <v>62312.755795868907</v>
+        <f>AVERAGE(E3:E6,F3)</f>
+        <v>64026.356580255306</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="R9" s="121">
+        <v>32</v>
+      </c>
+      <c r="R9" s="119">
         <f>N14</f>
         <v>0</v>
       </c>
@@ -4883,14 +4915,14 @@
       </c>
       <c r="G10" s="90">
         <f t="shared" si="2"/>
-        <v>53092.065770734102</v>
+        <v>54552.09757942929</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="70">
         <f>SUM(J5:J7)</f>
-        <v>31667.717492523654</v>
+        <v>30127.39428660112</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>23</v>
@@ -4900,11 +4932,11 @@
         <v>40</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" s="123">
+        <v>78</v>
+      </c>
+      <c r="R10" s="121">
         <f>R8*(1-(R9/100))</f>
-        <v>3863.0445979986771</v>
+        <v>407.95360556781873</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -4923,14 +4955,14 @@
       </c>
       <c r="G11" s="90">
         <f t="shared" si="2"/>
-        <v>53628.278563614738</v>
+        <v>55103.056224114152</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="17">
         <f>J10/D3</f>
-        <v>0.58254632130784378</v>
+        <v>0.5542111684049823</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>24</v>
@@ -4956,16 +4988,16 @@
       </c>
       <c r="G12" s="90">
         <f t="shared" si="2"/>
-        <v>54045.692737912206</v>
+        <v>55531.9492882048</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>31</v>
       </c>
       <c r="N12" s="69">
         <f>AVERAGE(G3:G29,G37:G43)</f>
-        <v>54464.666267026179</v>
-      </c>
-      <c r="Q12" s="118"/>
+        <v>55962.444589369377</v>
+      </c>
+      <c r="Q12" s="116"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="62">
@@ -4983,17 +5015,17 @@
       </c>
       <c r="G13" s="90">
         <f t="shared" si="2"/>
-        <v>54470.200146633957</v>
+        <v>55968.130650666404</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>30</v>
       </c>
       <c r="N13" s="69">
         <f>N12*0.25</f>
-        <v>13616.166566756545</v>
+        <v>13990.611147342344</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
@@ -5012,7 +5044,7 @@
       </c>
       <c r="G14" s="90">
         <f t="shared" si="2"/>
-        <v>54547.362148201624</v>
+        <v>56047.414607277169</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>32</v>
@@ -5037,17 +5069,17 @@
       </c>
       <c r="G15" s="90">
         <f t="shared" si="2"/>
-        <v>55513.009026138025</v>
+        <v>57039.616774356829</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="N15" s="29">
         <f>N13*(1-N14/100)</f>
-        <v>13616.166566756545</v>
-      </c>
-      <c r="Q15" s="118" t="s">
-        <v>73</v>
+        <v>13990.611147342344</v>
+      </c>
+      <c r="Q15" s="116" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -5066,17 +5098,17 @@
       </c>
       <c r="G16" s="90">
         <f t="shared" si="2"/>
-        <v>56075.340557462318</v>
-      </c>
-      <c r="M16" s="124" t="s">
-        <v>78</v>
-      </c>
-      <c r="N16" s="125">
+        <v>57617.412422792535</v>
+      </c>
+      <c r="M16" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="123">
         <f>N15+R10</f>
-        <v>17479.211164755223</v>
+        <v>14398.564752910162</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
@@ -5095,12 +5127,12 @@
       </c>
       <c r="G17" s="90">
         <f t="shared" si="2"/>
-        <v>56557.813484040445</v>
+        <v>58113.153354851558</v>
       </c>
       <c r="M17" s="54"/>
       <c r="N17" s="68"/>
       <c r="Q17" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -5119,12 +5151,12 @@
       </c>
       <c r="G18" s="90">
         <f t="shared" si="2"/>
-        <v>57151.670525622867</v>
-      </c>
-      <c r="M18" s="116" t="s">
+        <v>58723.341465077501</v>
+      </c>
+      <c r="M18" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="116"/>
+      <c r="N18" s="126"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="62">
@@ -5142,7 +5174,7 @@
       </c>
       <c r="G19" s="90">
         <f t="shared" si="2"/>
-        <v>57967.870471464419</v>
+        <v>59561.986909429696</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>18</v>
@@ -5165,7 +5197,7 @@
       </c>
       <c r="G20" s="90">
         <f t="shared" si="2"/>
-        <v>58278.194710379335</v>
+        <v>59880.845064914771</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>19</v>
@@ -5188,7 +5220,7 @@
       </c>
       <c r="G21" s="90">
         <f t="shared" si="2"/>
-        <v>58515.733586744311</v>
+        <v>60124.916260379796</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="28"/>
@@ -5209,7 +5241,7 @@
       </c>
       <c r="G22" s="90">
         <f t="shared" si="2"/>
-        <v>59258.108817569606</v>
+        <v>60887.706810052783</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>25</v>
@@ -5232,7 +5264,7 @@
       </c>
       <c r="G23" s="90">
         <f t="shared" si="2"/>
-        <v>59365.514139801453</v>
+        <v>60998.065778645992</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>26</v>
@@ -5255,7 +5287,7 @@
       </c>
       <c r="G24" s="90">
         <f t="shared" si="2"/>
-        <v>58236.01479139689</v>
+        <v>59837.505198160303</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="28"/>
@@ -5276,7 +5308,7 @@
       </c>
       <c r="G25" s="90">
         <f t="shared" si="2"/>
-        <v>59478.480166971349</v>
+        <v>61114.138371563065</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>27</v>
@@ -5299,7 +5331,7 @@
       </c>
       <c r="G26" s="90">
         <f t="shared" si="2"/>
-        <v>60007.443712923086</v>
+        <v>61657.648415028474</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="28"/>
@@ -5320,7 +5352,7 @@
       </c>
       <c r="G27" s="90">
         <f t="shared" si="2"/>
-        <v>59563.88752037294</v>
+        <v>61201.894427183201</v>
       </c>
       <c r="M27" s="56" t="s">
         <v>28</v>
@@ -5343,7 +5375,7 @@
       </c>
       <c r="G28" s="90">
         <f t="shared" si="2"/>
-        <v>60422.961225382693</v>
+        <v>62084.592659080721</v>
       </c>
       <c r="M28" s="54"/>
       <c r="N28" s="55"/>
@@ -5364,7 +5396,7 @@
       </c>
       <c r="G29" s="90">
         <f t="shared" si="2"/>
-        <v>59788.339308737188</v>
+        <v>61432.518639727467</v>
       </c>
     </row>
     <row r="30" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -5385,10 +5417,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M30" s="116" t="s">
-        <v>44</v>
-      </c>
-      <c r="N30" s="117"/>
+      <c r="M30" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" s="127"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="22">
@@ -5406,7 +5438,7 @@
       </c>
       <c r="G31" s="90">
         <f t="shared" si="2"/>
-        <v>3022.8457866503422</v>
+        <v>3105.9740457832272</v>
       </c>
       <c r="M31" s="77" t="s">
         <v>36</v>
@@ -5432,7 +5464,7 @@
       </c>
       <c r="G32" s="90">
         <f t="shared" si="2"/>
-        <v>2710.4411579153898</v>
+        <v>2784.9782897580635</v>
       </c>
       <c r="M32" s="78" t="s">
         <v>37</v>
@@ -5461,11 +5493,11 @@
         <v>0</v>
       </c>
       <c r="M33" s="79" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="N33" s="80">
         <f>N32-((N16-3500)/2)</f>
-        <v>5695.769066364539</v>
+        <v>7236.0922722870691</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
@@ -5487,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N34" s="55"/>
     </row>
@@ -5510,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N35" s="73"/>
     </row>
@@ -5549,7 +5581,7 @@
       </c>
       <c r="G37" s="90">
         <f t="shared" si="2"/>
-        <v>59258.171979139981</v>
+        <v>60887.771708566332</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
@@ -5568,7 +5600,7 @@
       </c>
       <c r="G38" s="90">
         <f t="shared" si="2"/>
-        <v>60814.793955819347</v>
+        <v>62487.200789604387</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
@@ -5587,7 +5619,7 @@
       </c>
       <c r="G39" s="90">
         <f t="shared" si="2"/>
-        <v>57363.250324856825</v>
+        <v>58940.739708790381</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
@@ -5606,7 +5638,7 @@
       </c>
       <c r="G40" s="90">
         <f t="shared" si="2"/>
-        <v>57528.216534941384</v>
+        <v>59110.242489652272</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
@@ -5625,7 +5657,7 @@
       </c>
       <c r="G41" s="90">
         <f t="shared" si="2"/>
-        <v>55415.852334049006</v>
+        <v>56939.788273235361</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
@@ -5644,7 +5676,7 @@
       </c>
       <c r="G42" s="90">
         <f t="shared" si="2"/>
-        <v>54228.369784033675</v>
+        <v>55719.649953094602</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
@@ -6132,8 +6164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D06BBD0-3540-47FD-9C64-4AC625E42B0E}">
   <dimension ref="B1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="72" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6145,7 +6177,7 @@
     <col min="5" max="5" width="10.88671875" style="6"/>
     <col min="6" max="6" width="12.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.88671875" style="1"/>
@@ -6171,11 +6203,14 @@
         <v>3</v>
       </c>
       <c r="F2" s="89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="110" t="s">
         <v>21</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
@@ -6183,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>2</v>
@@ -6192,7 +6227,7 @@
         <v>3</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6211,15 +6246,19 @@
       <c r="F3" s="86"/>
       <c r="G3" s="111">
         <f>D3*($N$9/E3)</f>
-        <v>46219.848429433448</v>
+        <v>47490.894261242873</v>
+      </c>
+      <c r="H3" s="125">
+        <f>E3*(1+N6)</f>
+        <v>58978.500000000007</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="116" t="s">
+      <c r="M3" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="116"/>
+      <c r="N3" s="126"/>
       <c r="P3" s="2">
         <v>2019</v>
       </c>
@@ -6250,7 +6289,7 @@
       <c r="F4" s="87"/>
       <c r="G4" s="111">
         <f t="shared" ref="G4:G22" si="0">D4*($N$9/E4)</f>
-        <v>46696.149081341428</v>
+        <v>47980.293181078327</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>13</v>
@@ -6296,14 +6335,14 @@
       <c r="F5" s="87"/>
       <c r="G5" s="111">
         <f t="shared" si="0"/>
-        <v>47623.030386925755</v>
+        <v>48932.663722566213</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="28">
         <f>N16</f>
-        <v>8390.5652658961444</v>
+        <v>8532.345452032805</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>15</v>
@@ -6342,7 +6381,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="111">
         <f t="shared" si="0"/>
-        <v>48103.88909534111</v>
+        <v>49426.746045462991</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>7</v>
@@ -6387,7 +6426,7 @@
       <c r="F7" s="87"/>
       <c r="G7" s="111">
         <f t="shared" si="0"/>
-        <v>48477.979042153478</v>
+        <v>49811.123465812692</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>8</v>
@@ -6432,7 +6471,7 @@
       <c r="F8" s="87"/>
       <c r="G8" s="111">
         <f t="shared" si="0"/>
-        <v>48859.062719593581</v>
+        <v>50202.686944382411</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>9</v>
@@ -6448,7 +6487,7 @@
         <v>42</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" s="2">
         <v>2014</v>
@@ -6481,7 +6520,7 @@
       <c r="F9" s="87"/>
       <c r="G9" s="111">
         <f t="shared" si="0"/>
-        <v>48927.737021538662</v>
+        <v>50273.249789630972</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>10</v>
@@ -6493,8 +6532,8 @@
         <v>20</v>
       </c>
       <c r="N9" s="28">
-        <f>AVERAGE(E3:E7)</f>
-        <v>54408.631895356535</v>
+        <f>AVERAGE(E3:E6,H3)</f>
+        <v>55904.869272478842</v>
       </c>
       <c r="P9" s="2">
         <v>2013</v>
@@ -6527,14 +6566,14 @@
       <c r="F10" s="87"/>
       <c r="G10" s="111">
         <f t="shared" si="0"/>
-        <v>49794.173134240089</v>
+        <v>51163.512895431697</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="70">
         <f>SUM(J4:J5)</f>
-        <v>35261.829265896144</v>
+        <v>35403.609452032804</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>23</v>
@@ -6574,14 +6613,14 @@
       <c r="F11" s="87"/>
       <c r="G11" s="111">
         <f t="shared" si="0"/>
-        <v>50299.129097953301</v>
+        <v>51682.355148147013</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="17">
         <f>J10/D3</f>
-        <v>0.72315640093304367</v>
+        <v>0.72606405635718718</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>24</v>
@@ -6621,14 +6660,14 @@
       <c r="F12" s="87"/>
       <c r="G12" s="111">
         <f t="shared" si="0"/>
-        <v>50731.279779481454</v>
+        <v>52126.389973417186</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>31</v>
       </c>
       <c r="N12" s="69">
         <f>AVERAGE(G3:G38)</f>
-        <v>49518.283173384189</v>
+        <v>50880.035960652254</v>
       </c>
       <c r="P12" s="2">
         <v>2010</v>
@@ -6661,17 +6700,17 @@
       <c r="F13" s="87"/>
       <c r="G13" s="111">
         <f t="shared" si="0"/>
-        <v>51263.543180459317</v>
+        <v>52673.29061792195</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>30</v>
       </c>
       <c r="N13" s="69">
         <f>N12*0.25</f>
-        <v>12379.570793346047</v>
+        <v>12720.008990163064</v>
       </c>
       <c r="P13" s="2">
         <v>2009</v>
@@ -6704,10 +6743,10 @@
       <c r="F14" s="87"/>
       <c r="G14" s="111">
         <f t="shared" si="0"/>
-        <v>51996.223193894533</v>
+        <v>53426.11933172663</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>32</v>
@@ -6747,14 +6786,14 @@
       <c r="F15" s="87"/>
       <c r="G15" s="111">
         <f t="shared" si="0"/>
-        <v>52274.954606309591</v>
+        <v>53712.515857983111</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N15" s="29">
         <f>N13*(1-N14/100)</f>
-        <v>8294.3124315418499</v>
+        <v>8522.4060234092522</v>
       </c>
       <c r="P15" s="2">
         <v>2007</v>
@@ -6787,17 +6826,17 @@
       <c r="F16" s="87"/>
       <c r="G16" s="111">
         <f t="shared" si="0"/>
-        <v>52487.883983556276</v>
+        <v>53931.30079310407</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" s="124" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" s="125">
+        <v>60</v>
+      </c>
+      <c r="M16" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" s="123">
         <f>N15+N45</f>
-        <v>8390.5652658961444</v>
+        <v>8532.345452032805</v>
       </c>
       <c r="P16" s="2">
         <v>2006</v>
@@ -6830,10 +6869,10 @@
       <c r="F17" s="87"/>
       <c r="G17" s="111">
         <f t="shared" si="0"/>
-        <v>53153.865231654549</v>
+        <v>54615.596525525048</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="J17" s="115"/>
       <c r="M17" s="54"/>
@@ -6869,12 +6908,12 @@
       <c r="F18" s="87"/>
       <c r="G18" s="111">
         <f t="shared" si="0"/>
-        <v>53250.064221114306</v>
-      </c>
-      <c r="M18" s="116" t="s">
+        <v>54714.440987194954</v>
+      </c>
+      <c r="M18" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="116"/>
+      <c r="N18" s="126"/>
       <c r="P18" s="2">
         <v>2004</v>
       </c>
@@ -6906,10 +6945,10 @@
       <c r="F19" s="87"/>
       <c r="G19" s="111">
         <f t="shared" si="0"/>
-        <v>52237.462925015607</v>
+        <v>53673.993155453536</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N19" s="32"/>
       <c r="P19" s="2">
@@ -6943,11 +6982,11 @@
       <c r="F20" s="87"/>
       <c r="G20" s="111">
         <f t="shared" si="0"/>
-        <v>53350.78263202696</v>
+        <v>54817.929154407706</v>
       </c>
       <c r="J20" s="35"/>
       <c r="M20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N20" s="33"/>
       <c r="P20" s="2">
@@ -6981,7 +7020,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="111">
         <f t="shared" si="0"/>
-        <v>53826.266652868369</v>
+        <v>55306.488985822252</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="28"/>
@@ -7016,7 +7055,7 @@
       <c r="F22" s="87"/>
       <c r="G22" s="111">
         <f t="shared" si="0"/>
-        <v>53427.334884774427</v>
+        <v>54896.586594105727</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>25</v>
@@ -7056,7 +7095,7 @@
       </c>
       <c r="G23" s="111">
         <f>F23*($N$9/E23)</f>
-        <v>54469.325040243748</v>
+        <v>55967.231478850452</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>26</v>
@@ -7095,8 +7134,8 @@
         <v>32166</v>
       </c>
       <c r="G24" s="111">
-        <f t="shared" ref="G24:G37" si="4">F24*($N$9/E24)</f>
-        <v>53897.846404260468</v>
+        <f>F24*($N$9/E24)</f>
+        <v>55380.037180377636</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="28"/>
@@ -7133,8 +7172,8 @@
         <v>31473.5</v>
       </c>
       <c r="G25" s="111">
-        <f t="shared" si="4"/>
-        <v>54187.763483075782</v>
+        <f t="shared" ref="G25:G37" si="4">F25*($N$9/E25)</f>
+        <v>55677.926978860363</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>27</v>
@@ -7174,7 +7213,7 @@
       </c>
       <c r="G26" s="111">
         <f t="shared" si="4"/>
-        <v>54408.639717916012</v>
+        <v>55904.877310158699</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="28"/>
@@ -7212,7 +7251,7 @@
       </c>
       <c r="G27" s="111">
         <f t="shared" si="4"/>
-        <v>53110.178751686573</v>
+        <v>54570.708667357954</v>
       </c>
       <c r="M27" s="56" t="s">
         <v>28</v>
@@ -7252,7 +7291,7 @@
       </c>
       <c r="G28" s="111">
         <f t="shared" si="4"/>
-        <v>53038.28001901642</v>
+        <v>54496.832719539365</v>
       </c>
       <c r="P28" s="22">
         <v>1994</v>
@@ -7288,10 +7327,10 @@
       </c>
       <c r="G29" s="111">
         <f t="shared" si="4"/>
-        <v>53119.923166885324</v>
-      </c>
-      <c r="M29" s="116"/>
-      <c r="N29" s="117"/>
+        <v>54580.721053974674</v>
+      </c>
+      <c r="M29" s="126"/>
+      <c r="N29" s="127"/>
       <c r="P29" s="22">
         <v>1993</v>
       </c>
@@ -7326,12 +7365,12 @@
       </c>
       <c r="G30" s="111">
         <f t="shared" si="4"/>
-        <v>53226.086731470365</v>
-      </c>
-      <c r="M30" s="116" t="s">
-        <v>46</v>
-      </c>
-      <c r="N30" s="117"/>
+        <v>54689.804116585801</v>
+      </c>
+      <c r="M30" s="126" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" s="127"/>
       <c r="P30" s="22">
         <v>1992</v>
       </c>
@@ -7366,10 +7405,10 @@
       </c>
       <c r="G31" s="111">
         <f t="shared" si="4"/>
-        <v>53797.335236545936</v>
+        <v>55276.761955550952</v>
       </c>
       <c r="M31" s="77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N31" s="75">
         <f>AVERAGE(D3:D7)</f>
@@ -7409,10 +7448,10 @@
       </c>
       <c r="G32" s="111">
         <f t="shared" si="4"/>
-        <v>53418.798258592833</v>
+        <v>54887.815210704131</v>
       </c>
       <c r="M32" s="78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N32" s="92">
         <f>60-18</f>
@@ -7452,17 +7491,17 @@
       </c>
       <c r="G33" s="111">
         <f>H33*($N$9/E33)</f>
-        <v>54408.631895356535</v>
+        <v>55904.869272478842</v>
       </c>
       <c r="H33" s="35">
         <f>E33</f>
         <v>25436.47790299587</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M33" s="78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N33" s="93">
         <v>1.35E-2</v>
@@ -7501,13 +7540,13 @@
       </c>
       <c r="G34" s="111">
         <f t="shared" si="4"/>
-        <v>51710.373160112889</v>
+        <v>53132.408422016</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M34" s="79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N34" s="80">
         <f>N31*N32*N33</f>
@@ -7547,7 +7586,7 @@
       </c>
       <c r="G35" s="111">
         <f t="shared" si="4"/>
-        <v>51859.877303952155</v>
+        <v>53286.023929810843</v>
       </c>
       <c r="M35" s="54"/>
       <c r="N35" s="55"/>
@@ -7585,7 +7624,7 @@
       </c>
       <c r="G36" s="111">
         <f t="shared" si="4"/>
-        <v>49955.139854335939</v>
+        <v>51328.906200330173</v>
       </c>
       <c r="M36" s="54"/>
       <c r="N36" s="73"/>
@@ -7623,7 +7662,7 @@
       </c>
       <c r="G37" s="111">
         <f t="shared" si="4"/>
-        <v>25049.335918703564</v>
+        <v>25738.192656467909</v>
       </c>
       <c r="P37" s="22">
         <v>1985</v>
@@ -7658,8 +7697,8 @@
         <f>D38</f>
         <v>0</v>
       </c>
-      <c r="M38" s="118" t="s">
-        <v>72</v>
+      <c r="M38" s="116" t="s">
+        <v>67</v>
       </c>
       <c r="P38" s="2">
         <v>1984</v>
@@ -7695,9 +7734,9 @@
         <v>0</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N39" s="119">
+        <v>74</v>
+      </c>
+      <c r="N39" s="117">
         <v>8.33</v>
       </c>
       <c r="P39" s="2">
@@ -7734,11 +7773,11 @@
         <v>0</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="N40" s="120">
-        <f>G3</f>
-        <v>46219.848429433448</v>
+        <v>62</v>
+      </c>
+      <c r="N40" s="118">
+        <f>G3*0.15</f>
+        <v>7123.6341391864307</v>
       </c>
       <c r="P40" s="2">
         <v>1982</v>
@@ -7774,9 +7813,9 @@
         <v>0</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N41" s="121">
+        <v>75</v>
+      </c>
+      <c r="N41" s="119">
         <f>1</f>
         <v>1</v>
       </c>
@@ -7814,9 +7853,9 @@
         <v>0</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="N42" s="121">
+        <v>76</v>
+      </c>
+      <c r="N42" s="119">
         <v>40</v>
       </c>
       <c r="P42" s="2">
@@ -7853,11 +7892,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="N43" s="120">
-        <f>N40*(N39/100)*(N41/N42)</f>
-        <v>96.25283435429516</v>
+        <v>63</v>
+      </c>
+      <c r="N43" s="118">
+        <f>N40*(N39/100)/N42</f>
+        <v>14.834968094855743</v>
       </c>
       <c r="P43" s="2">
         <v>1979</v>
@@ -7893,11 +7932,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="N44" s="121">
-        <f>J49</f>
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="N44" s="119">
+        <f>N14</f>
+        <v>33</v>
       </c>
       <c r="P44" s="2">
         <v>1978</v>
@@ -7933,11 +7972,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="N45" s="123">
+        <v>64</v>
+      </c>
+      <c r="N45" s="121">
         <f>N43*(1-(N44/100))</f>
-        <v>96.25283435429516</v>
+        <v>9.9394286235533471</v>
       </c>
       <c r="P45" s="2">
         <v>1977</v>
@@ -8005,7 +8044,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M47" s="118"/>
+      <c r="M47" s="116"/>
       <c r="P47" s="2">
         <v>1975</v>
       </c>
@@ -8105,9 +8144,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M50" s="118" t="s">
-        <v>73</v>
-      </c>
+      <c r="M50" s="116"/>
       <c r="P50" s="2">
         <v>1972</v>
       </c>
@@ -8141,9 +8178,6 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="P51" s="2">
         <v>1971</v>
       </c>
@@ -8176,9 +8210,6 @@
       <c r="G52" s="111">
         <f t="shared" si="5"/>
         <v>0</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="P52" s="2">
         <v>1970</v>

--- a/propre.xlsx
+++ b/propre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\Université\Session-2-H-2020\ACT-1005-Analyse-et-traitement-collectif-du-risque\Calcul-Prestations\ATCR-TP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\ATCR-TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF92E762-DFD5-4C32-99A8-9FF87D770B16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8773D1-A8AD-45C1-BC76-3C7E870514E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{47FD59A7-3964-46FC-BE03-C6B259F3D8B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{47FD59A7-3964-46FC-BE03-C6B259F3D8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="QUESTION 1" sheetId="1" r:id="rId1"/>
@@ -147,13 +147,7 @@
     <t xml:space="preserve">Indexation de la PSV </t>
   </si>
   <si>
-    <t xml:space="preserve">Indexation de la SRG célibataire </t>
-  </si>
-  <si>
     <t>*Les premiers 3500$ du revenu de Virginie ne sont</t>
-  </si>
-  <si>
-    <t>pas pris en compte pour la diminution de la SRG.</t>
   </si>
   <si>
     <t>Période cotisable (en années, 18 à 65 ans)</t>
@@ -285,7 +279,13 @@
     <t>revenus trop élevés.</t>
   </si>
   <si>
-    <t>Montant de la SRG après diminution selon les autres revenus</t>
+    <t xml:space="preserve">Indexation du SRG célibataire </t>
+  </si>
+  <si>
+    <t>Montant du SRG après diminution selon les autres revenus</t>
+  </si>
+  <si>
+    <t>pas pris en compte pour la diminution du SRG.</t>
   </si>
 </sst>
 </file>
@@ -1617,33 +1617,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D97A01-C9B7-4676-858F-079C6C4177D4}">
   <dimension ref="B1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="96" workbookViewId="0">
+    <sheetView zoomScale="54" workbookViewId="0">
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="2"/>
-    <col min="3" max="3" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="5"/>
-    <col min="5" max="5" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.88671875" style="1"/>
-    <col min="11" max="11" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.88671875" style="1"/>
+    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="2"/>
+    <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="5"/>
+    <col min="5" max="5" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.85546875" style="1"/>
+    <col min="11" max="11" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.85546875" style="1"/>
     <col min="14" max="14" width="48" style="1" customWidth="1"/>
-    <col min="15" max="16" width="10.88671875" style="1"/>
-    <col min="17" max="17" width="48.33203125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.88671875" style="1"/>
+    <col min="15" max="16" width="10.85546875" style="1"/>
+    <col min="17" max="17" width="48.28515625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G2" s="36" t="s">
         <v>21</v>
@@ -1666,7 +1666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="61">
         <v>2019</v>
       </c>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="O3" s="126"/>
       <c r="Q3" s="116" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
@@ -1730,13 +1730,13 @@
         <v>57400</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R4" s="117">
         <v>8.33</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B5" s="62">
         <v>2017</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>7217</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R5" s="118">
         <f>G3*0.15</f>
@@ -1806,7 +1806,7 @@
         <v>2.75E-2</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R6" s="119">
         <v>1</v>
@@ -1843,7 +1843,7 @@
         <v>10779.84</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R7" s="119">
         <v>40</v>
@@ -1881,17 +1881,17 @@
         <v>42</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R8" s="118">
         <f>R5*(R4/100)/R7</f>
         <v>14.440796837832812</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="62">
         <v>2013</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O9" s="28">
         <f>AVERAGE(E3:E6,F3)</f>
@@ -1930,7 +1930,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="62">
         <v>2012</v>
       </c>
@@ -1963,14 +1963,14 @@
         <v>35</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R10" s="118">
         <f>R8*(1-(R9/100))</f>
         <v>9.6753338813479832</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="62">
         <v>2011</v>
       </c>
@@ -2003,11 +2003,11 @@
         <v>5.25</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R11" s="117"/>
     </row>
-    <row r="12" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="62">
         <v>2010</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>47674.169658871557</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R12" s="120"/>
     </row>
@@ -2085,7 +2085,7 @@
         <v>52006.787042566488</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>32</v>
@@ -2095,7 +2095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="62">
         <v>2007</v>
       </c>
@@ -2114,17 +2114,17 @@
         <v>52285.199316057529</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O15" s="29">
         <f>O13*(1-O14/100)</f>
         <v>7985.423417860985</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="62">
         <v>2006</v>
       </c>
@@ -2143,14 +2143,14 @@
         <v>52498.311056353821</v>
       </c>
       <c r="N16" s="122" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O16" s="123">
         <f>O15+R10</f>
         <v>7995.0987517423328</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B17" s="62">
         <v>2005</v>
       </c>
@@ -2171,7 +2171,7 @@
       <c r="N17" s="54"/>
       <c r="O17" s="68"/>
     </row>
-    <row r="18" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="62">
         <v>2004</v>
       </c>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="O19" s="32"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B20" s="62">
         <v>2002</v>
       </c>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="O20" s="33"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B21" s="62">
         <v>2001</v>
       </c>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="O23" s="42"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B24" s="63">
         <v>1998</v>
       </c>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="O25" s="44"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B26" s="22">
         <v>1996</v>
       </c>
@@ -2372,7 +2372,7 @@
       <c r="N26" s="12"/>
       <c r="O26" s="28"/>
     </row>
-    <row r="27" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="22">
         <v>1995</v>
       </c>
@@ -3073,36 +3073,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367AD372-2F5B-444E-901D-D02956C9F1AC}">
   <dimension ref="B1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="I12" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="J1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="2"/>
-    <col min="3" max="3" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="5"/>
-    <col min="5" max="5" width="10.88671875" style="6"/>
-    <col min="6" max="6" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="1"/>
-    <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" style="1"/>
-    <col min="12" max="12" width="10.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" style="1"/>
-    <col min="14" max="14" width="51.21875" style="1" customWidth="1"/>
-    <col min="15" max="16" width="10.88671875" style="1"/>
-    <col min="17" max="17" width="43.6640625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.88671875" style="1"/>
+    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="2"/>
+    <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="5"/>
+    <col min="5" max="5" width="10.85546875" style="6"/>
+    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1"/>
+    <col min="9" max="9" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="1"/>
+    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1"/>
+    <col min="14" max="14" width="51.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.85546875" style="1"/>
+    <col min="17" max="17" width="43.7109375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G2" s="36" t="s">
         <v>21</v>
@@ -3125,7 +3125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="61">
         <v>2019</v>
       </c>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="O3" s="126"/>
       <c r="Q3" s="116" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
@@ -3189,13 +3189,13 @@
         <v>57400</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R4" s="117">
         <v>8.33</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B5" s="62">
         <v>2017</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>7217</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R5" s="118">
         <f>G3*0.15</f>
@@ -3266,7 +3266,7 @@
         <v>2.75E-2</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R6" s="119">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>10779.84</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R7" s="119">
         <v>40</v>
@@ -3342,17 +3342,17 @@
         <v>42</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R8" s="118">
         <f>R5*(R4/100)/R7</f>
         <v>14.440796837832812</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="62">
         <v>2013</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="62">
         <v>2012</v>
       </c>
@@ -3424,14 +3424,14 @@
         <v>35</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R10" s="118">
         <f>R8*(1-(R9/100))</f>
         <v>9.6753338813479832</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="62">
         <v>2011</v>
       </c>
@@ -3464,11 +3464,11 @@
         <v>5.25</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R11" s="117"/>
     </row>
-    <row r="12" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="62">
         <v>2010</v>
       </c>
@@ -3494,11 +3494,11 @@
         <v>47674.169658871557</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R12" s="120"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B13" s="62">
         <v>2009</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>11918.542414717889</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B14" s="62">
         <v>2008</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="62">
         <v>2007</v>
       </c>
@@ -3569,14 +3569,14 @@
         <v>52285.199316057529</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O15" s="29">
         <f>O13*(1-O14/100)</f>
         <v>7985.423417860985</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="62">
         <v>2006</v>
       </c>
@@ -3595,14 +3595,14 @@
         <v>52498.311056353821</v>
       </c>
       <c r="N16" s="124" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O16" s="123">
         <f>O15+R10</f>
         <v>7995.0987517423328</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B17" s="62">
         <v>2005</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="N17" s="54"/>
       <c r="O17" s="68"/>
     </row>
-    <row r="18" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="62">
         <v>2004</v>
       </c>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="O19" s="32"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B20" s="62">
         <v>2002</v>
       </c>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="O20" s="33"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B21" s="62">
         <v>2001</v>
       </c>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="O23" s="42"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B24" s="63">
         <v>1998</v>
       </c>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="O25" s="44"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B26" s="22">
         <v>1996</v>
       </c>
@@ -3824,7 +3824,7 @@
       <c r="N26" s="12"/>
       <c r="O26" s="28"/>
     </row>
-    <row r="27" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="22">
         <v>1995</v>
       </c>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="O27" s="57"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B28" s="22">
         <v>1994</v>
       </c>
@@ -3868,7 +3868,7 @@
       <c r="N28" s="54"/>
       <c r="O28" s="55"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B29" s="22">
         <v>1993</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="22">
         <v>1992</v>
       </c>
@@ -3906,11 +3906,11 @@
         <v>0</v>
       </c>
       <c r="N30" s="126" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O30" s="127"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B31" s="22">
         <v>1991</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>9156.5734834015293</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B32" s="65">
         <v>1990</v>
       </c>
@@ -3981,14 +3981,14 @@
         <v>54560.949239195957</v>
       </c>
       <c r="N33" s="78" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="O33" s="76">
         <f>O7*(1+O6)^6</f>
         <v>12685.37464874215</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="66">
         <v>1988</v>
       </c>
@@ -4007,14 +4007,14 @@
         <v>51464.342565125393</v>
       </c>
       <c r="N34" s="79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O34" s="80">
         <f>O33-((O31-3500)/2)</f>
         <v>9857.0879070413866</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B35" s="66">
         <v>1987</v>
       </c>
@@ -4033,11 +4033,11 @@
         <v>51612.344596031639</v>
       </c>
       <c r="N35" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O35" s="55"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B36" s="66">
         <v>1986</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>49717.203817896094</v>
       </c>
       <c r="N36" s="54" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="O36" s="73"/>
     </row>
@@ -4578,34 +4578,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF3058D-9527-44EF-BE25-5C09CA35E4DB}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView topLeftCell="I18" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="2"/>
-    <col min="3" max="3" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="2"/>
+    <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="5" customWidth="1"/>
     <col min="5" max="5" width="11" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="1"/>
-    <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.88671875" style="1"/>
-    <col min="13" max="13" width="49.5546875" style="1" customWidth="1"/>
-    <col min="14" max="16" width="10.88671875" style="1"/>
-    <col min="17" max="17" width="43.88671875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.88671875" style="1"/>
+    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1"/>
+    <col min="9" max="9" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.85546875" style="1"/>
+    <col min="13" max="13" width="49.5703125" style="1" customWidth="1"/>
+    <col min="14" max="16" width="10.85546875" style="1"/>
+    <col min="17" max="17" width="43.85546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G2" s="89" t="s">
         <v>21</v>
@@ -4628,7 +4628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="61">
         <v>2024</v>
       </c>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="N3" s="126"/>
       <c r="Q3" s="116" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
@@ -4694,13 +4694,13 @@
         <v>57400</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R4" s="117">
         <v>8.33</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B5" s="62">
         <v>2022</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>7217</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R5" s="118">
         <f>G8*0.15+G7*0.3+G6*0.5+G5*0.75+G4+G3</f>
@@ -4773,7 +4773,7 @@
         <v>2.75E-2</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R6" s="119">
         <f>B3-B8+1</f>
@@ -4813,7 +4813,7 @@
         <v>10779.84</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R7" s="119">
         <v>40</v>
@@ -4843,24 +4843,24 @@
         <v>0</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N8" s="31">
         <f>65-18</f>
         <v>47</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R8" s="118">
         <f>R5*(R4/100)/R7</f>
         <v>407.95360556781873</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="62">
         <v>2018</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="62">
         <v>2017</v>
       </c>
@@ -4932,14 +4932,14 @@
         <v>40</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R10" s="121">
         <f>R8*(1-(R9/100))</f>
         <v>407.95360556781873</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="62">
         <v>2016</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B12" s="62">
         <v>2015</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>55968.130650666404</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>30</v>
@@ -5028,7 +5028,7 @@
         <v>13990.611147342344</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B14" s="62">
         <v>2013</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="62">
         <v>2012</v>
       </c>
@@ -5072,17 +5072,17 @@
         <v>57039.616774356829</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N15" s="29">
         <f>N13*(1-N14/100)</f>
         <v>13990.611147342344</v>
       </c>
       <c r="Q15" s="116" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="62">
         <v>2011</v>
       </c>
@@ -5101,14 +5101,14 @@
         <v>57617.412422792535</v>
       </c>
       <c r="M16" s="122" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N16" s="123">
         <f>N15+R10</f>
         <v>14398.564752910162</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
@@ -5132,10 +5132,10 @@
       <c r="M17" s="54"/>
       <c r="N17" s="68"/>
       <c r="Q17" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="62">
         <v>2009</v>
       </c>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="N19" s="32"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B20" s="62">
         <v>2007</v>
       </c>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="N20" s="33"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B21" s="62">
         <v>2006</v>
       </c>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="N23" s="42"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B24" s="62">
         <v>2003</v>
       </c>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="N25" s="44"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B26" s="62">
         <v>2001</v>
       </c>
@@ -5336,7 +5336,7 @@
       <c r="M26" s="12"/>
       <c r="N26" s="28"/>
     </row>
-    <row r="27" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="62">
         <v>2000</v>
       </c>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="N27" s="57"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B28" s="62">
         <v>1999</v>
       </c>
@@ -5380,7 +5380,7 @@
       <c r="M28" s="54"/>
       <c r="N28" s="55"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B29" s="63">
         <v>1998</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>61432.518639727467</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="22">
         <v>1997</v>
       </c>
@@ -5418,11 +5418,11 @@
         <v>0</v>
       </c>
       <c r="M30" s="126" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N30" s="127"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B31" s="22">
         <v>1996</v>
       </c>
@@ -5467,14 +5467,14 @@
         <v>2784.9782897580635</v>
       </c>
       <c r="M32" s="78" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="N32" s="76">
         <f>N7*(1+N6)^6</f>
         <v>12685.37464874215</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="22">
         <v>1994</v>
       </c>
@@ -5493,14 +5493,14 @@
         <v>0</v>
       </c>
       <c r="M33" s="79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N33" s="80">
         <f>N32-((N16-3500)/2)</f>
         <v>7236.0922722870691</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B34" s="22">
         <v>1993</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N34" s="55"/>
     </row>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="54" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="N35" s="73"/>
     </row>
@@ -6164,32 +6164,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D06BBD0-3540-47FD-9C64-4AC625E42B0E}">
   <dimension ref="B1:T62"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="2"/>
-    <col min="3" max="3" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="5"/>
-    <col min="5" max="5" width="10.88671875" style="6"/>
-    <col min="6" max="6" width="12.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.88671875" style="1"/>
-    <col min="13" max="13" width="48.88671875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.88671875" style="1"/>
+    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="2"/>
+    <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="5"/>
+    <col min="5" max="5" width="10.85546875" style="6"/>
+    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.85546875" style="1"/>
+    <col min="13" max="13" width="48.85546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
@@ -6203,13 +6203,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="89" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="110" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>2</v>
@@ -6227,10 +6227,10 @@
         <v>3</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="101">
         <v>2019</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>57400</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B4" s="102">
         <v>2018</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>55863.746958637465</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B5" s="102">
         <v>2017</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>42</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P8" s="2">
         <v>2014</v>
@@ -6503,7 +6503,7 @@
         <v>50119.039527385365</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="102">
         <v>2013</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>47472.169383212604</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="102">
         <v>2011</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>46201.624703856542</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B12" s="102">
         <v>2010</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>52673.29061792195</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>30</v>
@@ -6746,7 +6746,7 @@
         <v>53426.11933172663</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>32</v>
@@ -6769,7 +6769,7 @@
         <v>42590.403675027614</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="102">
         <v>2007</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>53712.515857983111</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N15" s="29">
         <f>N13*(1-N14/100)</f>
@@ -6809,7 +6809,7 @@
         <v>41450.514525574319</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="102">
         <v>2006</v>
       </c>
@@ -6829,10 +6829,10 @@
         <v>53931.30079310407</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M16" s="122" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N16" s="123">
         <f>N15+N45</f>
@@ -6872,7 +6872,7 @@
         <v>54615.596525525048</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J17" s="115"/>
       <c r="M17" s="54"/>
@@ -6891,7 +6891,7 @@
         <v>39261.443657638127</v>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="102">
         <v>2004</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>53673.993155453536</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N19" s="32"/>
       <c r="P19" s="2">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="J20" s="35"/>
       <c r="M20" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N20" s="33"/>
       <c r="P20" s="2">
@@ -7003,7 +7003,7 @@
         <v>36192.682507625788</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B21" s="102">
         <v>2001</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>33363.782506835174</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B24" s="106">
         <v>1998</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>31601.785456477446</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B26" s="106">
         <v>1996</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>30755.995578080237</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="106">
         <v>1995</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>29932.842411756919</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B28" s="106">
         <v>1994</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>29131.720108765858</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B29" s="106">
         <v>1993</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>28352.039035295238</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="106">
         <v>1992</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>54689.804116585801</v>
       </c>
       <c r="M30" s="126" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N30" s="127"/>
       <c r="P30" s="22">
@@ -7385,7 +7385,7 @@
         <v>27593.225338486849</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B31" s="106">
         <v>1991</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>55276.761955550952</v>
       </c>
       <c r="M31" s="77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N31" s="75">
         <f>AVERAGE(D3:D7)</f>
@@ -7451,7 +7451,7 @@
         <v>54887.815210704131</v>
       </c>
       <c r="M32" s="78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N32" s="92">
         <f>60-18</f>
@@ -7498,10 +7498,10 @@
         <v>25436.47790299587</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M33" s="78" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N33" s="93">
         <v>1.35E-2</v>
@@ -7520,7 +7520,7 @@
         <v>25436.47790299587</v>
       </c>
     </row>
-    <row r="34" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="106">
         <v>1988</v>
       </c>
@@ -7543,10 +7543,10 @@
         <v>53132.408422016</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M34" s="79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N34" s="80">
         <f>N31*N32*N33</f>
@@ -7566,7 +7566,7 @@
         <v>24755.696255957049</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B35" s="106">
         <v>1987</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>24093.135042293965</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B36" s="106">
         <v>1986</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>22820.736360588879</v>
       </c>
     </row>
-    <row r="38" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="103">
         <v>1984</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="116" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P38" s="2">
         <v>1984</v>
@@ -7734,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N39" s="117">
         <v>8.33</v>
@@ -7773,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N40" s="118">
         <f>G3*0.15</f>
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N41" s="119">
         <f>1</f>
@@ -7853,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N42" s="119">
         <v>40</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N43" s="118">
         <f>N40*(N39/100)/N42</f>
@@ -7952,7 +7952,7 @@
         <v>18873.690974904424</v>
       </c>
     </row>
-    <row r="45" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>1977</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N45" s="121">
         <f>N43*(1-(N44/100))</f>

--- a/propre.xlsx
+++ b/propre.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\ATCR-TP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristanmetivier-dionne/ATCR-TP2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8773D1-A8AD-45C1-BC76-3C7E870514E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{47FD59A7-3964-46FC-BE03-C6B259F3D8B0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="QUESTION 1" sheetId="1" r:id="rId1"/>
@@ -18,9 +17,15 @@
     <sheet name="QUESTION 3" sheetId="3" r:id="rId3"/>
     <sheet name="QUESTION 6" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -291,7 +296,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -380,33 +385,33 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -415,7 +420,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -424,23 +429,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -448,101 +453,101 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -550,10 +555,10 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -561,42 +566,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,10 +623,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -629,7 +634,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -637,11 +642,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -672,7 +677,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -824,7 +829,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -884,23 +889,23 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,10 +1002,10 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1008,24 +1013,24 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1614,36 +1619,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D97A01-C9B7-4676-858F-079C6C4177D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R62"/>
   <sheetViews>
-    <sheetView zoomScale="54" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView topLeftCell="J4" zoomScale="110" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="2"/>
-    <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="5"/>
-    <col min="5" max="5" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.85546875" style="1"/>
-    <col min="11" max="11" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" style="1"/>
     <col min="14" max="14" width="48" style="1" customWidth="1"/>
-    <col min="15" max="16" width="10.85546875" style="1"/>
-    <col min="17" max="17" width="48.28515625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.85546875" style="1"/>
+    <col min="15" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="48.33203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="61">
         <v>2019</v>
       </c>
@@ -1699,7 +1704,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B4" s="62">
         <v>2018</v>
       </c>
@@ -1736,7 +1741,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B5" s="62">
         <v>2017</v>
       </c>
@@ -1775,7 +1780,7 @@
         <v>6934.3562246496103</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B6" s="62">
         <v>2016</v>
       </c>
@@ -1812,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B7" s="62">
         <v>2015</v>
       </c>
@@ -1849,7 +1854,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" s="62">
         <v>2014</v>
       </c>
@@ -1891,7 +1896,7 @@
         <v>14.440796837832812</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="62">
         <v>2013</v>
       </c>
@@ -1930,7 +1935,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="62">
         <v>2012</v>
       </c>
@@ -1970,7 +1975,7 @@
         <v>9.6753338813479832</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="62">
         <v>2011</v>
       </c>
@@ -2007,7 +2012,7 @@
       </c>
       <c r="R11" s="117"/>
     </row>
-    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="62">
         <v>2010</v>
       </c>
@@ -2037,7 +2042,7 @@
       </c>
       <c r="R12" s="120"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B13" s="62">
         <v>2009</v>
       </c>
@@ -2066,7 +2071,7 @@
         <v>11918.542414717889</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B14" s="62">
         <v>2008</v>
       </c>
@@ -2095,7 +2100,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="62">
         <v>2007</v>
       </c>
@@ -2124,7 +2129,7 @@
         <v>7985.423417860985</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="62">
         <v>2006</v>
       </c>
@@ -2150,7 +2155,7 @@
         <v>7995.0987517423328</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" s="62">
         <v>2005</v>
       </c>
@@ -2171,7 +2176,7 @@
       <c r="N17" s="54"/>
       <c r="O17" s="68"/>
     </row>
-    <row r="18" spans="2:15" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="62">
         <v>2004</v>
       </c>
@@ -2194,7 +2199,7 @@
       </c>
       <c r="O18" s="126"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19" s="62">
         <v>2003</v>
       </c>
@@ -2217,7 +2222,7 @@
       </c>
       <c r="O19" s="32"/>
     </row>
-    <row r="20" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B20" s="62">
         <v>2002</v>
       </c>
@@ -2240,7 +2245,7 @@
       </c>
       <c r="O20" s="33"/>
     </row>
-    <row r="21" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B21" s="62">
         <v>2001</v>
       </c>
@@ -2261,7 +2266,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="28"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B22" s="62">
         <v>2000</v>
       </c>
@@ -2284,7 +2289,7 @@
       </c>
       <c r="O22" s="41"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B23" s="62">
         <v>1999</v>
       </c>
@@ -2307,7 +2312,7 @@
       </c>
       <c r="O23" s="42"/>
     </row>
-    <row r="24" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B24" s="63">
         <v>1998</v>
       </c>
@@ -2328,7 +2333,7 @@
       <c r="N24" s="12"/>
       <c r="O24" s="28"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="22">
         <v>1997</v>
       </c>
@@ -2351,7 +2356,7 @@
       </c>
       <c r="O25" s="44"/>
     </row>
-    <row r="26" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B26" s="22">
         <v>1996</v>
       </c>
@@ -2372,7 +2377,7 @@
       <c r="N26" s="12"/>
       <c r="O26" s="28"/>
     </row>
-    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="22">
         <v>1995</v>
       </c>
@@ -2395,7 +2400,7 @@
       </c>
       <c r="O27" s="57"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B28" s="22">
         <v>1994</v>
       </c>
@@ -2414,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B29" s="22">
         <v>1993</v>
       </c>
@@ -2433,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B30" s="22">
         <v>1992</v>
       </c>
@@ -2452,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B31" s="22">
         <v>1991</v>
       </c>
@@ -2471,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B32" s="65">
         <v>1990</v>
       </c>
@@ -2490,7 +2495,7 @@
         <v>53164.40134139463</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="66">
         <v>1989</v>
       </c>
@@ -2509,7 +2514,7 @@
         <v>54560.949239195957</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="66">
         <v>1988</v>
       </c>
@@ -2528,7 +2533,7 @@
         <v>51464.342565125393</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="66">
         <v>1987</v>
       </c>
@@ -2547,7 +2552,7 @@
         <v>51612.344596031639</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="66">
         <v>1986</v>
       </c>
@@ -2566,7 +2571,7 @@
         <v>49717.203817896094</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="66">
         <v>1985</v>
       </c>
@@ -2585,7 +2590,7 @@
         <v>48651.835164655473</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="66">
         <v>1984</v>
       </c>
@@ -2604,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="67">
         <v>1983</v>
       </c>
@@ -2623,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B40" s="21">
         <v>1982</v>
       </c>
@@ -2642,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="21">
         <v>1981</v>
       </c>
@@ -2661,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="21">
         <v>1980</v>
       </c>
@@ -2680,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="21">
         <v>1979</v>
       </c>
@@ -2699,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="21">
         <v>1978</v>
       </c>
@@ -2718,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
         <v>1977</v>
       </c>
@@ -2737,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="2">
         <v>1976</v>
       </c>
@@ -2756,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="2">
         <v>1975</v>
       </c>
@@ -2775,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="2">
         <v>1974</v>
       </c>
@@ -2794,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" s="2">
         <v>1973</v>
       </c>
@@ -2813,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B50" s="2">
         <v>1972</v>
       </c>
@@ -2832,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51" s="2">
         <v>1971</v>
       </c>
@@ -2851,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B52" s="2">
         <v>1970</v>
       </c>
@@ -2870,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="2">
         <v>1969</v>
       </c>
@@ -2889,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="2">
         <v>1968</v>
       </c>
@@ -2908,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B55" s="2">
         <v>1967</v>
       </c>
@@ -2927,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B56" s="2">
         <v>1966</v>
       </c>
@@ -2946,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B57" s="2">
         <v>1965</v>
       </c>
@@ -2965,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
         <v>1964</v>
       </c>
@@ -2984,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
         <v>1963</v>
       </c>
@@ -3003,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
         <v>1962</v>
       </c>
@@ -3022,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
         <v>1961</v>
       </c>
@@ -3041,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B62" s="25">
         <v>1960</v>
       </c>
@@ -3070,39 +3075,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367AD372-2F5B-444E-901D-D02956C9F1AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R62"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="72" workbookViewId="0">
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="2"/>
-    <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="5"/>
-    <col min="5" max="5" width="10.85546875" style="6"/>
-    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="1"/>
-    <col min="9" max="9" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="1"/>
-    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="1"/>
-    <col min="14" max="14" width="51.28515625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="10.85546875" style="1"/>
-    <col min="17" max="17" width="43.7109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="10.83203125" style="6"/>
+    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="51.33203125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="43.6640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
@@ -3125,7 +3130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="61">
         <v>2019</v>
       </c>
@@ -3158,7 +3163,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B4" s="62">
         <v>2018</v>
       </c>
@@ -3195,7 +3200,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B5" s="62">
         <v>2017</v>
       </c>
@@ -3234,7 +3239,7 @@
         <v>6934.3562246496103</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B6" s="62">
         <v>2016</v>
       </c>
@@ -3272,7 +3277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B7" s="62">
         <v>2015</v>
       </c>
@@ -3310,7 +3315,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" s="62">
         <v>2014</v>
       </c>
@@ -3352,7 +3357,7 @@
         <v>14.440796837832812</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="62">
         <v>2013</v>
       </c>
@@ -3391,7 +3396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="62">
         <v>2012</v>
       </c>
@@ -3431,7 +3436,7 @@
         <v>9.6753338813479832</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="62">
         <v>2011</v>
       </c>
@@ -3468,7 +3473,7 @@
       </c>
       <c r="R11" s="117"/>
     </row>
-    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="62">
         <v>2010</v>
       </c>
@@ -3498,7 +3503,7 @@
       </c>
       <c r="R12" s="120"/>
     </row>
-    <row r="13" spans="2:18" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B13" s="62">
         <v>2009</v>
       </c>
@@ -3524,7 +3529,7 @@
         <v>11918.542414717889</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B14" s="62">
         <v>2008</v>
       </c>
@@ -3550,7 +3555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="62">
         <v>2007</v>
       </c>
@@ -3576,7 +3581,7 @@
         <v>7985.423417860985</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="62">
         <v>2006</v>
       </c>
@@ -3602,7 +3607,7 @@
         <v>7995.0987517423328</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" s="62">
         <v>2005</v>
       </c>
@@ -3623,7 +3628,7 @@
       <c r="N17" s="54"/>
       <c r="O17" s="68"/>
     </row>
-    <row r="18" spans="2:15" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="62">
         <v>2004</v>
       </c>
@@ -3646,7 +3651,7 @@
       </c>
       <c r="O18" s="126"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19" s="62">
         <v>2003</v>
       </c>
@@ -3669,7 +3674,7 @@
       </c>
       <c r="O19" s="32"/>
     </row>
-    <row r="20" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B20" s="62">
         <v>2002</v>
       </c>
@@ -3692,7 +3697,7 @@
       </c>
       <c r="O20" s="33"/>
     </row>
-    <row r="21" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B21" s="62">
         <v>2001</v>
       </c>
@@ -3713,7 +3718,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="28"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B22" s="62">
         <v>2000</v>
       </c>
@@ -3736,7 +3741,7 @@
       </c>
       <c r="O22" s="41"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B23" s="62">
         <v>1999</v>
       </c>
@@ -3759,7 +3764,7 @@
       </c>
       <c r="O23" s="42"/>
     </row>
-    <row r="24" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B24" s="63">
         <v>1998</v>
       </c>
@@ -3780,7 +3785,7 @@
       <c r="N24" s="12"/>
       <c r="O24" s="28"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="22">
         <v>1997</v>
       </c>
@@ -3803,7 +3808,7 @@
       </c>
       <c r="O25" s="44"/>
     </row>
-    <row r="26" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B26" s="22">
         <v>1996</v>
       </c>
@@ -3824,7 +3829,7 @@
       <c r="N26" s="12"/>
       <c r="O26" s="28"/>
     </row>
-    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="22">
         <v>1995</v>
       </c>
@@ -3847,7 +3852,7 @@
       </c>
       <c r="O27" s="57"/>
     </row>
-    <row r="28" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B28" s="22">
         <v>1994</v>
       </c>
@@ -3868,7 +3873,7 @@
       <c r="N28" s="54"/>
       <c r="O28" s="55"/>
     </row>
-    <row r="29" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B29" s="22">
         <v>1993</v>
       </c>
@@ -3887,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="22">
         <v>1992</v>
       </c>
@@ -3910,7 +3915,7 @@
       </c>
       <c r="O30" s="127"/>
     </row>
-    <row r="31" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B31" s="22">
         <v>1991</v>
       </c>
@@ -3936,7 +3941,7 @@
         <v>9156.5734834015293</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B32" s="65">
         <v>1990</v>
       </c>
@@ -3962,7 +3967,7 @@
         <v>8492.7372614038886</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B33" s="66">
         <v>1989</v>
       </c>
@@ -3988,7 +3993,7 @@
         <v>12685.37464874215</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="66">
         <v>1988</v>
       </c>
@@ -4014,7 +4019,7 @@
         <v>9857.0879070413866</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B35" s="66">
         <v>1987</v>
       </c>
@@ -4037,7 +4042,7 @@
       </c>
       <c r="O35" s="55"/>
     </row>
-    <row r="36" spans="2:15" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B36" s="66">
         <v>1986</v>
       </c>
@@ -4060,7 +4065,7 @@
       </c>
       <c r="O36" s="73"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B37" s="66">
         <v>1985</v>
       </c>
@@ -4081,7 +4086,7 @@
       <c r="N37" s="54"/>
       <c r="O37" s="72"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B38" s="66">
         <v>1984</v>
       </c>
@@ -4102,7 +4107,7 @@
       <c r="N38" s="54"/>
       <c r="O38" s="74"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B39" s="67">
         <v>1983</v>
       </c>
@@ -4123,7 +4128,7 @@
       <c r="N39" s="54"/>
       <c r="O39" s="74"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B40" s="21">
         <v>1982</v>
       </c>
@@ -4144,7 +4149,7 @@
       <c r="N40" s="54"/>
       <c r="O40" s="73"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B41" s="21">
         <v>1981</v>
       </c>
@@ -4165,7 +4170,7 @@
       <c r="N41" s="54"/>
       <c r="O41" s="55"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B42" s="21">
         <v>1980</v>
       </c>
@@ -4184,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B43" s="21">
         <v>1979</v>
       </c>
@@ -4203,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B44" s="21">
         <v>1978</v>
       </c>
@@ -4222,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
         <v>1977</v>
       </c>
@@ -4241,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B46" s="2">
         <v>1976</v>
       </c>
@@ -4260,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B47" s="2">
         <v>1975</v>
       </c>
@@ -4279,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B48" s="2">
         <v>1974</v>
       </c>
@@ -4298,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" s="2">
         <v>1973</v>
       </c>
@@ -4317,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B50" s="2">
         <v>1972</v>
       </c>
@@ -4336,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51" s="2">
         <v>1971</v>
       </c>
@@ -4355,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B52" s="2">
         <v>1970</v>
       </c>
@@ -4374,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="2">
         <v>1969</v>
       </c>
@@ -4393,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="2">
         <v>1968</v>
       </c>
@@ -4412,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B55" s="2">
         <v>1967</v>
       </c>
@@ -4431,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B56" s="2">
         <v>1966</v>
       </c>
@@ -4450,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B57" s="2">
         <v>1965</v>
       </c>
@@ -4469,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
         <v>1964</v>
       </c>
@@ -4488,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
         <v>1963</v>
       </c>
@@ -4507,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
         <v>1962</v>
       </c>
@@ -4526,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
         <v>1961</v>
       </c>
@@ -4545,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B62" s="25">
         <v>1960</v>
       </c>
@@ -4575,37 +4580,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF3058D-9527-44EF-BE25-5C09CA35E4DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="I18" workbookViewId="0">
+    <sheetView topLeftCell="H2" workbookViewId="0">
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="2"/>
-    <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="5" customWidth="1"/>
     <col min="5" max="5" width="11" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="1"/>
-    <col min="9" max="9" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.85546875" style="1"/>
-    <col min="13" max="13" width="49.5703125" style="1" customWidth="1"/>
-    <col min="14" max="16" width="10.85546875" style="1"/>
-    <col min="17" max="17" width="43.85546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.85546875" style="1"/>
+    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="49.5" style="1" customWidth="1"/>
+    <col min="14" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="43.83203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
@@ -4628,7 +4633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="61">
         <v>2024</v>
       </c>
@@ -4662,7 +4667,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B4" s="62">
         <v>2023</v>
       </c>
@@ -4700,7 +4705,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B5" s="62">
         <v>2022</v>
       </c>
@@ -4740,7 +4745,7 @@
         <v>195896.08910819629</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B6" s="62">
         <v>2021</v>
       </c>
@@ -4780,7 +4785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B7" s="62">
         <v>2020</v>
       </c>
@@ -4819,7 +4824,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" s="62">
         <v>2019</v>
       </c>
@@ -4860,7 +4865,7 @@
         <v>407.95360556781873</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="62">
         <v>2018</v>
       </c>
@@ -4899,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="62">
         <v>2017</v>
       </c>
@@ -4939,7 +4944,7 @@
         <v>407.95360556781873</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="62">
         <v>2016</v>
       </c>
@@ -4972,7 +4977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B12" s="62">
         <v>2015</v>
       </c>
@@ -4999,7 +5004,7 @@
       </c>
       <c r="Q12" s="116"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B13" s="62">
         <v>2014</v>
       </c>
@@ -5028,7 +5033,7 @@
         <v>13990.611147342344</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B14" s="62">
         <v>2013</v>
       </c>
@@ -5053,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="62">
         <v>2012</v>
       </c>
@@ -5082,7 +5087,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="62">
         <v>2011</v>
       </c>
@@ -5111,7 +5116,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B17" s="62">
         <v>2010</v>
       </c>
@@ -5135,7 +5140,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="62">
         <v>2009</v>
       </c>
@@ -5158,7 +5163,7 @@
       </c>
       <c r="N18" s="126"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B19" s="62">
         <v>2008</v>
       </c>
@@ -5181,7 +5186,7 @@
       </c>
       <c r="N19" s="32"/>
     </row>
-    <row r="20" spans="2:17" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B20" s="62">
         <v>2007</v>
       </c>
@@ -5204,7 +5209,7 @@
       </c>
       <c r="N20" s="33"/>
     </row>
-    <row r="21" spans="2:17" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B21" s="62">
         <v>2006</v>
       </c>
@@ -5225,7 +5230,7 @@
       <c r="M21" s="12"/>
       <c r="N21" s="28"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B22" s="62">
         <v>2005</v>
       </c>
@@ -5248,7 +5253,7 @@
       </c>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B23" s="62">
         <v>2004</v>
       </c>
@@ -5271,7 +5276,7 @@
       </c>
       <c r="N23" s="42"/>
     </row>
-    <row r="24" spans="2:17" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B24" s="62">
         <v>2003</v>
       </c>
@@ -5292,7 +5297,7 @@
       <c r="M24" s="12"/>
       <c r="N24" s="28"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B25" s="62">
         <v>2002</v>
       </c>
@@ -5315,7 +5320,7 @@
       </c>
       <c r="N25" s="44"/>
     </row>
-    <row r="26" spans="2:17" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B26" s="62">
         <v>2001</v>
       </c>
@@ -5336,7 +5341,7 @@
       <c r="M26" s="12"/>
       <c r="N26" s="28"/>
     </row>
-    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="62">
         <v>2000</v>
       </c>
@@ -5359,7 +5364,7 @@
       </c>
       <c r="N27" s="57"/>
     </row>
-    <row r="28" spans="2:17" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B28" s="62">
         <v>1999</v>
       </c>
@@ -5380,7 +5385,7 @@
       <c r="M28" s="54"/>
       <c r="N28" s="55"/>
     </row>
-    <row r="29" spans="2:17" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B29" s="63">
         <v>1998</v>
       </c>
@@ -5399,7 +5404,7 @@
         <v>61432.518639727467</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="22">
         <v>1997</v>
       </c>
@@ -5422,7 +5427,7 @@
       </c>
       <c r="N30" s="127"/>
     </row>
-    <row r="31" spans="2:17" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B31" s="22">
         <v>1996</v>
       </c>
@@ -5448,7 +5453,7 @@
         <v>8492.7372614038886</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B32" s="22">
         <v>1995</v>
       </c>
@@ -5474,7 +5479,7 @@
         <v>12685.37464874215</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="22">
         <v>1994</v>
       </c>
@@ -5500,7 +5505,7 @@
         <v>7236.0922722870691</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B34" s="22">
         <v>1993</v>
       </c>
@@ -5523,7 +5528,7 @@
       </c>
       <c r="N34" s="55"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35" s="22">
         <v>1992</v>
       </c>
@@ -5546,7 +5551,7 @@
       </c>
       <c r="N35" s="73"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36" s="22">
         <v>1991</v>
       </c>
@@ -5565,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37" s="61">
         <v>1990</v>
       </c>
@@ -5584,7 +5589,7 @@
         <v>60887.771708566332</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38" s="62">
         <v>1989</v>
       </c>
@@ -5603,7 +5608,7 @@
         <v>62487.200789604387</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39" s="62">
         <v>1988</v>
       </c>
@@ -5622,7 +5627,7 @@
         <v>58940.739708790381</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B40" s="62">
         <v>1987</v>
       </c>
@@ -5641,7 +5646,7 @@
         <v>59110.242489652272</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41" s="62">
         <v>1986</v>
       </c>
@@ -5660,7 +5665,7 @@
         <v>56939.788273235361</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42" s="62">
         <v>1985</v>
       </c>
@@ -5679,7 +5684,7 @@
         <v>55719.649953094602</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B43" s="67">
         <v>1984</v>
       </c>
@@ -5698,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B44" s="21">
         <v>1983</v>
       </c>
@@ -5717,7 +5722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45" s="21">
         <v>1982</v>
       </c>
@@ -5736,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B46" s="21">
         <v>1981</v>
       </c>
@@ -5755,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B47" s="21">
         <v>1980</v>
       </c>
@@ -5774,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B48" s="21">
         <v>1979</v>
       </c>
@@ -5793,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" s="21">
         <v>1978</v>
       </c>
@@ -5812,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B50" s="2">
         <v>1977</v>
       </c>
@@ -5831,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51" s="2">
         <v>1976</v>
       </c>
@@ -5850,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B52" s="2">
         <v>1975</v>
       </c>
@@ -5869,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="2">
         <v>1974</v>
       </c>
@@ -5888,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="2">
         <v>1973</v>
       </c>
@@ -5907,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B55" s="2">
         <v>1972</v>
       </c>
@@ -5926,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B56" s="2">
         <v>1971</v>
       </c>
@@ -5945,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B57" s="2">
         <v>1970</v>
       </c>
@@ -5964,7 +5969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
         <v>1969</v>
       </c>
@@ -5983,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
         <v>1968</v>
       </c>
@@ -6002,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
         <v>1967</v>
       </c>
@@ -6021,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
         <v>1966</v>
       </c>
@@ -6040,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B62" s="2">
         <v>1965</v>
       </c>
@@ -6059,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B63" s="2">
         <v>1964</v>
       </c>
@@ -6078,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B64" s="2">
         <v>1963</v>
       </c>
@@ -6097,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="2">
         <v>1962</v>
       </c>
@@ -6116,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="2">
         <v>1961</v>
       </c>
@@ -6135,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B67" s="25">
         <v>1960</v>
       </c>
@@ -6161,35 +6166,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D06BBD0-3540-47FD-9C64-4AC625E42B0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="2"/>
-    <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="5"/>
-    <col min="5" max="5" width="10.85546875" style="6"/>
-    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.85546875" style="1"/>
-    <col min="13" max="13" width="48.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="10.83203125" style="6"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="48.83203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
@@ -6230,7 +6235,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="101">
         <v>2019</v>
       </c>
@@ -6272,7 +6277,7 @@
         <v>57400</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B4" s="102">
         <v>2018</v>
       </c>
@@ -6296,7 +6301,7 @@
       </c>
       <c r="J4" s="27">
         <f>N34</f>
-        <v>26871.263999999999</v>
+        <v>22392.720000000001</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>14</v>
@@ -6318,7 +6323,7 @@
         <v>55863.746958637465</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B5" s="102">
         <v>2017</v>
       </c>
@@ -6364,7 +6369,7 @@
         <v>54368.610178722593</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B6" s="102">
         <v>2016</v>
       </c>
@@ -6409,7 +6414,7 @@
         <v>52913.489225034151</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B7" s="102">
         <v>2015</v>
       </c>
@@ -6454,7 +6459,7 @@
         <v>51497.313114388468</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B8" s="102">
         <v>2014</v>
       </c>
@@ -6503,7 +6508,7 @@
         <v>50119.039527385365</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="102">
         <v>2013</v>
       </c>
@@ -6549,7 +6554,7 @@
         <v>48777.654041250957</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B10" s="102">
         <v>2012</v>
       </c>
@@ -6573,7 +6578,7 @@
       </c>
       <c r="J10" s="70">
         <f>SUM(J4:J5)</f>
-        <v>35403.609452032804</v>
+        <v>30925.065452032806</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>23</v>
@@ -6596,7 +6601,7 @@
         <v>47472.169383212604</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="102">
         <v>2011</v>
       </c>
@@ -6620,7 +6625,7 @@
       </c>
       <c r="J11" s="17">
         <f>J10/D3</f>
-        <v>0.72606405635718718</v>
+        <v>0.63421721154268385</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>24</v>
@@ -6643,7 +6648,7 @@
         <v>46201.624703856542</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B12" s="102">
         <v>2010</v>
       </c>
@@ -6683,7 +6688,7 @@
         <v>44965.084869933373</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B13" s="102">
         <v>2009</v>
       </c>
@@ -6726,7 +6731,7 @@
         <v>43761.639776090873</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B14" s="102">
         <v>2008</v>
       </c>
@@ -6769,7 +6774,7 @@
         <v>42590.403675027614</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="102">
         <v>2007</v>
       </c>
@@ -6809,7 +6814,7 @@
         <v>41450.514525574319</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="102">
         <v>2006</v>
       </c>
@@ -6852,7 +6857,7 @@
         <v>40341.133358223182</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B17" s="102">
         <v>2005</v>
       </c>
@@ -6891,7 +6896,7 @@
         <v>39261.443657638127</v>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="102">
         <v>2004</v>
       </c>
@@ -6928,7 +6933,7 @@
         <v>38210.650761691606</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B19" s="102">
         <v>2003</v>
       </c>
@@ -6965,7 +6970,7 @@
         <v>37187.981276585502</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B20" s="102">
         <v>2002</v>
       </c>
@@ -7003,7 +7008,7 @@
         <v>36192.682507625788</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B21" s="102">
         <v>2001</v>
       </c>
@@ -7038,7 +7043,7 @@
         <v>35224.021905231908</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B22" s="102">
         <v>2000</v>
       </c>
@@ -7075,7 +7080,7 @@
         <v>34281.286525773146</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B23" s="106">
         <v>1999</v>
       </c>
@@ -7115,7 +7120,7 @@
         <v>33363.782506835174</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B24" s="106">
         <v>1998</v>
       </c>
@@ -7153,7 +7158,7 @@
         <v>32470.834556530579</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B25" s="106">
         <v>1997</v>
       </c>
@@ -7193,7 +7198,7 @@
         <v>31601.785456477446</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B26" s="106">
         <v>1996</v>
       </c>
@@ -7231,7 +7236,7 @@
         <v>30755.995578080237</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="106">
         <v>1995</v>
       </c>
@@ -7271,7 +7276,7 @@
         <v>29932.842411756919</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B28" s="106">
         <v>1994</v>
       </c>
@@ -7307,7 +7312,7 @@
         <v>29131.720108765858</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B29" s="106">
         <v>1993</v>
       </c>
@@ -7345,7 +7350,7 @@
         <v>28352.039035295238</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="106">
         <v>1992</v>
       </c>
@@ -7385,7 +7390,7 @@
         <v>27593.225338486849</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B31" s="106">
         <v>1991</v>
       </c>
@@ -7428,7 +7433,7 @@
         <v>26854.72052407479</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B32" s="106">
         <v>1990</v>
       </c>
@@ -7454,8 +7459,8 @@
         <v>44</v>
       </c>
       <c r="N32" s="92">
-        <f>60-18</f>
-        <v>42</v>
+        <f>60-25</f>
+        <v>35</v>
       </c>
       <c r="P32" s="22">
         <v>1990</v>
@@ -7471,7 +7476,7 @@
         <v>26135.981045328259</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B33" s="106">
         <v>1989</v>
       </c>
@@ -7520,7 +7525,7 @@
         <v>25436.47790299587</v>
       </c>
     </row>
-    <row r="34" spans="2:19" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="106">
         <v>1988</v>
       </c>
@@ -7550,7 +7555,7 @@
       </c>
       <c r="N34" s="80">
         <f>N31*N32*N33</f>
-        <v>26871.263999999999</v>
+        <v>22392.720000000001</v>
       </c>
       <c r="P34" s="22">
         <v>1988</v>
@@ -7566,7 +7571,7 @@
         <v>24755.696255957049</v>
       </c>
     </row>
-    <row r="35" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B35" s="106">
         <v>1987</v>
       </c>
@@ -7604,7 +7609,7 @@
         <v>24093.135042293965</v>
       </c>
     </row>
-    <row r="36" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B36" s="106">
         <v>1986</v>
       </c>
@@ -7642,7 +7647,7 @@
         <v>23448.306610505075</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B37" s="106">
         <v>1985</v>
       </c>
@@ -7678,7 +7683,7 @@
         <v>22820.736360588879</v>
       </c>
     </row>
-    <row r="38" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="103">
         <v>1984</v>
       </c>
@@ -7714,7 +7719,7 @@
         <v>22209.962394733699</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B39" s="104">
         <v>1983</v>
       </c>
@@ -7753,7 +7758,7 @@
         <v>21615.535177356396</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B40" s="104">
         <v>1982</v>
       </c>
@@ -7793,7 +7798,7 @@
         <v>21037.017204239801</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B41" s="104">
         <v>1981</v>
       </c>
@@ -7833,7 +7838,7 @@
         <v>20473.982680525351</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B42" s="104">
         <v>1980</v>
       </c>
@@ -7872,7 +7877,7 @@
         <v>19926.017207323941</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B43" s="104">
         <v>1979</v>
       </c>
@@ -7912,7 +7917,7 @@
         <v>19392.717476714297</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B44" s="105">
         <v>1978</v>
       </c>
@@ -7952,7 +7957,7 @@
         <v>18873.690974904424</v>
       </c>
     </row>
-    <row r="45" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
         <v>1977</v>
       </c>
@@ -7992,7 +7997,7 @@
         <v>18368.555693337639</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B46" s="2">
         <v>1976</v>
       </c>
@@ -8025,7 +8030,7 @@
         <v>17876.939847530546</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B47" s="2">
         <v>1975</v>
       </c>
@@ -8059,7 +8064,7 @@
         <v>17398.481603436052</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B48" s="2">
         <v>1974</v>
       </c>
@@ -8092,7 +8097,7 @@
         <v>16932.828811129977</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B49" s="2">
         <v>1973</v>
       </c>
@@ -8125,7 +8130,7 @@
         <v>16479.638745625281</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B50" s="2">
         <v>1972</v>
       </c>
@@ -8159,7 +8164,7 @@
         <v>16038.577854623143</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B51" s="2">
         <v>1971</v>
       </c>
@@ -8192,7 +8197,7 @@
         <v>15609.321513015224</v>
       </c>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B52" s="2">
         <v>1970</v>
       </c>
@@ -8225,7 +8230,7 @@
         <v>15191.55378395642</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B53" s="2">
         <v>1969</v>
       </c>
@@ -8258,7 +8263,7 @@
         <v>14784.967186332282</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B54" s="2">
         <v>1968</v>
       </c>
@@ -8291,7 +8296,7 @@
         <v>14389.262468449908</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B55" s="2">
         <v>1967</v>
       </c>
@@ -8324,7 +8329,7 @@
         <v>14004.148387785797</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B56" s="2">
         <v>1966</v>
       </c>
@@ -8357,7 +8362,7 @@
         <v>13629.341496628513</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B57" s="2">
         <v>1965</v>
       </c>
@@ -8390,7 +8395,7 @@
         <v>13264.565933458405</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
         <v>1964</v>
       </c>
@@ -8423,7 +8428,7 @@
         <v>12909.553219910855</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
         <v>1963</v>
       </c>
@@ -8456,7 +8461,7 @@
         <v>12564.04206317358</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
         <v>1962</v>
       </c>
@@ -8489,7 +8494,7 @@
         <v>12227.778163672583</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
         <v>1961</v>
       </c>
@@ -8522,7 +8527,7 @@
         <v>11900.51402790519</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B62" s="2">
         <v>1960</v>
       </c>
